--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UnityHank\UnityHank\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A27B5-0796-450B-9B8B-2880F7CA8557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073283F-9BED-4130-B317-017A70F8B333}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="文本" sheetId="1" r:id="rId4"/>
     <sheet name="图片" sheetId="4" r:id="rId5"/>
     <sheet name="动画" sheetId="7" r:id="rId6"/>
-    <sheet name="音频" sheetId="12" r:id="rId7"/>
+    <sheet name="音频" sheetId="13" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">页面统计!$A$1:$H$30</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="413">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2494,12 +2494,45 @@
     <t>********世界地图页音效********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>guide_homepage_001</t>
+  </si>
+  <si>
+    <t>guide_homepage_002</t>
+  </si>
+  <si>
+    <t>guide_homepage_003</t>
+  </si>
+  <si>
+    <t>guide_homepage_004</t>
+  </si>
+  <si>
+    <t>guide_homepage_005</t>
+  </si>
+  <si>
+    <t>guide_homepage_006</t>
+  </si>
+  <si>
+    <t>guide_homepage_007</t>
+  </si>
+  <si>
+    <t>guide_homepage_008</t>
+  </si>
+  <si>
+    <t>guide_homepage_009</t>
+  </si>
+  <si>
+    <t>guide_homepage_010</t>
+  </si>
+  <si>
+    <t>guide_homepage_011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2668,6 +2701,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2749,7 +2789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2787,11 +2827,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2964,17 +3019,8 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2985,142 +3031,49 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="35">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3730,80 +3683,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表1_6" displayName="表1_6" ref="A2:E1048567" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A2:E1048567" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Key" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Chinese Simplified" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Chinese Traditonal" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="English" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Japanese" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4121,7 +4060,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4137,7 +4076,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4090,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4165,7 +4104,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4179,7 +4118,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4132,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -4207,7 +4146,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -4221,7 +4160,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -4235,7 +4174,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -4249,7 +4188,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -4263,7 +4202,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -4277,7 +4216,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -4291,7 +4230,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
@@ -4307,7 +4246,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -4471,7 +4410,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="60" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -4491,7 +4430,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
@@ -4507,7 +4446,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
@@ -4779,12 +4718,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5238,12 +5177,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5308,7 +5247,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -5400,7 +5339,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5411,12 +5350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5626,3657 +5565,4072 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF947AC-89FA-4CC2-B72C-B72AB83DE7D9}">
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="54" customWidth="1"/>
-    <col min="2" max="5" width="30.625" style="44" customWidth="1"/>
-    <col min="6" max="10" width="9" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="36.875" style="64" customWidth="1"/>
+    <col min="2" max="5" width="30.625" style="64" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B1" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="67" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="44" t="str">
+      <c r="B4" s="64" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_CHS"</f>
         <v>NoviceGuide/NoviceGuide_CHS</v>
       </c>
-      <c r="C4" s="44" t="str">
+      <c r="C4" s="64" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_CHT"</f>
         <v>NoviceGuide/NoviceGuide_CHT</v>
       </c>
-      <c r="D4" s="44" t="str">
+      <c r="D4" s="64" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_EN"</f>
         <v>NoviceGuide/NoviceGuide_EN</v>
       </c>
-      <c r="E4" s="44" t="str">
+      <c r="E4" s="64" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_JP"</f>
         <v>NoviceGuide/NoviceGuide_JP</v>
       </c>
-      <c r="G4" s="44" t="str">
+      <c r="G4" s="62" t="str">
         <f>IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_CHS" /&gt;</v>
       </c>
-      <c r="H4" s="44" t="str">
+      <c r="H4" s="62" t="str">
         <f>IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_CHT" /&gt;</v>
       </c>
-      <c r="I4" s="44" t="str">
+      <c r="I4" s="62" t="str">
         <f>IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_EN" /&gt;</v>
       </c>
-      <c r="J4" s="44" t="str">
+      <c r="J4" s="62" t="str">
         <f>IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_JP" /&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="44" t="str">
+      <c r="B5" s="64" t="str">
         <f>"NoviceGuide/CHS/"&amp;A5</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="C5" s="44" t="str">
+      <c r="C5" s="64" t="str">
         <f>"NoviceGuide/CHS/"&amp;A5</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="D5" s="44" t="str">
+      <c r="D5" s="64" t="str">
         <f>"NoviceGuide/EN/"&amp;A5</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="E5" s="44" t="str">
+      <c r="E5" s="64" t="str">
         <f>"NoviceGuide/JP/"&amp;A5</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="G5" s="44" t="str">
-        <f t="shared" ref="G5:G48" si="0">IF(AND(A5&lt;&gt;"",B5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;B5&amp;""" /&gt;","")</f>
+      <c r="G5" s="62" t="str">
+        <f t="shared" ref="G5:G70" si="0">IF(AND(A5&lt;&gt;"",B5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;B5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="H5" s="44" t="str">
-        <f t="shared" ref="H5:H48" si="1">IF(AND(A5&lt;&gt;"",C5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;C5&amp;""" /&gt;","")</f>
+      <c r="H5" s="62" t="str">
+        <f t="shared" ref="H5:H70" si="1">IF(AND(A5&lt;&gt;"",C5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;C5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="I5" s="44" t="str">
-        <f t="shared" ref="I5:I48" si="2">IF(AND(A5&lt;&gt;"",D5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;D5&amp;""" /&gt;","")</f>
+      <c r="I5" s="62" t="str">
+        <f t="shared" ref="I5:I70" si="2">IF(AND(A5&lt;&gt;"",D5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;D5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/EN/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="J5" s="44" t="str">
-        <f t="shared" ref="J5:J48" si="3">IF(AND(A5&lt;&gt;"",E5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;E5&amp;""" /&gt;","")</f>
+      <c r="J5" s="62" t="str">
+        <f t="shared" ref="J5:J70" si="3">IF(AND(A5&lt;&gt;"",E5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;E5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/JP/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="44" t="str">
+      <c r="B6" s="64" t="str">
         <f>"NoviceGuide/CHS/"&amp;A6</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1</v>
       </c>
-      <c r="C6" s="44" t="str">
+      <c r="C6" s="64" t="str">
         <f>"NoviceGuide/CHS/"&amp;A6</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1</v>
       </c>
-      <c r="D6" s="44" t="str">
+      <c r="D6" s="64" t="str">
         <f>"NoviceGuide/EN/"&amp;A6</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.1</v>
       </c>
-      <c r="E6" s="44" t="str">
+      <c r="E6" s="64" t="str">
         <f>"NoviceGuide/JP/"&amp;A6</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.1</v>
       </c>
-      <c r="G6" s="44" t="str">
+      <c r="G6" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="H6" s="44" t="str">
+      <c r="H6" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="I6" s="44" t="str">
+      <c r="I6" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/EN/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="J6" s="44" t="str">
+      <c r="J6" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/JP/guide_1_welcome_1.1" /&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="44" t="str">
+      <c r="B7" s="64" t="str">
         <f t="shared" ref="B7:B28" si="4">"NoviceGuide/CHS/"&amp;A7</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.2</v>
       </c>
-      <c r="C7" s="44" t="str">
+      <c r="C7" s="64" t="str">
         <f t="shared" ref="C7:C28" si="5">"NoviceGuide/CHS/"&amp;A7</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.2</v>
       </c>
-      <c r="D7" s="44" t="str">
+      <c r="D7" s="64" t="str">
         <f t="shared" ref="D7:D28" si="6">"NoviceGuide/EN/"&amp;A7</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.2</v>
       </c>
-      <c r="E7" s="44" t="str">
+      <c r="E7" s="64" t="str">
         <f t="shared" ref="E7:E28" si="7">"NoviceGuide/JP/"&amp;A7</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.2</v>
       </c>
-      <c r="G7" s="44" t="str">
+      <c r="G7" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/CHS/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="H7" s="44" t="str">
+      <c r="H7" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/CHS/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="I7" s="44" t="str">
+      <c r="I7" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/EN/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="J7" s="44" t="str">
+      <c r="J7" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/JP/guide_1_welcome_1.2" /&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="44" t="str">
+      <c r="B8" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="C8" s="44" t="str">
+      <c r="C8" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="D8" s="44" t="str">
+      <c r="D8" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="G8" s="44" t="str">
+      <c r="G8" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="H8" s="44" t="str">
+      <c r="H8" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="I8" s="44" t="str">
+      <c r="I8" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/EN/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="J8" s="44" t="str">
+      <c r="J8" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/JP/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="44" t="str">
+      <c r="B9" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="C9" s="44" t="str">
+      <c r="C9" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="D9" s="44" t="str">
+      <c r="D9" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="G9" s="44" t="str">
+      <c r="G9" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="H9" s="44" t="str">
+      <c r="H9" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="I9" s="44" t="str">
+      <c r="I9" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/EN/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="J9" s="44" t="str">
+      <c r="J9" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/JP/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="44" t="str">
+      <c r="B10" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.2</v>
       </c>
-      <c r="C10" s="44" t="str">
+      <c r="C10" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.2</v>
       </c>
-      <c r="D10" s="44" t="str">
+      <c r="D10" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.2</v>
       </c>
-      <c r="E10" s="44" t="str">
+      <c r="E10" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.2</v>
       </c>
-      <c r="G10" s="44" t="str">
+      <c r="G10" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="H10" s="44" t="str">
+      <c r="H10" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="I10" s="44" t="str">
+      <c r="I10" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/EN/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="J10" s="44" t="str">
+      <c r="J10" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/JP/guide_2_qrcode_2.2" /&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="44" t="str">
+      <c r="B11" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_3_qrcode_3</v>
       </c>
-      <c r="C11" s="44" t="str">
+      <c r="C11" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_3_qrcode_3</v>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_3_qrcode_3</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_3_qrcode_3</v>
       </c>
-      <c r="G11" s="44" t="str">
+      <c r="G11" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/CHS/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="H11" s="44" t="str">
+      <c r="H11" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/CHS/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="I11" s="44" t="str">
+      <c r="I11" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/EN/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="J11" s="44" t="str">
+      <c r="J11" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/JP/guide_3_qrcode_3" /&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="C12" s="44" t="str">
+      <c r="C12" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="D12" s="44" t="str">
+      <c r="D12" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="G12" s="44" t="str">
+      <c r="G12" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="H12" s="44" t="str">
+      <c r="H12" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="I12" s="44" t="str">
+      <c r="I12" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/EN/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="J12" s="44" t="str">
+      <c r="J12" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/JP/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="C13" s="44" t="str">
+      <c r="C13" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="D13" s="44" t="str">
+      <c r="D13" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="G13" s="44" t="str">
+      <c r="G13" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="H13" s="44" t="str">
+      <c r="H13" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="I13" s="44" t="str">
+      <c r="I13" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/EN/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="J13" s="44" t="str">
+      <c r="J13" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/JP/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.1</v>
       </c>
-      <c r="C14" s="44" t="str">
+      <c r="C14" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.1</v>
       </c>
-      <c r="D14" s="44" t="str">
+      <c r="D14" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.1.1</v>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.1.1</v>
       </c>
-      <c r="G14" s="44" t="str">
+      <c r="G14" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/CHS/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="H14" s="44" t="str">
+      <c r="H14" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/CHS/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="I14" s="44" t="str">
+      <c r="I14" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/EN/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="J14" s="44" t="str">
+      <c r="J14" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/JP/guide_5_game_5.1.1" /&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="44" t="str">
+      <c r="B15" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.2</v>
       </c>
-      <c r="C15" s="44" t="str">
+      <c r="C15" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.2</v>
       </c>
-      <c r="D15" s="44" t="str">
+      <c r="D15" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.1.2</v>
       </c>
-      <c r="E15" s="44" t="str">
+      <c r="E15" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.1.2</v>
       </c>
-      <c r="G15" s="44" t="str">
+      <c r="G15" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/CHS/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="H15" s="44" t="str">
+      <c r="H15" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/CHS/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="I15" s="44" t="str">
+      <c r="I15" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/EN/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="J15" s="44" t="str">
+      <c r="J15" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/JP/guide_5_game_5.1.2" /&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.1</v>
       </c>
-      <c r="C16" s="44" t="str">
+      <c r="C16" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.1</v>
       </c>
-      <c r="D16" s="44" t="str">
+      <c r="D16" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.3.1</v>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E16" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.3.1</v>
       </c>
-      <c r="G16" s="44" t="str">
+      <c r="G16" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/CHS/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="H16" s="44" t="str">
+      <c r="H16" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/CHS/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="I16" s="44" t="str">
+      <c r="I16" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/EN/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="J16" s="44" t="str">
+      <c r="J16" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/JP/guide_5_game_5.3.1" /&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="44" t="str">
+      <c r="B17" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.2</v>
       </c>
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.2</v>
       </c>
-      <c r="D17" s="44" t="str">
+      <c r="D17" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.3.2</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.3.2</v>
       </c>
-      <c r="G17" s="44" t="str">
+      <c r="G17" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/CHS/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="H17" s="44" t="str">
+      <c r="H17" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/CHS/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="I17" s="44" t="str">
+      <c r="I17" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/EN/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="J17" s="44" t="str">
+      <c r="J17" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/JP/guide_5_game_5.3.2" /&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.1</v>
       </c>
-      <c r="C18" s="44" t="str">
+      <c r="C18" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.1</v>
       </c>
-      <c r="D18" s="44" t="str">
+      <c r="D18" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.1</v>
       </c>
-      <c r="E18" s="44" t="str">
+      <c r="E18" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.1</v>
       </c>
-      <c r="G18" s="44" t="str">
+      <c r="G18" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/CHS/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="H18" s="44" t="str">
+      <c r="H18" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/CHS/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="I18" s="44" t="str">
+      <c r="I18" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/EN/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="J18" s="44" t="str">
+      <c r="J18" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/JP/guide_5_game_5.4.1" /&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="44" t="str">
+      <c r="B19" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.2</v>
       </c>
-      <c r="C19" s="44" t="str">
+      <c r="C19" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.2</v>
       </c>
-      <c r="D19" s="44" t="str">
+      <c r="D19" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.2</v>
       </c>
-      <c r="E19" s="44" t="str">
+      <c r="E19" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.2</v>
       </c>
-      <c r="G19" s="44" t="str">
+      <c r="G19" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/CHS/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="H19" s="44" t="str">
+      <c r="H19" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/CHS/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="I19" s="44" t="str">
+      <c r="I19" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/EN/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="J19" s="44" t="str">
+      <c r="J19" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/JP/guide_5_game_5.4.2" /&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.3</v>
       </c>
-      <c r="C20" s="44" t="str">
+      <c r="C20" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.3</v>
       </c>
-      <c r="D20" s="44" t="str">
+      <c r="D20" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.3</v>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.3</v>
       </c>
-      <c r="G20" s="44" t="str">
+      <c r="G20" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/CHS/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="H20" s="44" t="str">
+      <c r="H20" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/CHS/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="I20" s="44" t="str">
+      <c r="I20" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/EN/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="J20" s="44" t="str">
+      <c r="J20" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/JP/guide_5_game_5.4.3" /&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.1</v>
       </c>
-      <c r="C21" s="44" t="str">
+      <c r="C21" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.1</v>
       </c>
-      <c r="D21" s="44" t="str">
+      <c r="D21" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.5.1</v>
       </c>
-      <c r="E21" s="44" t="str">
+      <c r="E21" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.5.1</v>
       </c>
-      <c r="G21" s="44" t="str">
+      <c r="G21" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/CHS/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="H21" s="44" t="str">
+      <c r="H21" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/CHS/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="I21" s="44" t="str">
+      <c r="I21" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/EN/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="J21" s="44" t="str">
+      <c r="J21" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/JP/guide_5_game_5.5.1" /&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.2</v>
       </c>
-      <c r="C22" s="44" t="str">
+      <c r="C22" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.2</v>
       </c>
-      <c r="D22" s="44" t="str">
+      <c r="D22" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.5.2</v>
       </c>
-      <c r="E22" s="44" t="str">
+      <c r="E22" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.5.2</v>
       </c>
-      <c r="G22" s="44" t="str">
+      <c r="G22" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/CHS/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="H22" s="44" t="str">
+      <c r="H22" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/CHS/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="I22" s="44" t="str">
+      <c r="I22" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/EN/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="J22" s="44" t="str">
+      <c r="J22" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/JP/guide_5_game_5.5.2" /&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="54" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="C23" s="44" t="str">
+      <c r="C23" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="D23" s="44" t="str">
+      <c r="D23" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="E23" s="44" t="str">
+      <c r="E23" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="G23" s="44" t="str">
+      <c r="G23" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="H23" s="44" t="str">
+      <c r="H23" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="I23" s="44" t="str">
+      <c r="I23" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/EN/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="J23" s="44" t="str">
+      <c r="J23" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/JP/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="44" t="str">
+      <c r="B24" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="C24" s="44" t="str">
+      <c r="C24" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="D24" s="44" t="str">
+      <c r="D24" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="E24" s="44" t="str">
+      <c r="E24" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="G24" s="44" t="str">
+      <c r="G24" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="H24" s="44" t="str">
+      <c r="H24" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="I24" s="44" t="str">
+      <c r="I24" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/EN/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="J24" s="44" t="str">
+      <c r="J24" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/JP/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="44" t="str">
+      <c r="B25" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.7</v>
       </c>
-      <c r="C25" s="44" t="str">
+      <c r="C25" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.7</v>
       </c>
-      <c r="D25" s="44" t="str">
+      <c r="D25" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.7</v>
       </c>
-      <c r="E25" s="44" t="str">
+      <c r="E25" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.7</v>
       </c>
-      <c r="G25" s="44" t="str">
+      <c r="G25" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/CHS/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="H25" s="44" t="str">
+      <c r="H25" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/CHS/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="I25" s="44" t="str">
+      <c r="I25" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/EN/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="J25" s="44" t="str">
+      <c r="J25" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/JP/guide_6_skill_5.7" /&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.8</v>
       </c>
-      <c r="C26" s="44" t="str">
+      <c r="C26" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.8</v>
       </c>
-      <c r="D26" s="44" t="str">
+      <c r="D26" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.8</v>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.8</v>
       </c>
-      <c r="G26" s="44" t="str">
+      <c r="G26" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/CHS/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="H26" s="44" t="str">
+      <c r="H26" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/CHS/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="I26" s="44" t="str">
+      <c r="I26" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/EN/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="J26" s="44" t="str">
+      <c r="J26" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/JP/guide_6_skill_5.8" /&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="44" t="str">
+      <c r="B27" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.9</v>
       </c>
-      <c r="C27" s="44" t="str">
+      <c r="C27" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.9</v>
       </c>
-      <c r="D27" s="44" t="str">
+      <c r="D27" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.9</v>
       </c>
-      <c r="E27" s="44" t="str">
+      <c r="E27" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.9</v>
       </c>
-      <c r="G27" s="44" t="str">
+      <c r="G27" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/CHS/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="H27" s="44" t="str">
+      <c r="H27" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/CHS/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="I27" s="44" t="str">
+      <c r="I27" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/EN/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="J27" s="44" t="str">
+      <c r="J27" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/JP/guide_6_skill_5.9" /&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="44" t="str">
+      <c r="B28" s="64" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_7_complete_510</v>
       </c>
-      <c r="C28" s="44" t="str">
+      <c r="C28" s="64" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_7_complete_510</v>
       </c>
-      <c r="D28" s="44" t="str">
+      <c r="D28" s="64" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_7_complete_510</v>
       </c>
-      <c r="E28" s="44" t="str">
+      <c r="E28" s="64" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_7_complete_510</v>
       </c>
-      <c r="G28" s="44" t="str">
+      <c r="G28" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/CHS/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="H28" s="44" t="str">
+      <c r="H28" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/CHS/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="I28" s="44" t="str">
+      <c r="I28" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/EN/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="J28" s="44" t="str">
+      <c r="J28" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/JP/guide_7_complete_510" /&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="44" t="str">
-        <f t="shared" ref="G29:G30" si="8">IF(AND(A29&lt;&gt;"",B29&lt;&gt;""),"&lt;Audio Key="""&amp;A29&amp;""" Value="""&amp;B29&amp;""" /&gt;","")</f>
+      <c r="G29" s="63" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="44" t="str">
-        <f t="shared" ref="H29:H30" si="9">IF(AND(A29&lt;&gt;"",C29&lt;&gt;""),"&lt;Audio Key="""&amp;A29&amp;""" Value="""&amp;C29&amp;""" /&gt;","")</f>
+      <c r="H29" s="63" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="44" t="str">
-        <f t="shared" ref="I29:I30" si="10">IF(AND(A29&lt;&gt;"",D29&lt;&gt;""),"&lt;Audio Key="""&amp;A29&amp;""" Value="""&amp;D29&amp;""" /&gt;","")</f>
+      <c r="I29" s="63" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" s="44" t="str">
-        <f t="shared" ref="J29:J30" si="11">IF(AND(A29&lt;&gt;"",E29&lt;&gt;""),"&lt;Audio Key="""&amp;A29&amp;""" Value="""&amp;E29&amp;""" /&gt;","")</f>
+      <c r="J29" s="63" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="44" t="str">
-        <f t="shared" si="8"/>
+      <c r="G30" s="63" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="44" t="str">
-        <f t="shared" si="9"/>
+      <c r="H30" s="63" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="44" t="str">
-        <f t="shared" si="10"/>
+      <c r="I30" s="63" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="44" t="str">
-        <f t="shared" si="11"/>
+      <c r="J30" s="63" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="64" t="str">
         <f>"CHS/"&amp;A31</f>
         <v>CHS/pair_active_success_cn</v>
       </c>
-      <c r="C31" s="44" t="str">
+      <c r="C31" s="64" t="str">
         <f>"CHS/"&amp;A31</f>
         <v>CHS/pair_active_success_cn</v>
       </c>
-      <c r="D31" s="44" t="str">
+      <c r="D31" s="64" t="str">
         <f>"EN/"&amp;A31</f>
         <v>EN/pair_active_success_cn</v>
       </c>
-      <c r="E31" s="44" t="str">
+      <c r="E31" s="64" t="str">
         <f>"JP/"&amp;A31</f>
         <v>JP/pair_active_success_cn</v>
       </c>
-      <c r="G31" s="44" t="str">
+      <c r="G31" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="H31" s="44" t="str">
+      <c r="H31" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="I31" s="44" t="str">
+      <c r="I31" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="EN/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="J31" s="44" t="str">
+      <c r="J31" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="JP/pair_active_success_cn" /&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="44" t="str">
-        <f t="shared" ref="B32:B37" si="12">"CHS/"&amp;A32</f>
+      <c r="B32" s="64" t="str">
+        <f t="shared" ref="B32:B55" si="8">"CHS/"&amp;A32</f>
         <v>CHS/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="C32" s="44" t="str">
-        <f t="shared" ref="C32:C37" si="13">"CHS/"&amp;A32</f>
+      <c r="C32" s="64" t="str">
+        <f t="shared" ref="C32:C55" si="9">"CHS/"&amp;A32</f>
         <v>CHS/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="D32" s="44" t="str">
-        <f t="shared" ref="D32:D37" si="14">"EN/"&amp;A32</f>
+      <c r="D32" s="64" t="str">
+        <f t="shared" ref="D32:D55" si="10">"EN/"&amp;A32</f>
         <v>EN/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="E32" s="44" t="str">
-        <f t="shared" ref="E32:E37" si="15">"JP/"&amp;A32</f>
+      <c r="E32" s="64" t="str">
+        <f t="shared" ref="E32:E55" si="11">"JP/"&amp;A32</f>
         <v>JP/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="G32" s="44" t="str">
+      <c r="G32" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="CHS/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="H32" s="44" t="str">
+      <c r="H32" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="CHS/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="I32" s="44" t="str">
+      <c r="I32" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="EN/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="J32" s="44" t="str">
+      <c r="J32" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="JP/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="56" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="B33" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="C33" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="C33" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="D33" s="44" t="str">
-        <f t="shared" si="14"/>
+      <c r="D33" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="E33" s="44" t="str">
-        <f t="shared" si="15"/>
+      <c r="E33" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="G33" s="44" t="str">
+      <c r="G33" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="CHS/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="H33" s="44" t="str">
+      <c r="H33" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="CHS/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="I33" s="44" t="str">
+      <c r="I33" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="EN/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="J33" s="44" t="str">
+      <c r="J33" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="JP/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="B34" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="C34" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="C34" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="D34" s="44" t="str">
-        <f t="shared" si="14"/>
+      <c r="D34" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="E34" s="44" t="str">
-        <f t="shared" si="15"/>
+      <c r="E34" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="G34" s="44" t="str">
+      <c r="G34" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="CHS/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="H34" s="44" t="str">
+      <c r="H34" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="CHS/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="I34" s="44" t="str">
+      <c r="I34" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="EN/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="J34" s="44" t="str">
+      <c r="J34" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="JP/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="56" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="44" t="str">
-        <f t="shared" ref="B35" si="16">"CHS/"&amp;A35</f>
+      <c r="B35" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="C35" s="44" t="str">
-        <f t="shared" ref="C35" si="17">"CHS/"&amp;A35</f>
+      <c r="C35" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="D35" s="44" t="str">
-        <f t="shared" ref="D35" si="18">"EN/"&amp;A35</f>
+      <c r="D35" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="E35" s="44" t="str">
-        <f t="shared" ref="E35" si="19">"JP/"&amp;A35</f>
+      <c r="E35" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="G35" s="44" t="str">
-        <f t="shared" ref="G35" si="20">IF(AND(A35&lt;&gt;"",B35&lt;&gt;""),"&lt;Audio Key="""&amp;A35&amp;""" Value="""&amp;B35&amp;""" /&gt;","")</f>
+      <c r="G35" s="62" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="CHS/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="H35" s="44" t="str">
-        <f t="shared" ref="H35" si="21">IF(AND(A35&lt;&gt;"",C35&lt;&gt;""),"&lt;Audio Key="""&amp;A35&amp;""" Value="""&amp;C35&amp;""" /&gt;","")</f>
+      <c r="H35" s="62" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="CHS/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="I35" s="44" t="str">
-        <f t="shared" ref="I35" si="22">IF(AND(A35&lt;&gt;"",D35&lt;&gt;""),"&lt;Audio Key="""&amp;A35&amp;""" Value="""&amp;D35&amp;""" /&gt;","")</f>
+      <c r="I35" s="62" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="EN/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="J35" s="44" t="str">
-        <f t="shared" ref="J35" si="23">IF(AND(A35&lt;&gt;"",E35&lt;&gt;""),"&lt;Audio Key="""&amp;A35&amp;""" Value="""&amp;E35&amp;""" /&gt;","")</f>
+      <c r="J35" s="62" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="JP/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="B36" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/pair_start_cn</v>
       </c>
-      <c r="C36" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="C36" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/pair_start_cn</v>
       </c>
-      <c r="D36" s="44" t="str">
-        <f t="shared" si="14"/>
+      <c r="D36" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/pair_start_cn</v>
       </c>
-      <c r="E36" s="44" t="str">
-        <f t="shared" si="15"/>
+      <c r="E36" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/pair_start_cn</v>
       </c>
-      <c r="G36" s="44" t="str">
+      <c r="G36" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_start_cn" Value="CHS/pair_start_cn" /&gt;</v>
       </c>
-      <c r="H36" s="44" t="str">
+      <c r="H36" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_start_cn" Value="CHS/pair_start_cn" /&gt;</v>
       </c>
-      <c r="I36" s="44" t="str">
+      <c r="I36" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_start_cn" Value="EN/pair_start_cn" /&gt;</v>
       </c>
-      <c r="J36" s="44" t="str">
+      <c r="J36" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_start_cn" Value="JP/pair_start_cn" /&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="44" t="str">
-        <f t="shared" si="12"/>
+      <c r="B37" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/pair_update_wifi_success_cn</v>
       </c>
-      <c r="C37" s="44" t="str">
-        <f t="shared" si="13"/>
+      <c r="C37" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/pair_update_wifi_success_cn</v>
       </c>
-      <c r="D37" s="44" t="str">
-        <f t="shared" si="14"/>
+      <c r="D37" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/pair_update_wifi_success_cn</v>
       </c>
-      <c r="E37" s="44" t="str">
-        <f t="shared" si="15"/>
+      <c r="E37" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/pair_update_wifi_success_cn</v>
       </c>
-      <c r="G37" s="44" t="str">
+      <c r="G37" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="CHS/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="H37" s="44" t="str">
+      <c r="H37" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="CHS/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="I37" s="44" t="str">
+      <c r="I37" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="EN/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="J37" s="44" t="str">
+      <c r="J37" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="JP/pair_update_wifi_success_cn" /&gt;</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="54" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="44" t="str">
-        <f t="shared" ref="B38:B48" si="24">"CHS/"&amp;A38</f>
+      <c r="B38" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/ai_popup_notactivated</v>
       </c>
-      <c r="C38" s="44" t="str">
-        <f t="shared" ref="C38:C48" si="25">"CHS/"&amp;A38</f>
+      <c r="C38" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/ai_popup_notactivated</v>
       </c>
-      <c r="D38" s="44" t="str">
-        <f t="shared" ref="D38:D48" si="26">"EN/"&amp;A38</f>
+      <c r="D38" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/ai_popup_notactivated</v>
       </c>
-      <c r="E38" s="44" t="str">
-        <f t="shared" ref="E38:E48" si="27">"JP/"&amp;A38</f>
+      <c r="E38" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/ai_popup_notactivated</v>
       </c>
-      <c r="G38" s="44" t="str">
+      <c r="G38" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="CHS/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="H38" s="44" t="str">
+      <c r="H38" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="CHS/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="I38" s="44" t="str">
+      <c r="I38" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="EN/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="J38" s="44" t="str">
+      <c r="J38" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="JP/ai_popup_notactivated" /&gt;</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B39" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/collection_story_tip1</v>
       </c>
-      <c r="C39" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C39" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/collection_story_tip1</v>
       </c>
-      <c r="D39" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D39" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/collection_story_tip1</v>
       </c>
-      <c r="E39" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E39" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/collection_story_tip1</v>
       </c>
-      <c r="G39" s="44" t="str">
+      <c r="G39" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="CHS/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="H39" s="44" t="str">
+      <c r="H39" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="CHS/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="I39" s="44" t="str">
+      <c r="I39" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="EN/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="J39" s="44" t="str">
+      <c r="J39" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="JP/collection_story_tip1" /&gt;</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B40" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/collection_story_tip2</v>
       </c>
-      <c r="C40" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C40" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/collection_story_tip2</v>
       </c>
-      <c r="D40" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D40" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/collection_story_tip2</v>
       </c>
-      <c r="E40" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E40" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/collection_story_tip2</v>
       </c>
-      <c r="G40" s="44" t="str">
+      <c r="G40" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="CHS/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="H40" s="44" t="str">
+      <c r="H40" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="CHS/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="I40" s="44" t="str">
+      <c r="I40" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="EN/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="J40" s="44" t="str">
+      <c r="J40" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="JP/collection_story_tip2" /&gt;</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B41" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/hint_app_download_crcode_cn</v>
       </c>
-      <c r="C41" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C41" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/hint_app_download_crcode_cn</v>
       </c>
-      <c r="D41" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D41" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/hint_app_download_crcode_cn</v>
       </c>
-      <c r="E41" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E41" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/hint_app_download_crcode_cn</v>
       </c>
-      <c r="G41" s="44" t="str">
+      <c r="G41" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="CHS/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="H41" s="44" t="str">
+      <c r="H41" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="CHS/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="I41" s="44" t="str">
+      <c r="I41" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="EN/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="J41" s="44" t="str">
+      <c r="J41" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="JP/hint_app_download_crcode_cn" /&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B42" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_1</v>
       </c>
-      <c r="C42" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C42" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_1</v>
       </c>
-      <c r="D42" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D42" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_1</v>
       </c>
-      <c r="E42" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E42" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_1</v>
       </c>
-      <c r="G42" s="44" t="str">
+      <c r="G42" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="CHS/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="H42" s="44" t="str">
+      <c r="H42" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="CHS/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="I42" s="44" t="str">
+      <c r="I42" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="EN/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="J42" s="44" t="str">
+      <c r="J42" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="JP/navmenu_comingsoon_1" /&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="56" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B43" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_2</v>
       </c>
-      <c r="C43" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C43" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_2</v>
       </c>
-      <c r="D43" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D43" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_2</v>
       </c>
-      <c r="E43" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E43" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_2</v>
       </c>
-      <c r="G43" s="44" t="str">
+      <c r="G43" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="CHS/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="H43" s="44" t="str">
+      <c r="H43" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="CHS/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="I43" s="44" t="str">
+      <c r="I43" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="EN/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="J43" s="44" t="str">
+      <c r="J43" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="JP/navmenu_comingsoon_2" /&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B44" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_3</v>
       </c>
-      <c r="C44" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C44" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_3</v>
       </c>
-      <c r="D44" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D44" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_3</v>
       </c>
-      <c r="E44" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E44" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_3</v>
       </c>
-      <c r="G44" s="44" t="str">
+      <c r="G44" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="CHS/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="H44" s="44" t="str">
+      <c r="H44" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="CHS/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="I44" s="44" t="str">
+      <c r="I44" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="EN/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="J44" s="44" t="str">
+      <c r="J44" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="JP/navmenu_comingsoon_3" /&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B45" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_4</v>
       </c>
-      <c r="C45" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C45" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_4</v>
       </c>
-      <c r="D45" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D45" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_4</v>
       </c>
-      <c r="E45" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E45" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_4</v>
       </c>
-      <c r="G45" s="44" t="str">
+      <c r="G45" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="CHS/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="H45" s="44" t="str">
+      <c r="H45" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="CHS/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="I45" s="44" t="str">
+      <c r="I45" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="EN/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="J45" s="44" t="str">
+      <c r="J45" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="JP/navmenu_comingsoon_4" /&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B46" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/system_charging_low_battery_in</v>
       </c>
-      <c r="C46" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C46" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/system_charging_low_battery_in</v>
       </c>
-      <c r="D46" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D46" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/system_charging_low_battery_in</v>
       </c>
-      <c r="E46" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E46" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/system_charging_low_battery_in</v>
       </c>
-      <c r="G46" s="44" t="str">
+      <c r="G46" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="CHS/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="H46" s="44" t="str">
+      <c r="H46" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="CHS/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="I46" s="44" t="str">
+      <c r="I46" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="EN/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="J46" s="44" t="str">
+      <c r="J46" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="JP/system_charging_low_battery_in" /&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="56" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B47" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/guide_2_systempage_1</v>
       </c>
-      <c r="C47" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C47" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/guide_2_systempage_1</v>
       </c>
-      <c r="D47" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D47" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/guide_2_systempage_1</v>
       </c>
-      <c r="E47" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E47" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/guide_2_systempage_1</v>
       </c>
-      <c r="G47" s="44" t="str">
+      <c r="G47" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="CHS/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="H47" s="44" t="str">
+      <c r="H47" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="CHS/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="I47" s="44" t="str">
+      <c r="I47" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="EN/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="J47" s="44" t="str">
+      <c r="J47" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="JP/guide_2_systempage_1" /&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="44" t="str">
-        <f t="shared" si="24"/>
+      <c r="B48" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/guide_2_id_1</v>
       </c>
-      <c r="C48" s="44" t="str">
-        <f t="shared" si="25"/>
+      <c r="C48" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/guide_2_id_1</v>
       </c>
-      <c r="D48" s="44" t="str">
-        <f t="shared" si="26"/>
+      <c r="D48" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/guide_2_id_1</v>
       </c>
-      <c r="E48" s="44" t="str">
-        <f t="shared" si="27"/>
+      <c r="E48" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/guide_2_id_1</v>
       </c>
-      <c r="G48" s="44" t="str">
+      <c r="G48" s="62" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="CHS/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="H48" s="44" t="str">
+      <c r="H48" s="62" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="CHS/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="I48" s="44" t="str">
+      <c r="I48" s="62" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="EN/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="J48" s="44" t="str">
+      <c r="J48" s="62" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="JP/guide_2_id_1" /&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="54" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="44" t="str">
-        <f t="shared" ref="B49:B52" si="28">"CHS/"&amp;A49</f>
+      <c r="B49" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>CHS/hint_app_download_01_cn</v>
       </c>
-      <c r="C49" s="44" t="str">
-        <f t="shared" ref="C49:C52" si="29">"CHS/"&amp;A49</f>
+      <c r="C49" s="64" t="str">
+        <f t="shared" si="9"/>
         <v>CHS/hint_app_download_01_cn</v>
       </c>
-      <c r="D49" s="44" t="str">
-        <f t="shared" ref="D49:D52" si="30">"EN/"&amp;A49</f>
+      <c r="D49" s="64" t="str">
+        <f t="shared" si="10"/>
         <v>EN/hint_app_download_01_cn</v>
       </c>
-      <c r="E49" s="44" t="str">
-        <f t="shared" ref="E49:E52" si="31">"JP/"&amp;A49</f>
+      <c r="E49" s="64" t="str">
+        <f t="shared" si="11"/>
         <v>JP/hint_app_download_01_cn</v>
       </c>
-      <c r="G49" s="44" t="str">
-        <f t="shared" ref="G49:G52" si="32">IF(AND(A49&lt;&gt;"",B49&lt;&gt;""),"&lt;Audio Key="""&amp;A49&amp;""" Value="""&amp;B49&amp;""" /&gt;","")</f>
+      <c r="G49" s="62" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="CHS/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="H49" s="44" t="str">
-        <f t="shared" ref="H49:H52" si="33">IF(AND(A49&lt;&gt;"",C49&lt;&gt;""),"&lt;Audio Key="""&amp;A49&amp;""" Value="""&amp;C49&amp;""" /&gt;","")</f>
+      <c r="H49" s="62" t="str">
+        <f t="shared" si="1"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="CHS/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="I49" s="44" t="str">
-        <f t="shared" ref="I49:I52" si="34">IF(AND(A49&lt;&gt;"",D49&lt;&gt;""),"&lt;Audio Key="""&amp;A49&amp;""" Value="""&amp;D49&amp;""" /&gt;","")</f>
+      <c r="I49" s="62" t="str">
+        <f t="shared" si="2"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="EN/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="J49" s="44" t="str">
-        <f t="shared" ref="J49:J52" si="35">IF(AND(A49&lt;&gt;"",E49&lt;&gt;""),"&lt;Audio Key="""&amp;A49&amp;""" Value="""&amp;E49&amp;""" /&gt;","")</f>
+      <c r="J49" s="62" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="JP/hint_app_download_01_cn" /&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="54" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="44" t="str">
+      <c r="B50" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_alarm_sync</v>
+      </c>
+      <c r="C50" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_alarm_sync</v>
+      </c>
+      <c r="D50" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_alarm_sync</v>
+      </c>
+      <c r="E50" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_alarm_sync</v>
+      </c>
+      <c r="G50" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
+      </c>
+      <c r="H50" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
+      </c>
+      <c r="I50" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_alarm_sync" Value="EN/popup_alarm_sync" /&gt;</v>
+      </c>
+      <c r="J50" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_alarm_sync" Value="JP/popup_alarm_sync" /&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_dailygoal_sync</v>
+      </c>
+      <c r="C51" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_dailygoal_sync</v>
+      </c>
+      <c r="D51" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_dailygoal_sync</v>
+      </c>
+      <c r="E51" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_dailygoal_sync</v>
+      </c>
+      <c r="G51" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
+      </c>
+      <c r="H51" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
+      </c>
+      <c r="I51" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_dailygoal_sync" Value="EN/popup_dailygoal_sync" /&gt;</v>
+      </c>
+      <c r="J51" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_dailygoal_sync" Value="JP/popup_dailygoal_sync" /&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_donotdisturb_sync</v>
+      </c>
+      <c r="C52" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_donotdisturb_sync</v>
+      </c>
+      <c r="D52" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_donotdisturb_sync</v>
+      </c>
+      <c r="E52" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_donotdisturb_sync</v>
+      </c>
+      <c r="G52" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
+      </c>
+      <c r="H52" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
+      </c>
+      <c r="I52" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="EN/popup_donotdisturb_sync" /&gt;</v>
+      </c>
+      <c r="J52" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="JP/popup_donotdisturb_sync" /&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_download</v>
+      </c>
+      <c r="C53" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_download</v>
+      </c>
+      <c r="D53" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_download</v>
+      </c>
+      <c r="E53" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_download</v>
+      </c>
+      <c r="G53" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
+      </c>
+      <c r="H53" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
+      </c>
+      <c r="I53" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_download" Value="EN/popup_download" /&gt;</v>
+      </c>
+      <c r="J53" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_download" Value="JP/popup_download" /&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_download_cancel</v>
+      </c>
+      <c r="C54" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_download_cancel</v>
+      </c>
+      <c r="D54" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_download_cancel</v>
+      </c>
+      <c r="E54" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_download_cancel</v>
+      </c>
+      <c r="G54" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
+      </c>
+      <c r="H54" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
+      </c>
+      <c r="I54" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_download_cancel" Value="EN/popup_download_cancel" /&gt;</v>
+      </c>
+      <c r="J54" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_download_cancel" Value="JP/popup_download_cancel" /&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/popup_no_network</v>
+      </c>
+      <c r="C55" s="64" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/popup_no_network</v>
+      </c>
+      <c r="D55" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/popup_no_network</v>
+      </c>
+      <c r="E55" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/popup_no_network</v>
+      </c>
+      <c r="G55" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
+      </c>
+      <c r="H55" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
+      </c>
+      <c r="I55" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_no_network" Value="EN/popup_no_network" /&gt;</v>
+      </c>
+      <c r="J55" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_no_network" Value="JP/popup_no_network" /&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="B56" s="64" t="str">
+        <f t="shared" ref="B56" si="12">"CHS/"&amp;A56</f>
+        <v>CHS/guide_homepage_001</v>
+      </c>
+      <c r="C56" s="64" t="str">
+        <f t="shared" ref="C56" si="13">"CHS/"&amp;A56</f>
+        <v>CHS/guide_homepage_001</v>
+      </c>
+      <c r="D56" s="64" t="str">
+        <f t="shared" ref="D56" si="14">"EN/"&amp;A56</f>
+        <v>EN/guide_homepage_001</v>
+      </c>
+      <c r="E56" s="64" t="str">
+        <f t="shared" ref="E56" si="15">"JP/"&amp;A56</f>
+        <v>JP/guide_homepage_001</v>
+      </c>
+      <c r="G56" s="62" t="str">
+        <f t="shared" ref="G56" si="16">IF(AND(A56&lt;&gt;"",B56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;B56&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_001" Value="CHS/guide_homepage_001" /&gt;</v>
+      </c>
+      <c r="H56" s="62" t="str">
+        <f t="shared" ref="H56" si="17">IF(AND(A56&lt;&gt;"",C56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;C56&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_001" Value="CHS/guide_homepage_001" /&gt;</v>
+      </c>
+      <c r="I56" s="62" t="str">
+        <f t="shared" ref="I56" si="18">IF(AND(A56&lt;&gt;"",D56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;D56&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_001" Value="EN/guide_homepage_001" /&gt;</v>
+      </c>
+      <c r="J56" s="62" t="str">
+        <f t="shared" ref="J56" si="19">IF(AND(A56&lt;&gt;"",E56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;E56&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_001" Value="JP/guide_homepage_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57" s="64" t="str">
+        <f t="shared" ref="B57:B66" si="20">"CHS/"&amp;A57</f>
+        <v>CHS/guide_homepage_002</v>
+      </c>
+      <c r="C57" s="64" t="str">
+        <f t="shared" ref="C57:C66" si="21">"CHS/"&amp;A57</f>
+        <v>CHS/guide_homepage_002</v>
+      </c>
+      <c r="D57" s="64" t="str">
+        <f t="shared" ref="D57:D66" si="22">"EN/"&amp;A57</f>
+        <v>EN/guide_homepage_002</v>
+      </c>
+      <c r="E57" s="64" t="str">
+        <f t="shared" ref="E57:E66" si="23">"JP/"&amp;A57</f>
+        <v>JP/guide_homepage_002</v>
+      </c>
+      <c r="G57" s="62" t="str">
+        <f t="shared" ref="G57:G66" si="24">IF(AND(A57&lt;&gt;"",B57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;B57&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_002" Value="CHS/guide_homepage_002" /&gt;</v>
+      </c>
+      <c r="H57" s="62" t="str">
+        <f t="shared" ref="H57:H66" si="25">IF(AND(A57&lt;&gt;"",C57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;C57&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_002" Value="CHS/guide_homepage_002" /&gt;</v>
+      </c>
+      <c r="I57" s="62" t="str">
+        <f t="shared" ref="I57:I66" si="26">IF(AND(A57&lt;&gt;"",D57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;D57&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_002" Value="EN/guide_homepage_002" /&gt;</v>
+      </c>
+      <c r="J57" s="62" t="str">
+        <f t="shared" ref="J57:J66" si="27">IF(AND(A57&lt;&gt;"",E57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;E57&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="guide_homepage_002" Value="JP/guide_homepage_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_003</v>
+      </c>
+      <c r="C58" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_003</v>
+      </c>
+      <c r="D58" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_003</v>
+      </c>
+      <c r="E58" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_003</v>
+      </c>
+      <c r="G58" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_003" Value="CHS/guide_homepage_003" /&gt;</v>
+      </c>
+      <c r="H58" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_003" Value="CHS/guide_homepage_003" /&gt;</v>
+      </c>
+      <c r="I58" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_003" Value="EN/guide_homepage_003" /&gt;</v>
+      </c>
+      <c r="J58" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_003" Value="JP/guide_homepage_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_004</v>
+      </c>
+      <c r="C59" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_004</v>
+      </c>
+      <c r="D59" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_004</v>
+      </c>
+      <c r="E59" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_004</v>
+      </c>
+      <c r="G59" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_004" Value="CHS/guide_homepage_004" /&gt;</v>
+      </c>
+      <c r="H59" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_004" Value="CHS/guide_homepage_004" /&gt;</v>
+      </c>
+      <c r="I59" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_004" Value="EN/guide_homepage_004" /&gt;</v>
+      </c>
+      <c r="J59" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_004" Value="JP/guide_homepage_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="B60" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_005</v>
+      </c>
+      <c r="C60" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_005</v>
+      </c>
+      <c r="D60" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_005</v>
+      </c>
+      <c r="E60" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_005</v>
+      </c>
+      <c r="G60" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_005" Value="CHS/guide_homepage_005" /&gt;</v>
+      </c>
+      <c r="H60" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_005" Value="CHS/guide_homepage_005" /&gt;</v>
+      </c>
+      <c r="I60" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_005" Value="EN/guide_homepage_005" /&gt;</v>
+      </c>
+      <c r="J60" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_005" Value="JP/guide_homepage_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_006</v>
+      </c>
+      <c r="C61" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_006</v>
+      </c>
+      <c r="D61" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_006</v>
+      </c>
+      <c r="E61" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_006</v>
+      </c>
+      <c r="G61" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_006" Value="CHS/guide_homepage_006" /&gt;</v>
+      </c>
+      <c r="H61" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_006" Value="CHS/guide_homepage_006" /&gt;</v>
+      </c>
+      <c r="I61" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_006" Value="EN/guide_homepage_006" /&gt;</v>
+      </c>
+      <c r="J61" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_006" Value="JP/guide_homepage_006" /&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="B62" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_007</v>
+      </c>
+      <c r="C62" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_007</v>
+      </c>
+      <c r="D62" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_007</v>
+      </c>
+      <c r="E62" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_007</v>
+      </c>
+      <c r="G62" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_007" Value="CHS/guide_homepage_007" /&gt;</v>
+      </c>
+      <c r="H62" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_007" Value="CHS/guide_homepage_007" /&gt;</v>
+      </c>
+      <c r="I62" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_007" Value="EN/guide_homepage_007" /&gt;</v>
+      </c>
+      <c r="J62" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_007" Value="JP/guide_homepage_007" /&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B63" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_008</v>
+      </c>
+      <c r="C63" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_008</v>
+      </c>
+      <c r="D63" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_008</v>
+      </c>
+      <c r="E63" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_008</v>
+      </c>
+      <c r="G63" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_008" Value="CHS/guide_homepage_008" /&gt;</v>
+      </c>
+      <c r="H63" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_008" Value="CHS/guide_homepage_008" /&gt;</v>
+      </c>
+      <c r="I63" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_008" Value="EN/guide_homepage_008" /&gt;</v>
+      </c>
+      <c r="J63" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_008" Value="JP/guide_homepage_008" /&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="B64" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_009</v>
+      </c>
+      <c r="C64" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_009</v>
+      </c>
+      <c r="D64" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_009</v>
+      </c>
+      <c r="E64" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_009</v>
+      </c>
+      <c r="G64" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_009" Value="CHS/guide_homepage_009" /&gt;</v>
+      </c>
+      <c r="H64" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_009" Value="CHS/guide_homepage_009" /&gt;</v>
+      </c>
+      <c r="I64" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_009" Value="EN/guide_homepage_009" /&gt;</v>
+      </c>
+      <c r="J64" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_009" Value="JP/guide_homepage_009" /&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_010</v>
+      </c>
+      <c r="C65" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_010</v>
+      </c>
+      <c r="D65" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_010</v>
+      </c>
+      <c r="E65" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_010</v>
+      </c>
+      <c r="G65" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_010" Value="CHS/guide_homepage_010" /&gt;</v>
+      </c>
+      <c r="H65" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_010" Value="CHS/guide_homepage_010" /&gt;</v>
+      </c>
+      <c r="I65" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_010" Value="EN/guide_homepage_010" /&gt;</v>
+      </c>
+      <c r="J65" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_010" Value="JP/guide_homepage_010" /&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B66" s="64" t="str">
+        <f t="shared" si="20"/>
+        <v>CHS/guide_homepage_011</v>
+      </c>
+      <c r="C66" s="64" t="str">
+        <f t="shared" si="21"/>
+        <v>CHS/guide_homepage_011</v>
+      </c>
+      <c r="D66" s="64" t="str">
+        <f t="shared" si="22"/>
+        <v>EN/guide_homepage_011</v>
+      </c>
+      <c r="E66" s="64" t="str">
+        <f t="shared" si="23"/>
+        <v>JP/guide_homepage_011</v>
+      </c>
+      <c r="G66" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="guide_homepage_011" Value="CHS/guide_homepage_011" /&gt;</v>
+      </c>
+      <c r="H66" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="guide_homepage_011" Value="CHS/guide_homepage_011" /&gt;</v>
+      </c>
+      <c r="I66" s="62" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="guide_homepage_011" Value="EN/guide_homepage_011" /&gt;</v>
+      </c>
+      <c r="J66" s="62" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="guide_homepage_011" Value="JP/guide_homepage_011" /&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
+      </c>
+      <c r="H68" s="62" t="str">
+        <f>IF(AND(A68&lt;&gt;"",C68&lt;&gt;""),"&lt;Audio Key="""&amp;A68&amp;""" Value="""&amp;C68&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
+      </c>
+      <c r="I68" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="popup_feed_welcome" Value="EN/popup_feed_welcome" /&gt;</v>
+      </c>
+      <c r="J68" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="popup_feed_welcome" Value="JP/popup_feed_welcome" /&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
+      </c>
+      <c r="H69" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
+      </c>
+      <c r="I69" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="feed_welcome_001" Value="EN/feed_welcome_001" /&gt;</v>
+      </c>
+      <c r="J69" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="feed_welcome_001" Value="JP/feed_welcome_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
+      </c>
+      <c r="H70" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
+      </c>
+      <c r="I70" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Audio Key="feed_welcome_002" Value="EN/feed_welcome_002" /&gt;</v>
+      </c>
+      <c r="J70" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Audio Key="feed_welcome_002" Value="JP/feed_welcome_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="62" t="str">
+        <f t="shared" ref="G71:G108" si="28">IF(AND(A71&lt;&gt;"",B71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;B71&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
+      </c>
+      <c r="H71" s="62" t="str">
+        <f t="shared" ref="H71:H108" si="29">IF(AND(A71&lt;&gt;"",C71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;C71&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
+      </c>
+      <c r="I71" s="62" t="str">
+        <f t="shared" ref="I71:I108" si="30">IF(AND(A71&lt;&gt;"",D71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;D71&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
+      </c>
+      <c r="J71" s="62" t="str">
+        <f t="shared" ref="J71:J108" si="31">IF(AND(A71&lt;&gt;"",E71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;E71&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="G72" s="62" t="str">
         <f t="shared" si="28"/>
-        <v>CHS/popup_alarm_sync</v>
-      </c>
-      <c r="C50" s="44" t="str">
+        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
+      </c>
+      <c r="H72" s="62" t="str">
         <f t="shared" si="29"/>
-        <v>CHS/popup_alarm_sync</v>
-      </c>
-      <c r="D50" s="44" t="str">
+        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
+      </c>
+      <c r="I72" s="62" t="str">
         <f t="shared" si="30"/>
-        <v>EN/popup_alarm_sync</v>
-      </c>
-      <c r="E50" s="44" t="str">
+        <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
+      </c>
+      <c r="J72" s="62" t="str">
         <f t="shared" si="31"/>
-        <v>JP/popup_alarm_sync</v>
-      </c>
-      <c r="G50" s="44" t="str">
+        <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
+      </c>
+      <c r="H73" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
+      </c>
+      <c r="I73" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
+      </c>
+      <c r="J73" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
+      </c>
+      <c r="H74" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
+      </c>
+      <c r="I74" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
+      </c>
+      <c r="J74" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
+      </c>
+      <c r="H75" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
+      </c>
+      <c r="I75" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
+      </c>
+      <c r="J75" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="G76" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
+      </c>
+      <c r="H76" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
+      </c>
+      <c r="I76" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
+      </c>
+      <c r="J76" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G77" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
+      </c>
+      <c r="H77" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
+      </c>
+      <c r="I77" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
+      </c>
+      <c r="J77" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C78" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
+      </c>
+      <c r="H78" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
+      </c>
+      <c r="I78" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
+      </c>
+      <c r="J78" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
+      </c>
+      <c r="H79" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
+      </c>
+      <c r="I79" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
+      </c>
+      <c r="J79" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="G80" s="62" t="str">
+        <f>IF(AND(A80&lt;&gt;"",B80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;B80&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
+      </c>
+      <c r="H80" s="62" t="str">
+        <f>IF(AND(A80&lt;&gt;"",C80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;C80&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
+      </c>
+      <c r="I80" s="62" t="str">
+        <f>IF(AND(A80&lt;&gt;"",D80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;D80&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
+      </c>
+      <c r="J80" s="62" t="str">
+        <f>IF(AND(A80&lt;&gt;"",E80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;E80&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="G81" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
+      </c>
+      <c r="H81" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
+      </c>
+      <c r="I81" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
+      </c>
+      <c r="J81" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
+      </c>
+      <c r="H82" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
+      </c>
+      <c r="I82" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
+      </c>
+      <c r="J82" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
+      </c>
+      <c r="H83" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
+      </c>
+      <c r="I83" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
+      </c>
+      <c r="J83" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E84" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
+      </c>
+      <c r="H84" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
+      </c>
+      <c r="I84" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
+      </c>
+      <c r="J84" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C85" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="G85" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H85" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I85" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J85" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B86" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G86" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H86" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I86" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J86" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="G87" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H87" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I87" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J87" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="G88" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H88" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I88" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J88" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="B89" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G89" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H89" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I89" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J89" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="G90" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H90" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I90" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J90" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H91" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I91" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J91" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" s="64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="G92" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H92" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I92" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J92" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="G93" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H93" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I93" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J93" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="C94" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="G94" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H94" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I94" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J94" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="G95" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H95" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I95" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J95" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H96" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I96" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J96" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C97" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="G97" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H97" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I97" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J97" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="C98" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="G98" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H98" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I98" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J98" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C99" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="D99" s="64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G99" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H99" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I99" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J99" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="64" t="s">
+        <v>371</v>
+      </c>
+      <c r="D100" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="G100" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="H100" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="I100" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
+      </c>
+      <c r="J100" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="H101" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="I101" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
+      </c>
+      <c r="J101" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C102" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="G102" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="H102" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="I102" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
+      </c>
+      <c r="J102" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C103" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="D103" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="G103" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
+      </c>
+      <c r="H103" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
+      </c>
+      <c r="I103" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
+      </c>
+      <c r="J103" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C104" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="G104" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
+      </c>
+      <c r="H104" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
+      </c>
+      <c r="I104" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
+      </c>
+      <c r="J104" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D105" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="E105" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
+      </c>
+      <c r="H105" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
+      </c>
+      <c r="I105" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
+      </c>
+      <c r="J105" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D106" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="E106" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="G106" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
+      </c>
+      <c r="H106" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
+      </c>
+      <c r="I106" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
+      </c>
+      <c r="J106" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D107" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E107" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="G107" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
+      </c>
+      <c r="H107" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
+      </c>
+      <c r="I107" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
+      </c>
+      <c r="J107" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="C108" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D108" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="E108" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="G108" s="62" t="str">
+        <f t="shared" si="28"/>
+        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
+      </c>
+      <c r="H108" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
+      </c>
+      <c r="I108" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
+      </c>
+      <c r="J108" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" s="64" t="str">
+        <f t="shared" ref="B110:B118" si="32">"CHS/"&amp;A110</f>
+        <v>CHS/galaxy_welcome_new</v>
+      </c>
+      <c r="C110" s="64" t="str">
+        <f t="shared" ref="C110:C118" si="33">"CHS/"&amp;A110</f>
+        <v>CHS/galaxy_welcome_new</v>
+      </c>
+      <c r="D110" s="64" t="str">
+        <f t="shared" ref="D110:D118" si="34">"EN/"&amp;A110</f>
+        <v>EN/galaxy_welcome_new</v>
+      </c>
+      <c r="E110" s="64" t="str">
+        <f t="shared" ref="E110:E118" si="35">"JP/"&amp;A110</f>
+        <v>JP/galaxy_welcome_new</v>
+      </c>
+      <c r="G110" s="62" t="str">
+        <f t="shared" ref="G110:G117" si="36">IF(AND(A110&lt;&gt;"",B110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;B110&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="H110" s="62" t="str">
+        <f t="shared" ref="H110:H117" si="37">IF(AND(A110&lt;&gt;"",C110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;C110&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="I110" s="62" t="str">
+        <f t="shared" ref="I110:I117" si="38">IF(AND(A110&lt;&gt;"",D110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;D110&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="J110" s="62" t="str">
+        <f t="shared" ref="J110:J117" si="39">IF(AND(A110&lt;&gt;"",E110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;E110&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="64" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
-      </c>
-      <c r="H50" s="44" t="str">
+        <v>CHS/galaxy_new_world_welcome_001</v>
+      </c>
+      <c r="C111" s="64" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
-      </c>
-      <c r="I50" s="44" t="str">
+        <v>CHS/galaxy_new_world_welcome_001</v>
+      </c>
+      <c r="D111" s="64" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="popup_alarm_sync" Value="EN/popup_alarm_sync" /&gt;</v>
-      </c>
-      <c r="J50" s="44" t="str">
+        <v>EN/galaxy_new_world_welcome_001</v>
+      </c>
+      <c r="E111" s="64" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="popup_alarm_sync" Value="JP/popup_alarm_sync" /&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="44" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/popup_dailygoal_sync</v>
-      </c>
-      <c r="C51" s="44" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/popup_dailygoal_sync</v>
-      </c>
-      <c r="D51" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/popup_dailygoal_sync</v>
-      </c>
-      <c r="E51" s="44" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/popup_dailygoal_sync</v>
-      </c>
-      <c r="G51" s="44" t="str">
+        <v>JP/galaxy_new_world_welcome_001</v>
+      </c>
+      <c r="G111" s="62" t="str">
+        <f t="shared" si="36"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
+      </c>
+      <c r="H111" s="62" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
+      </c>
+      <c r="I111" s="62" t="str">
+        <f t="shared" si="38"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
+      </c>
+      <c r="J111" s="62" t="str">
+        <f t="shared" si="39"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="64" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
-      </c>
-      <c r="H51" s="44" t="str">
+        <v>CHS/galaxy_new_world_welcome_002</v>
+      </c>
+      <c r="C112" s="64" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
-      </c>
-      <c r="I51" s="44" t="str">
+        <v>CHS/galaxy_new_world_welcome_002</v>
+      </c>
+      <c r="D112" s="64" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="popup_dailygoal_sync" Value="EN/popup_dailygoal_sync" /&gt;</v>
-      </c>
-      <c r="J51" s="44" t="str">
+        <v>EN/galaxy_new_world_welcome_002</v>
+      </c>
+      <c r="E112" s="64" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="popup_dailygoal_sync" Value="JP/popup_dailygoal_sync" /&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="44" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/popup_donotdisturb_sync</v>
-      </c>
-      <c r="C52" s="44" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/popup_donotdisturb_sync</v>
-      </c>
-      <c r="D52" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/popup_donotdisturb_sync</v>
-      </c>
-      <c r="E52" s="44" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/popup_donotdisturb_sync</v>
-      </c>
-      <c r="G52" s="44" t="str">
+        <v>JP/galaxy_new_world_welcome_002</v>
+      </c>
+      <c r="G112" s="62" t="str">
+        <f t="shared" si="36"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+      </c>
+      <c r="H112" s="62" t="str">
+        <f t="shared" si="37"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+      </c>
+      <c r="I112" s="62" t="str">
+        <f t="shared" si="38"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
+      </c>
+      <c r="J112" s="62" t="str">
+        <f t="shared" si="39"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A113" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="64" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
-      </c>
-      <c r="H52" s="44" t="str">
+        <v>CHS/galaxy_welcome_001</v>
+      </c>
+      <c r="C113" s="64" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
-      </c>
-      <c r="I52" s="44" t="str">
+        <v>CHS/galaxy_welcome_001</v>
+      </c>
+      <c r="D113" s="64" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="EN/popup_donotdisturb_sync" /&gt;</v>
-      </c>
-      <c r="J52" s="44" t="str">
+        <v>EN/galaxy_welcome_001</v>
+      </c>
+      <c r="E113" s="64" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="popup_donotdisturb_sync" Value="JP/popup_donotdisturb_sync" /&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="B53" s="44" t="str">
-        <f t="shared" ref="B53:B55" si="36">"CHS/"&amp;A53</f>
-        <v>CHS/popup_download</v>
-      </c>
-      <c r="C53" s="44" t="str">
-        <f t="shared" ref="C53:C55" si="37">"CHS/"&amp;A53</f>
-        <v>CHS/popup_download</v>
-      </c>
-      <c r="D53" s="44" t="str">
-        <f t="shared" ref="D53:D55" si="38">"EN/"&amp;A53</f>
-        <v>EN/popup_download</v>
-      </c>
-      <c r="E53" s="44" t="str">
-        <f t="shared" ref="E53:E55" si="39">"JP/"&amp;A53</f>
-        <v>JP/popup_download</v>
-      </c>
-      <c r="G53" s="44" t="str">
-        <f t="shared" ref="G53:G73" si="40">IF(AND(A53&lt;&gt;"",B53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;B53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
-      </c>
-      <c r="H53" s="44" t="str">
-        <f t="shared" ref="H53:H73" si="41">IF(AND(A53&lt;&gt;"",C53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;C53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
-      </c>
-      <c r="I53" s="44" t="str">
-        <f t="shared" ref="I53:I73" si="42">IF(AND(A53&lt;&gt;"",D53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;D53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="popup_download" Value="EN/popup_download" /&gt;</v>
-      </c>
-      <c r="J53" s="44" t="str">
-        <f t="shared" ref="J53:J73" si="43">IF(AND(A53&lt;&gt;"",E53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;E53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="popup_download" Value="JP/popup_download" /&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="44" t="str">
+        <v>JP/galaxy_welcome_001</v>
+      </c>
+      <c r="G113" s="62" t="str">
         <f t="shared" si="36"/>
-        <v>CHS/popup_download_cancel</v>
-      </c>
-      <c r="C54" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+      </c>
+      <c r="H113" s="62" t="str">
         <f t="shared" si="37"/>
-        <v>CHS/popup_download_cancel</v>
-      </c>
-      <c r="D54" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+      </c>
+      <c r="I113" s="62" t="str">
         <f t="shared" si="38"/>
-        <v>EN/popup_download_cancel</v>
-      </c>
-      <c r="E54" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
+      </c>
+      <c r="J113" s="62" t="str">
         <f t="shared" si="39"/>
-        <v>JP/popup_download_cancel</v>
-      </c>
-      <c r="G54" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
-      </c>
-      <c r="H54" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
-      </c>
-      <c r="I54" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_download_cancel" Value="EN/popup_download_cancel" /&gt;</v>
-      </c>
-      <c r="J54" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_download_cancel" Value="JP/popup_download_cancel" /&gt;</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B55" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="64" t="str">
+        <f t="shared" si="32"/>
+        <v>CHS/galaxy_welcome_002</v>
+      </c>
+      <c r="C114" s="64" t="str">
+        <f t="shared" si="33"/>
+        <v>CHS/galaxy_welcome_002</v>
+      </c>
+      <c r="D114" s="64" t="str">
+        <f t="shared" si="34"/>
+        <v>EN/galaxy_welcome_002</v>
+      </c>
+      <c r="E114" s="64" t="str">
+        <f t="shared" si="35"/>
+        <v>JP/galaxy_welcome_002</v>
+      </c>
+      <c r="G114" s="62" t="str">
         <f t="shared" si="36"/>
-        <v>CHS/popup_no_network</v>
-      </c>
-      <c r="C55" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
+      </c>
+      <c r="H114" s="62" t="str">
         <f t="shared" si="37"/>
-        <v>CHS/popup_no_network</v>
-      </c>
-      <c r="D55" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
+      </c>
+      <c r="I114" s="62" t="str">
         <f t="shared" si="38"/>
-        <v>EN/popup_no_network</v>
-      </c>
-      <c r="E55" s="44" t="str">
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
+      </c>
+      <c r="J114" s="62" t="str">
         <f t="shared" si="39"/>
-        <v>JP/popup_no_network</v>
-      </c>
-      <c r="G55" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
-      </c>
-      <c r="H55" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
-      </c>
-      <c r="I55" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_no_network" Value="EN/popup_no_network" /&gt;</v>
-      </c>
-      <c r="J55" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_no_network" Value="JP/popup_no_network" /&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G57" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
-      </c>
-      <c r="H57" s="44" t="str">
-        <f>IF(AND(A57&lt;&gt;"",C57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;C57&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
-      </c>
-      <c r="I57" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_feed_welcome" Value="EN/popup_feed_welcome" /&gt;</v>
-      </c>
-      <c r="J57" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_feed_welcome" Value="JP/popup_feed_welcome" /&gt;</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="G58" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
-      </c>
-      <c r="H58" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
-      </c>
-      <c r="I58" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_001" Value="EN/feed_welcome_001" /&gt;</v>
-      </c>
-      <c r="J58" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_001" Value="JP/feed_welcome_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="G59" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
-      </c>
-      <c r="H59" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
-      </c>
-      <c r="I59" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_002" Value="EN/feed_welcome_002" /&gt;</v>
-      </c>
-      <c r="J59" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_002" Value="JP/feed_welcome_002" /&gt;</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="G60" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="H60" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="I60" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="J60" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G61" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="H61" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="I61" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="J61" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="G62" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
-      </c>
-      <c r="H62" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
-      </c>
-      <c r="I62" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
-      </c>
-      <c r="J62" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G63" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
-      </c>
-      <c r="H63" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
-      </c>
-      <c r="I63" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
-      </c>
-      <c r="J63" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="D64" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
-      </c>
-      <c r="H64" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
-      </c>
-      <c r="I64" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
-      </c>
-      <c r="J64" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="G65" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
-      </c>
-      <c r="H65" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
-      </c>
-      <c r="I65" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
-      </c>
-      <c r="J65" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D66" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="G66" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
-      </c>
-      <c r="H66" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
-      </c>
-      <c r="I66" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
-      </c>
-      <c r="J66" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="G67" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
-      </c>
-      <c r="H67" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
-      </c>
-      <c r="I67" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
-      </c>
-      <c r="J67" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="G68" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
-      </c>
-      <c r="H68" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
-      </c>
-      <c r="I68" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
-      </c>
-      <c r="J68" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>266</v>
-      </c>
-      <c r="D69" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="G69" s="44" t="str">
-        <f>IF(AND(A69&lt;&gt;"",B69&lt;&gt;""),"&lt;Audio Key="""&amp;A69&amp;""" Value="""&amp;B69&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
-      </c>
-      <c r="H69" s="44" t="str">
-        <f>IF(AND(A69&lt;&gt;"",C69&lt;&gt;""),"&lt;Audio Key="""&amp;A69&amp;""" Value="""&amp;C69&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
-      </c>
-      <c r="I69" s="44" t="str">
-        <f>IF(AND(A69&lt;&gt;"",D69&lt;&gt;""),"&lt;Audio Key="""&amp;A69&amp;""" Value="""&amp;D69&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
-      </c>
-      <c r="J69" s="44" t="str">
-        <f>IF(AND(A69&lt;&gt;"",E69&lt;&gt;""),"&lt;Audio Key="""&amp;A69&amp;""" Value="""&amp;E69&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="D70" s="44" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="G70" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
-      </c>
-      <c r="H70" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
-      </c>
-      <c r="I70" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
-      </c>
-      <c r="J70" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="E71" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
-      </c>
-      <c r="H71" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
-      </c>
-      <c r="I71" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
-      </c>
-      <c r="J71" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="G72" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
-      </c>
-      <c r="H72" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
-      </c>
-      <c r="I72" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
-      </c>
-      <c r="J72" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="G73" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
-      </c>
-      <c r="H73" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
-      </c>
-      <c r="I73" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
-      </c>
-      <c r="J73" s="44" t="str">
-        <f t="shared" si="43"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="D74" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="E74" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="G74" s="44" t="str">
-        <f t="shared" ref="G74:G97" si="44">IF(AND(A74&lt;&gt;"",B74&lt;&gt;""),"&lt;Audio Key="""&amp;A74&amp;""" Value="""&amp;B74&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H74" s="44" t="str">
-        <f t="shared" ref="H74:H97" si="45">IF(AND(A74&lt;&gt;"",C74&lt;&gt;""),"&lt;Audio Key="""&amp;A74&amp;""" Value="""&amp;C74&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I74" s="44" t="str">
-        <f t="shared" ref="I74:I97" si="46">IF(AND(A74&lt;&gt;"",D74&lt;&gt;""),"&lt;Audio Key="""&amp;A74&amp;""" Value="""&amp;D74&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J74" s="44" t="str">
-        <f t="shared" ref="J74:J97" si="47">IF(AND(A74&lt;&gt;"",E74&lt;&gt;""),"&lt;Audio Key="""&amp;A74&amp;""" Value="""&amp;E74&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="G75" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H75" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I75" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J75" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="G76" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H76" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I76" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J76" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="E77" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="G77" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H77" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I77" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J77" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="D78" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="E78" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G78" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H78" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I78" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J78" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="E79" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="G79" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H79" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I79" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J79" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="D80" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="E80" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="G80" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H80" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I80" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J80" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="54" t="s">
-        <v>309</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="C81" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="G81" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H81" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I81" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J81" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="D82" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="E82" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="G82" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H82" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I82" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J82" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="D83" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="E83" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="G83" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H83" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I83" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J83" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D84" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="G84" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H84" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I84" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J84" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C85" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="E85" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="G85" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H85" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I85" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J85" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="G86" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H86" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I86" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J86" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C87" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D87" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E87" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="G87" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H87" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I87" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J87" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="G88" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H88" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I88" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J88" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="D89" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="E89" s="44" t="s">
-        <v>373</v>
-      </c>
-      <c r="G89" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="H89" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="I89" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
-      </c>
-      <c r="J89" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="C90" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="G90" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="H90" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="I90" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
-      </c>
-      <c r="J90" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C91" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="D91" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="E91" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="G91" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="H91" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="I91" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
-      </c>
-      <c r="J91" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>380</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>382</v>
-      </c>
-      <c r="G92" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
-      </c>
-      <c r="H92" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
-      </c>
-      <c r="I92" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
-      </c>
-      <c r="J92" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="E93" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="G93" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
-      </c>
-      <c r="H93" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
-      </c>
-      <c r="I93" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
-      </c>
-      <c r="J93" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>386</v>
-      </c>
-      <c r="D94" s="44" t="s">
-        <v>387</v>
-      </c>
-      <c r="E94" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="G94" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
-      </c>
-      <c r="H94" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
-      </c>
-      <c r="I94" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
-      </c>
-      <c r="J94" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>389</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="E95" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="G95" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
-      </c>
-      <c r="H95" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
-      </c>
-      <c r="I95" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
-      </c>
-      <c r="J95" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="B96" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="D96" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>396</v>
-      </c>
-      <c r="G96" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
-      </c>
-      <c r="H96" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
-      </c>
-      <c r="I96" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
-      </c>
-      <c r="J96" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="54" t="s">
-        <v>325</v>
-      </c>
-      <c r="B97" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="C97" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="G97" s="44" t="str">
-        <f t="shared" si="44"/>
-        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
-      </c>
-      <c r="H97" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
-      </c>
-      <c r="I97" s="44" t="str">
-        <f t="shared" si="46"/>
-        <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
-      </c>
-      <c r="J97" s="44" t="str">
-        <f t="shared" si="47"/>
-        <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="61" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="B99" s="44" t="str">
-        <f t="shared" ref="B99" si="48">"CHS/"&amp;A99</f>
-        <v>CHS/galaxy_welcome_new</v>
-      </c>
-      <c r="C99" s="44" t="str">
-        <f t="shared" ref="C99" si="49">"CHS/"&amp;A99</f>
-        <v>CHS/galaxy_welcome_new</v>
-      </c>
-      <c r="D99" s="44" t="str">
-        <f t="shared" ref="D99" si="50">"EN/"&amp;A99</f>
-        <v>EN/galaxy_welcome_new</v>
-      </c>
-      <c r="E99" s="44" t="str">
-        <f t="shared" ref="E99" si="51">"JP/"&amp;A99</f>
-        <v>JP/galaxy_welcome_new</v>
-      </c>
-      <c r="G99" s="44" t="str">
-        <f t="shared" ref="G99:G101" si="52">IF(AND(A99&lt;&gt;"",B99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;B99&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="H99" s="44" t="str">
-        <f t="shared" ref="H99:H101" si="53">IF(AND(A99&lt;&gt;"",C99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;C99&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="I99" s="44" t="str">
-        <f t="shared" ref="I99:I101" si="54">IF(AND(A99&lt;&gt;"",D99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;D99&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="J99" s="44" t="str">
-        <f t="shared" ref="J99:J101" si="55">IF(AND(A99&lt;&gt;"",E99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;E99&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="B100" s="44" t="str">
-        <f t="shared" ref="B100:B101" si="56">"CHS/"&amp;A100</f>
-        <v>CHS/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="C100" s="44" t="str">
-        <f t="shared" ref="C100:C101" si="57">"CHS/"&amp;A100</f>
-        <v>CHS/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="D100" s="44" t="str">
-        <f t="shared" ref="D100:D101" si="58">"EN/"&amp;A100</f>
-        <v>EN/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="E100" s="44" t="str">
-        <f t="shared" ref="E100:E101" si="59">"JP/"&amp;A100</f>
-        <v>JP/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="G100" s="44" t="str">
-        <f t="shared" si="52"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="H100" s="44" t="str">
-        <f t="shared" si="53"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="I100" s="44" t="str">
-        <f t="shared" si="54"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="J100" s="44" t="str">
-        <f t="shared" si="55"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B101" s="44" t="str">
-        <f t="shared" si="56"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
-      </c>
-      <c r="C101" s="44" t="str">
-        <f t="shared" si="57"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
-      </c>
-      <c r="D101" s="44" t="str">
-        <f t="shared" si="58"/>
-        <v>EN/galaxy_new_world_welcome_002</v>
-      </c>
-      <c r="E101" s="44" t="str">
-        <f t="shared" si="59"/>
-        <v>JP/galaxy_new_world_welcome_002</v>
-      </c>
-      <c r="G101" s="44" t="str">
-        <f t="shared" si="52"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
-      </c>
-      <c r="H101" s="44" t="str">
-        <f t="shared" si="53"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
-      </c>
-      <c r="I101" s="44" t="str">
-        <f t="shared" si="54"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
-      </c>
-      <c r="J101" s="44" t="str">
-        <f t="shared" si="55"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="B102" s="44" t="str">
-        <f t="shared" ref="B102:B106" si="60">"CHS/"&amp;A102</f>
-        <v>CHS/galaxy_welcome_001</v>
-      </c>
-      <c r="C102" s="44" t="str">
-        <f t="shared" ref="C102:C106" si="61">"CHS/"&amp;A102</f>
-        <v>CHS/galaxy_welcome_001</v>
-      </c>
-      <c r="D102" s="44" t="str">
-        <f t="shared" ref="D102:D106" si="62">"EN/"&amp;A102</f>
-        <v>EN/galaxy_welcome_001</v>
-      </c>
-      <c r="E102" s="44" t="str">
-        <f t="shared" ref="E102:E106" si="63">"JP/"&amp;A102</f>
-        <v>JP/galaxy_welcome_001</v>
-      </c>
-      <c r="G102" s="44" t="str">
-        <f t="shared" ref="G102:G106" si="64">IF(AND(A102&lt;&gt;"",B102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;B102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
-      </c>
-      <c r="H102" s="44" t="str">
-        <f t="shared" ref="H102:H106" si="65">IF(AND(A102&lt;&gt;"",C102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;C102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
-      </c>
-      <c r="I102" s="44" t="str">
-        <f t="shared" ref="I102:I106" si="66">IF(AND(A102&lt;&gt;"",D102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;D102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
-      </c>
-      <c r="J102" s="44" t="str">
-        <f t="shared" ref="J102:J106" si="67">IF(AND(A102&lt;&gt;"",E102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;E102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="B103" s="44" t="str">
-        <f t="shared" si="60"/>
-        <v>CHS/galaxy_welcome_002</v>
-      </c>
-      <c r="C103" s="44" t="str">
-        <f t="shared" si="61"/>
-        <v>CHS/galaxy_welcome_002</v>
-      </c>
-      <c r="D103" s="44" t="str">
-        <f t="shared" si="62"/>
-        <v>EN/galaxy_welcome_002</v>
-      </c>
-      <c r="E103" s="44" t="str">
-        <f t="shared" si="63"/>
-        <v>JP/galaxy_welcome_002</v>
-      </c>
-      <c r="G103" s="44" t="str">
-        <f t="shared" si="64"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="H103" s="44" t="str">
-        <f t="shared" si="65"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="I103" s="44" t="str">
-        <f t="shared" si="66"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="J103" s="44" t="str">
-        <f t="shared" si="67"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="54" t="s">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="B104" s="44" t="str">
-        <f t="shared" si="60"/>
+      <c r="B115" s="64" t="str">
+        <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="C104" s="44" t="str">
-        <f t="shared" si="61"/>
+      <c r="C115" s="64" t="str">
+        <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="D104" s="44" t="str">
-        <f t="shared" si="62"/>
+      <c r="D115" s="64" t="str">
+        <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_003</v>
       </c>
-      <c r="E104" s="44" t="str">
-        <f t="shared" si="63"/>
+      <c r="E115" s="64" t="str">
+        <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_003</v>
       </c>
-      <c r="G104" s="44" t="str">
-        <f t="shared" si="64"/>
+      <c r="G115" s="62" t="str">
+        <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="H104" s="44" t="str">
-        <f t="shared" si="65"/>
+      <c r="H115" s="62" t="str">
+        <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="I104" s="44" t="str">
-        <f t="shared" si="66"/>
+      <c r="I115" s="62" t="str">
+        <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="J104" s="44" t="str">
-        <f t="shared" si="67"/>
+      <c r="J115" s="62" t="str">
+        <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="54" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="B105" s="44" t="str">
-        <f t="shared" si="60"/>
+      <c r="B116" s="64" t="str">
+        <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="C105" s="44" t="str">
-        <f t="shared" si="61"/>
+      <c r="C116" s="64" t="str">
+        <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="D105" s="44" t="str">
-        <f t="shared" si="62"/>
+      <c r="D116" s="64" t="str">
+        <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_004</v>
       </c>
-      <c r="E105" s="44" t="str">
-        <f t="shared" si="63"/>
+      <c r="E116" s="64" t="str">
+        <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_004</v>
       </c>
-      <c r="G105" s="44" t="str">
-        <f t="shared" si="64"/>
+      <c r="G116" s="62" t="str">
+        <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="H105" s="44" t="str">
-        <f t="shared" si="65"/>
+      <c r="H116" s="62" t="str">
+        <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="I105" s="44" t="str">
-        <f t="shared" si="66"/>
+      <c r="I116" s="62" t="str">
+        <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="J105" s="44" t="str">
-        <f t="shared" si="67"/>
+      <c r="J116" s="62" t="str">
+        <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="54" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A117" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="B106" s="44" t="str">
-        <f t="shared" si="60"/>
+      <c r="B117" s="64" t="str">
+        <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="C106" s="44" t="str">
-        <f t="shared" si="61"/>
+      <c r="C117" s="64" t="str">
+        <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="D106" s="44" t="str">
-        <f t="shared" si="62"/>
+      <c r="D117" s="64" t="str">
+        <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_005</v>
       </c>
-      <c r="E106" s="44" t="str">
-        <f t="shared" si="63"/>
+      <c r="E117" s="64" t="str">
+        <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_005</v>
       </c>
-      <c r="G106" s="44" t="str">
-        <f t="shared" si="64"/>
+      <c r="G117" s="62" t="str">
+        <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="H106" s="44" t="str">
-        <f t="shared" si="65"/>
+      <c r="H117" s="62" t="str">
+        <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="I106" s="44" t="str">
-        <f t="shared" si="66"/>
+      <c r="I117" s="62" t="str">
+        <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="J106" s="44" t="str">
-        <f t="shared" si="67"/>
+      <c r="J117" s="62" t="str">
+        <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="54" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A118" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="B107" s="44" t="str">
-        <f t="shared" ref="B107" si="68">"CHS/"&amp;A107</f>
+      <c r="B118" s="64" t="str">
+        <f t="shared" si="32"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="C107" s="44" t="str">
-        <f t="shared" ref="C107" si="69">"CHS/"&amp;A107</f>
+      <c r="C118" s="64" t="str">
+        <f t="shared" si="33"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="D107" s="44" t="str">
-        <f t="shared" ref="D107" si="70">"EN/"&amp;A107</f>
+      <c r="D118" s="64" t="str">
+        <f t="shared" si="34"/>
         <v>EN/mission_complete_retry</v>
       </c>
-      <c r="E107" s="44" t="str">
-        <f t="shared" ref="E107" si="71">"JP/"&amp;A107</f>
+      <c r="E118" s="64" t="str">
+        <f t="shared" si="35"/>
         <v>JP/mission_complete_retry</v>
       </c>
-      <c r="G107" s="44" t="str">
-        <f>IF(AND(A107&lt;&gt;"",B107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;B107&amp;""" /&gt;","")</f>
+      <c r="G118" s="62" t="str">
+        <f>IF(AND(A118&lt;&gt;"",B118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;B118&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="H107" s="44" t="str">
-        <f>IF(AND(A107&lt;&gt;"",C107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;C107&amp;""" /&gt;","")</f>
+      <c r="H118" s="62" t="str">
+        <f>IF(AND(A118&lt;&gt;"",C118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;C118&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="I107" s="44" t="str">
-        <f>IF(AND(A107&lt;&gt;"",D107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;D107&amp;""" /&gt;","")</f>
+      <c r="I118" s="62" t="str">
+        <f>IF(AND(A118&lt;&gt;"",D118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;D118&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="J107" s="44" t="str">
-        <f>IF(AND(A107&lt;&gt;"",E107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;E107&amp;""" /&gt;","")</f>
+      <c r="J118" s="62" t="str">
+        <f>IF(AND(A118&lt;&gt;"",E118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;E118&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>
@@ -9285,10 +9639,23 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:E55 A56:A66 A67:E1048576">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:E66">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073283F-9BED-4130-B317-017A70F8B333}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE7F18-F0A2-4F88-8910-E409040A4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="414">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2526,6 +2526,9 @@
   </si>
   <si>
     <t>guide_homepage_011</t>
+  </si>
+  <si>
+    <t>galaxy_welcome_006</t>
   </si>
 </sst>
 </file>
@@ -3022,6 +3025,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3031,17 +3042,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4060,7 +4063,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4076,7 +4079,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4090,7 +4093,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4104,7 +4107,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4118,7 +4121,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4132,7 +4135,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -4160,7 +4163,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -4202,7 +4205,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -4230,7 +4233,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
@@ -4246,7 +4249,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -4410,7 +4413,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="66" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -4430,7 +4433,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
@@ -4446,7 +4449,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
@@ -4718,12 +4721,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5177,12 +5180,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5350,12 +5353,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5566,44 +5569,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF947AC-89FA-4CC2-B72C-B72AB83DE7D9}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.875" style="64" customWidth="1"/>
-    <col min="2" max="5" width="30.625" style="64" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="62"/>
+    <col min="1" max="1" width="36.875" style="61" customWidth="1"/>
+    <col min="2" max="5" width="30.625" style="61" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="43"/>
@@ -5621,4016 +5624,4053 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="63" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="64" t="str">
+      <c r="B4" s="61" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_CHS"</f>
         <v>NoviceGuide/NoviceGuide_CHS</v>
       </c>
-      <c r="C4" s="64" t="str">
+      <c r="C4" s="61" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_CHT"</f>
         <v>NoviceGuide/NoviceGuide_CHT</v>
       </c>
-      <c r="D4" s="64" t="str">
+      <c r="D4" s="61" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_EN"</f>
         <v>NoviceGuide/NoviceGuide_EN</v>
       </c>
-      <c r="E4" s="64" t="str">
+      <c r="E4" s="61" t="str">
         <f>"NoviceGuide/"&amp;A4&amp;"_JP"</f>
         <v>NoviceGuide/NoviceGuide_JP</v>
       </c>
-      <c r="G4" s="62" t="str">
+      <c r="G4" s="59" t="str">
         <f>IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_CHS" /&gt;</v>
       </c>
-      <c r="H4" s="62" t="str">
+      <c r="H4" s="59" t="str">
         <f>IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_CHT" /&gt;</v>
       </c>
-      <c r="I4" s="62" t="str">
+      <c r="I4" s="59" t="str">
         <f>IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_EN" /&gt;</v>
       </c>
-      <c r="J4" s="62" t="str">
+      <c r="J4" s="59" t="str">
         <f>IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="NoviceGuide" Value="NoviceGuide/NoviceGuide_JP" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="64" t="str">
+      <c r="B5" s="61" t="str">
         <f>"NoviceGuide/CHS/"&amp;A5</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="C5" s="64" t="str">
+      <c r="C5" s="61" t="str">
         <f>"NoviceGuide/CHS/"&amp;A5</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="D5" s="64" t="str">
+      <c r="D5" s="61" t="str">
         <f>"NoviceGuide/EN/"&amp;A5</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="E5" s="64" t="str">
+      <c r="E5" s="61" t="str">
         <f>"NoviceGuide/JP/"&amp;A5</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.1.1</v>
       </c>
-      <c r="G5" s="62" t="str">
+      <c r="G5" s="59" t="str">
         <f t="shared" ref="G5:G70" si="0">IF(AND(A5&lt;&gt;"",B5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;B5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="H5" s="62" t="str">
+      <c r="H5" s="59" t="str">
         <f t="shared" ref="H5:H70" si="1">IF(AND(A5&lt;&gt;"",C5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;C5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="I5" s="62" t="str">
+      <c r="I5" s="59" t="str">
         <f t="shared" ref="I5:I70" si="2">IF(AND(A5&lt;&gt;"",D5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;D5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/EN/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
-      <c r="J5" s="62" t="str">
+      <c r="J5" s="59" t="str">
         <f t="shared" ref="J5:J70" si="3">IF(AND(A5&lt;&gt;"",E5&lt;&gt;""),"&lt;Audio Key="""&amp;A5&amp;""" Value="""&amp;E5&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_1_welcome_1.1.1" Value="NoviceGuide/JP/guide_1_welcome_1.1.1" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="64" t="str">
+      <c r="B6" s="61" t="str">
         <f>"NoviceGuide/CHS/"&amp;A6</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1</v>
       </c>
-      <c r="C6" s="64" t="str">
+      <c r="C6" s="61" t="str">
         <f>"NoviceGuide/CHS/"&amp;A6</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.1</v>
       </c>
-      <c r="D6" s="64" t="str">
+      <c r="D6" s="61" t="str">
         <f>"NoviceGuide/EN/"&amp;A6</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.1</v>
       </c>
-      <c r="E6" s="64" t="str">
+      <c r="E6" s="61" t="str">
         <f>"NoviceGuide/JP/"&amp;A6</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.1</v>
       </c>
-      <c r="G6" s="62" t="str">
+      <c r="G6" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="H6" s="62" t="str">
+      <c r="H6" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/CHS/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="I6" s="62" t="str">
+      <c r="I6" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/EN/guide_1_welcome_1.1" /&gt;</v>
       </c>
-      <c r="J6" s="62" t="str">
+      <c r="J6" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_1_welcome_1.1" Value="NoviceGuide/JP/guide_1_welcome_1.1" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="64" t="str">
+      <c r="B7" s="61" t="str">
         <f t="shared" ref="B7:B28" si="4">"NoviceGuide/CHS/"&amp;A7</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.2</v>
       </c>
-      <c r="C7" s="64" t="str">
+      <c r="C7" s="61" t="str">
         <f t="shared" ref="C7:C28" si="5">"NoviceGuide/CHS/"&amp;A7</f>
         <v>NoviceGuide/CHS/guide_1_welcome_1.2</v>
       </c>
-      <c r="D7" s="64" t="str">
+      <c r="D7" s="61" t="str">
         <f t="shared" ref="D7:D28" si="6">"NoviceGuide/EN/"&amp;A7</f>
         <v>NoviceGuide/EN/guide_1_welcome_1.2</v>
       </c>
-      <c r="E7" s="64" t="str">
+      <c r="E7" s="61" t="str">
         <f t="shared" ref="E7:E28" si="7">"NoviceGuide/JP/"&amp;A7</f>
         <v>NoviceGuide/JP/guide_1_welcome_1.2</v>
       </c>
-      <c r="G7" s="62" t="str">
+      <c r="G7" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/CHS/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="H7" s="62" t="str">
+      <c r="H7" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/CHS/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="I7" s="62" t="str">
+      <c r="I7" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/EN/guide_1_welcome_1.2" /&gt;</v>
       </c>
-      <c r="J7" s="62" t="str">
+      <c r="J7" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_1_welcome_1.2" Value="NoviceGuide/JP/guide_1_welcome_1.2" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="64" t="str">
+      <c r="B8" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="C8" s="64" t="str">
+      <c r="C8" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="D8" s="64" t="str">
+      <c r="D8" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="E8" s="64" t="str">
+      <c r="E8" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.1.1</v>
       </c>
-      <c r="G8" s="62" t="str">
+      <c r="G8" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="H8" s="62" t="str">
+      <c r="H8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="I8" s="62" t="str">
+      <c r="I8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/EN/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
-      <c r="J8" s="62" t="str">
+      <c r="J8" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.1" Value="NoviceGuide/JP/guide_2_qrcode_2.1.1" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="64" t="str">
+      <c r="B9" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="C9" s="64" t="str">
+      <c r="C9" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="D9" s="64" t="str">
+      <c r="D9" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="E9" s="64" t="str">
+      <c r="E9" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.1.2</v>
       </c>
-      <c r="G9" s="62" t="str">
+      <c r="G9" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="H9" s="62" t="str">
+      <c r="H9" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="I9" s="62" t="str">
+      <c r="I9" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/EN/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
-      <c r="J9" s="62" t="str">
+      <c r="J9" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.1.2" Value="NoviceGuide/JP/guide_2_qrcode_2.1.2" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="64" t="str">
+      <c r="B10" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.2</v>
       </c>
-      <c r="C10" s="64" t="str">
+      <c r="C10" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_2_qrcode_2.2</v>
       </c>
-      <c r="D10" s="64" t="str">
+      <c r="D10" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_2_qrcode_2.2</v>
       </c>
-      <c r="E10" s="64" t="str">
+      <c r="E10" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_2_qrcode_2.2</v>
       </c>
-      <c r="G10" s="62" t="str">
+      <c r="G10" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="H10" s="62" t="str">
+      <c r="H10" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/CHS/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="I10" s="62" t="str">
+      <c r="I10" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/EN/guide_2_qrcode_2.2" /&gt;</v>
       </c>
-      <c r="J10" s="62" t="str">
+      <c r="J10" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_qrcode_2.2" Value="NoviceGuide/JP/guide_2_qrcode_2.2" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="64" t="str">
+      <c r="B11" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_3_qrcode_3</v>
       </c>
-      <c r="C11" s="64" t="str">
+      <c r="C11" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_3_qrcode_3</v>
       </c>
-      <c r="D11" s="64" t="str">
+      <c r="D11" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_3_qrcode_3</v>
       </c>
-      <c r="E11" s="64" t="str">
+      <c r="E11" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_3_qrcode_3</v>
       </c>
-      <c r="G11" s="62" t="str">
+      <c r="G11" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/CHS/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="H11" s="62" t="str">
+      <c r="H11" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/CHS/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="I11" s="62" t="str">
+      <c r="I11" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/EN/guide_3_qrcode_3" /&gt;</v>
       </c>
-      <c r="J11" s="62" t="str">
+      <c r="J11" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_3_qrcode_3" Value="NoviceGuide/JP/guide_3_qrcode_3" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="64" t="str">
+      <c r="B12" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="C12" s="64" t="str">
+      <c r="C12" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="D12" s="64" t="str">
+      <c r="D12" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="E12" s="64" t="str">
+      <c r="E12" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_4_washbottle_4.1.1</v>
       </c>
-      <c r="G12" s="62" t="str">
+      <c r="G12" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="H12" s="62" t="str">
+      <c r="H12" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="I12" s="62" t="str">
+      <c r="I12" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/EN/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
-      <c r="J12" s="62" t="str">
+      <c r="J12" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.1" Value="NoviceGuide/JP/guide_4_washbottle_4.1.1" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="64" t="str">
+      <c r="B13" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="C13" s="64" t="str">
+      <c r="C13" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="D13" s="64" t="str">
+      <c r="D13" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="E13" s="64" t="str">
+      <c r="E13" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_4_washbottle_4.1.2</v>
       </c>
-      <c r="G13" s="62" t="str">
+      <c r="G13" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="H13" s="62" t="str">
+      <c r="H13" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/CHS/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="I13" s="62" t="str">
+      <c r="I13" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/EN/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
-      <c r="J13" s="62" t="str">
+      <c r="J13" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_4_washbottle_4.1.2" Value="NoviceGuide/JP/guide_4_washbottle_4.1.2" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="64" t="str">
+      <c r="B14" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.1</v>
       </c>
-      <c r="C14" s="64" t="str">
+      <c r="C14" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.1</v>
       </c>
-      <c r="D14" s="64" t="str">
+      <c r="D14" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.1.1</v>
       </c>
-      <c r="E14" s="64" t="str">
+      <c r="E14" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.1.1</v>
       </c>
-      <c r="G14" s="62" t="str">
+      <c r="G14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/CHS/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="H14" s="62" t="str">
+      <c r="H14" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/CHS/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="I14" s="62" t="str">
+      <c r="I14" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/EN/guide_5_game_5.1.1" /&gt;</v>
       </c>
-      <c r="J14" s="62" t="str">
+      <c r="J14" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.1.1" Value="NoviceGuide/JP/guide_5_game_5.1.1" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="64" t="str">
+      <c r="B15" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.2</v>
       </c>
-      <c r="C15" s="64" t="str">
+      <c r="C15" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.1.2</v>
       </c>
-      <c r="D15" s="64" t="str">
+      <c r="D15" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.1.2</v>
       </c>
-      <c r="E15" s="64" t="str">
+      <c r="E15" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.1.2</v>
       </c>
-      <c r="G15" s="62" t="str">
+      <c r="G15" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/CHS/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="H15" s="62" t="str">
+      <c r="H15" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/CHS/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="I15" s="62" t="str">
+      <c r="I15" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/EN/guide_5_game_5.1.2" /&gt;</v>
       </c>
-      <c r="J15" s="62" t="str">
+      <c r="J15" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.1.2" Value="NoviceGuide/JP/guide_5_game_5.1.2" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="64" t="str">
+      <c r="B16" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.1</v>
       </c>
-      <c r="C16" s="64" t="str">
+      <c r="C16" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.1</v>
       </c>
-      <c r="D16" s="64" t="str">
+      <c r="D16" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.3.1</v>
       </c>
-      <c r="E16" s="64" t="str">
+      <c r="E16" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.3.1</v>
       </c>
-      <c r="G16" s="62" t="str">
+      <c r="G16" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/CHS/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="H16" s="62" t="str">
+      <c r="H16" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/CHS/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="I16" s="62" t="str">
+      <c r="I16" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/EN/guide_5_game_5.3.1" /&gt;</v>
       </c>
-      <c r="J16" s="62" t="str">
+      <c r="J16" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.3.1" Value="NoviceGuide/JP/guide_5_game_5.3.1" /&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="64" t="str">
+      <c r="B17" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.2</v>
       </c>
-      <c r="C17" s="64" t="str">
+      <c r="C17" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.3.2</v>
       </c>
-      <c r="D17" s="64" t="str">
+      <c r="D17" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.3.2</v>
       </c>
-      <c r="E17" s="64" t="str">
+      <c r="E17" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.3.2</v>
       </c>
-      <c r="G17" s="62" t="str">
+      <c r="G17" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/CHS/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="H17" s="62" t="str">
+      <c r="H17" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/CHS/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="I17" s="62" t="str">
+      <c r="I17" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/EN/guide_5_game_5.3.2" /&gt;</v>
       </c>
-      <c r="J17" s="62" t="str">
+      <c r="J17" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.3.2" Value="NoviceGuide/JP/guide_5_game_5.3.2" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="64" t="str">
+      <c r="B18" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.1</v>
       </c>
-      <c r="C18" s="64" t="str">
+      <c r="C18" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.1</v>
       </c>
-      <c r="D18" s="64" t="str">
+      <c r="D18" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.1</v>
       </c>
-      <c r="E18" s="64" t="str">
+      <c r="E18" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.1</v>
       </c>
-      <c r="G18" s="62" t="str">
+      <c r="G18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/CHS/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="H18" s="62" t="str">
+      <c r="H18" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/CHS/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="I18" s="62" t="str">
+      <c r="I18" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/EN/guide_5_game_5.4.1" /&gt;</v>
       </c>
-      <c r="J18" s="62" t="str">
+      <c r="J18" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.1" Value="NoviceGuide/JP/guide_5_game_5.4.1" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="64" t="str">
+      <c r="B19" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.2</v>
       </c>
-      <c r="C19" s="64" t="str">
+      <c r="C19" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.2</v>
       </c>
-      <c r="D19" s="64" t="str">
+      <c r="D19" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.2</v>
       </c>
-      <c r="E19" s="64" t="str">
+      <c r="E19" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.2</v>
       </c>
-      <c r="G19" s="62" t="str">
+      <c r="G19" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/CHS/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="H19" s="62" t="str">
+      <c r="H19" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/CHS/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="I19" s="62" t="str">
+      <c r="I19" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/EN/guide_5_game_5.4.2" /&gt;</v>
       </c>
-      <c r="J19" s="62" t="str">
+      <c r="J19" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.2" Value="NoviceGuide/JP/guide_5_game_5.4.2" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="64" t="str">
+      <c r="B20" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.3</v>
       </c>
-      <c r="C20" s="64" t="str">
+      <c r="C20" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.4.3</v>
       </c>
-      <c r="D20" s="64" t="str">
+      <c r="D20" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.4.3</v>
       </c>
-      <c r="E20" s="64" t="str">
+      <c r="E20" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.4.3</v>
       </c>
-      <c r="G20" s="62" t="str">
+      <c r="G20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/CHS/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="H20" s="62" t="str">
+      <c r="H20" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/CHS/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="I20" s="62" t="str">
+      <c r="I20" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/EN/guide_5_game_5.4.3" /&gt;</v>
       </c>
-      <c r="J20" s="62" t="str">
+      <c r="J20" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.4.3" Value="NoviceGuide/JP/guide_5_game_5.4.3" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="64" t="str">
+      <c r="B21" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.1</v>
       </c>
-      <c r="C21" s="64" t="str">
+      <c r="C21" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.1</v>
       </c>
-      <c r="D21" s="64" t="str">
+      <c r="D21" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.5.1</v>
       </c>
-      <c r="E21" s="64" t="str">
+      <c r="E21" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.5.1</v>
       </c>
-      <c r="G21" s="62" t="str">
+      <c r="G21" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/CHS/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="H21" s="62" t="str">
+      <c r="H21" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/CHS/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="I21" s="62" t="str">
+      <c r="I21" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/EN/guide_5_game_5.5.1" /&gt;</v>
       </c>
-      <c r="J21" s="62" t="str">
+      <c r="J21" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.5.1" Value="NoviceGuide/JP/guide_5_game_5.5.1" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="64" t="str">
+      <c r="B22" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.2</v>
       </c>
-      <c r="C22" s="64" t="str">
+      <c r="C22" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_5.5.2</v>
       </c>
-      <c r="D22" s="64" t="str">
+      <c r="D22" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_5.5.2</v>
       </c>
-      <c r="E22" s="64" t="str">
+      <c r="E22" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_5.5.2</v>
       </c>
-      <c r="G22" s="62" t="str">
+      <c r="G22" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/CHS/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="H22" s="62" t="str">
+      <c r="H22" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/CHS/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="I22" s="62" t="str">
+      <c r="I22" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/EN/guide_5_game_5.5.2" /&gt;</v>
       </c>
-      <c r="J22" s="62" t="str">
+      <c r="J22" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_5.5.2" Value="NoviceGuide/JP/guide_5_game_5.5.2" /&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="64" t="str">
+      <c r="B23" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="C23" s="64" t="str">
+      <c r="C23" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="D23" s="64" t="str">
+      <c r="D23" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="E23" s="64" t="str">
+      <c r="E23" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_dailygoal_5.6.1</v>
       </c>
-      <c r="G23" s="62" t="str">
+      <c r="G23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="H23" s="62" t="str">
+      <c r="H23" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="I23" s="62" t="str">
+      <c r="I23" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/EN/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
-      <c r="J23" s="62" t="str">
+      <c r="J23" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.1" Value="NoviceGuide/JP/guide_5_game_dailygoal_5.6.1" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="64" t="str">
+      <c r="B24" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="C24" s="64" t="str">
+      <c r="C24" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="D24" s="64" t="str">
+      <c r="D24" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="E24" s="64" t="str">
+      <c r="E24" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_5_game_dailygoal_5.6.2</v>
       </c>
-      <c r="G24" s="62" t="str">
+      <c r="G24" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="H24" s="62" t="str">
+      <c r="H24" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/CHS/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="I24" s="62" t="str">
+      <c r="I24" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/EN/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
-      <c r="J24" s="62" t="str">
+      <c r="J24" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_5_game_dailygoal_5.6.2" Value="NoviceGuide/JP/guide_5_game_dailygoal_5.6.2" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="64" t="str">
+      <c r="B25" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.7</v>
       </c>
-      <c r="C25" s="64" t="str">
+      <c r="C25" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.7</v>
       </c>
-      <c r="D25" s="64" t="str">
+      <c r="D25" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.7</v>
       </c>
-      <c r="E25" s="64" t="str">
+      <c r="E25" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.7</v>
       </c>
-      <c r="G25" s="62" t="str">
+      <c r="G25" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/CHS/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="H25" s="62" t="str">
+      <c r="H25" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/CHS/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="I25" s="62" t="str">
+      <c r="I25" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/EN/guide_6_skill_5.7" /&gt;</v>
       </c>
-      <c r="J25" s="62" t="str">
+      <c r="J25" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.7" Value="NoviceGuide/JP/guide_6_skill_5.7" /&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="64" t="str">
+      <c r="B26" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.8</v>
       </c>
-      <c r="C26" s="64" t="str">
+      <c r="C26" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.8</v>
       </c>
-      <c r="D26" s="64" t="str">
+      <c r="D26" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.8</v>
       </c>
-      <c r="E26" s="64" t="str">
+      <c r="E26" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.8</v>
       </c>
-      <c r="G26" s="62" t="str">
+      <c r="G26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/CHS/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="H26" s="62" t="str">
+      <c r="H26" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/CHS/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="I26" s="62" t="str">
+      <c r="I26" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/EN/guide_6_skill_5.8" /&gt;</v>
       </c>
-      <c r="J26" s="62" t="str">
+      <c r="J26" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.8" Value="NoviceGuide/JP/guide_6_skill_5.8" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="64" t="str">
+      <c r="B27" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.9</v>
       </c>
-      <c r="C27" s="64" t="str">
+      <c r="C27" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_6_skill_5.9</v>
       </c>
-      <c r="D27" s="64" t="str">
+      <c r="D27" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_6_skill_5.9</v>
       </c>
-      <c r="E27" s="64" t="str">
+      <c r="E27" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_6_skill_5.9</v>
       </c>
-      <c r="G27" s="62" t="str">
+      <c r="G27" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/CHS/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="H27" s="62" t="str">
+      <c r="H27" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/CHS/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="I27" s="62" t="str">
+      <c r="I27" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/EN/guide_6_skill_5.9" /&gt;</v>
       </c>
-      <c r="J27" s="62" t="str">
+      <c r="J27" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_6_skill_5.9" Value="NoviceGuide/JP/guide_6_skill_5.9" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="64" t="str">
+      <c r="B28" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NoviceGuide/CHS/guide_7_complete_510</v>
       </c>
-      <c r="C28" s="64" t="str">
+      <c r="C28" s="61" t="str">
         <f t="shared" si="5"/>
         <v>NoviceGuide/CHS/guide_7_complete_510</v>
       </c>
-      <c r="D28" s="64" t="str">
+      <c r="D28" s="61" t="str">
         <f t="shared" si="6"/>
         <v>NoviceGuide/EN/guide_7_complete_510</v>
       </c>
-      <c r="E28" s="64" t="str">
+      <c r="E28" s="61" t="str">
         <f t="shared" si="7"/>
         <v>NoviceGuide/JP/guide_7_complete_510</v>
       </c>
-      <c r="G28" s="62" t="str">
+      <c r="G28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/CHS/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="H28" s="62" t="str">
+      <c r="H28" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/CHS/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="I28" s="62" t="str">
+      <c r="I28" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/EN/guide_7_complete_510" /&gt;</v>
       </c>
-      <c r="J28" s="62" t="str">
+      <c r="J28" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_7_complete_510" Value="NoviceGuide/JP/guide_7_complete_510" /&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="63" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="63" t="str">
+      <c r="G29" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="63" t="str">
+      <c r="H29" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I29" s="63" t="str">
+      <c r="I29" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" s="63" t="str">
+      <c r="J29" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="63" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G30" s="63" t="str">
+      <c r="G30" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="63" t="str">
+      <c r="H30" s="60" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I30" s="63" t="str">
+      <c r="I30" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="63" t="str">
+      <c r="J30" s="60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="64" t="str">
+      <c r="B31" s="61" t="str">
         <f>"CHS/"&amp;A31</f>
         <v>CHS/pair_active_success_cn</v>
       </c>
-      <c r="C31" s="64" t="str">
+      <c r="C31" s="61" t="str">
         <f>"CHS/"&amp;A31</f>
         <v>CHS/pair_active_success_cn</v>
       </c>
-      <c r="D31" s="64" t="str">
+      <c r="D31" s="61" t="str">
         <f>"EN/"&amp;A31</f>
         <v>EN/pair_active_success_cn</v>
       </c>
-      <c r="E31" s="64" t="str">
+      <c r="E31" s="61" t="str">
         <f>"JP/"&amp;A31</f>
         <v>JP/pair_active_success_cn</v>
       </c>
-      <c r="G31" s="62" t="str">
+      <c r="G31" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="H31" s="62" t="str">
+      <c r="H31" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="I31" s="62" t="str">
+      <c r="I31" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="EN/pair_active_success_cn" /&gt;</v>
       </c>
-      <c r="J31" s="62" t="str">
+      <c r="J31" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_active_success_cn" Value="JP/pair_active_success_cn" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="B32" s="64" t="str">
+      <c r="B32" s="61" t="str">
         <f t="shared" ref="B32:B55" si="8">"CHS/"&amp;A32</f>
         <v>CHS/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="C32" s="64" t="str">
+      <c r="C32" s="61" t="str">
         <f t="shared" ref="C32:C55" si="9">"CHS/"&amp;A32</f>
         <v>CHS/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="D32" s="64" t="str">
+      <c r="D32" s="61" t="str">
         <f t="shared" ref="D32:D55" si="10">"EN/"&amp;A32</f>
         <v>EN/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="E32" s="64" t="str">
+      <c r="E32" s="61" t="str">
         <f t="shared" ref="E32:E55" si="11">"JP/"&amp;A32</f>
         <v>JP/pair_connect_to_cloud_fail_cn</v>
       </c>
-      <c r="G32" s="62" t="str">
+      <c r="G32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="CHS/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="H32" s="62" t="str">
+      <c r="H32" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="CHS/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="I32" s="62" t="str">
+      <c r="I32" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="EN/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
-      <c r="J32" s="62" t="str">
+      <c r="J32" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_cloud_fail_cn" Value="JP/pair_connect_to_cloud_fail_cn" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="64" t="str">
+      <c r="B33" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="C33" s="64" t="str">
+      <c r="C33" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="D33" s="64" t="str">
+      <c r="D33" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="E33" s="64" t="str">
+      <c r="E33" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_cn</v>
       </c>
-      <c r="G33" s="62" t="str">
+      <c r="G33" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="CHS/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="H33" s="62" t="str">
+      <c r="H33" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="CHS/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="I33" s="62" t="str">
+      <c r="I33" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="EN/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
-      <c r="J33" s="62" t="str">
+      <c r="J33" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_cn" Value="JP/pair_connect_to_router_fail_cn" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="64" t="str">
+      <c r="B34" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="C34" s="64" t="str">
+      <c r="C34" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="D34" s="64" t="str">
+      <c r="D34" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="E34" s="64" t="str">
+      <c r="E34" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_other_cn</v>
       </c>
-      <c r="G34" s="62" t="str">
+      <c r="G34" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="CHS/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="H34" s="62" t="str">
+      <c r="H34" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="CHS/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="I34" s="62" t="str">
+      <c r="I34" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="EN/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
-      <c r="J34" s="62" t="str">
+      <c r="J34" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_other_cn" Value="JP/pair_connect_to_router_fail_other_cn" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="64" t="str">
+      <c r="B35" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="C35" s="64" t="str">
+      <c r="C35" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="D35" s="64" t="str">
+      <c r="D35" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="E35" s="64" t="str">
+      <c r="E35" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/pair_connect_to_router_fail_password_cn</v>
       </c>
-      <c r="G35" s="62" t="str">
+      <c r="G35" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="CHS/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="H35" s="62" t="str">
+      <c r="H35" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="CHS/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="I35" s="62" t="str">
+      <c r="I35" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="EN/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
-      <c r="J35" s="62" t="str">
+      <c r="J35" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_connect_to_router_fail_password_cn" Value="JP/pair_connect_to_router_fail_password_cn" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="64" t="str">
+      <c r="B36" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/pair_start_cn</v>
       </c>
-      <c r="C36" s="64" t="str">
+      <c r="C36" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/pair_start_cn</v>
       </c>
-      <c r="D36" s="64" t="str">
+      <c r="D36" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/pair_start_cn</v>
       </c>
-      <c r="E36" s="64" t="str">
+      <c r="E36" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/pair_start_cn</v>
       </c>
-      <c r="G36" s="62" t="str">
+      <c r="G36" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_start_cn" Value="CHS/pair_start_cn" /&gt;</v>
       </c>
-      <c r="H36" s="62" t="str">
+      <c r="H36" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_start_cn" Value="CHS/pair_start_cn" /&gt;</v>
       </c>
-      <c r="I36" s="62" t="str">
+      <c r="I36" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_start_cn" Value="EN/pair_start_cn" /&gt;</v>
       </c>
-      <c r="J36" s="62" t="str">
+      <c r="J36" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_start_cn" Value="JP/pair_start_cn" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="64" t="str">
+      <c r="B37" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/pair_update_wifi_success_cn</v>
       </c>
-      <c r="C37" s="64" t="str">
+      <c r="C37" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/pair_update_wifi_success_cn</v>
       </c>
-      <c r="D37" s="64" t="str">
+      <c r="D37" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/pair_update_wifi_success_cn</v>
       </c>
-      <c r="E37" s="64" t="str">
+      <c r="E37" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/pair_update_wifi_success_cn</v>
       </c>
-      <c r="G37" s="62" t="str">
+      <c r="G37" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="CHS/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="H37" s="62" t="str">
+      <c r="H37" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="CHS/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="I37" s="62" t="str">
+      <c r="I37" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="EN/pair_update_wifi_success_cn" /&gt;</v>
       </c>
-      <c r="J37" s="62" t="str">
+      <c r="J37" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="pair_update_wifi_success_cn" Value="JP/pair_update_wifi_success_cn" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="64" t="str">
+      <c r="B38" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/ai_popup_notactivated</v>
       </c>
-      <c r="C38" s="64" t="str">
+      <c r="C38" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/ai_popup_notactivated</v>
       </c>
-      <c r="D38" s="64" t="str">
+      <c r="D38" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/ai_popup_notactivated</v>
       </c>
-      <c r="E38" s="64" t="str">
+      <c r="E38" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/ai_popup_notactivated</v>
       </c>
-      <c r="G38" s="62" t="str">
+      <c r="G38" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="CHS/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="H38" s="62" t="str">
+      <c r="H38" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="CHS/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="I38" s="62" t="str">
+      <c r="I38" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="EN/ai_popup_notactivated" /&gt;</v>
       </c>
-      <c r="J38" s="62" t="str">
+      <c r="J38" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="ai_popup_notactivated" Value="JP/ai_popup_notactivated" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="64" t="str">
+      <c r="B39" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/collection_story_tip1</v>
       </c>
-      <c r="C39" s="64" t="str">
+      <c r="C39" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/collection_story_tip1</v>
       </c>
-      <c r="D39" s="64" t="str">
+      <c r="D39" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/collection_story_tip1</v>
       </c>
-      <c r="E39" s="64" t="str">
+      <c r="E39" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/collection_story_tip1</v>
       </c>
-      <c r="G39" s="62" t="str">
+      <c r="G39" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="CHS/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="H39" s="62" t="str">
+      <c r="H39" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="CHS/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="I39" s="62" t="str">
+      <c r="I39" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="EN/collection_story_tip1" /&gt;</v>
       </c>
-      <c r="J39" s="62" t="str">
+      <c r="J39" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="collection_story_tip1" Value="JP/collection_story_tip1" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="64" t="str">
+      <c r="B40" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/collection_story_tip2</v>
       </c>
-      <c r="C40" s="64" t="str">
+      <c r="C40" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/collection_story_tip2</v>
       </c>
-      <c r="D40" s="64" t="str">
+      <c r="D40" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/collection_story_tip2</v>
       </c>
-      <c r="E40" s="64" t="str">
+      <c r="E40" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/collection_story_tip2</v>
       </c>
-      <c r="G40" s="62" t="str">
+      <c r="G40" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="CHS/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="H40" s="62" t="str">
+      <c r="H40" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="CHS/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="I40" s="62" t="str">
+      <c r="I40" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="EN/collection_story_tip2" /&gt;</v>
       </c>
-      <c r="J40" s="62" t="str">
+      <c r="J40" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="collection_story_tip2" Value="JP/collection_story_tip2" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="64" t="str">
+      <c r="B41" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/hint_app_download_crcode_cn</v>
       </c>
-      <c r="C41" s="64" t="str">
+      <c r="C41" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/hint_app_download_crcode_cn</v>
       </c>
-      <c r="D41" s="64" t="str">
+      <c r="D41" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/hint_app_download_crcode_cn</v>
       </c>
-      <c r="E41" s="64" t="str">
+      <c r="E41" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/hint_app_download_crcode_cn</v>
       </c>
-      <c r="G41" s="62" t="str">
+      <c r="G41" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="CHS/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="H41" s="62" t="str">
+      <c r="H41" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="CHS/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="I41" s="62" t="str">
+      <c r="I41" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="EN/hint_app_download_crcode_cn" /&gt;</v>
       </c>
-      <c r="J41" s="62" t="str">
+      <c r="J41" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="hint_app_download_crcode_cn" Value="JP/hint_app_download_crcode_cn" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="64" t="str">
+      <c r="B42" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_1</v>
       </c>
-      <c r="C42" s="64" t="str">
+      <c r="C42" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_1</v>
       </c>
-      <c r="D42" s="64" t="str">
+      <c r="D42" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_1</v>
       </c>
-      <c r="E42" s="64" t="str">
+      <c r="E42" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_1</v>
       </c>
-      <c r="G42" s="62" t="str">
+      <c r="G42" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="CHS/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="H42" s="62" t="str">
+      <c r="H42" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="CHS/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="I42" s="62" t="str">
+      <c r="I42" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="EN/navmenu_comingsoon_1" /&gt;</v>
       </c>
-      <c r="J42" s="62" t="str">
+      <c r="J42" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_1" Value="JP/navmenu_comingsoon_1" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="64" t="str">
+      <c r="B43" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_2</v>
       </c>
-      <c r="C43" s="64" t="str">
+      <c r="C43" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_2</v>
       </c>
-      <c r="D43" s="64" t="str">
+      <c r="D43" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_2</v>
       </c>
-      <c r="E43" s="64" t="str">
+      <c r="E43" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_2</v>
       </c>
-      <c r="G43" s="62" t="str">
+      <c r="G43" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="CHS/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="H43" s="62" t="str">
+      <c r="H43" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="CHS/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="I43" s="62" t="str">
+      <c r="I43" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="EN/navmenu_comingsoon_2" /&gt;</v>
       </c>
-      <c r="J43" s="62" t="str">
+      <c r="J43" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_2" Value="JP/navmenu_comingsoon_2" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="64" t="str">
+      <c r="B44" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_3</v>
       </c>
-      <c r="C44" s="64" t="str">
+      <c r="C44" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_3</v>
       </c>
-      <c r="D44" s="64" t="str">
+      <c r="D44" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_3</v>
       </c>
-      <c r="E44" s="64" t="str">
+      <c r="E44" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_3</v>
       </c>
-      <c r="G44" s="62" t="str">
+      <c r="G44" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="CHS/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="H44" s="62" t="str">
+      <c r="H44" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="CHS/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="I44" s="62" t="str">
+      <c r="I44" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="EN/navmenu_comingsoon_3" /&gt;</v>
       </c>
-      <c r="J44" s="62" t="str">
+      <c r="J44" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_3" Value="JP/navmenu_comingsoon_3" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="64" t="str">
+      <c r="B45" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/navmenu_comingsoon_4</v>
       </c>
-      <c r="C45" s="64" t="str">
+      <c r="C45" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/navmenu_comingsoon_4</v>
       </c>
-      <c r="D45" s="64" t="str">
+      <c r="D45" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/navmenu_comingsoon_4</v>
       </c>
-      <c r="E45" s="64" t="str">
+      <c r="E45" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/navmenu_comingsoon_4</v>
       </c>
-      <c r="G45" s="62" t="str">
+      <c r="G45" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="CHS/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="H45" s="62" t="str">
+      <c r="H45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="CHS/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="I45" s="62" t="str">
+      <c r="I45" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="EN/navmenu_comingsoon_4" /&gt;</v>
       </c>
-      <c r="J45" s="62" t="str">
+      <c r="J45" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="navmenu_comingsoon_4" Value="JP/navmenu_comingsoon_4" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="64" t="str">
+      <c r="B46" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/system_charging_low_battery_in</v>
       </c>
-      <c r="C46" s="64" t="str">
+      <c r="C46" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/system_charging_low_battery_in</v>
       </c>
-      <c r="D46" s="64" t="str">
+      <c r="D46" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/system_charging_low_battery_in</v>
       </c>
-      <c r="E46" s="64" t="str">
+      <c r="E46" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/system_charging_low_battery_in</v>
       </c>
-      <c r="G46" s="62" t="str">
+      <c r="G46" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="CHS/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="H46" s="62" t="str">
+      <c r="H46" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="CHS/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="I46" s="62" t="str">
+      <c r="I46" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="EN/system_charging_low_battery_in" /&gt;</v>
       </c>
-      <c r="J46" s="62" t="str">
+      <c r="J46" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="system_charging_low_battery_in" Value="JP/system_charging_low_battery_in" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="64" t="str">
+      <c r="B47" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/guide_2_systempage_1</v>
       </c>
-      <c r="C47" s="64" t="str">
+      <c r="C47" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/guide_2_systempage_1</v>
       </c>
-      <c r="D47" s="64" t="str">
+      <c r="D47" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/guide_2_systempage_1</v>
       </c>
-      <c r="E47" s="64" t="str">
+      <c r="E47" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/guide_2_systempage_1</v>
       </c>
-      <c r="G47" s="62" t="str">
+      <c r="G47" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="CHS/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="H47" s="62" t="str">
+      <c r="H47" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="CHS/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="I47" s="62" t="str">
+      <c r="I47" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="EN/guide_2_systempage_1" /&gt;</v>
       </c>
-      <c r="J47" s="62" t="str">
+      <c r="J47" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_systempage_1" Value="JP/guide_2_systempage_1" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="64" t="s">
+      <c r="A48" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="64" t="str">
+      <c r="B48" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/guide_2_id_1</v>
       </c>
-      <c r="C48" s="64" t="str">
+      <c r="C48" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/guide_2_id_1</v>
       </c>
-      <c r="D48" s="64" t="str">
+      <c r="D48" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/guide_2_id_1</v>
       </c>
-      <c r="E48" s="64" t="str">
+      <c r="E48" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/guide_2_id_1</v>
       </c>
-      <c r="G48" s="62" t="str">
+      <c r="G48" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="CHS/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="H48" s="62" t="str">
+      <c r="H48" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="CHS/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="I48" s="62" t="str">
+      <c r="I48" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="EN/guide_2_id_1" /&gt;</v>
       </c>
-      <c r="J48" s="62" t="str">
+      <c r="J48" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="guide_2_id_1" Value="JP/guide_2_id_1" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="64" t="str">
+      <c r="B49" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/hint_app_download_01_cn</v>
       </c>
-      <c r="C49" s="64" t="str">
+      <c r="C49" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/hint_app_download_01_cn</v>
       </c>
-      <c r="D49" s="64" t="str">
+      <c r="D49" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/hint_app_download_01_cn</v>
       </c>
-      <c r="E49" s="64" t="str">
+      <c r="E49" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/hint_app_download_01_cn</v>
       </c>
-      <c r="G49" s="62" t="str">
+      <c r="G49" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="CHS/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="H49" s="62" t="str">
+      <c r="H49" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="CHS/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="I49" s="62" t="str">
+      <c r="I49" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="EN/hint_app_download_01_cn" /&gt;</v>
       </c>
-      <c r="J49" s="62" t="str">
+      <c r="J49" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="hint_app_download_01_cn" Value="JP/hint_app_download_01_cn" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="64" t="str">
+      <c r="B50" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_alarm_sync</v>
       </c>
-      <c r="C50" s="64" t="str">
+      <c r="C50" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_alarm_sync</v>
       </c>
-      <c r="D50" s="64" t="str">
+      <c r="D50" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_alarm_sync</v>
       </c>
-      <c r="E50" s="64" t="str">
+      <c r="E50" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_alarm_sync</v>
       </c>
-      <c r="G50" s="62" t="str">
+      <c r="G50" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
       </c>
-      <c r="H50" s="62" t="str">
+      <c r="H50" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_alarm_sync" Value="CHS/popup_alarm_sync" /&gt;</v>
       </c>
-      <c r="I50" s="62" t="str">
+      <c r="I50" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_alarm_sync" Value="EN/popup_alarm_sync" /&gt;</v>
       </c>
-      <c r="J50" s="62" t="str">
+      <c r="J50" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_alarm_sync" Value="JP/popup_alarm_sync" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="64" t="s">
+      <c r="A51" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="64" t="str">
+      <c r="B51" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_dailygoal_sync</v>
       </c>
-      <c r="C51" s="64" t="str">
+      <c r="C51" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_dailygoal_sync</v>
       </c>
-      <c r="D51" s="64" t="str">
+      <c r="D51" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_dailygoal_sync</v>
       </c>
-      <c r="E51" s="64" t="str">
+      <c r="E51" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_dailygoal_sync</v>
       </c>
-      <c r="G51" s="62" t="str">
+      <c r="G51" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
       </c>
-      <c r="H51" s="62" t="str">
+      <c r="H51" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_dailygoal_sync" Value="CHS/popup_dailygoal_sync" /&gt;</v>
       </c>
-      <c r="I51" s="62" t="str">
+      <c r="I51" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_dailygoal_sync" Value="EN/popup_dailygoal_sync" /&gt;</v>
       </c>
-      <c r="J51" s="62" t="str">
+      <c r="J51" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_dailygoal_sync" Value="JP/popup_dailygoal_sync" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="64" t="str">
+      <c r="B52" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_donotdisturb_sync</v>
       </c>
-      <c r="C52" s="64" t="str">
+      <c r="C52" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_donotdisturb_sync</v>
       </c>
-      <c r="D52" s="64" t="str">
+      <c r="D52" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_donotdisturb_sync</v>
       </c>
-      <c r="E52" s="64" t="str">
+      <c r="E52" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_donotdisturb_sync</v>
       </c>
-      <c r="G52" s="62" t="str">
+      <c r="G52" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
       </c>
-      <c r="H52" s="62" t="str">
+      <c r="H52" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_donotdisturb_sync" Value="CHS/popup_donotdisturb_sync" /&gt;</v>
       </c>
-      <c r="I52" s="62" t="str">
+      <c r="I52" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_donotdisturb_sync" Value="EN/popup_donotdisturb_sync" /&gt;</v>
       </c>
-      <c r="J52" s="62" t="str">
+      <c r="J52" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_donotdisturb_sync" Value="JP/popup_donotdisturb_sync" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="64" t="str">
+      <c r="B53" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_download</v>
       </c>
-      <c r="C53" s="64" t="str">
+      <c r="C53" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_download</v>
       </c>
-      <c r="D53" s="64" t="str">
+      <c r="D53" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_download</v>
       </c>
-      <c r="E53" s="64" t="str">
+      <c r="E53" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_download</v>
       </c>
-      <c r="G53" s="62" t="str">
+      <c r="G53" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
       </c>
-      <c r="H53" s="62" t="str">
+      <c r="H53" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_download" Value="CHS/popup_download" /&gt;</v>
       </c>
-      <c r="I53" s="62" t="str">
+      <c r="I53" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_download" Value="EN/popup_download" /&gt;</v>
       </c>
-      <c r="J53" s="62" t="str">
+      <c r="J53" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_download" Value="JP/popup_download" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="64" t="str">
+      <c r="B54" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_download_cancel</v>
       </c>
-      <c r="C54" s="64" t="str">
+      <c r="C54" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_download_cancel</v>
       </c>
-      <c r="D54" s="64" t="str">
+      <c r="D54" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_download_cancel</v>
       </c>
-      <c r="E54" s="64" t="str">
+      <c r="E54" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_download_cancel</v>
       </c>
-      <c r="G54" s="62" t="str">
+      <c r="G54" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
       </c>
-      <c r="H54" s="62" t="str">
+      <c r="H54" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_download_cancel" Value="CHS/popup_download_cancel" /&gt;</v>
       </c>
-      <c r="I54" s="62" t="str">
+      <c r="I54" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_download_cancel" Value="EN/popup_download_cancel" /&gt;</v>
       </c>
-      <c r="J54" s="62" t="str">
+      <c r="J54" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_download_cancel" Value="JP/popup_download_cancel" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="64" t="str">
+      <c r="B55" s="61" t="str">
         <f t="shared" si="8"/>
         <v>CHS/popup_no_network</v>
       </c>
-      <c r="C55" s="64" t="str">
+      <c r="C55" s="61" t="str">
         <f t="shared" si="9"/>
         <v>CHS/popup_no_network</v>
       </c>
-      <c r="D55" s="64" t="str">
+      <c r="D55" s="61" t="str">
         <f t="shared" si="10"/>
         <v>EN/popup_no_network</v>
       </c>
-      <c r="E55" s="64" t="str">
+      <c r="E55" s="61" t="str">
         <f t="shared" si="11"/>
         <v>JP/popup_no_network</v>
       </c>
-      <c r="G55" s="62" t="str">
+      <c r="G55" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
       </c>
-      <c r="H55" s="62" t="str">
+      <c r="H55" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="popup_no_network" Value="CHS/popup_no_network" /&gt;</v>
       </c>
-      <c r="I55" s="62" t="str">
+      <c r="I55" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_no_network" Value="EN/popup_no_network" /&gt;</v>
       </c>
-      <c r="J55" s="62" t="str">
+      <c r="J55" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_no_network" Value="JP/popup_no_network" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="61" t="s">
         <v>402</v>
       </c>
-      <c r="B56" s="64" t="str">
+      <c r="B56" s="61" t="str">
         <f t="shared" ref="B56" si="12">"CHS/"&amp;A56</f>
         <v>CHS/guide_homepage_001</v>
       </c>
-      <c r="C56" s="64" t="str">
+      <c r="C56" s="61" t="str">
         <f t="shared" ref="C56" si="13">"CHS/"&amp;A56</f>
         <v>CHS/guide_homepage_001</v>
       </c>
-      <c r="D56" s="64" t="str">
+      <c r="D56" s="61" t="str">
         <f t="shared" ref="D56" si="14">"EN/"&amp;A56</f>
         <v>EN/guide_homepage_001</v>
       </c>
-      <c r="E56" s="64" t="str">
+      <c r="E56" s="61" t="str">
         <f t="shared" ref="E56" si="15">"JP/"&amp;A56</f>
         <v>JP/guide_homepage_001</v>
       </c>
-      <c r="G56" s="62" t="str">
+      <c r="G56" s="59" t="str">
         <f t="shared" ref="G56" si="16">IF(AND(A56&lt;&gt;"",B56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;B56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_001" Value="CHS/guide_homepage_001" /&gt;</v>
       </c>
-      <c r="H56" s="62" t="str">
+      <c r="H56" s="59" t="str">
         <f t="shared" ref="H56" si="17">IF(AND(A56&lt;&gt;"",C56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;C56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_001" Value="CHS/guide_homepage_001" /&gt;</v>
       </c>
-      <c r="I56" s="62" t="str">
+      <c r="I56" s="59" t="str">
         <f t="shared" ref="I56" si="18">IF(AND(A56&lt;&gt;"",D56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;D56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_001" Value="EN/guide_homepage_001" /&gt;</v>
       </c>
-      <c r="J56" s="62" t="str">
+      <c r="J56" s="59" t="str">
         <f t="shared" ref="J56" si="19">IF(AND(A56&lt;&gt;"",E56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;E56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_001" Value="JP/guide_homepage_001" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="B57" s="64" t="str">
+      <c r="B57" s="61" t="str">
         <f t="shared" ref="B57:B66" si="20">"CHS/"&amp;A57</f>
         <v>CHS/guide_homepage_002</v>
       </c>
-      <c r="C57" s="64" t="str">
+      <c r="C57" s="61" t="str">
         <f t="shared" ref="C57:C66" si="21">"CHS/"&amp;A57</f>
         <v>CHS/guide_homepage_002</v>
       </c>
-      <c r="D57" s="64" t="str">
+      <c r="D57" s="61" t="str">
         <f t="shared" ref="D57:D66" si="22">"EN/"&amp;A57</f>
         <v>EN/guide_homepage_002</v>
       </c>
-      <c r="E57" s="64" t="str">
+      <c r="E57" s="61" t="str">
         <f t="shared" ref="E57:E66" si="23">"JP/"&amp;A57</f>
         <v>JP/guide_homepage_002</v>
       </c>
-      <c r="G57" s="62" t="str">
+      <c r="G57" s="59" t="str">
         <f t="shared" ref="G57:G66" si="24">IF(AND(A57&lt;&gt;"",B57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;B57&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_002" Value="CHS/guide_homepage_002" /&gt;</v>
       </c>
-      <c r="H57" s="62" t="str">
+      <c r="H57" s="59" t="str">
         <f t="shared" ref="H57:H66" si="25">IF(AND(A57&lt;&gt;"",C57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;C57&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_002" Value="CHS/guide_homepage_002" /&gt;</v>
       </c>
-      <c r="I57" s="62" t="str">
+      <c r="I57" s="59" t="str">
         <f t="shared" ref="I57:I66" si="26">IF(AND(A57&lt;&gt;"",D57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;D57&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_002" Value="EN/guide_homepage_002" /&gt;</v>
       </c>
-      <c r="J57" s="62" t="str">
+      <c r="J57" s="59" t="str">
         <f t="shared" ref="J57:J66" si="27">IF(AND(A57&lt;&gt;"",E57&lt;&gt;""),"&lt;Audio Key="""&amp;A57&amp;""" Value="""&amp;E57&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="guide_homepage_002" Value="JP/guide_homepage_002" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="B58" s="64" t="str">
+      <c r="B58" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_003</v>
       </c>
-      <c r="C58" s="64" t="str">
+      <c r="C58" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_003</v>
       </c>
-      <c r="D58" s="64" t="str">
+      <c r="D58" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_003</v>
       </c>
-      <c r="E58" s="64" t="str">
+      <c r="E58" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_003</v>
       </c>
-      <c r="G58" s="62" t="str">
+      <c r="G58" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_003" Value="CHS/guide_homepage_003" /&gt;</v>
       </c>
-      <c r="H58" s="62" t="str">
+      <c r="H58" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_003" Value="CHS/guide_homepage_003" /&gt;</v>
       </c>
-      <c r="I58" s="62" t="str">
+      <c r="I58" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_003" Value="EN/guide_homepage_003" /&gt;</v>
       </c>
-      <c r="J58" s="62" t="str">
+      <c r="J58" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_003" Value="JP/guide_homepage_003" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="B59" s="64" t="str">
+      <c r="B59" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_004</v>
       </c>
-      <c r="C59" s="64" t="str">
+      <c r="C59" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_004</v>
       </c>
-      <c r="D59" s="64" t="str">
+      <c r="D59" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_004</v>
       </c>
-      <c r="E59" s="64" t="str">
+      <c r="E59" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_004</v>
       </c>
-      <c r="G59" s="62" t="str">
+      <c r="G59" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_004" Value="CHS/guide_homepage_004" /&gt;</v>
       </c>
-      <c r="H59" s="62" t="str">
+      <c r="H59" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_004" Value="CHS/guide_homepage_004" /&gt;</v>
       </c>
-      <c r="I59" s="62" t="str">
+      <c r="I59" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_004" Value="EN/guide_homepage_004" /&gt;</v>
       </c>
-      <c r="J59" s="62" t="str">
+      <c r="J59" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_004" Value="JP/guide_homepage_004" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="61" t="s">
         <v>406</v>
       </c>
-      <c r="B60" s="64" t="str">
+      <c r="B60" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_005</v>
       </c>
-      <c r="C60" s="64" t="str">
+      <c r="C60" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_005</v>
       </c>
-      <c r="D60" s="64" t="str">
+      <c r="D60" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_005</v>
       </c>
-      <c r="E60" s="64" t="str">
+      <c r="E60" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_005</v>
       </c>
-      <c r="G60" s="62" t="str">
+      <c r="G60" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_005" Value="CHS/guide_homepage_005" /&gt;</v>
       </c>
-      <c r="H60" s="62" t="str">
+      <c r="H60" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_005" Value="CHS/guide_homepage_005" /&gt;</v>
       </c>
-      <c r="I60" s="62" t="str">
+      <c r="I60" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_005" Value="EN/guide_homepage_005" /&gt;</v>
       </c>
-      <c r="J60" s="62" t="str">
+      <c r="J60" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_005" Value="JP/guide_homepage_005" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="61" t="s">
         <v>407</v>
       </c>
-      <c r="B61" s="64" t="str">
+      <c r="B61" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_006</v>
       </c>
-      <c r="C61" s="64" t="str">
+      <c r="C61" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_006</v>
       </c>
-      <c r="D61" s="64" t="str">
+      <c r="D61" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_006</v>
       </c>
-      <c r="E61" s="64" t="str">
+      <c r="E61" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_006</v>
       </c>
-      <c r="G61" s="62" t="str">
+      <c r="G61" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_006" Value="CHS/guide_homepage_006" /&gt;</v>
       </c>
-      <c r="H61" s="62" t="str">
+      <c r="H61" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_006" Value="CHS/guide_homepage_006" /&gt;</v>
       </c>
-      <c r="I61" s="62" t="str">
+      <c r="I61" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_006" Value="EN/guide_homepage_006" /&gt;</v>
       </c>
-      <c r="J61" s="62" t="str">
+      <c r="J61" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_006" Value="JP/guide_homepage_006" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="64" t="str">
+      <c r="B62" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_007</v>
       </c>
-      <c r="C62" s="64" t="str">
+      <c r="C62" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_007</v>
       </c>
-      <c r="D62" s="64" t="str">
+      <c r="D62" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_007</v>
       </c>
-      <c r="E62" s="64" t="str">
+      <c r="E62" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_007</v>
       </c>
-      <c r="G62" s="62" t="str">
+      <c r="G62" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_007" Value="CHS/guide_homepage_007" /&gt;</v>
       </c>
-      <c r="H62" s="62" t="str">
+      <c r="H62" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_007" Value="CHS/guide_homepage_007" /&gt;</v>
       </c>
-      <c r="I62" s="62" t="str">
+      <c r="I62" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_007" Value="EN/guide_homepage_007" /&gt;</v>
       </c>
-      <c r="J62" s="62" t="str">
+      <c r="J62" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_007" Value="JP/guide_homepage_007" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="61" t="s">
         <v>409</v>
       </c>
-      <c r="B63" s="64" t="str">
+      <c r="B63" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_008</v>
       </c>
-      <c r="C63" s="64" t="str">
+      <c r="C63" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_008</v>
       </c>
-      <c r="D63" s="64" t="str">
+      <c r="D63" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_008</v>
       </c>
-      <c r="E63" s="64" t="str">
+      <c r="E63" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_008</v>
       </c>
-      <c r="G63" s="62" t="str">
+      <c r="G63" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_008" Value="CHS/guide_homepage_008" /&gt;</v>
       </c>
-      <c r="H63" s="62" t="str">
+      <c r="H63" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_008" Value="CHS/guide_homepage_008" /&gt;</v>
       </c>
-      <c r="I63" s="62" t="str">
+      <c r="I63" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_008" Value="EN/guide_homepage_008" /&gt;</v>
       </c>
-      <c r="J63" s="62" t="str">
+      <c r="J63" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_008" Value="JP/guide_homepage_008" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="61" t="s">
         <v>410</v>
       </c>
-      <c r="B64" s="64" t="str">
+      <c r="B64" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_009</v>
       </c>
-      <c r="C64" s="64" t="str">
+      <c r="C64" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_009</v>
       </c>
-      <c r="D64" s="64" t="str">
+      <c r="D64" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_009</v>
       </c>
-      <c r="E64" s="64" t="str">
+      <c r="E64" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_009</v>
       </c>
-      <c r="G64" s="62" t="str">
+      <c r="G64" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_009" Value="CHS/guide_homepage_009" /&gt;</v>
       </c>
-      <c r="H64" s="62" t="str">
+      <c r="H64" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_009" Value="CHS/guide_homepage_009" /&gt;</v>
       </c>
-      <c r="I64" s="62" t="str">
+      <c r="I64" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_009" Value="EN/guide_homepage_009" /&gt;</v>
       </c>
-      <c r="J64" s="62" t="str">
+      <c r="J64" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_009" Value="JP/guide_homepage_009" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="61" t="s">
         <v>411</v>
       </c>
-      <c r="B65" s="64" t="str">
+      <c r="B65" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_010</v>
       </c>
-      <c r="C65" s="64" t="str">
+      <c r="C65" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_010</v>
       </c>
-      <c r="D65" s="64" t="str">
+      <c r="D65" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_010</v>
       </c>
-      <c r="E65" s="64" t="str">
+      <c r="E65" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_010</v>
       </c>
-      <c r="G65" s="62" t="str">
+      <c r="G65" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_010" Value="CHS/guide_homepage_010" /&gt;</v>
       </c>
-      <c r="H65" s="62" t="str">
+      <c r="H65" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_010" Value="CHS/guide_homepage_010" /&gt;</v>
       </c>
-      <c r="I65" s="62" t="str">
+      <c r="I65" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_010" Value="EN/guide_homepage_010" /&gt;</v>
       </c>
-      <c r="J65" s="62" t="str">
+      <c r="J65" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_010" Value="JP/guide_homepage_010" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="61" t="s">
         <v>412</v>
       </c>
-      <c r="B66" s="64" t="str">
+      <c r="B66" s="61" t="str">
         <f t="shared" si="20"/>
         <v>CHS/guide_homepage_011</v>
       </c>
-      <c r="C66" s="64" t="str">
+      <c r="C66" s="61" t="str">
         <f t="shared" si="21"/>
         <v>CHS/guide_homepage_011</v>
       </c>
-      <c r="D66" s="64" t="str">
+      <c r="D66" s="61" t="str">
         <f t="shared" si="22"/>
         <v>EN/guide_homepage_011</v>
       </c>
-      <c r="E66" s="64" t="str">
+      <c r="E66" s="61" t="str">
         <f t="shared" si="23"/>
         <v>JP/guide_homepage_011</v>
       </c>
-      <c r="G66" s="62" t="str">
+      <c r="G66" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="guide_homepage_011" Value="CHS/guide_homepage_011" /&gt;</v>
       </c>
-      <c r="H66" s="62" t="str">
+      <c r="H66" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="guide_homepage_011" Value="CHS/guide_homepage_011" /&gt;</v>
       </c>
-      <c r="I66" s="62" t="str">
+      <c r="I66" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="guide_homepage_011" Value="EN/guide_homepage_011" /&gt;</v>
       </c>
-      <c r="J66" s="62" t="str">
+      <c r="J66" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="guide_homepage_011" Value="JP/guide_homepage_011" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="63" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="D68" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="E68" s="64" t="s">
+      <c r="E68" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="62" t="str">
+      <c r="G68" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="H68" s="62" t="str">
+      <c r="H68" s="59" t="str">
         <f>IF(AND(A68&lt;&gt;"",C68&lt;&gt;""),"&lt;Audio Key="""&amp;A68&amp;""" Value="""&amp;C68&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="I68" s="62" t="str">
+      <c r="I68" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="EN/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="J68" s="62" t="str">
+      <c r="J68" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="JP/popup_feed_welcome" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="D69" s="64" t="s">
+      <c r="D69" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="E69" s="64" t="s">
+      <c r="E69" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="G69" s="62" t="str">
+      <c r="G69" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="H69" s="62" t="str">
+      <c r="H69" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="I69" s="62" t="str">
+      <c r="I69" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="EN/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="J69" s="62" t="str">
+      <c r="J69" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="JP/feed_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="64" t="s">
+      <c r="E70" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="62" t="str">
+      <c r="G70" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="H70" s="62" t="str">
+      <c r="H70" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="I70" s="62" t="str">
+      <c r="I70" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="EN/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="J70" s="62" t="str">
+      <c r="J70" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="JP/feed_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="64" t="s">
+      <c r="E71" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="G71" s="62" t="str">
+      <c r="G71" s="59" t="str">
         <f t="shared" ref="G71:G108" si="28">IF(AND(A71&lt;&gt;"",B71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;B71&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="H71" s="62" t="str">
+      <c r="H71" s="59" t="str">
         <f t="shared" ref="H71:H108" si="29">IF(AND(A71&lt;&gt;"",C71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;C71&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="I71" s="62" t="str">
+      <c r="I71" s="59" t="str">
         <f t="shared" ref="I71:I108" si="30">IF(AND(A71&lt;&gt;"",D71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;D71&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="J71" s="62" t="str">
+      <c r="J71" s="59" t="str">
         <f t="shared" ref="J71:J108" si="31">IF(AND(A71&lt;&gt;"",E71&lt;&gt;""),"&lt;Audio Key="""&amp;A71&amp;""" Value="""&amp;E71&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="D72" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="E72" s="64" t="s">
+      <c r="E72" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="G72" s="62" t="str">
+      <c r="G72" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="H72" s="62" t="str">
+      <c r="H72" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="I72" s="62" t="str">
+      <c r="I72" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="J72" s="62" t="str">
+      <c r="J72" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="E73" s="64" t="s">
+      <c r="E73" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="G73" s="62" t="str">
+      <c r="G73" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="H73" s="62" t="str">
+      <c r="H73" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="I73" s="62" t="str">
+      <c r="I73" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="J73" s="62" t="str">
+      <c r="J73" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="D74" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="E74" s="64" t="s">
+      <c r="E74" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="G74" s="62" t="str">
+      <c r="G74" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="H74" s="62" t="str">
+      <c r="H74" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="I74" s="62" t="str">
+      <c r="I74" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="J74" s="62" t="str">
+      <c r="J74" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="E75" s="64" t="s">
+      <c r="E75" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="G75" s="62" t="str">
+      <c r="G75" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="H75" s="62" t="str">
+      <c r="H75" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="I75" s="62" t="str">
+      <c r="I75" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="J75" s="62" t="str">
+      <c r="J75" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="E76" s="64" t="s">
+      <c r="E76" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="G76" s="62" t="str">
+      <c r="G76" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="H76" s="62" t="str">
+      <c r="H76" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="I76" s="62" t="str">
+      <c r="I76" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="J76" s="62" t="str">
+      <c r="J76" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="D77" s="64" t="s">
+      <c r="D77" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="E77" s="64" t="s">
+      <c r="E77" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="G77" s="62" t="str">
+      <c r="G77" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="H77" s="62" t="str">
+      <c r="H77" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="I77" s="62" t="str">
+      <c r="I77" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="J77" s="62" t="str">
+      <c r="J77" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="D78" s="64" t="s">
+      <c r="D78" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="E78" s="64" t="s">
+      <c r="E78" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G78" s="62" t="str">
+      <c r="G78" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="H78" s="62" t="str">
+      <c r="H78" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="I78" s="62" t="str">
+      <c r="I78" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="J78" s="62" t="str">
+      <c r="J78" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="E79" s="64" t="s">
+      <c r="E79" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="G79" s="62" t="str">
+      <c r="G79" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="H79" s="62" t="str">
+      <c r="H79" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="I79" s="62" t="str">
+      <c r="I79" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="J79" s="62" t="str">
+      <c r="J79" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="D80" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="G80" s="62" t="str">
+      <c r="G80" s="59" t="str">
         <f>IF(AND(A80&lt;&gt;"",B80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;B80&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="H80" s="62" t="str">
+      <c r="H80" s="59" t="str">
         <f>IF(AND(A80&lt;&gt;"",C80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;C80&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="I80" s="62" t="str">
+      <c r="I80" s="59" t="str">
         <f>IF(AND(A80&lt;&gt;"",D80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;D80&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="J80" s="62" t="str">
+      <c r="J80" s="59" t="str">
         <f>IF(AND(A80&lt;&gt;"",E80&lt;&gt;""),"&lt;Audio Key="""&amp;A80&amp;""" Value="""&amp;E80&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="64" t="s">
+      <c r="A81" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B81" s="64" t="s">
+      <c r="B81" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="D81" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="64" t="s">
+      <c r="E81" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="G81" s="62" t="str">
+      <c r="G81" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="H81" s="62" t="str">
+      <c r="H81" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="I81" s="62" t="str">
+      <c r="I81" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="J81" s="62" t="str">
+      <c r="J81" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B82" s="64" t="s">
+      <c r="B82" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="E82" s="64" t="s">
+      <c r="E82" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="62" t="str">
+      <c r="G82" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="H82" s="62" t="str">
+      <c r="H82" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="I82" s="62" t="str">
+      <c r="I82" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="J82" s="62" t="str">
+      <c r="J82" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="E83" s="64" t="s">
+      <c r="E83" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="G83" s="62" t="str">
+      <c r="G83" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="H83" s="62" t="str">
+      <c r="H83" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="I83" s="62" t="str">
+      <c r="I83" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="J83" s="62" t="str">
+      <c r="J83" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="B84" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="E84" s="64" t="s">
+      <c r="E84" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="62" t="str">
+      <c r="G84" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="H84" s="62" t="str">
+      <c r="H84" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="I84" s="62" t="str">
+      <c r="I84" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="J84" s="62" t="str">
+      <c r="J84" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="64" t="s">
+      <c r="A85" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B85" s="64" t="s">
+      <c r="B85" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="E85" s="64" t="s">
+      <c r="E85" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="G85" s="62" t="str">
+      <c r="G85" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="H85" s="62" t="str">
+      <c r="H85" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="I85" s="62" t="str">
+      <c r="I85" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="J85" s="62" t="str">
+      <c r="J85" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="B86" s="64" t="s">
+      <c r="B86" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C86" s="64" t="s">
+      <c r="C86" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="D86" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="E86" s="64" t="s">
+      <c r="E86" s="61" t="s">
         <v>331</v>
       </c>
-      <c r="G86" s="62" t="str">
+      <c r="G86" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="H86" s="62" t="str">
+      <c r="H86" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="I86" s="62" t="str">
+      <c r="I86" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="J86" s="62" t="str">
+      <c r="J86" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="D87" s="64" t="s">
+      <c r="D87" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="64" t="s">
+      <c r="E87" s="61" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="62" t="str">
+      <c r="G87" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="H87" s="62" t="str">
+      <c r="H87" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="I87" s="62" t="str">
+      <c r="I87" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="J87" s="62" t="str">
+      <c r="J87" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="61" t="s">
         <v>336</v>
       </c>
-      <c r="E88" s="64" t="s">
+      <c r="E88" s="61" t="s">
         <v>337</v>
       </c>
-      <c r="G88" s="62" t="str">
+      <c r="G88" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="H88" s="62" t="str">
+      <c r="H88" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="I88" s="62" t="str">
+      <c r="I88" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="J88" s="62" t="str">
+      <c r="J88" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="64" t="s">
+      <c r="A89" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B89" s="64" t="s">
+      <c r="B89" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="D89" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="E89" s="64" t="s">
+      <c r="E89" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="G89" s="62" t="str">
+      <c r="G89" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="H89" s="62" t="str">
+      <c r="H89" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="I89" s="62" t="str">
+      <c r="I89" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="J89" s="62" t="str">
+      <c r="J89" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="64" t="s">
+      <c r="A90" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="D90" s="64" t="s">
+      <c r="D90" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="G90" s="62" t="str">
+      <c r="G90" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="H90" s="62" t="str">
+      <c r="H90" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="I90" s="62" t="str">
+      <c r="I90" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="J90" s="62" t="str">
+      <c r="J90" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="D91" s="64" t="s">
+      <c r="D91" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="G91" s="62" t="str">
+      <c r="G91" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="H91" s="62" t="str">
+      <c r="H91" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="I91" s="62" t="str">
+      <c r="I91" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="J91" s="62" t="str">
+      <c r="J91" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="64" t="s">
+      <c r="A92" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="D92" s="64" t="s">
+      <c r="D92" s="61" t="s">
         <v>350</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="61" t="s">
         <v>348</v>
       </c>
-      <c r="G92" s="62" t="str">
+      <c r="G92" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="H92" s="62" t="str">
+      <c r="H92" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="I92" s="62" t="str">
+      <c r="I92" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="J92" s="62" t="str">
+      <c r="J92" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="61" t="s">
         <v>349</v>
       </c>
-      <c r="D93" s="64" t="s">
+      <c r="D93" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="E93" s="64" t="s">
+      <c r="E93" s="61" t="s">
         <v>351</v>
       </c>
-      <c r="G93" s="62" t="str">
+      <c r="G93" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="H93" s="62" t="str">
+      <c r="H93" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="I93" s="62" t="str">
+      <c r="I93" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="J93" s="62" t="str">
+      <c r="J93" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="64" t="s">
+      <c r="A94" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="D94" s="64" t="s">
+      <c r="D94" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="E94" s="64" t="s">
+      <c r="E94" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="G94" s="62" t="str">
+      <c r="G94" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="H94" s="62" t="str">
+      <c r="H94" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="I94" s="62" t="str">
+      <c r="I94" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="J94" s="62" t="str">
+      <c r="J94" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="61" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="64" t="s">
+      <c r="D95" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="E95" s="64" t="s">
+      <c r="E95" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="G95" s="62" t="str">
+      <c r="G95" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="H95" s="62" t="str">
+      <c r="H95" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="I95" s="62" t="str">
+      <c r="I95" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="J95" s="62" t="str">
+      <c r="J95" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="64" t="s">
+      <c r="A96" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="D96" s="64" t="s">
+      <c r="D96" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="E96" s="64" t="s">
+      <c r="E96" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="G96" s="62" t="str">
+      <c r="G96" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="H96" s="62" t="str">
+      <c r="H96" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="I96" s="62" t="str">
+      <c r="I96" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="J96" s="62" t="str">
+      <c r="J96" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="64" t="s">
+      <c r="A97" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="D97" s="64" t="s">
+      <c r="D97" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="E97" s="64" t="s">
+      <c r="E97" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="G97" s="62" t="str">
+      <c r="G97" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="H97" s="62" t="str">
+      <c r="H97" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="I97" s="62" t="str">
+      <c r="I97" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="J97" s="62" t="str">
+      <c r="J97" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="64" t="s">
+      <c r="A98" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="C98" s="64" t="s">
+      <c r="C98" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="D98" s="64" t="s">
+      <c r="D98" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="61" t="s">
         <v>367</v>
       </c>
-      <c r="G98" s="62" t="str">
+      <c r="G98" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="H98" s="62" t="str">
+      <c r="H98" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="I98" s="62" t="str">
+      <c r="I98" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="J98" s="62" t="str">
+      <c r="J98" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="64" t="s">
+      <c r="A99" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="61" t="s">
         <v>368</v>
       </c>
-      <c r="D99" s="64" t="s">
+      <c r="D99" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="E99" s="64" t="s">
+      <c r="E99" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="G99" s="62" t="str">
+      <c r="G99" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="H99" s="62" t="str">
+      <c r="H99" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="I99" s="62" t="str">
+      <c r="I99" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="J99" s="62" t="str">
+      <c r="J99" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="64" t="s">
+      <c r="A100" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="64" t="s">
+      <c r="C100" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="D100" s="64" t="s">
+      <c r="D100" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E100" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="G100" s="62" t="str">
+      <c r="G100" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="H100" s="62" t="str">
+      <c r="H100" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="I100" s="62" t="str">
+      <c r="I100" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="J100" s="62" t="str">
+      <c r="J100" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="D101" s="64" t="s">
+      <c r="D101" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="E101" s="64" t="s">
+      <c r="E101" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="G101" s="62" t="str">
+      <c r="G101" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="H101" s="62" t="str">
+      <c r="H101" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="I101" s="62" t="str">
+      <c r="I101" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="J101" s="62" t="str">
+      <c r="J101" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A102" s="64" t="s">
+      <c r="A102" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="C102" s="64" t="s">
+      <c r="C102" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="D102" s="64" t="s">
+      <c r="D102" s="61" t="s">
         <v>378</v>
       </c>
-      <c r="E102" s="64" t="s">
+      <c r="E102" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="G102" s="62" t="str">
+      <c r="G102" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="H102" s="62" t="str">
+      <c r="H102" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="I102" s="62" t="str">
+      <c r="I102" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="J102" s="62" t="str">
+      <c r="J102" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="D103" s="64" t="s">
+      <c r="D103" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="E103" s="64" t="s">
+      <c r="E103" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="G103" s="62" t="str">
+      <c r="G103" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="H103" s="62" t="str">
+      <c r="H103" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="I103" s="62" t="str">
+      <c r="I103" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="J103" s="62" t="str">
+      <c r="J103" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="C104" s="64" t="s">
+      <c r="C104" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="D104" s="64" t="s">
+      <c r="D104" s="61" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="64" t="s">
+      <c r="E104" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="G104" s="62" t="str">
+      <c r="G104" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="H104" s="62" t="str">
+      <c r="H104" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="I104" s="62" t="str">
+      <c r="I104" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="J104" s="62" t="str">
+      <c r="J104" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="61" t="s">
         <v>386</v>
       </c>
-      <c r="D105" s="64" t="s">
+      <c r="D105" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="E105" s="64" t="s">
+      <c r="E105" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="G105" s="62" t="str">
+      <c r="G105" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="H105" s="62" t="str">
+      <c r="H105" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="I105" s="62" t="str">
+      <c r="I105" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="J105" s="62" t="str">
+      <c r="J105" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="64" t="s">
+      <c r="A106" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="B106" s="64" t="s">
+      <c r="B106" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="C106" s="64" t="s">
+      <c r="C106" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="D106" s="64" t="s">
+      <c r="D106" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E106" s="64" t="s">
+      <c r="E106" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="G106" s="62" t="str">
+      <c r="G106" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="H106" s="62" t="str">
+      <c r="H106" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="I106" s="62" t="str">
+      <c r="I106" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="J106" s="62" t="str">
+      <c r="J106" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="C107" s="64" t="s">
+      <c r="C107" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="D107" s="64" t="s">
+      <c r="D107" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="E107" s="64" t="s">
+      <c r="E107" s="61" t="s">
         <v>396</v>
       </c>
-      <c r="G107" s="62" t="str">
+      <c r="G107" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="H107" s="62" t="str">
+      <c r="H107" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="I107" s="62" t="str">
+      <c r="I107" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="J107" s="62" t="str">
+      <c r="J107" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="B108" s="64" t="s">
+      <c r="B108" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="C108" s="64" t="s">
+      <c r="C108" s="61" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="64" t="s">
+      <c r="D108" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="E108" s="64" t="s">
+      <c r="E108" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="G108" s="62" t="str">
+      <c r="G108" s="59" t="str">
         <f t="shared" si="28"/>
         <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
-      <c r="H108" s="62" t="str">
+      <c r="H108" s="59" t="str">
         <f t="shared" si="29"/>
         <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
-      <c r="I108" s="62" t="str">
+      <c r="I108" s="59" t="str">
         <f t="shared" si="30"/>
         <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
       </c>
-      <c r="J108" s="62" t="str">
+      <c r="J108" s="59" t="str">
         <f t="shared" si="31"/>
         <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="63" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B110" s="64" t="str">
-        <f t="shared" ref="B110:B118" si="32">"CHS/"&amp;A110</f>
+      <c r="B110" s="61" t="str">
+        <f t="shared" ref="B110:B119" si="32">"CHS/"&amp;A110</f>
         <v>CHS/galaxy_welcome_new</v>
       </c>
-      <c r="C110" s="64" t="str">
-        <f t="shared" ref="C110:C118" si="33">"CHS/"&amp;A110</f>
+      <c r="C110" s="61" t="str">
+        <f t="shared" ref="C110:C119" si="33">"CHS/"&amp;A110</f>
         <v>CHS/galaxy_welcome_new</v>
       </c>
-      <c r="D110" s="64" t="str">
-        <f t="shared" ref="D110:D118" si="34">"EN/"&amp;A110</f>
+      <c r="D110" s="61" t="str">
+        <f t="shared" ref="D110:D119" si="34">"EN/"&amp;A110</f>
         <v>EN/galaxy_welcome_new</v>
       </c>
-      <c r="E110" s="64" t="str">
-        <f t="shared" ref="E110:E118" si="35">"JP/"&amp;A110</f>
+      <c r="E110" s="61" t="str">
+        <f t="shared" ref="E110:E119" si="35">"JP/"&amp;A110</f>
         <v>JP/galaxy_welcome_new</v>
       </c>
-      <c r="G110" s="62" t="str">
+      <c r="G110" s="59" t="str">
         <f t="shared" ref="G110:G117" si="36">IF(AND(A110&lt;&gt;"",B110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;B110&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
-      <c r="H110" s="62" t="str">
+      <c r="H110" s="59" t="str">
         <f t="shared" ref="H110:H117" si="37">IF(AND(A110&lt;&gt;"",C110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;C110&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
-      <c r="I110" s="62" t="str">
+      <c r="I110" s="59" t="str">
         <f t="shared" ref="I110:I117" si="38">IF(AND(A110&lt;&gt;"",D110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;D110&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
       </c>
-      <c r="J110" s="62" t="str">
+      <c r="J110" s="59" t="str">
         <f t="shared" ref="J110:J117" si="39">IF(AND(A110&lt;&gt;"",E110&lt;&gt;""),"&lt;Audio Key="""&amp;A110&amp;""" Value="""&amp;E110&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B111" s="64" t="str">
+      <c r="B111" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="C111" s="64" t="str">
+      <c r="C111" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="D111" s="64" t="str">
+      <c r="D111" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="E111" s="64" t="str">
+      <c r="E111" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="G111" s="62" t="str">
+      <c r="G111" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="H111" s="62" t="str">
+      <c r="H111" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="I111" s="62" t="str">
+      <c r="I111" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="J111" s="62" t="str">
+      <c r="J111" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B112" s="64" t="str">
+      <c r="B112" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="C112" s="64" t="str">
+      <c r="C112" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="D112" s="64" t="str">
+      <c r="D112" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="E112" s="64" t="str">
+      <c r="E112" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="G112" s="62" t="str">
+      <c r="G112" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="H112" s="62" t="str">
+      <c r="H112" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="I112" s="62" t="str">
+      <c r="I112" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="J112" s="62" t="str">
+      <c r="J112" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A113" s="64" t="s">
+      <c r="A113" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="64" t="str">
+      <c r="B113" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_001</v>
       </c>
-      <c r="C113" s="64" t="str">
+      <c r="C113" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_001</v>
       </c>
-      <c r="D113" s="64" t="str">
+      <c r="D113" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_001</v>
       </c>
-      <c r="E113" s="64" t="str">
+      <c r="E113" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_001</v>
       </c>
-      <c r="G113" s="62" t="str">
+      <c r="G113" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="H113" s="62" t="str">
+      <c r="H113" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="I113" s="62" t="str">
+      <c r="I113" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="J113" s="62" t="str">
+      <c r="J113" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A114" s="64" t="s">
+      <c r="A114" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B114" s="64" t="str">
+      <c r="B114" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_002</v>
       </c>
-      <c r="C114" s="64" t="str">
+      <c r="C114" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_002</v>
       </c>
-      <c r="D114" s="64" t="str">
+      <c r="D114" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_002</v>
       </c>
-      <c r="E114" s="64" t="str">
+      <c r="E114" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_002</v>
       </c>
-      <c r="G114" s="62" t="str">
+      <c r="G114" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="H114" s="62" t="str">
+      <c r="H114" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="I114" s="62" t="str">
+      <c r="I114" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="J114" s="62" t="str">
+      <c r="J114" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B115" s="64" t="str">
+      <c r="B115" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="C115" s="64" t="str">
+      <c r="C115" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="D115" s="64" t="str">
+      <c r="D115" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_003</v>
       </c>
-      <c r="E115" s="64" t="str">
+      <c r="E115" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_003</v>
       </c>
-      <c r="G115" s="62" t="str">
+      <c r="G115" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="H115" s="62" t="str">
+      <c r="H115" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="I115" s="62" t="str">
+      <c r="I115" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="J115" s="62" t="str">
+      <c r="J115" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="64" t="s">
+      <c r="A116" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B116" s="64" t="str">
+      <c r="B116" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="C116" s="64" t="str">
+      <c r="C116" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="D116" s="64" t="str">
+      <c r="D116" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_004</v>
       </c>
-      <c r="E116" s="64" t="str">
+      <c r="E116" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_004</v>
       </c>
-      <c r="G116" s="62" t="str">
+      <c r="G116" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="H116" s="62" t="str">
+      <c r="H116" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="I116" s="62" t="str">
+      <c r="I116" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="J116" s="62" t="str">
+      <c r="J116" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B117" s="64" t="str">
+      <c r="B117" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="C117" s="64" t="str">
+      <c r="C117" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="D117" s="64" t="str">
+      <c r="D117" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/galaxy_welcome_005</v>
       </c>
-      <c r="E117" s="64" t="str">
+      <c r="E117" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/galaxy_welcome_005</v>
       </c>
-      <c r="G117" s="62" t="str">
+      <c r="G117" s="59" t="str">
         <f t="shared" si="36"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="H117" s="62" t="str">
+      <c r="H117" s="59" t="str">
         <f t="shared" si="37"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="I117" s="62" t="str">
+      <c r="I117" s="59" t="str">
         <f t="shared" si="38"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="J117" s="62" t="str">
+      <c r="J117" s="59" t="str">
         <f t="shared" si="39"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A118" s="64" t="s">
+      <c r="A118" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="B118" s="61" t="str">
+        <f t="shared" ref="B118" si="40">"CHS/"&amp;A118</f>
+        <v>CHS/galaxy_welcome_006</v>
+      </c>
+      <c r="C118" s="61" t="str">
+        <f t="shared" ref="C118" si="41">"CHS/"&amp;A118</f>
+        <v>CHS/galaxy_welcome_006</v>
+      </c>
+      <c r="D118" s="61" t="str">
+        <f t="shared" ref="D118" si="42">"EN/"&amp;A118</f>
+        <v>EN/galaxy_welcome_006</v>
+      </c>
+      <c r="E118" s="61" t="str">
+        <f t="shared" ref="E118" si="43">"JP/"&amp;A118</f>
+        <v>JP/galaxy_welcome_006</v>
+      </c>
+      <c r="G118" s="59" t="str">
+        <f t="shared" ref="G118" si="44">IF(AND(A118&lt;&gt;"",B118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;B118&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="H118" s="59" t="str">
+        <f t="shared" ref="H118" si="45">IF(AND(A118&lt;&gt;"",C118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;C118&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="I118" s="59" t="str">
+        <f t="shared" ref="I118" si="46">IF(AND(A118&lt;&gt;"",D118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;D118&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="J118" s="59" t="str">
+        <f t="shared" ref="J118" si="47">IF(AND(A118&lt;&gt;"",E118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;E118&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A119" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B118" s="64" t="str">
+      <c r="B119" s="61" t="str">
         <f t="shared" si="32"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="C118" s="64" t="str">
+      <c r="C119" s="61" t="str">
         <f t="shared" si="33"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="D118" s="64" t="str">
+      <c r="D119" s="61" t="str">
         <f t="shared" si="34"/>
         <v>EN/mission_complete_retry</v>
       </c>
-      <c r="E118" s="64" t="str">
+      <c r="E119" s="61" t="str">
         <f t="shared" si="35"/>
         <v>JP/mission_complete_retry</v>
       </c>
-      <c r="G118" s="62" t="str">
-        <f>IF(AND(A118&lt;&gt;"",B118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;B118&amp;""" /&gt;","")</f>
+      <c r="G119" s="59" t="str">
+        <f>IF(AND(A119&lt;&gt;"",B119&lt;&gt;""),"&lt;Audio Key="""&amp;A119&amp;""" Value="""&amp;B119&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="H118" s="62" t="str">
-        <f>IF(AND(A118&lt;&gt;"",C118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;C118&amp;""" /&gt;","")</f>
+      <c r="H119" s="59" t="str">
+        <f>IF(AND(A119&lt;&gt;"",C119&lt;&gt;""),"&lt;Audio Key="""&amp;A119&amp;""" Value="""&amp;C119&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="I118" s="62" t="str">
-        <f>IF(AND(A118&lt;&gt;"",D118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;D118&amp;""" /&gt;","")</f>
+      <c r="I119" s="59" t="str">
+        <f>IF(AND(A119&lt;&gt;"",D119&lt;&gt;""),"&lt;Audio Key="""&amp;A119&amp;""" Value="""&amp;D119&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="J118" s="62" t="str">
-        <f>IF(AND(A118&lt;&gt;"",E118&lt;&gt;""),"&lt;Audio Key="""&amp;A118&amp;""" Value="""&amp;E118&amp;""" /&gt;","")</f>
+      <c r="J119" s="59" t="str">
+        <f>IF(AND(A119&lt;&gt;"",E119&lt;&gt;""),"&lt;Audio Key="""&amp;A119&amp;""" Value="""&amp;E119&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE7F18-F0A2-4F88-8910-E409040A4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E50B2-D2EF-4794-B779-20F02B66CC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="441">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2479,10 +2479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>适用于中文繁体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>********系统音效********</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2529,6 +2525,110 @@
   </si>
   <si>
     <t>galaxy_welcome_006</t>
+  </si>
+  <si>
+    <t>Pomeranian</t>
+  </si>
+  <si>
+    <t>适用于日文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用于中文繁体和英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/PetPage/pet_title_JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/WorldMap/playagain_JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/PetFeed/limited_CHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/PetFeed/limited_CHT</t>
+  </si>
+  <si>
+    <t>Texture/PetFeed/limited_EN</t>
+  </si>
+  <si>
+    <t>Texture/PetFeed/limited_JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommingSoon_JP</t>
+  </si>
+  <si>
+    <t>animation3_JP</t>
+  </si>
+  <si>
+    <t>guide2.2_JP</t>
+  </si>
+  <si>
+    <t>guide3_JP</t>
+  </si>
+  <si>
+    <t>animation_JP</t>
+  </si>
+  <si>
+    <t>Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プリン|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドニー|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ニンジ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サンサ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヨーヨー|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヌーオ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レベル{0}でロック解除可能|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふ化|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売り切れ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コインが足りない|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL中止|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進行状況|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2849,7 +2949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3033,6 +3133,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4063,7 +4166,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4079,7 +4182,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4196,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4107,7 +4210,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4121,7 +4224,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4135,7 +4238,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -4149,7 +4252,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -4163,7 +4266,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -4177,7 +4280,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -4191,7 +4294,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -4205,7 +4308,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -4219,7 +4322,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -4233,7 +4336,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
@@ -4249,7 +4352,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -4413,7 +4516,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="67" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -4433,7 +4536,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
@@ -4449,7 +4552,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
@@ -4618,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4628,7 +4731,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" style="44" customWidth="1"/>
     <col min="4" max="16384" width="9" style="44"/>
   </cols>
@@ -4670,15 +4773,27 @@
         <v>116</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="E3" s="44" t="str">
         <f>"&lt;Font Name="""&amp;B3&amp;""" FullName="""&amp;A3&amp;""" Desc="""&amp;C3&amp;""" /&gt;"</f>
-        <v>&lt;Font Name="DFPT" FullName="DFPT_HBC" Desc="适用于中文繁体" /&gt;</v>
+        <v>&lt;Font Name="DFPT" FullName="DFPT_HBC" Desc="适用于中文繁体和英文" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+      <c r="A4" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="44" t="str">
+        <f>"&lt;Font Name="""&amp;B4&amp;""" FullName="""&amp;A4&amp;""" Desc="""&amp;C4&amp;""" /&gt;"</f>
+        <v>&lt;Font Name="Pomeranian" FullName="Pomeranian" Desc="适用于日文" /&gt;</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
@@ -4707,7 +4822,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -4721,12 +4836,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4770,6 +4885,9 @@
       <c r="D3" s="44" t="s">
         <v>197</v>
       </c>
+      <c r="E3" s="65" t="s">
+        <v>428</v>
+      </c>
       <c r="G3" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A3&amp;""" Value="""&amp;B3&amp;""" /&gt;"</f>
         <v>&lt;Text Key="PURPIE" Value="胖紫|HKHB" /&gt;</v>
@@ -4784,7 +4902,7 @@
       </c>
       <c r="J3" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A3&amp;""" Value="""&amp;E3&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="PURPIE" Value="" /&gt;</v>
+        <v>&lt;Text Key="PURPIE" Value="プリン|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4800,6 +4918,9 @@
       <c r="D4" s="44" t="s">
         <v>128</v>
       </c>
+      <c r="E4" s="65" t="s">
+        <v>429</v>
+      </c>
       <c r="G4" s="44" t="str">
         <f t="shared" ref="G4:G8" si="1">"&lt;Text Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
         <v>&lt;Text Key="DONNY" Value="逗泥|HKHB" /&gt;</v>
@@ -4814,7 +4935,7 @@
       </c>
       <c r="J4" s="44" t="str">
         <f t="shared" ref="J4:J8" si="3">"&lt;Text Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="DONNY" Value="" /&gt;</v>
+        <v>&lt;Text Key="DONNY" Value="ドニー|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4830,6 +4951,9 @@
       <c r="D5" s="44" t="s">
         <v>129</v>
       </c>
+      <c r="E5" s="65" t="s">
+        <v>430</v>
+      </c>
       <c r="G5" s="44" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Text Key="NINJI" Value="小忍|HKHB" /&gt;</v>
@@ -4844,7 +4968,7 @@
       </c>
       <c r="J5" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Text Key="NINJI" Value="" /&gt;</v>
+        <v>&lt;Text Key="NINJI" Value="ニンジ|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4860,6 +4984,9 @@
       <c r="D6" s="44" t="s">
         <v>130</v>
       </c>
+      <c r="E6" s="65" t="s">
+        <v>431</v>
+      </c>
       <c r="G6" s="44" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Text Key="SANSA" Value="姗姗|HKHB" /&gt;</v>
@@ -4874,7 +5001,7 @@
       </c>
       <c r="J6" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Text Key="SANSA" Value="" /&gt;</v>
+        <v>&lt;Text Key="SANSA" Value="サンサ|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4890,6 +5017,9 @@
       <c r="D7" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="E7" s="65" t="s">
+        <v>432</v>
+      </c>
       <c r="G7" s="44" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Text Key="YOYO" Value="呦呦|HKHB" /&gt;</v>
@@ -4904,7 +5034,7 @@
       </c>
       <c r="J7" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Text Key="YOYO" Value="" /&gt;</v>
+        <v>&lt;Text Key="YOYO" Value="ヨーヨー|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4920,6 +5050,9 @@
       <c r="D8" s="44" t="s">
         <v>132</v>
       </c>
+      <c r="E8" s="65" t="s">
+        <v>433</v>
+      </c>
       <c r="G8" s="44" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Text Key="NUO" Value="诺诺|HKHB" /&gt;</v>
@@ -4934,7 +5067,7 @@
       </c>
       <c r="J8" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Text Key="NUO" Value="" /&gt;</v>
+        <v>&lt;Text Key="NUO" Value="ヌーオ|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4950,6 +5083,9 @@
       <c r="D9" s="44" t="s">
         <v>139</v>
       </c>
+      <c r="E9" s="65" t="s">
+        <v>434</v>
+      </c>
       <c r="G9" s="44" t="str">
         <f t="shared" ref="G9" si="4">"&lt;Text Key="""&amp;A9&amp;""" Value="""&amp;B9&amp;""" /&gt;"</f>
         <v>&lt;Text Key="达到等级可解锁" Value="达到{0}级可解锁|HKHB" /&gt;</v>
@@ -4964,7 +5100,7 @@
       </c>
       <c r="J9" s="44" t="str">
         <f t="shared" ref="J9" si="7">"&lt;Text Key="""&amp;A9&amp;""" Value="""&amp;E9&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="达到等级可解锁" Value="" /&gt;</v>
+        <v>&lt;Text Key="达到等级可解锁" Value="レベル{0}でロック解除可能|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4980,6 +5116,9 @@
       <c r="D10" s="44" t="s">
         <v>143</v>
       </c>
+      <c r="E10" s="65" t="s">
+        <v>435</v>
+      </c>
       <c r="G10" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;B10&amp;""" /&gt;"</f>
         <v>&lt;Text Key="解锁宠物" Value="孵化{0}|HKHB" /&gt;</v>
@@ -4994,7 +5133,7 @@
       </c>
       <c r="J10" s="44" t="str">
         <f t="shared" ref="J10:J13" si="10">"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;E10&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="解锁宠物" Value="" /&gt;</v>
+        <v>&lt;Text Key="解锁宠物" Value="ふ化|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5010,6 +5149,9 @@
       <c r="D11" s="44" t="s">
         <v>207</v>
       </c>
+      <c r="E11" s="65" t="s">
+        <v>436</v>
+      </c>
       <c r="G11" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A11&amp;""" Value="""&amp;B11&amp;""" /&gt;"</f>
         <v>&lt;Text Key="Feed_Prescribe" Value="限定|HKHB" /&gt;</v>
@@ -5024,7 +5166,7 @@
       </c>
       <c r="J11" s="44" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;Text Key="Feed_Prescribe" Value="" /&gt;</v>
+        <v>&lt;Text Key="Feed_Prescribe" Value="限定|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5040,6 +5182,9 @@
       <c r="D12" s="44" t="s">
         <v>208</v>
       </c>
+      <c r="E12" s="65" t="s">
+        <v>437</v>
+      </c>
       <c r="G12" s="44" t="str">
         <f t="shared" ref="G12:G13" si="11">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;B12&amp;""" /&gt;"</f>
         <v>&lt;Text Key="Feed_Sold_Out" Value="已下架|HKHB" /&gt;</v>
@@ -5054,7 +5199,7 @@
       </c>
       <c r="J12" s="44" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;Text Key="Feed_Sold_Out" Value="" /&gt;</v>
+        <v>&lt;Text Key="Feed_Sold_Out" Value="売り切れ|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -5070,6 +5215,9 @@
       <c r="D13" s="44" t="s">
         <v>209</v>
       </c>
+      <c r="E13" s="65" t="s">
+        <v>438</v>
+      </c>
       <c r="G13" s="44" t="str">
         <f t="shared" si="11"/>
         <v>&lt;Text Key="Feed_No_Coin" Value="金币不足|HKHB" /&gt;</v>
@@ -5084,7 +5232,7 @@
       </c>
       <c r="J13" s="44" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;Text Key="Feed_No_Coin" Value="" /&gt;</v>
+        <v>&lt;Text Key="Feed_No_Coin" Value="コインが足りない|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -5100,6 +5248,9 @@
       <c r="D14" s="44" t="s">
         <v>213</v>
       </c>
+      <c r="E14" s="65" t="s">
+        <v>439</v>
+      </c>
       <c r="G14" s="44" t="str">
         <f t="shared" ref="G14" si="12">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;B14&amp;""" /&gt;"</f>
         <v>&lt;Text Key="退出下载" Value="退出下载|HKHB" /&gt;</v>
@@ -5114,7 +5265,7 @@
       </c>
       <c r="J14" s="44" t="str">
         <f t="shared" ref="J14" si="15">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;E14&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="退出下载" Value="" /&gt;</v>
+        <v>&lt;Text Key="退出下载" Value="DL中止|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -5130,6 +5281,9 @@
       <c r="D15" s="44" t="s">
         <v>291</v>
       </c>
+      <c r="E15" s="65" t="s">
+        <v>440</v>
+      </c>
       <c r="G15" s="44" t="str">
         <f t="shared" ref="G15" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="关卡进度|HKHB" /&gt;</v>
@@ -5144,7 +5298,7 @@
       </c>
       <c r="J15" s="44" t="str">
         <f t="shared" ref="J15" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="关卡进度" Value="" /&gt;</v>
+        <v>&lt;Text Key="关卡进度" Value="進行状況|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5322,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5180,12 +5334,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5230,7 +5384,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>94</v>
+        <v>416</v>
       </c>
       <c r="G3" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A3&amp;""" Value="""&amp;B3&amp;""" /&gt;"</f>
@@ -5246,7 +5400,7 @@
       </c>
       <c r="J3" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A3&amp;""" Value="""&amp;E3&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="PetPageTitle" Value="Texture/PetPage/pet_title_CHT" /&gt;</v>
+        <v>&lt;Image Key="PetPageTitle" Value="Texture/PetPage/pet_title_JP" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5254,32 +5408,32 @@
         <v>198</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>93</v>
+        <v>418</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>94</v>
+        <v>419</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="G4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetPage/pet_title_CHS" /&gt;</v>
+        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/limited_CHS" /&gt;</v>
       </c>
       <c r="H4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetPage/pet_title_CHT" /&gt;</v>
+        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/limited_CHT" /&gt;</v>
       </c>
       <c r="I4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetPage/pet_title_EN" /&gt;</v>
+        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/limited_EN" /&gt;</v>
       </c>
       <c r="J4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetPage/pet_title_CHT" /&gt;</v>
+        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/limited_JP" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5296,7 +5450,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>299</v>
+        <v>417</v>
       </c>
       <c r="G5" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A5&amp;""" Value="""&amp;B5&amp;""" /&gt;"</f>
@@ -5312,7 +5466,7 @@
       </c>
       <c r="J5" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A5&amp;""" Value="""&amp;E5&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="PlayAgain" Value="Texture/WorldMap/playagain_CHT" /&gt;</v>
+        <v>&lt;Image Key="PlayAgain" Value="Texture/WorldMap/playagain_JP" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5342,7 +5496,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:E1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5353,12 +5507,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -5403,7 +5557,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="G3" s="54" t="str">
         <f>"&lt;Animation Key="""&amp;A3&amp;""" Value="""&amp;B3&amp;""" /&gt;"</f>
@@ -5419,7 +5573,7 @@
       </c>
       <c r="J3" s="54" t="str">
         <f>"&lt;Animation Key="""&amp;A3&amp;""" Value="""&amp;E3&amp;""" /&gt;"</f>
-        <v>&lt;Animation Key="CommingSoon" Value="CommingSoon_CHT" /&gt;</v>
+        <v>&lt;Animation Key="CommingSoon" Value="CommingSoon_JP" /&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5436,7 +5590,7 @@
         <v>99</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="G4" s="54" t="str">
         <f t="shared" ref="G4:G6" si="0">"&lt;Animation Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
@@ -5452,7 +5606,7 @@
       </c>
       <c r="J4" s="54" t="str">
         <f t="shared" ref="J4:J6" si="3">"&lt;Animation Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Animation Key="animation3" Value="animation3_CHT" /&gt;</v>
+        <v>&lt;Animation Key="animation3" Value="animation3_JP" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5469,7 +5623,7 @@
         <v>103</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>102</v>
+        <v>424</v>
       </c>
       <c r="G5" s="54" t="str">
         <f t="shared" si="0"/>
@@ -5485,7 +5639,7 @@
       </c>
       <c r="J5" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Animation Key="guide2.2" Value="guide2.2_CHT" /&gt;</v>
+        <v>&lt;Animation Key="guide2.2" Value="guide2.2_JP" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -5502,7 +5656,7 @@
         <v>107</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="G6" s="54" t="str">
         <f t="shared" si="0"/>
@@ -5518,7 +5672,7 @@
       </c>
       <c r="J6" s="54" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;Animation Key="guide3" Value="guide3_CHT" /&gt;</v>
+        <v>&lt;Animation Key="guide3" Value="guide3_JP" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -5535,7 +5689,7 @@
         <v>111</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>110</v>
+        <v>426</v>
       </c>
       <c r="G7" s="54" t="str">
         <f t="shared" ref="G7" si="4">"&lt;Animation Key="""&amp;A7&amp;""" Value="""&amp;B7&amp;""" /&gt;"</f>
@@ -5551,7 +5705,7 @@
       </c>
       <c r="J7" s="54" t="str">
         <f t="shared" ref="J7" si="7">"&lt;Animation Key="""&amp;A7&amp;""" Value="""&amp;E7&amp;""" /&gt;"</f>
-        <v>&lt;Animation Key="animation" Value="animation_CHT" /&gt;</v>
+        <v>&lt;Animation Key="animation" Value="animation_JP" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5571,11 +5725,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF947AC-89FA-4CC2-B72C-B72AB83DE7D9}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118:XFD118"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5586,12 +5740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="62" t="s">
@@ -5625,7 +5779,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -7536,7 +7690,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="61" t="str">
         <f t="shared" ref="B56" si="12">"CHS/"&amp;A56</f>
@@ -7573,7 +7727,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" s="61" t="str">
         <f t="shared" ref="B57:B66" si="20">"CHS/"&amp;A57</f>
@@ -7610,7 +7764,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7647,7 +7801,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7684,7 +7838,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B60" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7721,7 +7875,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B61" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7758,7 +7912,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B62" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7795,7 +7949,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7832,7 +7986,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B64" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7869,7 +8023,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B65" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7906,7 +8060,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B66" s="61" t="str">
         <f t="shared" si="20"/>
@@ -7943,7 +8097,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
@@ -9301,7 +9455,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
@@ -9602,7 +9756,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B118" s="61" t="str">
         <f t="shared" ref="B118" si="40">"CHS/"&amp;A118</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7349915-F8A6-47EF-A821-AE8055BA00DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3AB58-CCB2-414F-8538-9FC94152F089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -2653,10 +2653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ふ化|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>限定|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4542,6 +4538,10 @@
     <t>说明：
 1.每个国家的语言的列中填写的是对应语言的音频的存放路径
 2.此页签内的音频文件，是日文版的所有未在之前的配置中出现过的文件，需要处理的有两部分：一是日文配置数据均出自JP文件夹；另一个是其他3种语言(CHS/CHT/EN)不需要补录这部分文件的配置，因为目前为止所有未配置的语音全部放在了CHS目录中，且作为默认路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふ化{0}|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5074,6 +5074,15 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5085,15 +5094,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6184,7 +6184,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -6200,7 +6200,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -6298,7 +6298,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -6340,7 +6340,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
@@ -6370,7 +6370,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="76" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -6554,7 +6554,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
@@ -6674,38 +6674,38 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" t="s">
         <v>720</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1055</v>
       </c>
-      <c r="E1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1056</v>
-      </c>
       <c r="H1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J1" t="s">
         <v>723</v>
-      </c>
-      <c r="J1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E2" t="str">
         <f>MID(C2, FIND(" ",C2,33)+1, LEN(C2)-FIND(" ",C2,33) - 4)</f>
         <v>ai_popup_not_activated</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H2" s="65">
         <f t="shared" ref="H2:H65" si="0">COUNTIF(A:A,E2)</f>
@@ -6718,11 +6718,11 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="2">MID(C3, FIND(" ",C3,33)+1, LEN(C3)-FIND(" ",C3,33) - 4)</f>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="B5" s="70"/>
       <c r="C5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_01</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H5" s="65">
         <f t="shared" si="0"/>
@@ -6794,14 +6794,14 @@
       </c>
       <c r="B6" s="70"/>
       <c r="C6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_02</v>
       </c>
       <c r="F6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H6" s="65">
         <f t="shared" si="0"/>
@@ -6814,18 +6814,18 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_03</v>
       </c>
       <c r="F7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H7" s="65">
         <f t="shared" si="0"/>
@@ -6838,18 +6838,18 @@
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="66" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_fail_01</v>
       </c>
       <c r="F8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H8" s="65">
         <f t="shared" si="0"/>
@@ -6862,18 +6862,18 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_01</v>
       </c>
       <c r="F9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H9" s="65">
         <f t="shared" si="0"/>
@@ -6890,14 +6890,14 @@
       </c>
       <c r="B10" s="70"/>
       <c r="C10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_back_01</v>
       </c>
       <c r="F10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H10" s="65">
         <f t="shared" si="0"/>
@@ -6914,14 +6914,14 @@
       </c>
       <c r="B11" s="70"/>
       <c r="C11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_out_01</v>
       </c>
       <c r="F11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H11" s="65">
         <f t="shared" si="0"/>
@@ -6934,18 +6934,18 @@
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_host_01</v>
       </c>
       <c r="F12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H12" s="65">
         <f t="shared" si="0"/>
@@ -6962,14 +6962,14 @@
       </c>
       <c r="B13" s="70"/>
       <c r="C13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01</v>
       </c>
       <c r="F13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H13" s="65">
         <f t="shared" si="0"/>
@@ -6986,14 +6986,14 @@
       </c>
       <c r="B14" s="70"/>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01_01</v>
       </c>
       <c r="F14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H14" s="65">
         <f t="shared" si="0"/>
@@ -7010,14 +7010,14 @@
       </c>
       <c r="B15" s="70"/>
       <c r="C15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01_02</v>
       </c>
       <c r="F15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H15" s="65">
         <f t="shared" si="0"/>
@@ -7030,18 +7030,18 @@
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B16" s="70"/>
       <c r="C16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
         <v>dony_hello_01</v>
       </c>
       <c r="F16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H16" s="65">
         <f t="shared" si="0"/>
@@ -7058,14 +7058,14 @@
       </c>
       <c r="B17" s="70"/>
       <c r="C17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
         <v>dony_level_end_01</v>
       </c>
       <c r="F17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H17" s="65">
         <f t="shared" si="0"/>
@@ -7082,14 +7082,14 @@
       </c>
       <c r="B18" s="70"/>
       <c r="C18" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_01</v>
       </c>
       <c r="F18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H18" s="65">
         <f t="shared" si="0"/>
@@ -7106,14 +7106,14 @@
       </c>
       <c r="B19" s="70"/>
       <c r="C19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_02</v>
       </c>
       <c r="F19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H19" s="65">
         <f t="shared" si="0"/>
@@ -7130,14 +7130,14 @@
       </c>
       <c r="B20" s="70"/>
       <c r="C20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_03</v>
       </c>
       <c r="F20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H20" s="65">
         <f t="shared" si="0"/>
@@ -7154,14 +7154,14 @@
       </c>
       <c r="B21" s="70"/>
       <c r="C21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_04</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H21" s="65">
         <f t="shared" si="0"/>
@@ -7178,14 +7178,14 @@
       </c>
       <c r="B22" s="70"/>
       <c r="C22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_05</v>
       </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H22" s="65">
         <f t="shared" si="0"/>
@@ -7202,14 +7202,14 @@
       </c>
       <c r="B23" s="70"/>
       <c r="C23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_06</v>
       </c>
       <c r="F23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H23" s="65">
         <f t="shared" si="0"/>
@@ -7222,18 +7222,18 @@
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_07</v>
       </c>
       <c r="F24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H24" s="65">
         <f t="shared" si="0"/>
@@ -7250,14 +7250,14 @@
       </c>
       <c r="B25" s="70"/>
       <c r="C25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_08</v>
       </c>
       <c r="F25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H25" s="65">
         <f t="shared" si="0"/>
@@ -7274,14 +7274,14 @@
       </c>
       <c r="B26" s="70"/>
       <c r="C26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01</v>
       </c>
       <c r="F26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H26" s="65">
         <f t="shared" si="0"/>
@@ -7294,18 +7294,18 @@
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_01</v>
       </c>
       <c r="F27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H27" s="65">
         <f t="shared" si="0"/>
@@ -7322,14 +7322,14 @@
       </c>
       <c r="B28" s="71"/>
       <c r="C28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_02</v>
       </c>
       <c r="F28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H28" s="65">
         <f t="shared" si="0"/>
@@ -7346,14 +7346,14 @@
       </c>
       <c r="B29" s="70"/>
       <c r="C29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_03</v>
       </c>
       <c r="F29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H29" s="65">
         <f t="shared" si="0"/>
@@ -7370,14 +7370,14 @@
       </c>
       <c r="B30" s="70"/>
       <c r="C30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01</v>
       </c>
       <c r="F30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H30" s="65">
         <f t="shared" si="0"/>
@@ -7394,14 +7394,14 @@
       </c>
       <c r="B31" s="70"/>
       <c r="C31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01_01</v>
       </c>
       <c r="F31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H31" s="65">
         <f t="shared" si="0"/>
@@ -7418,14 +7418,14 @@
       </c>
       <c r="B32" s="70"/>
       <c r="C32" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01_02</v>
       </c>
       <c r="F32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H32" s="65">
         <f t="shared" si="0"/>
@@ -7442,14 +7442,14 @@
       </c>
       <c r="B33" s="70"/>
       <c r="C33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01</v>
       </c>
       <c r="F33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H33" s="65">
         <f t="shared" si="0"/>
@@ -7466,14 +7466,14 @@
       </c>
       <c r="B34" s="70"/>
       <c r="C34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_01</v>
       </c>
       <c r="F34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H34" s="65">
         <f t="shared" si="0"/>
@@ -7490,14 +7490,14 @@
       </c>
       <c r="B35" s="70"/>
       <c r="C35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_02</v>
       </c>
       <c r="F35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H35" s="65">
         <f t="shared" si="0"/>
@@ -7514,14 +7514,14 @@
       </c>
       <c r="B36" s="70"/>
       <c r="C36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_03</v>
       </c>
       <c r="F36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H36" s="65">
         <f t="shared" si="0"/>
@@ -7538,14 +7538,14 @@
       </c>
       <c r="B37" s="70"/>
       <c r="C37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_01</v>
       </c>
       <c r="F37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H37" s="65">
         <f t="shared" si="0"/>
@@ -7558,18 +7558,18 @@
     </row>
     <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B38" s="70"/>
       <c r="C38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_02</v>
       </c>
       <c r="F38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H38" s="65">
         <f t="shared" si="0"/>
@@ -7582,18 +7582,18 @@
     </row>
     <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_03</v>
       </c>
       <c r="F39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H39" s="65">
         <f t="shared" si="0"/>
@@ -7606,18 +7606,18 @@
     </row>
     <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B40" s="70"/>
       <c r="C40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
         <v>evel_up_nuo_01</v>
       </c>
       <c r="F40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H40" s="65">
         <f t="shared" si="0"/>
@@ -7630,18 +7630,18 @@
     </row>
     <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B41" s="70"/>
       <c r="C41" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
         <v>evel_up_nuo_02</v>
       </c>
       <c r="F41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H41" s="65">
         <f t="shared" si="0"/>
@@ -7654,18 +7654,18 @@
     </row>
     <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_001</v>
       </c>
       <c r="F42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H42" s="65">
         <f t="shared" si="0"/>
@@ -7678,18 +7678,18 @@
     </row>
     <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B43" s="70"/>
       <c r="C43" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_002</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H43" s="65">
         <f t="shared" si="0"/>
@@ -7702,18 +7702,18 @@
     </row>
     <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B44" s="70"/>
       <c r="C44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_003</v>
       </c>
       <c r="F44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H44" s="65">
         <f t="shared" si="0"/>
@@ -7726,18 +7726,18 @@
     </row>
     <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B45" s="70"/>
       <c r="C45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_001</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H45" s="65">
         <f t="shared" si="0"/>
@@ -7750,18 +7750,18 @@
     </row>
     <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_002</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H46" s="65">
         <f t="shared" si="0"/>
@@ -7774,18 +7774,18 @@
     </row>
     <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B47" s="70"/>
       <c r="C47" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_003</v>
       </c>
       <c r="F47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H47" s="65">
         <f t="shared" si="0"/>
@@ -7798,18 +7798,18 @@
     </row>
     <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_004</v>
       </c>
       <c r="F48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H48" s="65">
         <f t="shared" si="0"/>
@@ -7822,18 +7822,18 @@
     </row>
     <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B49" s="70"/>
       <c r="C49" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_005</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H49" s="65">
         <f t="shared" si="0"/>
@@ -7846,18 +7846,18 @@
     </row>
     <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B50" s="70"/>
       <c r="C50" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_001</v>
       </c>
       <c r="F50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H50" s="65">
         <f t="shared" si="0"/>
@@ -7874,14 +7874,14 @@
       </c>
       <c r="B51" s="70"/>
       <c r="C51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_002</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H51" s="65">
         <f t="shared" si="0"/>
@@ -7894,18 +7894,18 @@
     </row>
     <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B52" s="70"/>
       <c r="C52" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_003</v>
       </c>
       <c r="F52" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H52" s="65">
         <f t="shared" si="0"/>
@@ -7918,18 +7918,18 @@
     </row>
     <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B53" s="70"/>
       <c r="C53" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_004</v>
       </c>
       <c r="F53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H53" s="65">
         <f t="shared" si="0"/>
@@ -7942,18 +7942,18 @@
     </row>
     <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" s="70"/>
       <c r="C54" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_005</v>
       </c>
       <c r="F54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H54" s="65">
         <f t="shared" si="0"/>
@@ -7966,18 +7966,18 @@
     </row>
     <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B55" s="70"/>
       <c r="C55" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_001</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H55" s="65">
         <f t="shared" si="0"/>
@@ -7990,18 +7990,18 @@
     </row>
     <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_002</v>
       </c>
       <c r="F56" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H56" s="65">
         <f t="shared" si="0"/>
@@ -8014,18 +8014,18 @@
     </row>
     <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B57" s="70"/>
       <c r="C57" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_003</v>
       </c>
       <c r="F57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H57" s="65">
         <f t="shared" si="0"/>
@@ -8042,14 +8042,14 @@
       </c>
       <c r="B58" s="70"/>
       <c r="C58" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_004</v>
       </c>
       <c r="F58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H58" s="65">
         <f t="shared" si="0"/>
@@ -8062,18 +8062,18 @@
     </row>
     <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B59" s="70"/>
       <c r="C59" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_005</v>
       </c>
       <c r="F59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H59" s="65">
         <f t="shared" si="0"/>
@@ -8086,18 +8086,18 @@
     </row>
     <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B60" s="70"/>
       <c r="C60" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_001</v>
       </c>
       <c r="F60" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H60" s="65">
         <f t="shared" si="0"/>
@@ -8110,18 +8110,18 @@
     </row>
     <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B61" s="70"/>
       <c r="C61" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_002</v>
       </c>
       <c r="F61" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H61" s="65">
         <f t="shared" si="0"/>
@@ -8134,18 +8134,18 @@
     </row>
     <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B62" s="70"/>
       <c r="C62" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_003</v>
       </c>
       <c r="F62" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H62" s="65">
         <f t="shared" si="0"/>
@@ -8158,18 +8158,18 @@
     </row>
     <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="66" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B63" s="70"/>
       <c r="C63" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_004</v>
       </c>
       <c r="F63" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H63" s="65">
         <f t="shared" si="0"/>
@@ -8182,18 +8182,18 @@
     </row>
     <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B64" s="70"/>
       <c r="C64" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_005</v>
       </c>
       <c r="F64" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H64" s="65">
         <f t="shared" si="0"/>
@@ -8206,18 +8206,18 @@
     </row>
     <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B65" s="70"/>
       <c r="C65" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
         <v>fresh_news_01</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H65" s="65">
         <f t="shared" si="0"/>
@@ -8230,18 +8230,18 @@
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B66" s="70"/>
       <c r="C66" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
         <v>fresh_news_02</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H66" s="65">
         <f t="shared" ref="H66:H129" si="3">COUNTIF(A:A,E66)</f>
@@ -8254,18 +8254,18 @@
     </row>
     <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B67" s="70"/>
       <c r="C67" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="5">MID(C67, FIND(" ",C67,33)+1, LEN(C67)-FIND(" ",C67,33) - 4)</f>
         <v>fresh_news_03</v>
       </c>
       <c r="F67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H67" s="65">
         <f t="shared" si="3"/>
@@ -8278,18 +8278,18 @@
     </row>
     <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B68" s="70"/>
       <c r="C68" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="5"/>
         <v>fresh_news_04</v>
       </c>
       <c r="F68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H68" s="65">
         <f t="shared" si="3"/>
@@ -8302,11 +8302,11 @@
     </row>
     <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B69" s="70"/>
       <c r="C69" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="5"/>
@@ -8326,11 +8326,11 @@
     </row>
     <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B70" s="70"/>
       <c r="C70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
@@ -8350,11 +8350,11 @@
     </row>
     <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" s="70"/>
       <c r="C71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
@@ -8374,11 +8374,11 @@
     </row>
     <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="66" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B72" s="70"/>
       <c r="C72" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
@@ -8398,11 +8398,11 @@
     </row>
     <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="66" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
@@ -8422,11 +8422,11 @@
     </row>
     <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="66" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" s="70"/>
       <c r="C74" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="5"/>
@@ -8446,11 +8446,11 @@
     </row>
     <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="66" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="70"/>
       <c r="C75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="5"/>
@@ -8470,11 +8470,11 @@
     </row>
     <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B76" s="70"/>
       <c r="C76" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="5"/>
@@ -8494,11 +8494,11 @@
     </row>
     <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="66" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" s="70"/>
       <c r="C77" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="5"/>
@@ -8518,18 +8518,18 @@
     </row>
     <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="66" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78" s="70"/>
       <c r="C78" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="5"/>
         <v>galaxy_world_welcome_new</v>
       </c>
       <c r="F78" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H78" s="65">
         <f t="shared" si="3"/>
@@ -8546,14 +8546,14 @@
       </c>
       <c r="B79" s="70"/>
       <c r="C79" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="5"/>
         <v>goods_soldout</v>
       </c>
       <c r="F79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H79" s="65">
         <f t="shared" si="3"/>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="B80" s="70"/>
       <c r="C80" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="5"/>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="B81" s="70"/>
       <c r="C81" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B82" s="70"/>
       <c r="C82" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="5"/>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="B83" s="70"/>
       <c r="C83" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="5"/>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="B84" s="70"/>
       <c r="C84" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="B85" s="70"/>
       <c r="C85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="B86" s="70"/>
       <c r="C86" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B87" s="70"/>
       <c r="C87" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="B88" s="70"/>
       <c r="C88" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
@@ -8784,7 +8784,7 @@
       <c r="A89" s="66"/>
       <c r="B89" s="70"/>
       <c r="C89" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E89" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8806,7 +8806,7 @@
       <c r="A90" s="66"/>
       <c r="B90" s="70"/>
       <c r="C90" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E90" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8828,7 +8828,7 @@
       <c r="A91" s="68"/>
       <c r="B91" s="70"/>
       <c r="C91" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E91" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8850,7 +8850,7 @@
       <c r="A92" s="68"/>
       <c r="B92" s="70"/>
       <c r="C92" s="69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E92" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8872,7 +8872,7 @@
       <c r="A93" s="68"/>
       <c r="B93" s="70"/>
       <c r="C93" s="69" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E93" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8893,14 +8893,14 @@
     <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="70"/>
       <c r="C94" s="69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E94" s="69" t="str">
         <f t="shared" si="5"/>
         <v>hint_app_download_crcode_cn</v>
       </c>
       <c r="F94" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H94" s="65">
         <f t="shared" si="3"/>
@@ -8914,14 +8914,14 @@
     <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B95" s="70"/>
       <c r="C95" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E95" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_01</v>
       </c>
       <c r="F95" s="69" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H95" s="65">
         <f t="shared" si="3"/>
@@ -8935,14 +8935,14 @@
     <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="70"/>
       <c r="C96" s="69" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E96" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_dony_01</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H96" s="65">
         <f t="shared" si="3"/>
@@ -8956,14 +8956,14 @@
     <row r="97" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="70"/>
       <c r="C97" s="69" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E97" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_dony_02</v>
       </c>
       <c r="F97" s="69" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H97" s="65">
         <f t="shared" si="3"/>
@@ -8977,14 +8977,14 @@
     <row r="98" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B98" s="70"/>
       <c r="C98" s="69" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E98" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_01</v>
       </c>
       <c r="F98" s="69" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H98" s="65">
         <f t="shared" si="3"/>
@@ -8998,14 +8998,14 @@
     <row r="99" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B99" s="70"/>
       <c r="C99" s="69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E99" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_02</v>
       </c>
       <c r="F99" s="69" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H99" s="65">
         <f t="shared" si="3"/>
@@ -9019,14 +9019,14 @@
     <row r="100" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B100" s="70"/>
       <c r="C100" s="69" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E100" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_03</v>
       </c>
       <c r="F100" s="69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H100" s="65">
         <f t="shared" si="3"/>
@@ -9040,14 +9040,14 @@
     <row r="101" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="70"/>
       <c r="C101" s="69" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E101" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nuo_01</v>
       </c>
       <c r="F101" s="69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H101" s="65">
         <f t="shared" si="3"/>
@@ -9061,14 +9061,14 @@
     <row r="102" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="70"/>
       <c r="C102" s="69" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E102" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nuo_02</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H102" s="65">
         <f t="shared" si="3"/>
@@ -9082,14 +9082,14 @@
     <row r="103" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="70"/>
       <c r="C103" s="69" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E103" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_01</v>
       </c>
       <c r="F103" s="69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H103" s="65">
         <f t="shared" si="3"/>
@@ -9103,14 +9103,14 @@
     <row r="104" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="70"/>
       <c r="C104" s="69" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E104" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_02</v>
       </c>
       <c r="F104" s="69" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H104" s="65">
         <f t="shared" si="3"/>
@@ -9124,14 +9124,14 @@
     <row r="105" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="70"/>
       <c r="C105" s="69" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E105" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_03</v>
       </c>
       <c r="F105" s="69" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H105" s="65">
         <f t="shared" si="3"/>
@@ -9145,14 +9145,14 @@
     <row r="106" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="70"/>
       <c r="C106" s="69" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E106" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_01</v>
       </c>
       <c r="F106" s="69" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H106" s="65">
         <f t="shared" si="3"/>
@@ -9166,14 +9166,14 @@
     <row r="107" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="70"/>
       <c r="C107" s="69" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E107" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_02</v>
       </c>
       <c r="F107" s="69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H107" s="65">
         <f t="shared" si="3"/>
@@ -9187,14 +9187,14 @@
     <row r="108" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="70"/>
       <c r="C108" s="69" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E108" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_03</v>
       </c>
       <c r="F108" s="69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H108" s="65">
         <f t="shared" si="3"/>
@@ -9208,14 +9208,14 @@
     <row r="109" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B109" s="70"/>
       <c r="C109" s="69" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E109" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_yoyo_01</v>
       </c>
       <c r="F109" s="69" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H109" s="65">
         <f t="shared" si="3"/>
@@ -9229,14 +9229,14 @@
     <row r="110" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B110" s="70"/>
       <c r="C110" s="69" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E110" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_yoyo_02</v>
       </c>
       <c r="F110" s="69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H110" s="65">
         <f t="shared" si="3"/>
@@ -9250,7 +9250,7 @@
     <row r="111" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B111" s="70"/>
       <c r="C111" s="69" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E111" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9271,7 +9271,7 @@
     <row r="112" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B112" s="70"/>
       <c r="C112" s="69" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E112" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9292,7 +9292,7 @@
     <row r="113" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="70"/>
       <c r="C113" s="69" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E113" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9313,7 +9313,7 @@
     <row r="114" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="70"/>
       <c r="C114" s="69" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E114" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9334,14 +9334,14 @@
     <row r="115" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B115" s="70"/>
       <c r="C115" s="69" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E115" s="69" t="str">
         <f t="shared" si="5"/>
         <v>navmenu_comingsoon_4</v>
       </c>
       <c r="F115" s="69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H115" s="65">
         <f t="shared" si="3"/>
@@ -9355,14 +9355,14 @@
     <row r="116" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B116" s="70"/>
       <c r="C116" s="69" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E116" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_01</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H116" s="65">
         <f t="shared" si="3"/>
@@ -9376,14 +9376,14 @@
     <row r="117" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B117" s="70"/>
       <c r="C117" s="69" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E117" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_01</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H117" s="65">
         <f t="shared" si="3"/>
@@ -9396,14 +9396,14 @@
     </row>
     <row r="118" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C118" s="69" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E118" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_02</v>
       </c>
       <c r="F118" s="69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H118" s="65">
         <f t="shared" si="3"/>
@@ -9416,14 +9416,14 @@
     </row>
     <row r="119" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C119" s="69" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E119" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_03</v>
       </c>
       <c r="F119" s="69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H119" s="65">
         <f t="shared" si="3"/>
@@ -9436,14 +9436,14 @@
     </row>
     <row r="120" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C120" s="69" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E120" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_04</v>
       </c>
       <c r="F120" s="69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H120" s="65">
         <f t="shared" si="3"/>
@@ -9456,14 +9456,14 @@
     </row>
     <row r="121" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C121" s="69" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E121" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_05</v>
       </c>
       <c r="F121" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H121" s="65">
         <f t="shared" si="3"/>
@@ -9476,14 +9476,14 @@
     </row>
     <row r="122" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C122" s="69" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E122" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_01</v>
       </c>
       <c r="F122" s="69" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H122" s="65">
         <f t="shared" si="3"/>
@@ -9496,14 +9496,14 @@
     </row>
     <row r="123" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C123" s="69" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E123" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_02</v>
       </c>
       <c r="F123" s="69" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H123" s="65">
         <f t="shared" si="3"/>
@@ -9516,14 +9516,14 @@
     </row>
     <row r="124" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C124" s="69" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E124" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_03</v>
       </c>
       <c r="F124" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H124" s="65">
         <f t="shared" si="3"/>
@@ -9536,14 +9536,14 @@
     </row>
     <row r="125" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C125" s="69" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E125" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_04</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H125" s="65">
         <f t="shared" si="3"/>
@@ -9556,14 +9556,14 @@
     </row>
     <row r="126" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C126" s="69" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E126" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_05</v>
       </c>
       <c r="F126" s="69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H126" s="65">
         <f t="shared" si="3"/>
@@ -9576,14 +9576,14 @@
     </row>
     <row r="127" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C127" s="69" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E127" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_06</v>
       </c>
       <c r="F127" s="69" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H127" s="65">
         <f t="shared" si="3"/>
@@ -9596,14 +9596,14 @@
     </row>
     <row r="128" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C128" s="69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E128" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_01</v>
       </c>
       <c r="F128" s="69" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H128" s="65">
         <f t="shared" si="3"/>
@@ -9616,14 +9616,14 @@
     </row>
     <row r="129" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C129" s="69" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E129" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_02</v>
       </c>
       <c r="F129" s="69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H129" s="65">
         <f t="shared" si="3"/>
@@ -9636,14 +9636,14 @@
     </row>
     <row r="130" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C130" s="69" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E130" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_03</v>
       </c>
       <c r="F130" s="69" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H130" s="65">
         <f t="shared" ref="H130:H193" si="6">COUNTIF(A:A,E130)</f>
@@ -9656,14 +9656,14 @@
     </row>
     <row r="131" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C131" s="69" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E131" s="69" t="str">
         <f t="shared" ref="E131:E194" si="8">MID(C131, FIND(" ",C131,33)+1, LEN(C131)-FIND(" ",C131,33) - 4)</f>
         <v>nim_chest_open_pur_01</v>
       </c>
       <c r="F131" s="69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H131" s="65">
         <f t="shared" si="6"/>
@@ -9676,14 +9676,14 @@
     </row>
     <row r="132" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C132" s="69" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E132" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_02</v>
       </c>
       <c r="F132" s="69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H132" s="65">
         <f t="shared" si="6"/>
@@ -9696,14 +9696,14 @@
     </row>
     <row r="133" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C133" s="69" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E133" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_03</v>
       </c>
       <c r="F133" s="69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H133" s="65">
         <f t="shared" si="6"/>
@@ -9716,14 +9716,14 @@
     </row>
     <row r="134" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C134" s="69" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E134" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_04</v>
       </c>
       <c r="F134" s="69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H134" s="65">
         <f t="shared" si="6"/>
@@ -9736,14 +9736,14 @@
     </row>
     <row r="135" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C135" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E135" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_05</v>
       </c>
       <c r="F135" s="69" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H135" s="65">
         <f t="shared" si="6"/>
@@ -9756,14 +9756,14 @@
     </row>
     <row r="136" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C136" s="69" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E136" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_06</v>
       </c>
       <c r="F136" s="69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H136" s="65">
         <f t="shared" si="6"/>
@@ -9776,14 +9776,14 @@
     </row>
     <row r="137" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C137" s="69" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E137" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_01</v>
       </c>
       <c r="F137" s="69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H137" s="65">
         <f t="shared" si="6"/>
@@ -9796,14 +9796,14 @@
     </row>
     <row r="138" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C138" s="69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E138" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_02</v>
       </c>
       <c r="F138" s="69" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H138" s="65">
         <f t="shared" si="6"/>
@@ -9816,14 +9816,14 @@
     </row>
     <row r="139" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C139" s="69" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E139" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_03</v>
       </c>
       <c r="F139" s="69" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H139" s="65">
         <f t="shared" si="6"/>
@@ -9836,14 +9836,14 @@
     </row>
     <row r="140" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C140" s="69" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E140" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_04</v>
       </c>
       <c r="F140" s="69" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H140" s="65">
         <f t="shared" si="6"/>
@@ -9856,14 +9856,14 @@
     </row>
     <row r="141" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C141" s="69" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E141" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_05</v>
       </c>
       <c r="F141" s="69" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H141" s="65">
         <f t="shared" si="6"/>
@@ -9876,14 +9876,14 @@
     </row>
     <row r="142" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C142" s="69" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E142" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_01</v>
       </c>
       <c r="F142" s="69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H142" s="65">
         <f t="shared" si="6"/>
@@ -9896,14 +9896,14 @@
     </row>
     <row r="143" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C143" s="69" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E143" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_02</v>
       </c>
       <c r="F143" s="69" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H143" s="65">
         <f t="shared" si="6"/>
@@ -9916,14 +9916,14 @@
     </row>
     <row r="144" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C144" s="69" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E144" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_03</v>
       </c>
       <c r="F144" s="69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H144" s="65">
         <f t="shared" si="6"/>
@@ -9936,14 +9936,14 @@
     </row>
     <row r="145" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C145" s="69" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E145" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_04</v>
       </c>
       <c r="F145" s="69" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H145" s="65">
         <f t="shared" si="6"/>
@@ -9956,14 +9956,14 @@
     </row>
     <row r="146" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C146" s="69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E146" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_01</v>
       </c>
       <c r="F146" s="69" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H146" s="65">
         <f t="shared" si="6"/>
@@ -9976,14 +9976,14 @@
     </row>
     <row r="147" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C147" s="69" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E147" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_02</v>
       </c>
       <c r="F147" s="69" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H147" s="65">
         <f t="shared" si="6"/>
@@ -9996,14 +9996,14 @@
     </row>
     <row r="148" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C148" s="69" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E148" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_03</v>
       </c>
       <c r="F148" s="69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H148" s="65">
         <f t="shared" si="6"/>
@@ -10016,14 +10016,14 @@
     </row>
     <row r="149" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C149" s="69" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E149" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_fail_01</v>
       </c>
       <c r="F149" s="69" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H149" s="65">
         <f t="shared" si="6"/>
@@ -10036,14 +10036,14 @@
     </row>
     <row r="150" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C150" s="69" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E150" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_01</v>
       </c>
       <c r="F150" s="69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H150" s="65">
         <f t="shared" si="6"/>
@@ -10056,14 +10056,14 @@
     </row>
     <row r="151" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C151" s="69" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E151" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_back_01</v>
       </c>
       <c r="F151" s="69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H151" s="65">
         <f t="shared" si="6"/>
@@ -10076,14 +10076,14 @@
     </row>
     <row r="152" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C152" s="69" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E152" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_out_01</v>
       </c>
       <c r="F152" s="69" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H152" s="65">
         <f t="shared" si="6"/>
@@ -10096,14 +10096,14 @@
     </row>
     <row r="153" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C153" s="69" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E153" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_host_01</v>
       </c>
       <c r="F153" s="69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H153" s="65">
         <f t="shared" si="6"/>
@@ -10116,14 +10116,14 @@
     </row>
     <row r="154" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C154" s="69" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E154" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_search_01</v>
       </c>
       <c r="F154" s="69" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H154" s="65">
         <f t="shared" si="6"/>
@@ -10136,14 +10136,14 @@
     </row>
     <row r="155" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C155" s="69" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E155" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_hello_01</v>
       </c>
       <c r="F155" s="69" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H155" s="65">
         <f t="shared" si="6"/>
@@ -10156,14 +10156,14 @@
     </row>
     <row r="156" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C156" s="69" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E156" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_level_end_01</v>
       </c>
       <c r="F156" s="69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H156" s="65">
         <f t="shared" si="6"/>
@@ -10176,14 +10176,14 @@
     </row>
     <row r="157" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C157" s="69" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E157" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01</v>
       </c>
       <c r="F157" s="69" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H157" s="65">
         <f t="shared" si="6"/>
@@ -10196,14 +10196,14 @@
     </row>
     <row r="158" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C158" s="69" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E158" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_01</v>
       </c>
       <c r="F158" s="69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H158" s="65">
         <f t="shared" si="6"/>
@@ -10216,14 +10216,14 @@
     </row>
     <row r="159" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C159" s="69" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E159" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_02</v>
       </c>
       <c r="F159" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H159" s="65">
         <f t="shared" si="6"/>
@@ -10236,14 +10236,14 @@
     </row>
     <row r="160" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C160" s="69" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E160" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_03</v>
       </c>
       <c r="F160" s="69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H160" s="65">
         <f t="shared" si="6"/>
@@ -10256,14 +10256,14 @@
     </row>
     <row r="161" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C161" s="69" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E161" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_04</v>
       </c>
       <c r="F161" s="69" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H161" s="65">
         <f t="shared" si="6"/>
@@ -10276,14 +10276,14 @@
     </row>
     <row r="162" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C162" s="69" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E162" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_05</v>
       </c>
       <c r="F162" s="69" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H162" s="65">
         <f t="shared" si="6"/>
@@ -10296,14 +10296,14 @@
     </row>
     <row r="163" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C163" s="69" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E163" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_06</v>
       </c>
       <c r="F163" s="69" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H163" s="65">
         <f t="shared" si="6"/>
@@ -10316,14 +10316,14 @@
     </row>
     <row r="164" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C164" s="69" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E164" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_07</v>
       </c>
       <c r="F164" s="69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H164" s="65">
         <f t="shared" si="6"/>
@@ -10336,14 +10336,14 @@
     </row>
     <row r="165" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C165" s="69" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E165" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_08</v>
       </c>
       <c r="F165" s="69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H165" s="65">
         <f t="shared" si="6"/>
@@ -10356,14 +10356,14 @@
     </row>
     <row r="166" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C166" s="69" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E166" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01</v>
       </c>
       <c r="F166" s="69" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H166" s="65">
         <f t="shared" si="6"/>
@@ -10376,14 +10376,14 @@
     </row>
     <row r="167" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C167" s="69" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E167" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_01</v>
       </c>
       <c r="F167" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H167" s="65">
         <f t="shared" si="6"/>
@@ -10396,14 +10396,14 @@
     </row>
     <row r="168" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C168" s="69" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E168" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_02</v>
       </c>
       <c r="F168" s="69" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H168" s="65">
         <f t="shared" si="6"/>
@@ -10416,14 +10416,14 @@
     </row>
     <row r="169" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C169" s="69" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E169" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_03</v>
       </c>
       <c r="F169" s="69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H169" s="65">
         <f t="shared" si="6"/>
@@ -10436,14 +10436,14 @@
     </row>
     <row r="170" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C170" s="69" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E170" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_01</v>
       </c>
       <c r="F170" s="69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H170" s="65">
         <f t="shared" si="6"/>
@@ -10456,14 +10456,14 @@
     </row>
     <row r="171" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C171" s="69" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E171" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_02</v>
       </c>
       <c r="F171" s="69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H171" s="65">
         <f t="shared" si="6"/>
@@ -10476,14 +10476,14 @@
     </row>
     <row r="172" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C172" s="69" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E172" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_03</v>
       </c>
       <c r="F172" s="69" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H172" s="65">
         <f t="shared" si="6"/>
@@ -10496,14 +10496,14 @@
     </row>
     <row r="173" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C173" s="69" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E173" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_04</v>
       </c>
       <c r="F173" s="69" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H173" s="65">
         <f t="shared" si="6"/>
@@ -10516,14 +10516,14 @@
     </row>
     <row r="174" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C174" s="69" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E174" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_01</v>
       </c>
       <c r="F174" s="69" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H174" s="65">
         <f t="shared" si="6"/>
@@ -10536,14 +10536,14 @@
     </row>
     <row r="175" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C175" s="69" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E175" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_02</v>
       </c>
       <c r="F175" s="69" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H175" s="65">
         <f t="shared" si="6"/>
@@ -10556,14 +10556,14 @@
     </row>
     <row r="176" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C176" s="69" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E176" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_03</v>
       </c>
       <c r="F176" s="69" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H176" s="65">
         <f t="shared" si="6"/>
@@ -10576,14 +10576,14 @@
     </row>
     <row r="177" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C177" s="69" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E177" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_04</v>
       </c>
       <c r="F177" s="69" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H177" s="65">
         <f t="shared" si="6"/>
@@ -10596,14 +10596,14 @@
     </row>
     <row r="178" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C178" s="69" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E178" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_01</v>
       </c>
       <c r="F178" s="69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H178" s="65">
         <f t="shared" si="6"/>
@@ -10616,14 +10616,14 @@
     </row>
     <row r="179" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C179" s="69" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E179" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_02</v>
       </c>
       <c r="F179" s="69" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H179" s="65">
         <f t="shared" si="6"/>
@@ -10636,14 +10636,14 @@
     </row>
     <row r="180" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C180" s="69" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E180" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_03</v>
       </c>
       <c r="F180" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H180" s="65">
         <f t="shared" si="6"/>
@@ -10656,14 +10656,14 @@
     </row>
     <row r="181" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C181" s="69" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E181" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_04</v>
       </c>
       <c r="F181" s="69" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H181" s="65">
         <f t="shared" si="6"/>
@@ -10676,14 +10676,14 @@
     </row>
     <row r="182" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C182" s="69" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E182" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_05</v>
       </c>
       <c r="F182" s="69" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H182" s="65">
         <f t="shared" si="6"/>
@@ -10696,14 +10696,14 @@
     </row>
     <row r="183" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C183" s="69" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E183" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_01</v>
       </c>
       <c r="F183" s="69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H183" s="65">
         <f t="shared" si="6"/>
@@ -10716,14 +10716,14 @@
     </row>
     <row r="184" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C184" s="69" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E184" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_02</v>
       </c>
       <c r="F184" s="69" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H184" s="65">
         <f t="shared" si="6"/>
@@ -10736,14 +10736,14 @@
     </row>
     <row r="185" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C185" s="69" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E185" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_03</v>
       </c>
       <c r="F185" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H185" s="65">
         <f t="shared" si="6"/>
@@ -10756,14 +10756,14 @@
     </row>
     <row r="186" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C186" s="69" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E186" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_01</v>
       </c>
       <c r="F186" s="69" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H186" s="65">
         <f t="shared" si="6"/>
@@ -10776,14 +10776,14 @@
     </row>
     <row r="187" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C187" s="69" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E187" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_02</v>
       </c>
       <c r="F187" s="69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H187" s="65">
         <f t="shared" si="6"/>
@@ -10796,14 +10796,14 @@
     </row>
     <row r="188" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C188" s="69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E188" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_03</v>
       </c>
       <c r="F188" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H188" s="65">
         <f t="shared" si="6"/>
@@ -10816,14 +10816,14 @@
     </row>
     <row r="189" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C189" s="69" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E189" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_fail_01</v>
       </c>
       <c r="F189" s="69" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H189" s="65">
         <f t="shared" si="6"/>
@@ -10836,14 +10836,14 @@
     </row>
     <row r="190" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C190" s="69" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E190" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_01</v>
       </c>
       <c r="F190" s="69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H190" s="65">
         <f t="shared" si="6"/>
@@ -10856,14 +10856,14 @@
     </row>
     <row r="191" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C191" s="69" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E191" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_back_01</v>
       </c>
       <c r="F191" s="69" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H191" s="65">
         <f t="shared" si="6"/>
@@ -10876,14 +10876,14 @@
     </row>
     <row r="192" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C192" s="69" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E192" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_out_01</v>
       </c>
       <c r="F192" s="69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H192" s="65">
         <f t="shared" si="6"/>
@@ -10896,14 +10896,14 @@
     </row>
     <row r="193" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C193" s="69" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E193" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_host_01</v>
       </c>
       <c r="F193" s="69" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H193" s="65">
         <f t="shared" si="6"/>
@@ -10916,14 +10916,14 @@
     </row>
     <row r="194" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C194" s="69" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E194" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_search_01</v>
       </c>
       <c r="F194" s="69" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H194" s="65">
         <f t="shared" ref="H194:H257" si="9">COUNTIF(A:A,E194)</f>
@@ -10936,14 +10936,14 @@
     </row>
     <row r="195" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C195" s="69" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E195" s="69" t="str">
         <f t="shared" ref="E195:E258" si="11">MID(C195, FIND(" ",C195,33)+1, LEN(C195)-FIND(" ",C195,33) - 4)</f>
         <v>nuo_hello_01</v>
       </c>
       <c r="F195" s="69" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H195" s="65">
         <f t="shared" si="9"/>
@@ -10956,14 +10956,14 @@
     </row>
     <row r="196" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C196" s="69" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E196" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_level_end_01</v>
       </c>
       <c r="F196" s="69" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H196" s="65">
         <f t="shared" si="9"/>
@@ -10976,14 +10976,14 @@
     </row>
     <row r="197" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C197" s="69" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E197" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_morning_01</v>
       </c>
       <c r="F197" s="69" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H197" s="65">
         <f t="shared" si="9"/>
@@ -10996,14 +10996,14 @@
     </row>
     <row r="198" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C198" s="69" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E198" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_down_01</v>
       </c>
       <c r="F198" s="69" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H198" s="65">
         <f t="shared" si="9"/>
@@ -11016,14 +11016,14 @@
     </row>
     <row r="199" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C199" s="69" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E199" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_down_02</v>
       </c>
       <c r="F199" s="69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H199" s="65">
         <f t="shared" si="9"/>
@@ -11036,14 +11036,14 @@
     </row>
     <row r="200" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C200" s="69" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E200" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_01</v>
       </c>
       <c r="F200" s="69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H200" s="65">
         <f t="shared" si="9"/>
@@ -11056,14 +11056,14 @@
     </row>
     <row r="201" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C201" s="69" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E201" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_02</v>
       </c>
       <c r="F201" s="69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H201" s="65">
         <f t="shared" si="9"/>
@@ -11076,14 +11076,14 @@
     </row>
     <row r="202" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C202" s="69" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E202" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_down_01</v>
       </c>
       <c r="F202" s="69" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H202" s="65">
         <f t="shared" si="9"/>
@@ -11096,14 +11096,14 @@
     </row>
     <row r="203" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C203" s="69" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E203" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_down_02</v>
       </c>
       <c r="F203" s="69" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H203" s="65">
         <f t="shared" si="9"/>
@@ -11116,14 +11116,14 @@
     </row>
     <row r="204" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C204" s="69" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E204" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_active_success_cn</v>
       </c>
       <c r="F204" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H204" s="65">
         <f t="shared" si="9"/>
@@ -11136,14 +11136,14 @@
     </row>
     <row r="205" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C205" s="69" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E205" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_connect_to_cloud_fail_cn</v>
       </c>
       <c r="F205" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H205" s="65">
         <f t="shared" si="9"/>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="206" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C206" s="69" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E206" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="207" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C207" s="69" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E207" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11196,14 +11196,14 @@
     </row>
     <row r="208" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C208" s="69" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E208" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_connect_to_router_fail_password</v>
       </c>
       <c r="F208" s="69" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H208" s="65">
         <f t="shared" si="9"/>
@@ -11216,7 +11216,7 @@
     </row>
     <row r="209" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C209" s="69" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E209" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="210" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C210" s="69" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E210" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11256,7 +11256,7 @@
     </row>
     <row r="211" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C211" s="69" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E211" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="212" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C212" s="69" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E212" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="213" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C213" s="69" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E213" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11316,14 +11316,14 @@
     </row>
     <row r="214" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C214" s="69" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E214" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_download</v>
       </c>
       <c r="F214" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H214" s="65">
         <f t="shared" si="9"/>
@@ -11336,7 +11336,7 @@
     </row>
     <row r="215" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C215" s="69" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E215" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11356,14 +11356,14 @@
     </row>
     <row r="216" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C216" s="69" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E216" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_feed_welcome</v>
       </c>
       <c r="F216" s="69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H216" s="65">
         <f t="shared" si="9"/>
@@ -11376,14 +11376,14 @@
     </row>
     <row r="217" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C217" s="69" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E217" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_001</v>
       </c>
       <c r="F217" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H217" s="65">
         <f t="shared" si="9"/>
@@ -11396,14 +11396,14 @@
     </row>
     <row r="218" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C218" s="69" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E218" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_002</v>
       </c>
       <c r="F218" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H218" s="65">
         <f t="shared" si="9"/>
@@ -11416,14 +11416,14 @@
     </row>
     <row r="219" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C219" s="69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E219" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_003</v>
       </c>
       <c r="F219" s="69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H219" s="65">
         <f t="shared" si="9"/>
@@ -11436,7 +11436,7 @@
     </row>
     <row r="220" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C220" s="69" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E220" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11456,14 +11456,14 @@
     </row>
     <row r="221" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C221" s="69" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E221" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_01</v>
       </c>
       <c r="F221" s="69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H221" s="65">
         <f t="shared" si="9"/>
@@ -11476,14 +11476,14 @@
     </row>
     <row r="222" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C222" s="69" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E222" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_02</v>
       </c>
       <c r="F222" s="69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H222" s="65">
         <f t="shared" si="9"/>
@@ -11496,14 +11496,14 @@
     </row>
     <row r="223" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C223" s="69" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E223" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_03</v>
       </c>
       <c r="F223" s="69" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H223" s="65">
         <f t="shared" si="9"/>
@@ -11516,14 +11516,14 @@
     </row>
     <row r="224" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C224" s="69" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E224" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_fail_01</v>
       </c>
       <c r="F224" s="69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H224" s="65">
         <f t="shared" si="9"/>
@@ -11536,14 +11536,14 @@
     </row>
     <row r="225" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C225" s="69" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E225" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_01</v>
       </c>
       <c r="F225" s="69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H225" s="65">
         <f t="shared" si="9"/>
@@ -11556,14 +11556,14 @@
     </row>
     <row r="226" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C226" s="69" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E226" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_back_01</v>
       </c>
       <c r="F226" s="69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H226" s="65">
         <f t="shared" si="9"/>
@@ -11576,14 +11576,14 @@
     </row>
     <row r="227" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C227" s="69" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E227" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_out_01</v>
       </c>
       <c r="F227" s="69" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H227" s="65">
         <f t="shared" si="9"/>
@@ -11596,14 +11596,14 @@
     </row>
     <row r="228" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C228" s="69" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E228" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_host_01</v>
       </c>
       <c r="F228" s="69" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H228" s="65">
         <f t="shared" si="9"/>
@@ -11616,14 +11616,14 @@
     </row>
     <row r="229" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C229" s="69" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E229" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_search_01</v>
       </c>
       <c r="F229" s="69" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H229" s="65">
         <f t="shared" si="9"/>
@@ -11636,14 +11636,14 @@
     </row>
     <row r="230" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C230" s="69" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E230" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_hello_01</v>
       </c>
       <c r="F230" s="69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H230" s="65">
         <f t="shared" si="9"/>
@@ -11656,14 +11656,14 @@
     </row>
     <row r="231" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C231" s="69" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E231" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_level_end_01</v>
       </c>
       <c r="F231" s="69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H231" s="65">
         <f t="shared" si="9"/>
@@ -11676,14 +11676,14 @@
     </row>
     <row r="232" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C232" s="69" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E232" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01</v>
       </c>
       <c r="F232" s="69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H232" s="65">
         <f t="shared" si="9"/>
@@ -11696,14 +11696,14 @@
     </row>
     <row r="233" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C233" s="69" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E233" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_01</v>
       </c>
       <c r="F233" s="69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H233" s="65">
         <f t="shared" si="9"/>
@@ -11716,14 +11716,14 @@
     </row>
     <row r="234" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C234" s="69" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E234" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_02</v>
       </c>
       <c r="F234" s="69" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H234" s="65">
         <f t="shared" si="9"/>
@@ -11736,14 +11736,14 @@
     </row>
     <row r="235" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C235" s="69" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E235" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_03</v>
       </c>
       <c r="F235" s="69" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H235" s="65">
         <f t="shared" si="9"/>
@@ -11756,14 +11756,14 @@
     </row>
     <row r="236" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C236" s="69" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E236" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_04</v>
       </c>
       <c r="F236" s="69" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H236" s="65">
         <f t="shared" si="9"/>
@@ -11776,14 +11776,14 @@
     </row>
     <row r="237" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C237" s="69" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E237" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_05</v>
       </c>
       <c r="F237" s="69" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H237" s="65">
         <f t="shared" si="9"/>
@@ -11796,14 +11796,14 @@
     </row>
     <row r="238" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C238" s="69" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E238" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_06</v>
       </c>
       <c r="F238" s="69" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H238" s="65">
         <f t="shared" si="9"/>
@@ -11816,14 +11816,14 @@
     </row>
     <row r="239" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C239" s="69" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E239" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_07</v>
       </c>
       <c r="F239" s="69" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H239" s="65">
         <f t="shared" si="9"/>
@@ -11836,14 +11836,14 @@
     </row>
     <row r="240" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C240" s="69" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E240" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_08</v>
       </c>
       <c r="F240" s="69" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H240" s="65">
         <f t="shared" si="9"/>
@@ -11856,14 +11856,14 @@
     </row>
     <row r="241" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C241" s="69" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E241" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01</v>
       </c>
       <c r="F241" s="69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H241" s="65">
         <f t="shared" si="9"/>
@@ -11876,14 +11876,14 @@
     </row>
     <row r="242" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C242" s="69" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E242" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_01</v>
       </c>
       <c r="F242" s="69" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H242" s="65">
         <f t="shared" si="9"/>
@@ -11896,14 +11896,14 @@
     </row>
     <row r="243" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C243" s="69" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E243" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_02</v>
       </c>
       <c r="F243" s="69" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H243" s="65">
         <f t="shared" si="9"/>
@@ -11916,14 +11916,14 @@
     </row>
     <row r="244" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C244" s="69" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E244" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_03</v>
       </c>
       <c r="F244" s="69" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H244" s="65">
         <f t="shared" si="9"/>
@@ -11936,14 +11936,14 @@
     </row>
     <row r="245" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C245" s="69" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E245" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_01</v>
       </c>
       <c r="F245" s="69" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H245" s="65">
         <f t="shared" si="9"/>
@@ -11956,14 +11956,14 @@
     </row>
     <row r="246" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C246" s="69" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E246" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_02</v>
       </c>
       <c r="F246" s="69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H246" s="65">
         <f t="shared" si="9"/>
@@ -11976,14 +11976,14 @@
     </row>
     <row r="247" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C247" s="69" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E247" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_03</v>
       </c>
       <c r="F247" s="69" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H247" s="65">
         <f t="shared" si="9"/>
@@ -11996,14 +11996,14 @@
     </row>
     <row r="248" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C248" s="69" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E248" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_04</v>
       </c>
       <c r="F248" s="69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H248" s="65">
         <f t="shared" si="9"/>
@@ -12016,14 +12016,14 @@
     </row>
     <row r="249" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C249" s="69" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E249" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_01</v>
       </c>
       <c r="F249" s="69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H249" s="65">
         <f t="shared" si="9"/>
@@ -12036,14 +12036,14 @@
     </row>
     <row r="250" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C250" s="69" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E250" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_02</v>
       </c>
       <c r="F250" s="69" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H250" s="65">
         <f t="shared" si="9"/>
@@ -12056,14 +12056,14 @@
     </row>
     <row r="251" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C251" s="69" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E251" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_03</v>
       </c>
       <c r="F251" s="69" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H251" s="65">
         <f t="shared" si="9"/>
@@ -12076,14 +12076,14 @@
     </row>
     <row r="252" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C252" s="69" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E252" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_04</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H252" s="65">
         <f t="shared" si="9"/>
@@ -12096,14 +12096,14 @@
     </row>
     <row r="253" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C253" s="69" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E253" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H253" s="65">
         <f t="shared" si="9"/>
@@ -12116,14 +12116,14 @@
     </row>
     <row r="254" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C254" s="69" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E254" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_01</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H254" s="65">
         <f t="shared" si="9"/>
@@ -12136,14 +12136,14 @@
     </row>
     <row r="255" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C255" s="69" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E255" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_02</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H255" s="65">
         <f t="shared" si="9"/>
@@ -12156,14 +12156,14 @@
     </row>
     <row r="256" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C256" s="69" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E256" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_03</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H256" s="65">
         <f t="shared" si="9"/>
@@ -12176,14 +12176,14 @@
     </row>
     <row r="257" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C257" s="69" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E257" s="69" t="str">
         <f t="shared" si="11"/>
         <v>sansa_eat_act_01</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H257" s="65">
         <f t="shared" si="9"/>
@@ -12196,14 +12196,14 @@
     </row>
     <row r="258" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C258" s="69" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E258" s="69" t="str">
         <f t="shared" si="11"/>
         <v>sansa_eat_act_02</v>
       </c>
       <c r="F258" s="69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H258" s="65">
         <f t="shared" ref="H258:H321" si="12">COUNTIF(A:A,E258)</f>
@@ -12216,14 +12216,14 @@
     </row>
     <row r="259" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C259" s="69" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E259" s="69" t="str">
         <f t="shared" ref="E259:E321" si="14">MID(C259, FIND(" ",C259,33)+1, LEN(C259)-FIND(" ",C259,33) - 4)</f>
         <v>sansa_eat_act_03</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H259" s="65">
         <f t="shared" si="12"/>
@@ -12236,14 +12236,14 @@
     </row>
     <row r="260" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C260" s="69" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E260" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_fail_01</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H260" s="65">
         <f t="shared" si="12"/>
@@ -12256,14 +12256,14 @@
     </row>
     <row r="261" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C261" s="69" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E261" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_01</v>
       </c>
       <c r="F261" s="69" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H261" s="65">
         <f t="shared" si="12"/>
@@ -12276,14 +12276,14 @@
     </row>
     <row r="262" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C262" s="69" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E262" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_back_01</v>
       </c>
       <c r="F262" s="69" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H262" s="65">
         <f t="shared" si="12"/>
@@ -12296,14 +12296,14 @@
     </row>
     <row r="263" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C263" s="69" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E263" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_out_01</v>
       </c>
       <c r="F263" s="69" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H263" s="65">
         <f t="shared" si="12"/>
@@ -12316,14 +12316,14 @@
     </row>
     <row r="264" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C264" s="69" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E264" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_host_01</v>
       </c>
       <c r="F264" s="69" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H264" s="65">
         <f t="shared" si="12"/>
@@ -12336,14 +12336,14 @@
     </row>
     <row r="265" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C265" s="69" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E265" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_search_01</v>
       </c>
       <c r="F265" s="69" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H265" s="65">
         <f t="shared" si="12"/>
@@ -12356,14 +12356,14 @@
     </row>
     <row r="266" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C266" s="69" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E266" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_hello_01</v>
       </c>
       <c r="F266" s="69" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H266" s="65">
         <f t="shared" si="12"/>
@@ -12376,14 +12376,14 @@
     </row>
     <row r="267" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C267" s="69" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E267" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_level_end_01</v>
       </c>
       <c r="F267" s="69" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H267" s="65">
         <f t="shared" si="12"/>
@@ -12396,14 +12396,14 @@
     </row>
     <row r="268" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C268" s="69" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E268" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01</v>
       </c>
       <c r="F268" s="69" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H268" s="65">
         <f t="shared" si="12"/>
@@ -12416,14 +12416,14 @@
     </row>
     <row r="269" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C269" s="69" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E269" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_01</v>
       </c>
       <c r="F269" s="69" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H269" s="65">
         <f t="shared" si="12"/>
@@ -12436,14 +12436,14 @@
     </row>
     <row r="270" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C270" s="69" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E270" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_02</v>
       </c>
       <c r="F270" s="69" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H270" s="65">
         <f t="shared" si="12"/>
@@ -12456,14 +12456,14 @@
     </row>
     <row r="271" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C271" s="69" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E271" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_03</v>
       </c>
       <c r="F271" s="69" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H271" s="65">
         <f t="shared" si="12"/>
@@ -12476,14 +12476,14 @@
     </row>
     <row r="272" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C272" s="69" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E272" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_04</v>
       </c>
       <c r="F272" s="69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H272" s="65">
         <f t="shared" si="12"/>
@@ -12496,14 +12496,14 @@
     </row>
     <row r="273" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C273" s="69" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E273" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_05</v>
       </c>
       <c r="F273" s="69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H273" s="65">
         <f t="shared" si="12"/>
@@ -12516,14 +12516,14 @@
     </row>
     <row r="274" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C274" s="69" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E274" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_06</v>
       </c>
       <c r="F274" s="69" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H274" s="65">
         <f t="shared" si="12"/>
@@ -12536,14 +12536,14 @@
     </row>
     <row r="275" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C275" s="69" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E275" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_07</v>
       </c>
       <c r="F275" s="69" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H275" s="65">
         <f t="shared" si="12"/>
@@ -12556,14 +12556,14 @@
     </row>
     <row r="276" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C276" s="69" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E276" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_08</v>
       </c>
       <c r="F276" s="69" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H276" s="65">
         <f t="shared" si="12"/>
@@ -12576,14 +12576,14 @@
     </row>
     <row r="277" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C277" s="69" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E277" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01</v>
       </c>
       <c r="F277" s="69" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H277" s="65">
         <f t="shared" si="12"/>
@@ -12596,14 +12596,14 @@
     </row>
     <row r="278" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C278" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E278" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_01</v>
       </c>
       <c r="F278" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H278" s="65">
         <f t="shared" si="12"/>
@@ -12616,14 +12616,14 @@
     </row>
     <row r="279" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C279" s="69" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E279" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_02</v>
       </c>
       <c r="F279" s="69" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H279" s="65">
         <f t="shared" si="12"/>
@@ -12636,14 +12636,14 @@
     </row>
     <row r="280" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C280" s="69" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E280" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_03</v>
       </c>
       <c r="F280" s="69" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H280" s="65">
         <f t="shared" si="12"/>
@@ -12656,14 +12656,14 @@
     </row>
     <row r="281" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C281" s="69" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E281" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_01</v>
       </c>
       <c r="F281" s="69" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H281" s="65">
         <f t="shared" si="12"/>
@@ -12676,14 +12676,14 @@
     </row>
     <row r="282" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C282" s="69" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E282" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_02</v>
       </c>
       <c r="F282" s="69" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H282" s="65">
         <f t="shared" si="12"/>
@@ -12696,14 +12696,14 @@
     </row>
     <row r="283" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C283" s="69" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E283" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_03</v>
       </c>
       <c r="F283" s="69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H283" s="65">
         <f t="shared" si="12"/>
@@ -12716,14 +12716,14 @@
     </row>
     <row r="284" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C284" s="69" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E284" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_04</v>
       </c>
       <c r="F284" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H284" s="65">
         <f t="shared" si="12"/>
@@ -12736,14 +12736,14 @@
     </row>
     <row r="285" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C285" s="69" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E285" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_05</v>
       </c>
       <c r="F285" s="69" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H285" s="65">
         <f t="shared" si="12"/>
@@ -12756,14 +12756,14 @@
     </row>
     <row r="286" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C286" s="69" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E286" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_01</v>
       </c>
       <c r="F286" s="69" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H286" s="65">
         <f t="shared" si="12"/>
@@ -12776,14 +12776,14 @@
     </row>
     <row r="287" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C287" s="69" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E287" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_02</v>
       </c>
       <c r="F287" s="69" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H287" s="65">
         <f t="shared" si="12"/>
@@ -12796,14 +12796,14 @@
     </row>
     <row r="288" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C288" s="69" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E288" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_03</v>
       </c>
       <c r="F288" s="69" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H288" s="65">
         <f t="shared" si="12"/>
@@ -12816,14 +12816,14 @@
     </row>
     <row r="289" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C289" s="69" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E289" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_04</v>
       </c>
       <c r="F289" s="69" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H289" s="65">
         <f t="shared" si="12"/>
@@ -12836,14 +12836,14 @@
     </row>
     <row r="290" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C290" s="69" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E290" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_05</v>
       </c>
       <c r="F290" s="69" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H290" s="65">
         <f t="shared" si="12"/>
@@ -12856,14 +12856,14 @@
     </row>
     <row r="291" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C291" s="69" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E291" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01</v>
       </c>
       <c r="F291" s="69" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H291" s="65">
         <f t="shared" si="12"/>
@@ -12876,14 +12876,14 @@
     </row>
     <row r="292" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C292" s="69" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E292" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_01</v>
       </c>
       <c r="F292" s="69" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H292" s="65">
         <f t="shared" si="12"/>
@@ -12896,14 +12896,14 @@
     </row>
     <row r="293" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C293" s="69" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E293" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_02</v>
       </c>
       <c r="F293" s="69" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H293" s="65">
         <f t="shared" si="12"/>
@@ -12916,14 +12916,14 @@
     </row>
     <row r="294" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C294" s="69" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E294" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_03</v>
       </c>
       <c r="F294" s="69" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H294" s="65">
         <f t="shared" si="12"/>
@@ -12936,7 +12936,7 @@
     </row>
     <row r="295" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C295" s="69" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E295" s="69" t="str">
         <f t="shared" si="14"/>
@@ -12956,14 +12956,14 @@
     </row>
     <row r="296" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C296" s="69" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E296" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_01</v>
       </c>
       <c r="F296" s="69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H296" s="65">
         <f t="shared" si="12"/>
@@ -12976,14 +12976,14 @@
     </row>
     <row r="297" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C297" s="69" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E297" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_02</v>
       </c>
       <c r="F297" s="69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H297" s="65">
         <f t="shared" si="12"/>
@@ -12996,14 +12996,14 @@
     </row>
     <row r="298" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C298" s="69" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E298" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_03</v>
       </c>
       <c r="F298" s="69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H298" s="65">
         <f t="shared" si="12"/>
@@ -13016,14 +13016,14 @@
     </row>
     <row r="299" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C299" s="69" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E299" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_fail_01</v>
       </c>
       <c r="F299" s="69" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H299" s="65">
         <f t="shared" si="12"/>
@@ -13036,14 +13036,14 @@
     </row>
     <row r="300" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C300" s="69" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E300" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_01</v>
       </c>
       <c r="F300" s="69" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H300" s="65">
         <f t="shared" si="12"/>
@@ -13056,14 +13056,14 @@
     </row>
     <row r="301" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C301" s="69" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E301" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_back_01</v>
       </c>
       <c r="F301" s="69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H301" s="65">
         <f t="shared" si="12"/>
@@ -13076,14 +13076,14 @@
     </row>
     <row r="302" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C302" s="69" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E302" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_out_01</v>
       </c>
       <c r="F302" s="69" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H302" s="65">
         <f t="shared" si="12"/>
@@ -13096,14 +13096,14 @@
     </row>
     <row r="303" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C303" s="69" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E303" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_out_02</v>
       </c>
       <c r="F303" s="69" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H303" s="65">
         <f t="shared" si="12"/>
@@ -13116,14 +13116,14 @@
     </row>
     <row r="304" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C304" s="69" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E304" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_host_01</v>
       </c>
       <c r="F304" s="69" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H304" s="65">
         <f t="shared" si="12"/>
@@ -13136,14 +13136,14 @@
     </row>
     <row r="305" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C305" s="69" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E305" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_01</v>
       </c>
       <c r="F305" s="69" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H305" s="65">
         <f t="shared" si="12"/>
@@ -13156,14 +13156,14 @@
     </row>
     <row r="306" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C306" s="69" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E306" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_02</v>
       </c>
       <c r="F306" s="69" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H306" s="65">
         <f t="shared" si="12"/>
@@ -13176,14 +13176,14 @@
     </row>
     <row r="307" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C307" s="69" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E307" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_03</v>
       </c>
       <c r="F307" s="69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H307" s="65">
         <f t="shared" si="12"/>
@@ -13196,14 +13196,14 @@
     </row>
     <row r="308" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C308" s="69" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E308" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_hello_01</v>
       </c>
       <c r="F308" s="69" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H308" s="65">
         <f t="shared" si="12"/>
@@ -13216,14 +13216,14 @@
     </row>
     <row r="309" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C309" s="69" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E309" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_level_end_01</v>
       </c>
       <c r="F309" s="69" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H309" s="65">
         <f t="shared" si="12"/>
@@ -13236,14 +13236,14 @@
     </row>
     <row r="310" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C310" s="69" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E310" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_01</v>
       </c>
       <c r="F310" s="69" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H310" s="65">
         <f t="shared" si="12"/>
@@ -13256,14 +13256,14 @@
     </row>
     <row r="311" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C311" s="69" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E311" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_02</v>
       </c>
       <c r="F311" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H311" s="65">
         <f t="shared" si="12"/>
@@ -13276,14 +13276,14 @@
     </row>
     <row r="312" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C312" s="69" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E312" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_03</v>
       </c>
       <c r="F312" s="69" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H312" s="65">
         <f t="shared" si="12"/>
@@ -13296,14 +13296,14 @@
     </row>
     <row r="313" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C313" s="69" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E313" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_01</v>
       </c>
       <c r="F313" s="69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H313" s="65">
         <f t="shared" si="12"/>
@@ -13316,14 +13316,14 @@
     </row>
     <row r="314" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C314" s="69" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E314" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_02</v>
       </c>
       <c r="F314" s="69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H314" s="65">
         <f t="shared" si="12"/>
@@ -13336,14 +13336,14 @@
     </row>
     <row r="315" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C315" s="69" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E315" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_03</v>
       </c>
       <c r="F315" s="69" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H315" s="65">
         <f t="shared" si="12"/>
@@ -13356,14 +13356,14 @@
     </row>
     <row r="316" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C316" s="69" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E316" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_down_01_01</v>
       </c>
       <c r="F316" s="69" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H316" s="65">
         <f t="shared" si="12"/>
@@ -13376,14 +13376,14 @@
     </row>
     <row r="317" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C317" s="69" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E317" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_down_01_02</v>
       </c>
       <c r="F317" s="69" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H317" s="65">
         <f t="shared" si="12"/>
@@ -13396,14 +13396,14 @@
     </row>
     <row r="318" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C318" s="69" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E318" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_01_01</v>
       </c>
       <c r="F318" s="69" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H318" s="65">
         <f t="shared" si="12"/>
@@ -13416,14 +13416,14 @@
     </row>
     <row r="319" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C319" s="69" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E319" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_01_02</v>
       </c>
       <c r="F319" s="69" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H319" s="65">
         <f t="shared" si="12"/>
@@ -13436,14 +13436,14 @@
     </row>
     <row r="320" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C320" s="69" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E320" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_down_01_01</v>
       </c>
       <c r="F320" s="69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H320" s="65">
         <f t="shared" si="12"/>
@@ -13456,14 +13456,14 @@
     </row>
     <row r="321" spans="3:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C321" s="69" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E321" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_down_01_02</v>
       </c>
       <c r="F321" s="69" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H321" s="65">
         <f t="shared" si="12"/>
@@ -13641,26 +13641,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="73" t="s">
         <v>414</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77" t="str">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73" t="str">
         <f>"&lt;Font Name="""&amp;B4&amp;""" FullName="""&amp;A4&amp;""" Desc="""&amp;C4&amp;""" /&gt;"</f>
         <v>&lt;Font Name="Pomeranian" FullName="Pomeranian" Desc="适用于日文" /&gt;</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
@@ -13685,11 +13685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13703,12 +13703,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -13752,7 +13752,7 @@
       <c r="D3" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="73" t="s">
         <v>428</v>
       </c>
       <c r="G3" s="44" t="str">
@@ -13785,7 +13785,7 @@
       <c r="D4" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="73" t="s">
         <v>429</v>
       </c>
       <c r="G4" s="44" t="str">
@@ -13818,7 +13818,7 @@
       <c r="D5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="73" t="s">
         <v>430</v>
       </c>
       <c r="G5" s="44" t="str">
@@ -13851,7 +13851,7 @@
       <c r="D6" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="73" t="s">
         <v>431</v>
       </c>
       <c r="G6" s="44" t="str">
@@ -13884,7 +13884,7 @@
       <c r="D7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="73" t="s">
         <v>432</v>
       </c>
       <c r="G7" s="44" t="str">
@@ -13917,7 +13917,7 @@
       <c r="D8" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="73" t="s">
         <v>433</v>
       </c>
       <c r="G8" s="44" t="str">
@@ -13950,7 +13950,7 @@
       <c r="D9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="73" t="s">
         <v>434</v>
       </c>
       <c r="G9" s="44" t="str">
@@ -13983,8 +13983,8 @@
       <c r="D10" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="77" t="s">
-        <v>435</v>
+      <c r="E10" s="73" t="s">
+        <v>1057</v>
       </c>
       <c r="G10" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;B10&amp;""" /&gt;"</f>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="J10" s="44" t="str">
         <f t="shared" ref="J10:J13" si="10">"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;E10&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="解锁宠物" Value="ふ化|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="解锁宠物" Value="ふ化{0}|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -14016,8 +14016,8 @@
       <c r="D11" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="77" t="s">
-        <v>436</v>
+      <c r="E11" s="73" t="s">
+        <v>435</v>
       </c>
       <c r="G11" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A11&amp;""" Value="""&amp;B11&amp;""" /&gt;"</f>
@@ -14049,8 +14049,8 @@
       <c r="D12" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="77" t="s">
-        <v>437</v>
+      <c r="E12" s="73" t="s">
+        <v>436</v>
       </c>
       <c r="G12" s="44" t="str">
         <f t="shared" ref="G12:G13" si="11">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;B12&amp;""" /&gt;"</f>
@@ -14082,8 +14082,8 @@
       <c r="D13" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="77" t="s">
-        <v>438</v>
+      <c r="E13" s="73" t="s">
+        <v>437</v>
       </c>
       <c r="G13" s="44" t="str">
         <f t="shared" si="11"/>
@@ -14115,8 +14115,8 @@
       <c r="D14" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="77" t="s">
-        <v>439</v>
+      <c r="E14" s="73" t="s">
+        <v>438</v>
       </c>
       <c r="G14" s="44" t="str">
         <f t="shared" ref="G14" si="12">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;B14&amp;""" /&gt;"</f>
@@ -14148,8 +14148,8 @@
       <c r="D15" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="77" t="s">
-        <v>440</v>
+      <c r="E15" s="73" t="s">
+        <v>439</v>
       </c>
       <c r="G15" s="44" t="str">
         <f t="shared" ref="G15" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
@@ -14201,12 +14201,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="44"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -14250,7 +14250,7 @@
       <c r="D3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="73" t="s">
         <v>416</v>
       </c>
       <c r="G3" s="44" t="str">
@@ -14283,7 +14283,7 @@
       <c r="D4" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="73" t="s">
         <v>421</v>
       </c>
       <c r="G4" s="44" t="str">
@@ -14316,7 +14316,7 @@
       <c r="D5" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="73" t="s">
         <v>417</v>
       </c>
       <c r="G5" s="44" t="str">
@@ -14374,12 +14374,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -14423,7 +14423,7 @@
       <c r="D3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="74" t="s">
         <v>422</v>
       </c>
       <c r="G3" s="54" t="str">
@@ -14456,7 +14456,7 @@
       <c r="D4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="74" t="s">
         <v>423</v>
       </c>
       <c r="G4" s="54" t="str">
@@ -14489,7 +14489,7 @@
       <c r="D5" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="74" t="s">
         <v>424</v>
       </c>
       <c r="G5" s="54" t="str">
@@ -14522,7 +14522,7 @@
       <c r="D6" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="74" t="s">
         <v>425</v>
       </c>
       <c r="G6" s="54" t="str">
@@ -14555,7 +14555,7 @@
       <c r="D7" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="74" t="s">
         <v>426</v>
       </c>
       <c r="G7" s="54" t="str">
@@ -14607,12 +14607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="62" t="s">
@@ -14646,7 +14646,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -15667,12 +15667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="62" t="s">
@@ -18806,7 +18806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D543F88-0E96-47F6-A187-772AE850150C}">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18821,12 +18821,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="75" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="78" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="62" t="s">
@@ -18865,7 +18865,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="61" t="str">
         <f>"CHS/"&amp;A4</f>
@@ -18902,7 +18902,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B5" s="61" t="str">
         <f t="shared" ref="B5:B68" si="4">"CHS/"&amp;A5</f>
@@ -18939,7 +18939,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B6" s="61" t="str">
         <f t="shared" si="4"/>
@@ -18976,7 +18976,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19013,7 +19013,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19087,7 +19087,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="61" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B12" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19198,7 +19198,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="61" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B13" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B14" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19272,7 +19272,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19309,7 +19309,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="61" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B16" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19346,7 +19346,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="61" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B18" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19420,7 +19420,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B19" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B20" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19494,7 +19494,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B21" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19531,7 +19531,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B22" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19568,7 +19568,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19605,7 +19605,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="61" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B24" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19642,7 +19642,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B25" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19679,7 +19679,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B26" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19716,7 +19716,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="61" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="61" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B28" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19790,7 +19790,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B29" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19827,7 +19827,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B30" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19864,7 +19864,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B31" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19901,7 +19901,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B32" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19938,7 +19938,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B33" s="61" t="str">
         <f t="shared" si="4"/>
@@ -19975,7 +19975,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B34" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20012,7 +20012,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="61" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B35" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20049,7 +20049,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B36" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20086,7 +20086,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B37" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20123,7 +20123,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="61" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B38" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20160,7 +20160,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="61" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B39" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20197,7 +20197,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B40" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20234,7 +20234,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B41" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B42" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20308,7 +20308,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B43" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20345,7 +20345,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="61" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B44" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20382,7 +20382,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="61" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B45" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B46" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20456,7 +20456,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B47" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20493,7 +20493,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B48" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20530,7 +20530,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B49" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B50" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B51" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20641,7 +20641,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B52" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20678,7 +20678,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B53" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B54" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20752,7 +20752,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B55" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20789,7 +20789,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B56" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20826,7 +20826,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B57" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20863,7 +20863,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B59" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20937,7 +20937,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B60" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B61" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B62" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21048,7 +21048,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B63" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21085,7 +21085,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="61" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B64" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21122,7 +21122,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="61" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B65" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B66" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21196,7 +21196,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B67" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B68" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B69" s="61" t="str">
         <f t="shared" ref="B69:B132" si="12">"CHS/"&amp;A69</f>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B70" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21344,7 +21344,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B71" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21381,7 +21381,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B72" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21418,7 +21418,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B73" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21455,7 +21455,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B74" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21492,7 +21492,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B75" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21529,7 +21529,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B76" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21566,7 +21566,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B77" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B78" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21640,7 +21640,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B79" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21677,7 +21677,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B80" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21714,7 +21714,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B81" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21751,7 +21751,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B82" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21788,7 +21788,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B83" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B84" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21862,7 +21862,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B85" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B86" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="61" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B87" s="61" t="str">
         <f t="shared" si="12"/>
@@ -21973,7 +21973,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B88" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22010,7 +22010,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22047,7 +22047,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B90" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22084,7 +22084,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B91" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22121,7 +22121,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B92" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22158,7 +22158,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B93" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22195,7 +22195,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B94" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22232,7 +22232,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B95" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22269,7 +22269,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B96" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22306,7 +22306,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B97" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B98" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22380,7 +22380,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B99" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B100" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22454,7 +22454,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B101" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22491,7 +22491,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B102" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22528,7 +22528,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B103" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22565,7 +22565,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B104" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22602,7 +22602,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B105" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22639,7 +22639,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B106" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22676,7 +22676,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B107" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22713,7 +22713,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B108" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22750,7 +22750,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B109" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22787,7 +22787,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B110" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22824,7 +22824,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B111" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22861,7 +22861,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="61" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B112" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22898,7 +22898,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="61" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B113" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22935,7 +22935,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="61" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B114" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22972,7 +22972,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23009,7 +23009,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="61" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B116" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23046,7 +23046,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B117" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23083,7 +23083,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B118" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23120,7 +23120,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B119" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B120" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23194,7 +23194,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B121" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23231,7 +23231,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B122" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23268,7 +23268,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="61" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B123" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23305,7 +23305,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B124" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23342,7 +23342,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="61" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B125" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="61" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B126" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23416,7 +23416,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="61" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B127" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23453,7 +23453,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B128" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23490,7 +23490,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B129" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23527,7 +23527,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B130" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23564,7 +23564,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B131" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23601,7 +23601,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="61" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B132" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23638,7 +23638,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="61" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B133" s="61" t="str">
         <f t="shared" ref="B133:B196" si="20">"CHS/"&amp;A133</f>
@@ -23675,7 +23675,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B134" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23712,7 +23712,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B135" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23749,7 +23749,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B136" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23786,7 +23786,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B137" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23823,7 +23823,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B138" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23860,7 +23860,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="61" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B139" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23897,7 +23897,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B140" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="61" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B141" s="61" t="str">
         <f t="shared" si="20"/>
@@ -23971,7 +23971,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="61" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B142" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24008,7 +24008,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="61" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B143" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24045,7 +24045,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B144" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24082,7 +24082,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B145" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24119,7 +24119,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B146" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24156,7 +24156,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B147" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24193,7 +24193,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B148" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24230,7 +24230,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" s="61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B149" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24267,7 +24267,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" s="61" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B150" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24304,7 +24304,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" s="61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B151" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24341,7 +24341,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="61" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B152" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24378,7 +24378,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="61" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B153" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24415,7 +24415,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="61" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B154" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24452,7 +24452,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="61" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B155" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" s="61" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B156" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24526,7 +24526,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" s="61" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B157" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24563,7 +24563,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" s="61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B158" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24600,7 +24600,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" s="61" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B159" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24637,7 +24637,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" s="61" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B160" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24674,7 +24674,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="61" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B161" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24711,7 +24711,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="61" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B162" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24748,7 +24748,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="61" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B163" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24785,7 +24785,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="61" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B164" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24822,7 +24822,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="61" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B165" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24859,7 +24859,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="61" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B166" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24896,7 +24896,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="61" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B167" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24933,7 +24933,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="61" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B168" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24970,7 +24970,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B169" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="61" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B170" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25044,7 +25044,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="61" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B171" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25081,7 +25081,7 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="61" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B172" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25118,7 +25118,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="61" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B173" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25155,7 +25155,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="61" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B174" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="61" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B175" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25229,7 +25229,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="61" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B176" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25266,7 +25266,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="61" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B177" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25303,7 +25303,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="61" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B178" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25340,7 +25340,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="61" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B179" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25377,7 +25377,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="61" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B180" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25414,7 +25414,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="61" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B181" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25451,7 +25451,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B182" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25488,7 +25488,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="61" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B183" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25525,7 +25525,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="61" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B184" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25562,7 +25562,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="61" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B185" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25599,7 +25599,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="61" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B186" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25636,7 +25636,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="61" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B187" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="61" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B188" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25710,7 +25710,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B189" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="61" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B190" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25784,7 +25784,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="61" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B191" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25821,7 +25821,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="61" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B192" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25858,7 +25858,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B193" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25895,7 +25895,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="61" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B194" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25932,7 +25932,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="61" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B195" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25969,7 +25969,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="61" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B196" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26006,7 +26006,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="61" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B197" s="61" t="str">
         <f t="shared" ref="B197:B243" si="28">"CHS/"&amp;A197</f>
@@ -26043,7 +26043,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="61" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B198" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26080,7 +26080,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="61" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B199" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26117,7 +26117,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="61" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B200" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26154,7 +26154,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="61" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B201" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="61" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B202" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26228,7 +26228,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B203" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26265,7 +26265,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="61" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B204" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26302,7 +26302,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="61" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B205" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26339,7 +26339,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="61" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B206" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26376,7 +26376,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="61" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B207" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26413,7 +26413,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="61" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B208" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26450,7 +26450,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" s="61" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B209" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26487,7 +26487,7 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" s="61" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B210" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26524,7 +26524,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" s="61" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B211" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26561,7 +26561,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" s="61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B212" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26598,7 +26598,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" s="61" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B213" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26635,7 +26635,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" s="61" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B214" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26672,7 +26672,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" s="61" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B215" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26709,7 +26709,7 @@
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="61" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B216" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26746,7 +26746,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" s="61" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B217" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26783,7 +26783,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" s="61" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B218" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26820,7 +26820,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" s="61" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B219" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26857,7 +26857,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" s="61" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B220" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26894,7 +26894,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="61" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B221" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26931,7 +26931,7 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="61" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B222" s="61" t="str">
         <f t="shared" si="28"/>
@@ -26968,7 +26968,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="61" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B223" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27005,7 +27005,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" s="61" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B224" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="61" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B225" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27079,7 +27079,7 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="61" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B226" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27116,7 +27116,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="61" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B227" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B228" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27190,7 +27190,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B229" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27227,7 +27227,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="61" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B230" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27264,7 +27264,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="61" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B231" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27301,7 +27301,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="61" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B232" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27338,7 +27338,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B233" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27375,7 +27375,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="61" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B234" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27412,7 +27412,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B235" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27449,7 +27449,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="61" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B236" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27486,7 +27486,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="61" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B237" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27523,7 +27523,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="61" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B238" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27560,7 +27560,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" s="61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B239" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27597,7 +27597,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" s="61" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B240" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27634,7 +27634,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" s="61" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B241" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B242" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27708,7 +27708,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" s="61" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B243" s="61" t="str">
         <f t="shared" si="28"/>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156EAF8-ED3E-4AAD-AB97-A01BA786368D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FBA496-FFD4-49DD-AA8F-4E28A10DA68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="950">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4068,12 +4068,43 @@
   <si>
     <t>feed_welcome_dk_005</t>
   </si>
+  <si>
+    <t>倒计天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时{0}天|HKHB</t>
+  </si>
+  <si>
+    <t>倒計時{0}天|DFPT</t>
+  </si>
+  <si>
+    <t>{0}d countdown|DFPT</t>
+  </si>
+  <si>
+    <t>カウントダウン{0}日|Pomeranian</t>
+  </si>
+  <si>
+    <t>倒计时</t>
+  </si>
+  <si>
+    <t>倒计时{0}小时|HKHB</t>
+  </si>
+  <si>
+    <t>倒計時{0}小時|DFPT</t>
+  </si>
+  <si>
+    <t>{0}h countdown|DFPT</t>
+  </si>
+  <si>
+    <t>カウントダウン{0}時間|Pomeranian</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4263,6 +4294,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -4407,7 +4451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4619,6 +4663,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4634,7 +4687,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4648,7 +4701,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13002,7 +13055,7 @@
   <autoFilter ref="J1:J321" xr:uid="{80525AF8-ED01-4BDB-BE14-6F8958DAAA74}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13207,13 +13260,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13690,6 +13743,74 @@
       <c r="J15" s="44" t="str">
         <f t="shared" ref="J15" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="進行状況|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>940</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>941</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>942</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>943</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>944</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;B16&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计天" Value="倒计时{0}天|HKHB" /&gt;</v>
+      </c>
+      <c r="H16" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;C16&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计天" Value="倒計時{0}天|DFPT" /&gt;</v>
+      </c>
+      <c r="I16" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;D16&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计天" Value="{0}d countdown|DFPT" /&gt;</v>
+      </c>
+      <c r="J16" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;E16&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计天" Value="カウントダウン{0}日|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="81" t="s">
+        <v>945</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>946</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>947</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>948</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>949</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计时" Value="倒计时{0}小时|HKHB" /&gt;</v>
+      </c>
+      <c r="H17" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;C17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计时" Value="倒計時{0}小時|DFPT" /&gt;</v>
+      </c>
+      <c r="I17" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;D17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计时" Value="{0}h countdown|DFPT" /&gt;</v>
+      </c>
+      <c r="J17" s="79" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;E17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="倒计时" Value="カウントダウン{0}時間|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -15176,7 +15297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18655,18 +18776,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A29:A39 A1:E28 A40:E1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E39">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27622,31 +27743,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A318:E1048576 A1:E3 B4:E317">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:A317">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A245">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FBA496-FFD4-49DD-AA8F-4E28A10DA68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BCB609-6765-4E26-BFB8-9300CABADAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="945">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4070,41 +4070,25 @@
   </si>
   <si>
     <t>倒计天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒计时{0}天|HKHB</t>
-  </si>
-  <si>
-    <t>倒計時{0}天|DFPT</t>
-  </si>
-  <si>
-    <t>{0}d countdown|DFPT</t>
-  </si>
-  <si>
-    <t>カウントダウン{0}日|Pomeranian</t>
-  </si>
-  <si>
-    <t>倒计时</t>
-  </si>
-  <si>
-    <t>倒计时{0}小时|HKHB</t>
-  </si>
-  <si>
-    <t>倒計時{0}小時|DFPT</t>
-  </si>
-  <si>
-    <t>{0}h countdown|DFPT</t>
-  </si>
-  <si>
-    <t>カウントダウン{0}時間|Pomeranian</t>
+  </si>
+  <si>
+    <t>{0}天|HKHB</t>
+  </si>
+  <si>
+    <t>{0}天|DFPT</t>
+  </si>
+  <si>
+    <t>{0}days|DFPT</t>
+  </si>
+  <si>
+    <t>{0}日|Pomeranian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4294,19 +4278,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -4451,7 +4422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4662,15 +4633,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5408,8 +5370,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A2:E1048575" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="31"/>
@@ -13260,7 +13222,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -13729,19 +13691,19 @@
         <v>316</v>
       </c>
       <c r="G15" s="44" t="str">
-        <f t="shared" ref="G15" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
+        <f t="shared" ref="G15:G16" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="关卡进度|HKHB" /&gt;</v>
       </c>
       <c r="H15" s="44" t="str">
-        <f t="shared" ref="H15" si="17">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;C15&amp;""" /&gt;"</f>
+        <f t="shared" ref="H15:H16" si="17">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;C15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="關卡進度|DFPT" /&gt;</v>
       </c>
       <c r="I15" s="44" t="str">
-        <f t="shared" ref="I15" si="18">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;D15&amp;""" /&gt;"</f>
+        <f t="shared" ref="I15:I16" si="18">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;D15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="Progress|DFPT" /&gt;</v>
       </c>
       <c r="J15" s="44" t="str">
-        <f t="shared" ref="J15" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
+        <f t="shared" ref="J15:J16" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="進行状況|Pomeranian" /&gt;</v>
       </c>
     </row>
@@ -13749,68 +13711,33 @@
       <c r="A16" s="45" t="s">
         <v>940</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="44" t="s">
         <v>941</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="44" t="s">
         <v>942</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="44" t="s">
         <v>943</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="73" t="s">
         <v>944</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;B16&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计天" Value="倒计时{0}天|HKHB" /&gt;</v>
-      </c>
-      <c r="H16" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;C16&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计天" Value="倒計時{0}天|DFPT" /&gt;</v>
-      </c>
-      <c r="I16" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;D16&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计天" Value="{0}d countdown|DFPT" /&gt;</v>
-      </c>
-      <c r="J16" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A16&amp;""" Value="""&amp;E16&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计天" Value="カウントダウン{0}日|Pomeranian" /&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="81" t="s">
-        <v>945</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>946</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>947</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>948</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>949</v>
-      </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计时" Value="倒计时{0}小时|HKHB" /&gt;</v>
-      </c>
-      <c r="H17" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;C17&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计时" Value="倒計時{0}小時|DFPT" /&gt;</v>
-      </c>
-      <c r="I17" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;D17&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计时" Value="{0}h countdown|DFPT" /&gt;</v>
-      </c>
-      <c r="J17" s="79" t="str">
-        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;E17&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="倒计时" Value="カウントダウン{0}時間|Pomeranian" /&gt;</v>
+      <c r="G16" s="44" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;Text Key="倒计天" Value="{0}天|HKHB" /&gt;</v>
+      </c>
+      <c r="H16" s="44" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;Text Key="倒计天" Value="{0}天|DFPT" /&gt;</v>
+      </c>
+      <c r="I16" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;Text Key="倒计天" Value="{0}days|DFPT" /&gt;</v>
+      </c>
+      <c r="J16" s="44" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;Text Key="倒计天" Value="{0}日|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BCB609-6765-4E26-BFB8-9300CABADAAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781425CD-B1F7-4958-B4D4-E1757892798D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="947">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4082,6 +4082,12 @@
   </si>
   <si>
     <t>{0}日|Pomeranian</t>
+  </si>
+  <si>
+    <t>galaxy_lock_drink</t>
+  </si>
+  <si>
+    <t>galaxy_lock_time</t>
   </si>
 </sst>
 </file>
@@ -13224,7 +13230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15222,13 +15228,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15302,19 +15308,19 @@
         <v>JP/pair_active_success_cn</v>
       </c>
       <c r="G4" s="59" t="str">
-        <f t="shared" ref="G4:G43" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="G4:G45" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="H4" s="59" t="str">
-        <f t="shared" ref="H4:H43" si="1">IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="H4:H45" si="1">IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="I4" s="59" t="str">
-        <f t="shared" ref="I4:I43" si="2">IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="I4:I45" si="2">IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="EN/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="J4" s="59" t="str">
-        <f t="shared" ref="J4:J43" si="3">IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="J4:J45" si="3">IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="JP/pair_active_success_cn" /&gt;</v>
       </c>
     </row>
@@ -16614,2086 +16620,2160 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="63"/>
+      <c r="A40" s="61" t="s">
+        <v>945</v>
+      </c>
+      <c r="B40" s="61" t="str">
+        <f t="shared" ref="B40:B41" si="8">"CHS/"&amp;A40</f>
+        <v>CHS/galaxy_lock_drink</v>
+      </c>
+      <c r="C40" s="61" t="str">
+        <f t="shared" ref="C40:C41" si="9">"CHS/"&amp;A40</f>
+        <v>CHS/galaxy_lock_drink</v>
+      </c>
+      <c r="D40" s="61" t="str">
+        <f t="shared" ref="D40:D41" si="10">"EN/"&amp;A40</f>
+        <v>EN/galaxy_lock_drink</v>
+      </c>
+      <c r="E40" s="63" t="str">
+        <f t="shared" ref="E40:E41" si="11">"JP/"&amp;A40</f>
+        <v>JP/galaxy_lock_drink</v>
+      </c>
+      <c r="G40" s="59" t="str">
+        <f t="shared" ref="G40:G41" si="12">IF(AND(A40&lt;&gt;"",B40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;B40&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_lock_drink" Value="CHS/galaxy_lock_drink" /&gt;</v>
+      </c>
+      <c r="H40" s="59" t="str">
+        <f t="shared" ref="H40:H41" si="13">IF(AND(A40&lt;&gt;"",C40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;C40&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_lock_drink" Value="CHS/galaxy_lock_drink" /&gt;</v>
+      </c>
+      <c r="I40" s="59" t="str">
+        <f t="shared" ref="I40:I41" si="14">IF(AND(A40&lt;&gt;"",D40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;D40&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_lock_drink" Value="EN/galaxy_lock_drink" /&gt;</v>
+      </c>
+      <c r="J40" s="59" t="str">
+        <f t="shared" ref="J40:J41" si="15">IF(AND(A40&lt;&gt;"",E40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;E40&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_lock_drink" Value="JP/galaxy_lock_drink" /&gt;</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="61" t="s">
+        <v>946</v>
+      </c>
+      <c r="B41" s="61" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/galaxy_lock_time</v>
+      </c>
+      <c r="C41" s="61" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/galaxy_lock_time</v>
+      </c>
+      <c r="D41" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/galaxy_lock_time</v>
+      </c>
+      <c r="E41" s="63" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/galaxy_lock_time</v>
+      </c>
+      <c r="G41" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;Audio Key="galaxy_lock_time" Value="CHS/galaxy_lock_time" /&gt;</v>
+      </c>
+      <c r="H41" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Audio Key="galaxy_lock_time" Value="CHS/galaxy_lock_time" /&gt;</v>
+      </c>
+      <c r="I41" s="59" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;Audio Key="galaxy_lock_time" Value="EN/galaxy_lock_time" /&gt;</v>
+      </c>
+      <c r="J41" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;Audio Key="galaxy_lock_time" Value="JP/galaxy_lock_time" /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="E42" s="63"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="61" t="str">
-        <f>"CHS/"&amp;A41</f>
+      <c r="B43" s="61" t="str">
+        <f>"CHS/"&amp;A43</f>
         <v>CHS/popup_feed_welcome</v>
       </c>
-      <c r="C41" s="61" t="str">
-        <f>"CHS/"&amp;A41</f>
+      <c r="C43" s="61" t="str">
+        <f>"CHS/"&amp;A43</f>
         <v>CHS/popup_feed_welcome</v>
       </c>
-      <c r="D41" s="61" t="str">
-        <f>"EN/"&amp;A41</f>
+      <c r="D43" s="61" t="str">
+        <f>"EN/"&amp;A43</f>
         <v>EN/popup_feed_welcome</v>
       </c>
-      <c r="E41" s="63" t="str">
-        <f>"JP/"&amp;A41</f>
+      <c r="E43" s="63" t="str">
+        <f>"JP/"&amp;A43</f>
         <v>JP/popup_feed_welcome</v>
       </c>
-      <c r="G41" s="59" t="str">
+      <c r="G43" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="H41" s="59" t="str">
-        <f>IF(AND(A41&lt;&gt;"",C41&lt;&gt;""),"&lt;Audio Key="""&amp;A41&amp;""" Value="""&amp;C41&amp;""" /&gt;","")</f>
+      <c r="H43" s="59" t="str">
+        <f>IF(AND(A43&lt;&gt;"",C43&lt;&gt;""),"&lt;Audio Key="""&amp;A43&amp;""" Value="""&amp;C43&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="I41" s="59" t="str">
+      <c r="I43" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="EN/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="J41" s="59" t="str">
+      <c r="J43" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="JP/popup_feed_welcome" /&gt;</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="61" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="61" t="str">
-        <f t="shared" ref="B42:B86" si="8">"CHS/"&amp;A42</f>
+      <c r="B44" s="61" t="str">
+        <f t="shared" ref="B44:B88" si="16">"CHS/"&amp;A44</f>
         <v>CHS/feed_welcome_001</v>
       </c>
-      <c r="C42" s="61" t="str">
-        <f t="shared" ref="C42:C86" si="9">"CHS/"&amp;A42</f>
+      <c r="C44" s="61" t="str">
+        <f t="shared" ref="C44:C88" si="17">"CHS/"&amp;A44</f>
         <v>CHS/feed_welcome_001</v>
       </c>
-      <c r="D42" s="61" t="str">
-        <f t="shared" ref="D42:D86" si="10">"EN/"&amp;A42</f>
+      <c r="D44" s="61" t="str">
+        <f t="shared" ref="D44:D88" si="18">"EN/"&amp;A44</f>
         <v>EN/feed_welcome_001</v>
       </c>
-      <c r="E42" s="63" t="str">
-        <f t="shared" ref="E42:E86" si="11">"JP/"&amp;A42</f>
+      <c r="E44" s="63" t="str">
+        <f t="shared" ref="E44:E88" si="19">"JP/"&amp;A44</f>
         <v>JP/feed_welcome_001</v>
       </c>
-      <c r="G42" s="59" t="str">
+      <c r="G44" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="H42" s="59" t="str">
+      <c r="H44" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="I42" s="59" t="str">
+      <c r="I44" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="EN/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="J42" s="59" t="str">
+      <c r="J44" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="JP/feed_welcome_001" /&gt;</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="61" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="61" t="str">
-        <f t="shared" si="8"/>
+      <c r="B45" s="61" t="str">
+        <f t="shared" si="16"/>
         <v>CHS/feed_welcome_002</v>
       </c>
-      <c r="C43" s="61" t="str">
-        <f t="shared" si="9"/>
+      <c r="C45" s="61" t="str">
+        <f t="shared" si="17"/>
         <v>CHS/feed_welcome_002</v>
       </c>
-      <c r="D43" s="61" t="str">
-        <f t="shared" si="10"/>
+      <c r="D45" s="61" t="str">
+        <f t="shared" si="18"/>
         <v>EN/feed_welcome_002</v>
       </c>
-      <c r="E43" s="63" t="str">
-        <f t="shared" si="11"/>
+      <c r="E45" s="63" t="str">
+        <f t="shared" si="19"/>
         <v>JP/feed_welcome_002</v>
       </c>
-      <c r="G43" s="59" t="str">
+      <c r="G45" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="H43" s="59" t="str">
+      <c r="H45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="I43" s="59" t="str">
+      <c r="I45" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="EN/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="J43" s="59" t="str">
+      <c r="J45" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="JP/feed_welcome_002" /&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_003</v>
-      </c>
-      <c r="C44" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_003</v>
-      </c>
-      <c r="D44" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_003</v>
-      </c>
-      <c r="E44" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_003</v>
-      </c>
-      <c r="G44" s="59" t="str">
-        <f t="shared" ref="G44:G81" si="12">IF(AND(A44&lt;&gt;"",B44&lt;&gt;""),"&lt;Audio Key="""&amp;A44&amp;""" Value="""&amp;B44&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="H44" s="59" t="str">
-        <f t="shared" ref="H44:H81" si="13">IF(AND(A44&lt;&gt;"",C44&lt;&gt;""),"&lt;Audio Key="""&amp;A44&amp;""" Value="""&amp;C44&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="I44" s="59" t="str">
-        <f t="shared" ref="I44:I81" si="14">IF(AND(A44&lt;&gt;"",D44&lt;&gt;""),"&lt;Audio Key="""&amp;A44&amp;""" Value="""&amp;D44&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
-      </c>
-      <c r="J44" s="59" t="str">
-        <f t="shared" ref="J44:J81" si="15">IF(AND(A44&lt;&gt;"",E44&lt;&gt;""),"&lt;Audio Key="""&amp;A44&amp;""" Value="""&amp;E44&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_004</v>
-      </c>
-      <c r="C45" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_004</v>
-      </c>
-      <c r="D45" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_004</v>
-      </c>
-      <c r="E45" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_004</v>
-      </c>
-      <c r="G45" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="H45" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="I45" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
-      </c>
-      <c r="J45" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
-      </c>
-    </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B46" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_005</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_003</v>
       </c>
       <c r="C46" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_005</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_003</v>
       </c>
       <c r="D46" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_005</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_003</v>
       </c>
       <c r="E46" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_005</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_003</v>
       </c>
       <c r="G46" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
+        <f t="shared" ref="G46:G83" si="20">IF(AND(A46&lt;&gt;"",B46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
       <c r="H46" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
+        <f t="shared" ref="H46:H83" si="21">IF(AND(A46&lt;&gt;"",C46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;C46&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
       <c r="I46" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
+        <f t="shared" ref="I46:I83" si="22">IF(AND(A46&lt;&gt;"",D46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;D46&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
       </c>
       <c r="J46" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
+        <f t="shared" ref="J46:J83" si="23">IF(AND(A46&lt;&gt;"",E46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;E46&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B47" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/popup_no_coin_001</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_004</v>
       </c>
       <c r="C47" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/popup_no_coin_001</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_004</v>
       </c>
       <c r="D47" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/popup_no_coin_001</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_004</v>
       </c>
       <c r="E47" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/popup_no_coin_001</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_004</v>
       </c>
       <c r="G47" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
       <c r="H47" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
       <c r="I47" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
       </c>
       <c r="J47" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B48" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/popup_no_coin_002</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_005</v>
       </c>
       <c r="C48" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/popup_no_coin_002</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_005</v>
       </c>
       <c r="D48" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/popup_no_coin_002</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_005</v>
       </c>
       <c r="E48" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/popup_no_coin_002</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_005</v>
       </c>
       <c r="G48" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
       <c r="H48" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
       <c r="I48" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
       </c>
       <c r="J48" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="61" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B49" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/popup_no_coin_003</v>
+        <f t="shared" si="16"/>
+        <v>CHS/popup_no_coin_001</v>
       </c>
       <c r="C49" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/popup_no_coin_003</v>
+        <f t="shared" si="17"/>
+        <v>CHS/popup_no_coin_001</v>
       </c>
       <c r="D49" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/popup_no_coin_003</v>
+        <f t="shared" si="18"/>
+        <v>EN/popup_no_coin_001</v>
       </c>
       <c r="E49" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/popup_no_coin_003</v>
+        <f t="shared" si="19"/>
+        <v>JP/popup_no_coin_001</v>
       </c>
       <c r="G49" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
       <c r="H49" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
       <c r="I49" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
       </c>
       <c r="J49" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_hungry_alert_001</v>
+        <f t="shared" si="16"/>
+        <v>CHS/popup_no_coin_002</v>
       </c>
       <c r="C50" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_hungry_alert_001</v>
+        <f t="shared" si="17"/>
+        <v>CHS/popup_no_coin_002</v>
       </c>
       <c r="D50" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_hungry_alert_001</v>
+        <f t="shared" si="18"/>
+        <v>EN/popup_no_coin_002</v>
       </c>
       <c r="E50" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_hungry_alert_001</v>
+        <f t="shared" si="19"/>
+        <v>JP/popup_no_coin_002</v>
       </c>
       <c r="G50" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
       <c r="H50" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
       <c r="I50" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
       </c>
       <c r="J50" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B51" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_hungry_alert_002</v>
+        <f t="shared" si="16"/>
+        <v>CHS/popup_no_coin_003</v>
       </c>
       <c r="C51" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_hungry_alert_002</v>
+        <f t="shared" si="17"/>
+        <v>CHS/popup_no_coin_003</v>
       </c>
       <c r="D51" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_hungry_alert_002</v>
+        <f t="shared" si="18"/>
+        <v>EN/popup_no_coin_003</v>
       </c>
       <c r="E51" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_hungry_alert_002</v>
+        <f t="shared" si="19"/>
+        <v>JP/popup_no_coin_003</v>
       </c>
       <c r="G51" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
       <c r="H51" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
       <c r="I51" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
       </c>
       <c r="J51" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B52" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_hungry_alert_003</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_hungry_alert_001</v>
       </c>
       <c r="C52" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_hungry_alert_003</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_hungry_alert_001</v>
       </c>
       <c r="D52" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_hungry_alert_003</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_hungry_alert_001</v>
       </c>
       <c r="E52" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_hungry_alert_003</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_hungry_alert_001</v>
       </c>
       <c r="G52" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
       <c r="H52" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
       <c r="I52" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
       </c>
       <c r="J52" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="61" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B53" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_moonfestival01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_hungry_alert_002</v>
       </c>
       <c r="C53" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_moonfestival01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_hungry_alert_002</v>
       </c>
       <c r="D53" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_moonfestival01</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_hungry_alert_002</v>
       </c>
       <c r="E53" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_moonfestival01</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_hungry_alert_002</v>
       </c>
       <c r="G53" s="59" t="str">
-        <f>IF(AND(A53&lt;&gt;"",B53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;B53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
       <c r="H53" s="59" t="str">
-        <f>IF(AND(A53&lt;&gt;"",C53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;C53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
       <c r="I53" s="59" t="str">
-        <f>IF(AND(A53&lt;&gt;"",D53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;D53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
       </c>
       <c r="J53" s="59" t="str">
-        <f>IF(AND(A53&lt;&gt;"",E53&lt;&gt;""),"&lt;Audio Key="""&amp;A53&amp;""" Value="""&amp;E53&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="61" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B54" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_moonfestival02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_hungry_alert_003</v>
       </c>
       <c r="C54" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_moonfestival02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_hungry_alert_003</v>
       </c>
       <c r="D54" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_moonfestival02</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_hungry_alert_003</v>
       </c>
       <c r="E54" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_moonfestival02</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_hungry_alert_003</v>
       </c>
       <c r="G54" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
       <c r="H54" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
       <c r="I54" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
       </c>
       <c r="J54" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B55" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_moonfestival03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_moonfestival01</v>
       </c>
       <c r="C55" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_moonfestival03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_moonfestival01</v>
       </c>
       <c r="D55" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_moonfestival03</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_moonfestival01</v>
       </c>
       <c r="E55" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_moonfestival03</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_moonfestival01</v>
       </c>
       <c r="G55" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
+        <f>IF(AND(A55&lt;&gt;"",B55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;B55&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
       <c r="H55" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
+        <f>IF(AND(A55&lt;&gt;"",C55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;C55&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
       <c r="I55" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
+        <f>IF(AND(A55&lt;&gt;"",D55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;D55&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
       </c>
       <c r="J55" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
+        <f>IF(AND(A55&lt;&gt;"",E55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;E55&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_moonfestival04</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_moonfestival02</v>
       </c>
       <c r="C56" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_moonfestival04</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_moonfestival02</v>
       </c>
       <c r="D56" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_moonfestival04</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_moonfestival02</v>
       </c>
       <c r="E56" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_moonfestival04</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_moonfestival02</v>
       </c>
       <c r="G56" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
       <c r="H56" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
       <c r="I56" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
       </c>
       <c r="J56" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_moonfestival05</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_moonfestival03</v>
       </c>
       <c r="C57" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_moonfestival05</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_moonfestival03</v>
       </c>
       <c r="D57" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_moonfestival05</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_moonfestival03</v>
       </c>
       <c r="E57" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_moonfestival05</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_moonfestival03</v>
       </c>
       <c r="G57" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
       <c r="H57" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
       <c r="I57" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
       </c>
       <c r="J57" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="61" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B58" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/dony_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_moonfestival04</v>
       </c>
       <c r="C58" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/dony_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_moonfestival04</v>
       </c>
       <c r="D58" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/dony_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_moonfestival04</v>
       </c>
       <c r="E58" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/dony_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_moonfestival04</v>
       </c>
       <c r="G58" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
       <c r="H58" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
       <c r="I58" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
       </c>
       <c r="J58" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="61" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B59" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/dony_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_moonfestival05</v>
       </c>
       <c r="C59" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/dony_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_moonfestival05</v>
       </c>
       <c r="D59" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/dony_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_moonfestival05</v>
       </c>
       <c r="E59" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/dony_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_moonfestival05</v>
       </c>
       <c r="G59" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
       <c r="H59" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
       <c r="I59" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
       </c>
       <c r="J59" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="61" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B60" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/dony_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/dony_eat_act_01</v>
       </c>
       <c r="C60" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/dony_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/dony_eat_act_01</v>
       </c>
       <c r="D60" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/dony_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/dony_eat_act_01</v>
       </c>
       <c r="E60" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/dony_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/dony_eat_act_01</v>
       </c>
       <c r="G60" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
       <c r="H60" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
       <c r="I60" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
       </c>
       <c r="J60" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="61" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B61" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/sansa_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/dony_eat_act_02</v>
       </c>
       <c r="C61" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/sansa_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/dony_eat_act_02</v>
       </c>
       <c r="D61" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/sansa_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/dony_eat_act_02</v>
       </c>
       <c r="E61" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/sansa_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/dony_eat_act_02</v>
       </c>
       <c r="G61" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
       <c r="H61" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
       <c r="I61" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
       </c>
       <c r="J61" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B62" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/sansa_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/dony_eat_act_03</v>
       </c>
       <c r="C62" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/sansa_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/dony_eat_act_03</v>
       </c>
       <c r="D62" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/sansa_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/dony_eat_act_03</v>
       </c>
       <c r="E62" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/sansa_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/dony_eat_act_03</v>
       </c>
       <c r="G62" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
       <c r="H62" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
       <c r="I62" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
       </c>
       <c r="J62" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="61" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B63" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/sansa_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/sansa_eat_act_01</v>
       </c>
       <c r="C63" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/sansa_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/sansa_eat_act_01</v>
       </c>
       <c r="D63" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/sansa_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/sansa_eat_act_01</v>
       </c>
       <c r="E63" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/sansa_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/sansa_eat_act_01</v>
       </c>
       <c r="G63" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
       <c r="H63" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
       <c r="I63" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
       </c>
       <c r="J63" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="61" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B64" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/yoyo_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/sansa_eat_act_02</v>
       </c>
       <c r="C64" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/yoyo_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/sansa_eat_act_02</v>
       </c>
       <c r="D64" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/yoyo_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/sansa_eat_act_02</v>
       </c>
       <c r="E64" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/yoyo_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/sansa_eat_act_02</v>
       </c>
       <c r="G64" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
       <c r="H64" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
       <c r="I64" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
       </c>
       <c r="J64" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="61" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B65" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/yoyo_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/sansa_eat_act_03</v>
       </c>
       <c r="C65" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/yoyo_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/sansa_eat_act_03</v>
       </c>
       <c r="D65" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/yoyo_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/sansa_eat_act_03</v>
       </c>
       <c r="E65" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/yoyo_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/sansa_eat_act_03</v>
       </c>
       <c r="G65" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
       <c r="H65" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
       <c r="I65" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
       </c>
       <c r="J65" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B66" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/yoyo_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/yoyo_eat_act_01</v>
       </c>
       <c r="C66" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/yoyo_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/yoyo_eat_act_01</v>
       </c>
       <c r="D66" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/yoyo_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/yoyo_eat_act_01</v>
       </c>
       <c r="E66" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/yoyo_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/yoyo_eat_act_01</v>
       </c>
       <c r="G66" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
       <c r="H66" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
       <c r="I66" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
       </c>
       <c r="J66" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B67" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/purpie_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/yoyo_eat_act_02</v>
       </c>
       <c r="C67" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/purpie_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/yoyo_eat_act_02</v>
       </c>
       <c r="D67" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/purpie_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/yoyo_eat_act_02</v>
       </c>
       <c r="E67" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/purpie_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/yoyo_eat_act_02</v>
       </c>
       <c r="G67" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
       <c r="H67" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
       <c r="I67" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
       </c>
       <c r="J67" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B68" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/purpie_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/yoyo_eat_act_03</v>
       </c>
       <c r="C68" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/purpie_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/yoyo_eat_act_03</v>
       </c>
       <c r="D68" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/purpie_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/yoyo_eat_act_03</v>
       </c>
       <c r="E68" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/purpie_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/yoyo_eat_act_03</v>
       </c>
       <c r="G68" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
       <c r="H68" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
       <c r="I68" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
       </c>
       <c r="J68" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B69" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/purpie_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/purpie_eat_act_01</v>
       </c>
       <c r="C69" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/purpie_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/purpie_eat_act_01</v>
       </c>
       <c r="D69" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/purpie_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/purpie_eat_act_01</v>
       </c>
       <c r="E69" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/purpie_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/purpie_eat_act_01</v>
       </c>
       <c r="G69" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
       <c r="H69" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
       <c r="I69" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
       </c>
       <c r="J69" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="61" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B70" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/ninji_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/purpie_eat_act_02</v>
       </c>
       <c r="C70" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/ninji_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/purpie_eat_act_02</v>
       </c>
       <c r="D70" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/ninji_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/purpie_eat_act_02</v>
       </c>
       <c r="E70" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/ninji_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/purpie_eat_act_02</v>
       </c>
       <c r="G70" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
       <c r="H70" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
       <c r="I70" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
       </c>
       <c r="J70" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B71" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/ninji_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/purpie_eat_act_03</v>
       </c>
       <c r="C71" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/ninji_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/purpie_eat_act_03</v>
       </c>
       <c r="D71" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/ninji_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/purpie_eat_act_03</v>
       </c>
       <c r="E71" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/ninji_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/purpie_eat_act_03</v>
       </c>
       <c r="G71" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
       <c r="H71" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
       <c r="I71" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
       </c>
       <c r="J71" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B72" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/ninji_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/ninji_eat_act_01</v>
       </c>
       <c r="C72" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/ninji_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/ninji_eat_act_01</v>
       </c>
       <c r="D72" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/ninji_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/ninji_eat_act_01</v>
       </c>
       <c r="E72" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/ninji_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/ninji_eat_act_01</v>
       </c>
       <c r="G72" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
       <c r="H72" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
       <c r="I72" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
       </c>
       <c r="J72" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B73" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/nuo_eat_act_01</v>
+        <f t="shared" si="16"/>
+        <v>CHS/ninji_eat_act_02</v>
       </c>
       <c r="C73" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/nuo_eat_act_01</v>
+        <f t="shared" si="17"/>
+        <v>CHS/ninji_eat_act_02</v>
       </c>
       <c r="D73" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/nuo_eat_act_01</v>
+        <f t="shared" si="18"/>
+        <v>EN/ninji_eat_act_02</v>
       </c>
       <c r="E73" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/nuo_eat_act_01</v>
+        <f t="shared" si="19"/>
+        <v>JP/ninji_eat_act_02</v>
       </c>
       <c r="G73" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
       <c r="H73" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
       <c r="I73" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
       </c>
       <c r="J73" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B74" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/nuo_eat_act_02</v>
+        <f t="shared" si="16"/>
+        <v>CHS/ninji_eat_act_03</v>
       </c>
       <c r="C74" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/nuo_eat_act_02</v>
+        <f t="shared" si="17"/>
+        <v>CHS/ninji_eat_act_03</v>
       </c>
       <c r="D74" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/nuo_eat_act_02</v>
+        <f t="shared" si="18"/>
+        <v>EN/ninji_eat_act_03</v>
       </c>
       <c r="E74" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/nuo_eat_act_02</v>
+        <f t="shared" si="19"/>
+        <v>JP/ninji_eat_act_03</v>
       </c>
       <c r="G74" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
       <c r="H74" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
       <c r="I74" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
       </c>
       <c r="J74" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B75" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/nuo_eat_act_03</v>
+        <f t="shared" si="16"/>
+        <v>CHS/nuo_eat_act_01</v>
       </c>
       <c r="C75" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/nuo_eat_act_03</v>
+        <f t="shared" si="17"/>
+        <v>CHS/nuo_eat_act_01</v>
       </c>
       <c r="D75" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/nuo_eat_act_03</v>
+        <f t="shared" si="18"/>
+        <v>EN/nuo_eat_act_01</v>
       </c>
       <c r="E75" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/nuo_eat_act_03</v>
+        <f t="shared" si="19"/>
+        <v>JP/nuo_eat_act_01</v>
       </c>
       <c r="G75" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
       <c r="H75" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
       <c r="I75" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
       </c>
       <c r="J75" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B76" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_china_001</v>
+        <f t="shared" si="16"/>
+        <v>CHS/nuo_eat_act_02</v>
       </c>
       <c r="C76" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_china_001</v>
+        <f t="shared" si="17"/>
+        <v>CHS/nuo_eat_act_02</v>
       </c>
       <c r="D76" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_china_001</v>
+        <f t="shared" si="18"/>
+        <v>EN/nuo_eat_act_02</v>
       </c>
       <c r="E76" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_china_001</v>
+        <f t="shared" si="19"/>
+        <v>JP/nuo_eat_act_02</v>
       </c>
       <c r="G76" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
       <c r="H76" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
       <c r="I76" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
       </c>
       <c r="J76" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B77" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_china_002</v>
+        <f t="shared" si="16"/>
+        <v>CHS/nuo_eat_act_03</v>
       </c>
       <c r="C77" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_china_002</v>
+        <f t="shared" si="17"/>
+        <v>CHS/nuo_eat_act_03</v>
       </c>
       <c r="D77" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_china_002</v>
+        <f t="shared" si="18"/>
+        <v>EN/nuo_eat_act_03</v>
       </c>
       <c r="E77" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_china_002</v>
+        <f t="shared" si="19"/>
+        <v>JP/nuo_eat_act_03</v>
       </c>
       <c r="G77" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
       <c r="H77" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
       <c r="I77" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
       </c>
       <c r="J77" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="61" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B78" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_china_003</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_china_001</v>
       </c>
       <c r="C78" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_china_003</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_china_001</v>
       </c>
       <c r="D78" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_china_003</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_china_001</v>
       </c>
       <c r="E78" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_china_003</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_china_001</v>
       </c>
       <c r="G78" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
       <c r="H78" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
       <c r="I78" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
       </c>
       <c r="J78" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B79" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_china_004</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_china_002</v>
       </c>
       <c r="C79" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_china_004</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_china_002</v>
       </c>
       <c r="D79" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_china_004</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_china_002</v>
       </c>
       <c r="E79" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_china_004</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_china_002</v>
       </c>
       <c r="G79" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
       <c r="H79" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
       <c r="I79" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
       </c>
       <c r="J79" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B80" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_china_005</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_china_003</v>
       </c>
       <c r="C80" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_china_005</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_china_003</v>
       </c>
       <c r="D80" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_china_005</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_china_003</v>
       </c>
       <c r="E80" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_china_005</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_china_003</v>
       </c>
       <c r="G80" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
       <c r="H80" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
       <c r="I80" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
       </c>
       <c r="J80" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B81" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/goods_soldout</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_china_004</v>
       </c>
       <c r="C81" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/goods_soldout</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_china_004</v>
       </c>
       <c r="D81" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/goods_soldout</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_china_004</v>
       </c>
       <c r="E81" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/goods_soldout</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_china_004</v>
       </c>
       <c r="G81" s="59" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
       <c r="H81" s="59" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
       <c r="I81" s="59" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
       </c>
       <c r="J81" s="59" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="61" t="s">
-        <v>935</v>
+        <v>273</v>
       </c>
       <c r="B82" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_dk_001</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_china_005</v>
       </c>
       <c r="C82" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_dk_001</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_china_005</v>
       </c>
       <c r="D82" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_dk_001</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_china_005</v>
       </c>
       <c r="E82" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_dk_001</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_china_005</v>
       </c>
       <c r="G82" s="59" t="str">
-        <f t="shared" ref="G82:G86" si="16">IF(AND(A82&lt;&gt;"",B82&lt;&gt;""),"&lt;Audio Key="""&amp;A82&amp;""" Value="""&amp;B82&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
       <c r="H82" s="59" t="str">
-        <f t="shared" ref="H82:H86" si="17">IF(AND(A82&lt;&gt;"",C82&lt;&gt;""),"&lt;Audio Key="""&amp;A82&amp;""" Value="""&amp;C82&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
       <c r="I82" s="59" t="str">
-        <f t="shared" ref="I82:I86" si="18">IF(AND(A82&lt;&gt;"",D82&lt;&gt;""),"&lt;Audio Key="""&amp;A82&amp;""" Value="""&amp;D82&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_dk_001" Value="EN/feed_welcome_dk_001" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
       </c>
       <c r="J82" s="59" t="str">
-        <f t="shared" ref="J82:J86" si="19">IF(AND(A82&lt;&gt;"",E82&lt;&gt;""),"&lt;Audio Key="""&amp;A82&amp;""" Value="""&amp;E82&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="feed_welcome_dk_001" Value="JP/feed_welcome_dk_001" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="61" t="s">
-        <v>936</v>
+        <v>274</v>
       </c>
       <c r="B83" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_dk_002</v>
+        <f t="shared" si="16"/>
+        <v>CHS/goods_soldout</v>
       </c>
       <c r="C83" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_dk_002</v>
+        <f t="shared" si="17"/>
+        <v>CHS/goods_soldout</v>
       </c>
       <c r="D83" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_dk_002</v>
+        <f t="shared" si="18"/>
+        <v>EN/goods_soldout</v>
       </c>
       <c r="E83" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_dk_002</v>
+        <f t="shared" si="19"/>
+        <v>JP/goods_soldout</v>
       </c>
       <c r="G83" s="59" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
       <c r="H83" s="59" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
       <c r="I83" s="59" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;Audio Key="feed_welcome_dk_002" Value="EN/feed_welcome_dk_002" /&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
       </c>
       <c r="J83" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v>&lt;Audio Key="feed_welcome_dk_002" Value="JP/feed_welcome_dk_002" /&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="61" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B84" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_dk_003</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_dk_001</v>
       </c>
       <c r="C84" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_dk_003</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_dk_001</v>
       </c>
       <c r="D84" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_dk_003</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_dk_001</v>
       </c>
       <c r="E84" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_dk_003</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_dk_001</v>
       </c>
       <c r="G84" s="59" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
+        <f t="shared" ref="G84:G88" si="24">IF(AND(A84&lt;&gt;"",B84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;B84&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
       </c>
       <c r="H84" s="59" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
+        <f t="shared" ref="H84:H88" si="25">IF(AND(A84&lt;&gt;"",C84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;C84&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
       </c>
       <c r="I84" s="59" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;Audio Key="feed_welcome_dk_003" Value="EN/feed_welcome_dk_003" /&gt;</v>
+        <f t="shared" ref="I84:I88" si="26">IF(AND(A84&lt;&gt;"",D84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;D84&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_dk_001" Value="EN/feed_welcome_dk_001" /&gt;</v>
       </c>
       <c r="J84" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v>&lt;Audio Key="feed_welcome_dk_003" Value="JP/feed_welcome_dk_003" /&gt;</v>
+        <f t="shared" ref="J84:J88" si="27">IF(AND(A84&lt;&gt;"",E84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;E84&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_dk_001" Value="JP/feed_welcome_dk_001" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="61" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B85" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_dk_004</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_dk_002</v>
       </c>
       <c r="C85" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_dk_004</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_dk_002</v>
       </c>
       <c r="D85" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_dk_004</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_dk_002</v>
       </c>
       <c r="E85" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_dk_004</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_dk_002</v>
       </c>
       <c r="G85" s="59" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
       </c>
       <c r="H85" s="59" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
       </c>
       <c r="I85" s="59" t="str">
-        <f t="shared" si="18"/>
-        <v>&lt;Audio Key="feed_welcome_dk_004" Value="EN/feed_welcome_dk_004" /&gt;</v>
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="feed_welcome_dk_002" Value="EN/feed_welcome_dk_002" /&gt;</v>
       </c>
       <c r="J85" s="59" t="str">
-        <f t="shared" si="19"/>
-        <v>&lt;Audio Key="feed_welcome_dk_004" Value="JP/feed_welcome_dk_004" /&gt;</v>
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="feed_welcome_dk_002" Value="JP/feed_welcome_dk_002" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="61" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B86" s="61" t="str">
-        <f t="shared" si="8"/>
-        <v>CHS/feed_welcome_dk_005</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_dk_003</v>
       </c>
       <c r="C86" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v>CHS/feed_welcome_dk_005</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_dk_003</v>
       </c>
       <c r="D86" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v>EN/feed_welcome_dk_005</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_dk_003</v>
       </c>
       <c r="E86" s="63" t="str">
-        <f t="shared" si="11"/>
-        <v>JP/feed_welcome_dk_005</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_dk_003</v>
       </c>
       <c r="G86" s="59" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
+      </c>
+      <c r="H86" s="59" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
+      </c>
+      <c r="I86" s="59" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="feed_welcome_dk_003" Value="EN/feed_welcome_dk_003" /&gt;</v>
+      </c>
+      <c r="J86" s="59" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="feed_welcome_dk_003" Value="JP/feed_welcome_dk_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="61" t="s">
+        <v>938</v>
+      </c>
+      <c r="B87" s="61" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
-      </c>
-      <c r="H86" s="59" t="str">
+        <v>CHS/feed_welcome_dk_004</v>
+      </c>
+      <c r="C87" s="61" t="str">
         <f t="shared" si="17"/>
-        <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
-      </c>
-      <c r="I86" s="59" t="str">
+        <v>CHS/feed_welcome_dk_004</v>
+      </c>
+      <c r="D87" s="61" t="str">
         <f t="shared" si="18"/>
-        <v>&lt;Audio Key="feed_welcome_dk_005" Value="EN/feed_welcome_dk_005" /&gt;</v>
-      </c>
-      <c r="J86" s="59" t="str">
+        <v>EN/feed_welcome_dk_004</v>
+      </c>
+      <c r="E87" s="63" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Audio Key="feed_welcome_dk_005" Value="JP/feed_welcome_dk_005" /&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="E87" s="63"/>
+        <v>JP/feed_welcome_dk_004</v>
+      </c>
+      <c r="G87" s="59" t="str">
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
+      </c>
+      <c r="H87" s="59" t="str">
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
+      </c>
+      <c r="I87" s="59" t="str">
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="feed_welcome_dk_004" Value="EN/feed_welcome_dk_004" /&gt;</v>
+      </c>
+      <c r="J87" s="59" t="str">
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="feed_welcome_dk_004" Value="JP/feed_welcome_dk_004" /&gt;</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="61" t="s">
-        <v>234</v>
+        <v>939</v>
       </c>
       <c r="B88" s="61" t="str">
-        <f t="shared" ref="B88:B97" si="20">"CHS/"&amp;A88</f>
-        <v>CHS/galaxy_welcome_new</v>
+        <f t="shared" si="16"/>
+        <v>CHS/feed_welcome_dk_005</v>
       </c>
       <c r="C88" s="61" t="str">
-        <f t="shared" ref="C88:C97" si="21">"CHS/"&amp;A88</f>
-        <v>CHS/galaxy_welcome_new</v>
+        <f t="shared" si="17"/>
+        <v>CHS/feed_welcome_dk_005</v>
       </c>
       <c r="D88" s="61" t="str">
-        <f t="shared" ref="D88:D97" si="22">"EN/"&amp;A88</f>
-        <v>EN/galaxy_welcome_new</v>
+        <f t="shared" si="18"/>
+        <v>EN/feed_welcome_dk_005</v>
       </c>
       <c r="E88" s="63" t="str">
-        <f t="shared" ref="E88:E97" si="23">"JP/"&amp;A88</f>
-        <v>JP/galaxy_welcome_new</v>
+        <f t="shared" si="19"/>
+        <v>JP/feed_welcome_dk_005</v>
       </c>
       <c r="G88" s="59" t="str">
-        <f t="shared" ref="G88:G96" si="24">IF(AND(A88&lt;&gt;"",B88&lt;&gt;""),"&lt;Audio Key="""&amp;A88&amp;""" Value="""&amp;B88&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="24"/>
+        <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
       </c>
       <c r="H88" s="59" t="str">
-        <f t="shared" ref="H88:H96" si="25">IF(AND(A88&lt;&gt;"",C88&lt;&gt;""),"&lt;Audio Key="""&amp;A88&amp;""" Value="""&amp;C88&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="25"/>
+        <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
       </c>
       <c r="I88" s="59" t="str">
-        <f t="shared" ref="I88:I96" si="26">IF(AND(A88&lt;&gt;"",D88&lt;&gt;""),"&lt;Audio Key="""&amp;A88&amp;""" Value="""&amp;D88&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="26"/>
+        <v>&lt;Audio Key="feed_welcome_dk_005" Value="EN/feed_welcome_dk_005" /&gt;</v>
       </c>
       <c r="J88" s="59" t="str">
-        <f t="shared" ref="J88:J96" si="27">IF(AND(A88&lt;&gt;"",E88&lt;&gt;""),"&lt;Audio Key="""&amp;A88&amp;""" Value="""&amp;E88&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="27"/>
+        <v>&lt;Audio Key="feed_welcome_dk_005" Value="JP/feed_welcome_dk_005" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="B89" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="C89" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="D89" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="E89" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_new_world_welcome_001</v>
-      </c>
-      <c r="G89" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="H89" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="I89" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
-      <c r="J89" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
-      </c>
+      <c r="A89" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E89" s="63"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B90" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
+        <f t="shared" ref="B90:B99" si="28">"CHS/"&amp;A90</f>
+        <v>CHS/galaxy_welcome_new</v>
       </c>
       <c r="C90" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
+        <f t="shared" ref="C90:C99" si="29">"CHS/"&amp;A90</f>
+        <v>CHS/galaxy_welcome_new</v>
       </c>
       <c r="D90" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_new_world_welcome_002</v>
+        <f t="shared" ref="D90:D99" si="30">"EN/"&amp;A90</f>
+        <v>EN/galaxy_welcome_new</v>
       </c>
       <c r="E90" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_new_world_welcome_002</v>
+        <f t="shared" ref="E90:E99" si="31">"JP/"&amp;A90</f>
+        <v>JP/galaxy_welcome_new</v>
       </c>
       <c r="G90" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+        <f t="shared" ref="G90:G98" si="32">IF(AND(A90&lt;&gt;"",B90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;B90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="H90" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+        <f t="shared" ref="H90:H98" si="33">IF(AND(A90&lt;&gt;"",C90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;C90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="I90" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
+        <f t="shared" ref="I90:I98" si="34">IF(AND(A90&lt;&gt;"",D90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;D90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="J90" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
+        <f t="shared" ref="J90:J98" si="35">IF(AND(A90&lt;&gt;"",E90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;E90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B91" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_001</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
       <c r="C91" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_001</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
       <c r="D91" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_001</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_new_world_welcome_001</v>
       </c>
       <c r="E91" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_001</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_new_world_welcome_001</v>
       </c>
       <c r="G91" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="H91" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="I91" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="J91" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B92" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_002</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
       <c r="C92" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_002</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
       <c r="D92" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_002</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_new_world_welcome_002</v>
       </c>
       <c r="E92" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_002</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_new_world_welcome_002</v>
       </c>
       <c r="G92" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="H92" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="I92" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="J92" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B93" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_003</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_001</v>
       </c>
       <c r="C93" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_003</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_001</v>
       </c>
       <c r="D93" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_003</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_001</v>
       </c>
       <c r="E93" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_003</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_001</v>
       </c>
       <c r="G93" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="H93" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="I93" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="J93" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B94" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_004</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_002</v>
       </c>
       <c r="C94" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_004</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_002</v>
       </c>
       <c r="D94" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_004</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_002</v>
       </c>
       <c r="E94" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_004</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_002</v>
       </c>
       <c r="G94" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="H94" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="I94" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="J94" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B95" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_005</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_003</v>
       </c>
       <c r="C95" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_005</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_003</v>
       </c>
       <c r="D95" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_005</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_003</v>
       </c>
       <c r="E95" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_005</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_003</v>
       </c>
       <c r="G95" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
       <c r="H95" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
       <c r="I95" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
       </c>
       <c r="J95" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="B96" s="61" t="str">
-        <f t="shared" si="20"/>
-        <v>CHS/galaxy_welcome_006</v>
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_004</v>
       </c>
       <c r="C96" s="61" t="str">
-        <f t="shared" si="21"/>
-        <v>CHS/galaxy_welcome_006</v>
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_004</v>
       </c>
       <c r="D96" s="61" t="str">
-        <f t="shared" si="22"/>
-        <v>EN/galaxy_welcome_006</v>
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_004</v>
       </c>
       <c r="E96" s="63" t="str">
-        <f t="shared" si="23"/>
-        <v>JP/galaxy_welcome_006</v>
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_004</v>
       </c>
       <c r="G96" s="59" t="str">
-        <f t="shared" si="24"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="H96" s="59" t="str">
-        <f t="shared" si="25"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="I96" s="59" t="str">
-        <f t="shared" si="26"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="J96" s="59" t="str">
-        <f t="shared" si="27"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="61" t="str">
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_005</v>
+      </c>
+      <c r="C97" s="61" t="str">
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_005</v>
+      </c>
+      <c r="D97" s="61" t="str">
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_005</v>
+      </c>
+      <c r="E97" s="63" t="str">
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_005</v>
+      </c>
+      <c r="G97" s="59" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+      </c>
+      <c r="H97" s="59" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+      </c>
+      <c r="I97" s="59" t="str">
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
+      </c>
+      <c r="J97" s="59" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="61" t="str">
+        <f t="shared" si="28"/>
+        <v>CHS/galaxy_welcome_006</v>
+      </c>
+      <c r="C98" s="61" t="str">
+        <f t="shared" si="29"/>
+        <v>CHS/galaxy_welcome_006</v>
+      </c>
+      <c r="D98" s="61" t="str">
+        <f t="shared" si="30"/>
+        <v>EN/galaxy_welcome_006</v>
+      </c>
+      <c r="E98" s="63" t="str">
+        <f t="shared" si="31"/>
+        <v>JP/galaxy_welcome_006</v>
+      </c>
+      <c r="G98" s="59" t="str">
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="H98" s="59" t="str">
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="I98" s="59" t="str">
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
+      </c>
+      <c r="J98" s="59" t="str">
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="B97" s="61" t="str">
-        <f t="shared" si="20"/>
+      <c r="B99" s="61" t="str">
+        <f t="shared" si="28"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="C97" s="61" t="str">
-        <f t="shared" si="21"/>
+      <c r="C99" s="61" t="str">
+        <f t="shared" si="29"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="D97" s="61" t="str">
-        <f t="shared" si="22"/>
+      <c r="D99" s="61" t="str">
+        <f t="shared" si="30"/>
         <v>EN/mission_complete_retry</v>
       </c>
-      <c r="E97" s="63" t="str">
-        <f t="shared" si="23"/>
+      <c r="E99" s="63" t="str">
+        <f t="shared" si="31"/>
         <v>JP/mission_complete_retry</v>
       </c>
-      <c r="G97" s="59" t="str">
-        <f>IF(AND(A97&lt;&gt;"",B97&lt;&gt;""),"&lt;Audio Key="""&amp;A97&amp;""" Value="""&amp;B97&amp;""" /&gt;","")</f>
+      <c r="G99" s="59" t="str">
+        <f>IF(AND(A99&lt;&gt;"",B99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;B99&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="H97" s="59" t="str">
-        <f>IF(AND(A97&lt;&gt;"",C97&lt;&gt;""),"&lt;Audio Key="""&amp;A97&amp;""" Value="""&amp;C97&amp;""" /&gt;","")</f>
+      <c r="H99" s="59" t="str">
+        <f>IF(AND(A99&lt;&gt;"",C99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;C99&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="I97" s="59" t="str">
-        <f>IF(AND(A97&lt;&gt;"",D97&lt;&gt;""),"&lt;Audio Key="""&amp;A97&amp;""" Value="""&amp;D97&amp;""" /&gt;","")</f>
+      <c r="I99" s="59" t="str">
+        <f>IF(AND(A99&lt;&gt;"",D99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;D99&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="J97" s="59" t="str">
-        <f>IF(AND(A97&lt;&gt;"",E97&lt;&gt;""),"&lt;Audio Key="""&amp;A97&amp;""" Value="""&amp;E97&amp;""" /&gt;","")</f>
+      <c r="J99" s="59" t="str">
+        <f>IF(AND(A99&lt;&gt;"",E99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;E99&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>
@@ -18702,7 +18782,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A29:A39 A1:E28 A40:E1048576">
+  <conditionalFormatting sqref="A29:A41 A1:E28 A42:E1048576">
     <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -18710,7 +18790,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E39">
+  <conditionalFormatting sqref="B29:E41">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781425CD-B1F7-4958-B4D4-E1757892798D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6B46D-01BA-4E38-8220-3EA72D636C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="958">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4088,6 +4088,41 @@
   </si>
   <si>
     <t>galaxy_lock_time</t>
+  </si>
+  <si>
+    <t>********换装页音效********</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_purchase_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall_suit_not_match</t>
+  </si>
+  <si>
+    <t>popup_goods_level_lock</t>
+  </si>
+  <si>
+    <t>mall_purchase_qr</t>
+  </si>
+  <si>
+    <t>mall_purchase_qr_complete</t>
+  </si>
+  <si>
+    <t>mall_welcome_001</t>
+  </si>
+  <si>
+    <t>mall_welcome_002</t>
+  </si>
+  <si>
+    <t>mall_welcome_003</t>
+  </si>
+  <si>
+    <t>mall_welcome_004</t>
+  </si>
+  <si>
+    <t>mall_welcome_005</t>
   </si>
 </sst>
 </file>
@@ -4644,7 +4679,105 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4686,6 +4819,69 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -5352,66 +5548,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A2:E1048575" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13023,7 +13219,7 @@
   <autoFilter ref="J1:J321" xr:uid="{80525AF8-ED01-4BDB-BE14-6F8958DAAA74}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15214,10 +15410,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15228,13 +15424,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18777,24 +18973,424 @@
         <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="63" t="s">
+        <v>947</v>
+      </c>
+      <c r="E100" s="63"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="61" t="s">
+        <v>953</v>
+      </c>
+      <c r="B101" s="61" t="str">
+        <f t="shared" ref="B101:B102" si="36">"CHS/"&amp;A101</f>
+        <v>CHS/mall_welcome_001</v>
+      </c>
+      <c r="C101" s="61" t="str">
+        <f t="shared" ref="C101:C102" si="37">"CHS/"&amp;A101</f>
+        <v>CHS/mall_welcome_001</v>
+      </c>
+      <c r="D101" s="61" t="str">
+        <f t="shared" ref="D101:D102" si="38">"EN/"&amp;A101</f>
+        <v>EN/mall_welcome_001</v>
+      </c>
+      <c r="E101" s="63" t="str">
+        <f t="shared" ref="E101:E102" si="39">"JP/"&amp;A101</f>
+        <v>JP/mall_welcome_001</v>
+      </c>
+      <c r="G101" s="59" t="str">
+        <f t="shared" ref="G101:G102" si="40">IF(AND(A101&lt;&gt;"",B101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;B101&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
+      </c>
+      <c r="H101" s="59" t="str">
+        <f t="shared" ref="H101:H102" si="41">IF(AND(A101&lt;&gt;"",C101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;C101&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
+      </c>
+      <c r="I101" s="59" t="str">
+        <f t="shared" ref="I101:I102" si="42">IF(AND(A101&lt;&gt;"",D101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;D101&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
+      </c>
+      <c r="J101" s="59" t="str">
+        <f t="shared" ref="J101:J102" si="43">IF(AND(A101&lt;&gt;"",E101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;E101&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="61" t="s">
+        <v>954</v>
+      </c>
+      <c r="B102" s="61" t="str">
+        <f t="shared" ref="B102:B110" si="44">"CHS/"&amp;A102</f>
+        <v>CHS/mall_welcome_002</v>
+      </c>
+      <c r="C102" s="61" t="str">
+        <f t="shared" ref="C102:C110" si="45">"CHS/"&amp;A102</f>
+        <v>CHS/mall_welcome_002</v>
+      </c>
+      <c r="D102" s="61" t="str">
+        <f t="shared" ref="D102:D110" si="46">"EN/"&amp;A102</f>
+        <v>EN/mall_welcome_002</v>
+      </c>
+      <c r="E102" s="63" t="str">
+        <f t="shared" ref="E102:E110" si="47">"JP/"&amp;A102</f>
+        <v>JP/mall_welcome_002</v>
+      </c>
+      <c r="G102" s="59" t="str">
+        <f t="shared" ref="G102:G110" si="48">IF(AND(A102&lt;&gt;"",B102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;B102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="H102" s="59" t="str">
+        <f t="shared" ref="H102:H110" si="49">IF(AND(A102&lt;&gt;"",C102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;C102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="I102" s="59" t="str">
+        <f t="shared" ref="I102:I110" si="50">IF(AND(A102&lt;&gt;"",D102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;D102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="J102" s="59" t="str">
+        <f t="shared" ref="J102:J110" si="51">IF(AND(A102&lt;&gt;"",E102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;E102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="61" t="s">
+        <v>955</v>
+      </c>
+      <c r="B103" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_welcome_003</v>
+      </c>
+      <c r="C103" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_welcome_003</v>
+      </c>
+      <c r="D103" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_welcome_003</v>
+      </c>
+      <c r="E103" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_welcome_003</v>
+      </c>
+      <c r="G103" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
+      </c>
+      <c r="H103" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
+      </c>
+      <c r="I103" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="EN/mall_welcome_003" /&gt;</v>
+      </c>
+      <c r="J103" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="JP/mall_welcome_003" /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="61" t="s">
+        <v>956</v>
+      </c>
+      <c r="B104" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_welcome_004</v>
+      </c>
+      <c r="C104" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_welcome_004</v>
+      </c>
+      <c r="D104" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_welcome_004</v>
+      </c>
+      <c r="E104" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_welcome_004</v>
+      </c>
+      <c r="G104" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
+      </c>
+      <c r="H104" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
+      </c>
+      <c r="I104" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="EN/mall_welcome_004" /&gt;</v>
+      </c>
+      <c r="J104" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="JP/mall_welcome_004" /&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="61" t="s">
+        <v>957</v>
+      </c>
+      <c r="B105" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_welcome_005</v>
+      </c>
+      <c r="C105" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_welcome_005</v>
+      </c>
+      <c r="D105" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_welcome_005</v>
+      </c>
+      <c r="E105" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_welcome_005</v>
+      </c>
+      <c r="G105" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="H105" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="I105" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="EN/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="J105" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="JP/mall_welcome_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="61" t="s">
+        <v>948</v>
+      </c>
+      <c r="B106" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_purchase_lock</v>
+      </c>
+      <c r="C106" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_purchase_lock</v>
+      </c>
+      <c r="D106" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_purchase_lock</v>
+      </c>
+      <c r="E106" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_purchase_lock</v>
+      </c>
+      <c r="G106" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="H106" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="I106" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="EN/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="J106" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="JP/mall_purchase_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="61" t="s">
+        <v>949</v>
+      </c>
+      <c r="B107" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_suit_not_match</v>
+      </c>
+      <c r="C107" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_suit_not_match</v>
+      </c>
+      <c r="D107" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_suit_not_match</v>
+      </c>
+      <c r="E107" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_suit_not_match</v>
+      </c>
+      <c r="G107" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="H107" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="I107" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="EN/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="J107" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="JP/mall_suit_not_match" /&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="61" t="s">
+        <v>950</v>
+      </c>
+      <c r="B108" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/popup_goods_level_lock</v>
+      </c>
+      <c r="C108" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/popup_goods_level_lock</v>
+      </c>
+      <c r="D108" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/popup_goods_level_lock</v>
+      </c>
+      <c r="E108" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/popup_goods_level_lock</v>
+      </c>
+      <c r="G108" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="H108" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="I108" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="EN/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="J108" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="JP/popup_goods_level_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="61" t="s">
+        <v>951</v>
+      </c>
+      <c r="B109" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_purchase_qr</v>
+      </c>
+      <c r="C109" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_purchase_qr</v>
+      </c>
+      <c r="D109" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_purchase_qr</v>
+      </c>
+      <c r="E109" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_purchase_qr</v>
+      </c>
+      <c r="G109" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="H109" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="I109" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="EN/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="J109" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="JP/mall_purchase_qr" /&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="B110" s="61" t="str">
+        <f t="shared" si="44"/>
+        <v>CHS/mall_purchase_qr_complete</v>
+      </c>
+      <c r="C110" s="61" t="str">
+        <f t="shared" si="45"/>
+        <v>CHS/mall_purchase_qr_complete</v>
+      </c>
+      <c r="D110" s="61" t="str">
+        <f t="shared" si="46"/>
+        <v>EN/mall_purchase_qr_complete</v>
+      </c>
+      <c r="E110" s="63" t="str">
+        <f t="shared" si="47"/>
+        <v>JP/mall_purchase_qr_complete</v>
+      </c>
+      <c r="G110" s="59" t="str">
+        <f t="shared" si="48"/>
+        <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
+      </c>
+      <c r="H110" s="59" t="str">
+        <f t="shared" si="49"/>
+        <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
+      </c>
+      <c r="I110" s="59" t="str">
+        <f t="shared" si="50"/>
+        <v>&lt;Audio Key="mall_purchase_qr_complete" Value="EN/mall_purchase_qr_complete" /&gt;</v>
+      </c>
+      <c r="J110" s="59" t="str">
+        <f t="shared" si="51"/>
+        <v>&lt;Audio Key="mall_purchase_qr_complete" Value="JP/mall_purchase_qr_complete" /&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A29:A41 A1:E28 A42:E1048576">
-    <cfRule type="expression" dxfId="11" priority="3">
+  <conditionalFormatting sqref="A29:A41 A1:E28 A42:E99 A111:E1048576 A107:A110">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E41">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="32" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="31" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:E100 B101:E110">
+    <cfRule type="expression" dxfId="30" priority="16">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A106">
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:A105">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27750,31 +28346,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A318:E1048576 A1:E3 B4:E317">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:A317">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A245">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6B46D-01BA-4E38-8220-3EA72D636C4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A984FC8-731B-4BF3-8E0F-A68FACE6CD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="963">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4123,6 +4123,21 @@
   </si>
   <si>
     <t>mall_welcome_005</t>
+  </si>
+  <si>
+    <t>已拥有</t>
+  </si>
+  <si>
+    <t>已拥有|HKHB</t>
+  </si>
+  <si>
+    <t>已擁有|DFPT</t>
+  </si>
+  <si>
+    <t>owned|DFPT</t>
+  </si>
+  <si>
+    <t>持っている|Pomeranian</t>
   </si>
 </sst>
 </file>
@@ -4679,105 +4694,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <fill>
         <patternFill>
@@ -4861,27 +4778,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -5548,66 +5444,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A2:E1048575" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13219,7 +13115,7 @@
   <autoFilter ref="J1:J321" xr:uid="{80525AF8-ED01-4BDB-BE14-6F8958DAAA74}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13424,13 +13320,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13940,6 +13836,39 @@
       <c r="J16" s="44" t="str">
         <f t="shared" si="19"/>
         <v>&lt;Text Key="倒计天" Value="{0}日|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>958</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>961</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>962</v>
+      </c>
+      <c r="G17" s="44" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="已拥有" Value="已拥有|HKHB" /&gt;</v>
+      </c>
+      <c r="H17" s="44" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;C17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="已拥有" Value="已擁有|DFPT" /&gt;</v>
+      </c>
+      <c r="I17" s="44" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;D17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="已拥有" Value="owned|DFPT" /&gt;</v>
+      </c>
+      <c r="J17" s="44" t="str">
+        <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;E17&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="已拥有" Value="持っている|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -15410,10 +15339,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="18" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15426,7 +15355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18984,35 +18913,35 @@
         <v>953</v>
       </c>
       <c r="B101" s="61" t="str">
-        <f t="shared" ref="B101:B102" si="36">"CHS/"&amp;A101</f>
+        <f t="shared" ref="B101" si="36">"CHS/"&amp;A101</f>
         <v>CHS/mall_welcome_001</v>
       </c>
       <c r="C101" s="61" t="str">
-        <f t="shared" ref="C101:C102" si="37">"CHS/"&amp;A101</f>
+        <f t="shared" ref="C101" si="37">"CHS/"&amp;A101</f>
         <v>CHS/mall_welcome_001</v>
       </c>
       <c r="D101" s="61" t="str">
-        <f t="shared" ref="D101:D102" si="38">"EN/"&amp;A101</f>
+        <f t="shared" ref="D101" si="38">"EN/"&amp;A101</f>
         <v>EN/mall_welcome_001</v>
       </c>
       <c r="E101" s="63" t="str">
-        <f t="shared" ref="E101:E102" si="39">"JP/"&amp;A101</f>
+        <f t="shared" ref="E101" si="39">"JP/"&amp;A101</f>
         <v>JP/mall_welcome_001</v>
       </c>
       <c r="G101" s="59" t="str">
-        <f t="shared" ref="G101:G102" si="40">IF(AND(A101&lt;&gt;"",B101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;B101&amp;""" /&gt;","")</f>
+        <f t="shared" ref="G101" si="40">IF(AND(A101&lt;&gt;"",B101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;B101&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="H101" s="59" t="str">
-        <f t="shared" ref="H101:H102" si="41">IF(AND(A101&lt;&gt;"",C101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;C101&amp;""" /&gt;","")</f>
+        <f t="shared" ref="H101" si="41">IF(AND(A101&lt;&gt;"",C101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;C101&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="I101" s="59" t="str">
-        <f t="shared" ref="I101:I102" si="42">IF(AND(A101&lt;&gt;"",D101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;D101&amp;""" /&gt;","")</f>
+        <f t="shared" ref="I101" si="42">IF(AND(A101&lt;&gt;"",D101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;D101&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
       </c>
       <c r="J101" s="59" t="str">
-        <f t="shared" ref="J101:J102" si="43">IF(AND(A101&lt;&gt;"",E101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;E101&amp;""" /&gt;","")</f>
+        <f t="shared" ref="J101" si="43">IF(AND(A101&lt;&gt;"",E101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;E101&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
       </c>
     </row>
@@ -19355,26 +19284,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A29:A41 A1:E28 A42:E99 A111:E1048576 A107:A110">
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E41">
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100:E100 B101:E110">
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19387,10 +19316,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:A105">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28346,31 +28275,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A318:E1048576 A1:E3 B4:E317">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:A317">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A245">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A984FC8-731B-4BF3-8E0F-A68FACE6CD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DDBD1-9D43-4757-BA5F-FBFD78D05A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="964">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4138,6 +4138,10 @@
   </si>
   <si>
     <t>持っている|Pomeranian</t>
+  </si>
+  <si>
+    <t>ai_popup_no_network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13322,7 +13326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -15353,13 +15357,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15433,19 +15437,19 @@
         <v>JP/pair_active_success_cn</v>
       </c>
       <c r="G4" s="59" t="str">
-        <f t="shared" ref="G4:G45" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="G4:G46" si="0">IF(AND(A4&lt;&gt;"",B4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="H4" s="59" t="str">
-        <f t="shared" ref="H4:H45" si="1">IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="H4:H46" si="1">IF(AND(A4&lt;&gt;"",C4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;C4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="CHS/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="I4" s="59" t="str">
-        <f t="shared" ref="I4:I45" si="2">IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="I4:I46" si="2">IF(AND(A4&lt;&gt;"",D4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;D4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="EN/pair_active_success_cn" /&gt;</v>
       </c>
       <c r="J4" s="59" t="str">
-        <f t="shared" ref="J4:J45" si="3">IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
+        <f t="shared" ref="J4:J46" si="3">IF(AND(A4&lt;&gt;"",E4&lt;&gt;""),"&lt;Audio Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="pair_active_success_cn" Value="JP/pair_active_success_cn" /&gt;</v>
       </c>
     </row>
@@ -16749,35 +16753,35 @@
         <v>945</v>
       </c>
       <c r="B40" s="61" t="str">
-        <f t="shared" ref="B40:B41" si="8">"CHS/"&amp;A40</f>
+        <f t="shared" ref="B40:B42" si="8">"CHS/"&amp;A40</f>
         <v>CHS/galaxy_lock_drink</v>
       </c>
       <c r="C40" s="61" t="str">
-        <f t="shared" ref="C40:C41" si="9">"CHS/"&amp;A40</f>
+        <f t="shared" ref="C40:C42" si="9">"CHS/"&amp;A40</f>
         <v>CHS/galaxy_lock_drink</v>
       </c>
       <c r="D40" s="61" t="str">
-        <f t="shared" ref="D40:D41" si="10">"EN/"&amp;A40</f>
+        <f t="shared" ref="D40:D42" si="10">"EN/"&amp;A40</f>
         <v>EN/galaxy_lock_drink</v>
       </c>
       <c r="E40" s="63" t="str">
-        <f t="shared" ref="E40:E41" si="11">"JP/"&amp;A40</f>
+        <f t="shared" ref="E40:E42" si="11">"JP/"&amp;A40</f>
         <v>JP/galaxy_lock_drink</v>
       </c>
       <c r="G40" s="59" t="str">
-        <f t="shared" ref="G40:G41" si="12">IF(AND(A40&lt;&gt;"",B40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;B40&amp;""" /&gt;","")</f>
+        <f t="shared" ref="G40:G42" si="12">IF(AND(A40&lt;&gt;"",B40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;B40&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_lock_drink" Value="CHS/galaxy_lock_drink" /&gt;</v>
       </c>
       <c r="H40" s="59" t="str">
-        <f t="shared" ref="H40:H41" si="13">IF(AND(A40&lt;&gt;"",C40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;C40&amp;""" /&gt;","")</f>
+        <f t="shared" ref="H40:H42" si="13">IF(AND(A40&lt;&gt;"",C40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;C40&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_lock_drink" Value="CHS/galaxy_lock_drink" /&gt;</v>
       </c>
       <c r="I40" s="59" t="str">
-        <f t="shared" ref="I40:I41" si="14">IF(AND(A40&lt;&gt;"",D40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;D40&amp;""" /&gt;","")</f>
+        <f t="shared" ref="I40:I42" si="14">IF(AND(A40&lt;&gt;"",D40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;D40&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_lock_drink" Value="EN/galaxy_lock_drink" /&gt;</v>
       </c>
       <c r="J40" s="59" t="str">
-        <f t="shared" ref="J40:J41" si="15">IF(AND(A40&lt;&gt;"",E40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;E40&amp;""" /&gt;","")</f>
+        <f t="shared" ref="J40:J42" si="15">IF(AND(A40&lt;&gt;"",E40&lt;&gt;""),"&lt;Audio Key="""&amp;A40&amp;""" Value="""&amp;E40&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="galaxy_lock_drink" Value="JP/galaxy_lock_drink" /&gt;</v>
       </c>
     </row>
@@ -16819,2461 +16823,2498 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="61" t="s">
+        <v>963</v>
+      </c>
+      <c r="B42" s="61" t="str">
+        <f t="shared" si="8"/>
+        <v>CHS/ai_popup_no_network</v>
+      </c>
+      <c r="C42" s="61" t="str">
+        <f t="shared" si="9"/>
+        <v>CHS/ai_popup_no_network</v>
+      </c>
+      <c r="D42" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v>EN/ai_popup_no_network</v>
+      </c>
+      <c r="E42" s="63" t="str">
+        <f t="shared" si="11"/>
+        <v>JP/ai_popup_no_network</v>
+      </c>
+      <c r="G42" s="59" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;Audio Key="ai_popup_no_network" Value="CHS/ai_popup_no_network" /&gt;</v>
+      </c>
+      <c r="H42" s="59" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;Audio Key="ai_popup_no_network" Value="CHS/ai_popup_no_network" /&gt;</v>
+      </c>
+      <c r="I42" s="59" t="str">
+        <f t="shared" si="14"/>
+        <v>&lt;Audio Key="ai_popup_no_network" Value="EN/ai_popup_no_network" /&gt;</v>
+      </c>
+      <c r="J42" s="59" t="str">
+        <f t="shared" si="15"/>
+        <v>&lt;Audio Key="ai_popup_no_network" Value="JP/ai_popup_no_network" /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="E42" s="63"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="61" t="s">
+      <c r="E43" s="63"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="61" t="str">
-        <f>"CHS/"&amp;A43</f>
+      <c r="B44" s="61" t="str">
+        <f>"CHS/"&amp;A44</f>
         <v>CHS/popup_feed_welcome</v>
       </c>
-      <c r="C43" s="61" t="str">
-        <f>"CHS/"&amp;A43</f>
+      <c r="C44" s="61" t="str">
+        <f>"CHS/"&amp;A44</f>
         <v>CHS/popup_feed_welcome</v>
       </c>
-      <c r="D43" s="61" t="str">
-        <f>"EN/"&amp;A43</f>
+      <c r="D44" s="61" t="str">
+        <f>"EN/"&amp;A44</f>
         <v>EN/popup_feed_welcome</v>
       </c>
-      <c r="E43" s="63" t="str">
-        <f>"JP/"&amp;A43</f>
+      <c r="E44" s="63" t="str">
+        <f>"JP/"&amp;A44</f>
         <v>JP/popup_feed_welcome</v>
       </c>
-      <c r="G43" s="59" t="str">
+      <c r="G44" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="H43" s="59" t="str">
-        <f>IF(AND(A43&lt;&gt;"",C43&lt;&gt;""),"&lt;Audio Key="""&amp;A43&amp;""" Value="""&amp;C43&amp;""" /&gt;","")</f>
+      <c r="H44" s="59" t="str">
+        <f>IF(AND(A44&lt;&gt;"",C44&lt;&gt;""),"&lt;Audio Key="""&amp;A44&amp;""" Value="""&amp;C44&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="popup_feed_welcome" Value="CHS/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="I43" s="59" t="str">
+      <c r="I44" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="EN/popup_feed_welcome" /&gt;</v>
       </c>
-      <c r="J43" s="59" t="str">
+      <c r="J44" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="popup_feed_welcome" Value="JP/popup_feed_welcome" /&gt;</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="61" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="61" t="str">
-        <f t="shared" ref="B44:B88" si="16">"CHS/"&amp;A44</f>
+      <c r="B45" s="61" t="str">
+        <f t="shared" ref="B45:B89" si="16">"CHS/"&amp;A45</f>
         <v>CHS/feed_welcome_001</v>
       </c>
-      <c r="C44" s="61" t="str">
-        <f t="shared" ref="C44:C88" si="17">"CHS/"&amp;A44</f>
+      <c r="C45" s="61" t="str">
+        <f t="shared" ref="C45:C89" si="17">"CHS/"&amp;A45</f>
         <v>CHS/feed_welcome_001</v>
       </c>
-      <c r="D44" s="61" t="str">
-        <f t="shared" ref="D44:D88" si="18">"EN/"&amp;A44</f>
+      <c r="D45" s="61" t="str">
+        <f t="shared" ref="D45:D89" si="18">"EN/"&amp;A45</f>
         <v>EN/feed_welcome_001</v>
       </c>
-      <c r="E44" s="63" t="str">
-        <f t="shared" ref="E44:E88" si="19">"JP/"&amp;A44</f>
+      <c r="E45" s="63" t="str">
+        <f t="shared" ref="E45:E89" si="19">"JP/"&amp;A45</f>
         <v>JP/feed_welcome_001</v>
       </c>
-      <c r="G44" s="59" t="str">
+      <c r="G45" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="H44" s="59" t="str">
+      <c r="H45" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="CHS/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="I44" s="59" t="str">
+      <c r="I45" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="EN/feed_welcome_001" /&gt;</v>
       </c>
-      <c r="J44" s="59" t="str">
+      <c r="J45" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_001" Value="JP/feed_welcome_001" /&gt;</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="61" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="61" t="str">
+      <c r="B46" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_002</v>
       </c>
-      <c r="C45" s="61" t="str">
+      <c r="C46" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_002</v>
       </c>
-      <c r="D45" s="61" t="str">
+      <c r="D46" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_002</v>
       </c>
-      <c r="E45" s="63" t="str">
+      <c r="E46" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_002</v>
       </c>
-      <c r="G45" s="59" t="str">
+      <c r="G46" s="59" t="str">
         <f t="shared" si="0"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="H45" s="59" t="str">
+      <c r="H46" s="59" t="str">
         <f t="shared" si="1"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="CHS/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="I45" s="59" t="str">
+      <c r="I46" s="59" t="str">
         <f t="shared" si="2"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="EN/feed_welcome_002" /&gt;</v>
       </c>
-      <c r="J45" s="59" t="str">
+      <c r="J46" s="59" t="str">
         <f t="shared" si="3"/>
         <v>&lt;Audio Key="feed_welcome_002" Value="JP/feed_welcome_002" /&gt;</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="61" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="61" t="str">
+      <c r="B47" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_003</v>
       </c>
-      <c r="C46" s="61" t="str">
+      <c r="C47" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_003</v>
       </c>
-      <c r="D46" s="61" t="str">
+      <c r="D47" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_003</v>
       </c>
-      <c r="E46" s="63" t="str">
+      <c r="E47" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_003</v>
       </c>
-      <c r="G46" s="59" t="str">
-        <f t="shared" ref="G46:G83" si="20">IF(AND(A46&lt;&gt;"",B46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;","")</f>
+      <c r="G47" s="59" t="str">
+        <f t="shared" ref="G47:G84" si="20">IF(AND(A47&lt;&gt;"",B47&lt;&gt;""),"&lt;Audio Key="""&amp;A47&amp;""" Value="""&amp;B47&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="H46" s="59" t="str">
-        <f t="shared" ref="H46:H83" si="21">IF(AND(A46&lt;&gt;"",C46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;C46&amp;""" /&gt;","")</f>
+      <c r="H47" s="59" t="str">
+        <f t="shared" ref="H47:H84" si="21">IF(AND(A47&lt;&gt;"",C47&lt;&gt;""),"&lt;Audio Key="""&amp;A47&amp;""" Value="""&amp;C47&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="CHS/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="I46" s="59" t="str">
-        <f t="shared" ref="I46:I83" si="22">IF(AND(A46&lt;&gt;"",D46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;D46&amp;""" /&gt;","")</f>
+      <c r="I47" s="59" t="str">
+        <f t="shared" ref="I47:I84" si="22">IF(AND(A47&lt;&gt;"",D47&lt;&gt;""),"&lt;Audio Key="""&amp;A47&amp;""" Value="""&amp;D47&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="EN/feed_welcome_003" /&gt;</v>
       </c>
-      <c r="J46" s="59" t="str">
-        <f t="shared" ref="J46:J83" si="23">IF(AND(A46&lt;&gt;"",E46&lt;&gt;""),"&lt;Audio Key="""&amp;A46&amp;""" Value="""&amp;E46&amp;""" /&gt;","")</f>
+      <c r="J47" s="59" t="str">
+        <f t="shared" ref="J47:J84" si="23">IF(AND(A47&lt;&gt;"",E47&lt;&gt;""),"&lt;Audio Key="""&amp;A47&amp;""" Value="""&amp;E47&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_003" Value="JP/feed_welcome_003" /&gt;</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="61" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B47" s="61" t="str">
+      <c r="B48" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_004</v>
       </c>
-      <c r="C47" s="61" t="str">
+      <c r="C48" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_004</v>
       </c>
-      <c r="D47" s="61" t="str">
+      <c r="D48" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_004</v>
       </c>
-      <c r="E47" s="63" t="str">
+      <c r="E48" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_004</v>
       </c>
-      <c r="G47" s="59" t="str">
+      <c r="G48" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="H47" s="59" t="str">
+      <c r="H48" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="CHS/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="I47" s="59" t="str">
+      <c r="I48" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="EN/feed_welcome_004" /&gt;</v>
       </c>
-      <c r="J47" s="59" t="str">
+      <c r="J48" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_004" Value="JP/feed_welcome_004" /&gt;</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="61" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B48" s="61" t="str">
+      <c r="B49" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_005</v>
       </c>
-      <c r="C48" s="61" t="str">
+      <c r="C49" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_005</v>
       </c>
-      <c r="D48" s="61" t="str">
+      <c r="D49" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_005</v>
       </c>
-      <c r="E48" s="63" t="str">
+      <c r="E49" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_005</v>
       </c>
-      <c r="G48" s="59" t="str">
+      <c r="G49" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="H48" s="59" t="str">
+      <c r="H49" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="CHS/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="I48" s="59" t="str">
+      <c r="I49" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="EN/feed_welcome_005" /&gt;</v>
       </c>
-      <c r="J48" s="59" t="str">
+      <c r="J49" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_005" Value="JP/feed_welcome_005" /&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="61" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B49" s="61" t="str">
+      <c r="B50" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/popup_no_coin_001</v>
       </c>
-      <c r="C49" s="61" t="str">
+      <c r="C50" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/popup_no_coin_001</v>
       </c>
-      <c r="D49" s="61" t="str">
+      <c r="D50" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/popup_no_coin_001</v>
       </c>
-      <c r="E49" s="63" t="str">
+      <c r="E50" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/popup_no_coin_001</v>
       </c>
-      <c r="G49" s="59" t="str">
+      <c r="G50" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="H49" s="59" t="str">
+      <c r="H50" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="CHS/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="I49" s="59" t="str">
+      <c r="I50" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="EN/popup_no_coin_001" /&gt;</v>
       </c>
-      <c r="J49" s="59" t="str">
+      <c r="J50" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="popup_no_coin_001" Value="JP/popup_no_coin_001" /&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="61" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B50" s="61" t="str">
+      <c r="B51" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/popup_no_coin_002</v>
       </c>
-      <c r="C50" s="61" t="str">
+      <c r="C51" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/popup_no_coin_002</v>
       </c>
-      <c r="D50" s="61" t="str">
+      <c r="D51" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/popup_no_coin_002</v>
       </c>
-      <c r="E50" s="63" t="str">
+      <c r="E51" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/popup_no_coin_002</v>
       </c>
-      <c r="G50" s="59" t="str">
+      <c r="G51" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="H50" s="59" t="str">
+      <c r="H51" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="CHS/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="I50" s="59" t="str">
+      <c r="I51" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="EN/popup_no_coin_002" /&gt;</v>
       </c>
-      <c r="J50" s="59" t="str">
+      <c r="J51" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="popup_no_coin_002" Value="JP/popup_no_coin_002" /&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="61" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="61" t="str">
+      <c r="B52" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/popup_no_coin_003</v>
       </c>
-      <c r="C51" s="61" t="str">
+      <c r="C52" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/popup_no_coin_003</v>
       </c>
-      <c r="D51" s="61" t="str">
+      <c r="D52" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/popup_no_coin_003</v>
       </c>
-      <c r="E51" s="63" t="str">
+      <c r="E52" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/popup_no_coin_003</v>
       </c>
-      <c r="G51" s="59" t="str">
+      <c r="G52" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="H51" s="59" t="str">
+      <c r="H52" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="CHS/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="I51" s="59" t="str">
+      <c r="I52" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="EN/popup_no_coin_003" /&gt;</v>
       </c>
-      <c r="J51" s="59" t="str">
+      <c r="J52" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="popup_no_coin_003" Value="JP/popup_no_coin_003" /&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="61" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="B52" s="61" t="str">
+      <c r="B53" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_hungry_alert_001</v>
       </c>
-      <c r="C52" s="61" t="str">
+      <c r="C53" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_hungry_alert_001</v>
       </c>
-      <c r="D52" s="61" t="str">
+      <c r="D53" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_hungry_alert_001</v>
       </c>
-      <c r="E52" s="63" t="str">
+      <c r="E53" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_hungry_alert_001</v>
       </c>
-      <c r="G52" s="59" t="str">
+      <c r="G53" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="H52" s="59" t="str">
+      <c r="H53" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="CHS/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="I52" s="59" t="str">
+      <c r="I53" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="EN/feed_hungry_alert_001" /&gt;</v>
       </c>
-      <c r="J52" s="59" t="str">
+      <c r="J53" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_hungry_alert_001" Value="JP/feed_hungry_alert_001" /&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="61" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="61" t="str">
+      <c r="B54" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_hungry_alert_002</v>
       </c>
-      <c r="C53" s="61" t="str">
+      <c r="C54" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_hungry_alert_002</v>
       </c>
-      <c r="D53" s="61" t="str">
+      <c r="D54" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_hungry_alert_002</v>
       </c>
-      <c r="E53" s="63" t="str">
+      <c r="E54" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_hungry_alert_002</v>
       </c>
-      <c r="G53" s="59" t="str">
+      <c r="G54" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="H53" s="59" t="str">
+      <c r="H54" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="CHS/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="I53" s="59" t="str">
+      <c r="I54" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="EN/feed_hungry_alert_002" /&gt;</v>
       </c>
-      <c r="J53" s="59" t="str">
+      <c r="J54" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_hungry_alert_002" Value="JP/feed_hungry_alert_002" /&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="61" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="61" t="str">
+      <c r="B55" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_hungry_alert_003</v>
       </c>
-      <c r="C54" s="61" t="str">
+      <c r="C55" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_hungry_alert_003</v>
       </c>
-      <c r="D54" s="61" t="str">
+      <c r="D55" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_hungry_alert_003</v>
       </c>
-      <c r="E54" s="63" t="str">
+      <c r="E55" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_hungry_alert_003</v>
       </c>
-      <c r="G54" s="59" t="str">
+      <c r="G55" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="H54" s="59" t="str">
+      <c r="H55" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="CHS/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="I54" s="59" t="str">
+      <c r="I55" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="EN/feed_hungry_alert_003" /&gt;</v>
       </c>
-      <c r="J54" s="59" t="str">
+      <c r="J55" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_hungry_alert_003" Value="JP/feed_hungry_alert_003" /&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="61" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="61" t="str">
+      <c r="B56" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_moonfestival01</v>
       </c>
-      <c r="C55" s="61" t="str">
+      <c r="C56" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_moonfestival01</v>
       </c>
-      <c r="D55" s="61" t="str">
+      <c r="D56" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_moonfestival01</v>
       </c>
-      <c r="E55" s="63" t="str">
+      <c r="E56" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_moonfestival01</v>
       </c>
-      <c r="G55" s="59" t="str">
-        <f>IF(AND(A55&lt;&gt;"",B55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;B55&amp;""" /&gt;","")</f>
+      <c r="G56" s="59" t="str">
+        <f>IF(AND(A56&lt;&gt;"",B56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;B56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="H55" s="59" t="str">
-        <f>IF(AND(A55&lt;&gt;"",C55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;C55&amp;""" /&gt;","")</f>
+      <c r="H56" s="59" t="str">
+        <f>IF(AND(A56&lt;&gt;"",C56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;C56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="CHS/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="I55" s="59" t="str">
-        <f>IF(AND(A55&lt;&gt;"",D55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;D55&amp;""" /&gt;","")</f>
+      <c r="I56" s="59" t="str">
+        <f>IF(AND(A56&lt;&gt;"",D56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;D56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="EN/feed_welcome_moonfestival01" /&gt;</v>
       </c>
-      <c r="J55" s="59" t="str">
-        <f>IF(AND(A55&lt;&gt;"",E55&lt;&gt;""),"&lt;Audio Key="""&amp;A55&amp;""" Value="""&amp;E55&amp;""" /&gt;","")</f>
+      <c r="J56" s="59" t="str">
+        <f>IF(AND(A56&lt;&gt;"",E56&lt;&gt;""),"&lt;Audio Key="""&amp;A56&amp;""" Value="""&amp;E56&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_moonfestival01" Value="JP/feed_welcome_moonfestival01" /&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="61" t="s">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="61" t="str">
+      <c r="B57" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_moonfestival02</v>
       </c>
-      <c r="C56" s="61" t="str">
+      <c r="C57" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_moonfestival02</v>
       </c>
-      <c r="D56" s="61" t="str">
+      <c r="D57" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_moonfestival02</v>
       </c>
-      <c r="E56" s="63" t="str">
+      <c r="E57" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_moonfestival02</v>
       </c>
-      <c r="G56" s="59" t="str">
+      <c r="G57" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="H56" s="59" t="str">
+      <c r="H57" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="CHS/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="I56" s="59" t="str">
+      <c r="I57" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="EN/feed_welcome_moonfestival02" /&gt;</v>
       </c>
-      <c r="J56" s="59" t="str">
+      <c r="J57" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival02" Value="JP/feed_welcome_moonfestival02" /&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="61" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="61" t="str">
+      <c r="B58" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_moonfestival03</v>
       </c>
-      <c r="C57" s="61" t="str">
+      <c r="C58" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_moonfestival03</v>
       </c>
-      <c r="D57" s="61" t="str">
+      <c r="D58" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_moonfestival03</v>
       </c>
-      <c r="E57" s="63" t="str">
+      <c r="E58" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_moonfestival03</v>
       </c>
-      <c r="G57" s="59" t="str">
+      <c r="G58" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="H57" s="59" t="str">
+      <c r="H58" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="CHS/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="I57" s="59" t="str">
+      <c r="I58" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="EN/feed_welcome_moonfestival03" /&gt;</v>
       </c>
-      <c r="J57" s="59" t="str">
+      <c r="J58" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival03" Value="JP/feed_welcome_moonfestival03" /&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="61" t="s">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="61" t="str">
+      <c r="B59" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_moonfestival04</v>
       </c>
-      <c r="C58" s="61" t="str">
+      <c r="C59" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_moonfestival04</v>
       </c>
-      <c r="D58" s="61" t="str">
+      <c r="D59" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_moonfestival04</v>
       </c>
-      <c r="E58" s="63" t="str">
+      <c r="E59" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_moonfestival04</v>
       </c>
-      <c r="G58" s="59" t="str">
+      <c r="G59" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="H58" s="59" t="str">
+      <c r="H59" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="CHS/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="I58" s="59" t="str">
+      <c r="I59" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="EN/feed_welcome_moonfestival04" /&gt;</v>
       </c>
-      <c r="J58" s="59" t="str">
+      <c r="J59" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival04" Value="JP/feed_welcome_moonfestival04" /&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="61" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B59" s="61" t="str">
+      <c r="B60" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_moonfestival05</v>
       </c>
-      <c r="C59" s="61" t="str">
+      <c r="C60" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_moonfestival05</v>
       </c>
-      <c r="D59" s="61" t="str">
+      <c r="D60" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_moonfestival05</v>
       </c>
-      <c r="E59" s="63" t="str">
+      <c r="E60" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_moonfestival05</v>
       </c>
-      <c r="G59" s="59" t="str">
+      <c r="G60" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="H59" s="59" t="str">
+      <c r="H60" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="CHS/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="I59" s="59" t="str">
+      <c r="I60" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="EN/feed_welcome_moonfestival05" /&gt;</v>
       </c>
-      <c r="J59" s="59" t="str">
+      <c r="J60" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_moonfestival05" Value="JP/feed_welcome_moonfestival05" /&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="61" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B60" s="61" t="str">
+      <c r="B61" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/dony_eat_act_01</v>
       </c>
-      <c r="C60" s="61" t="str">
+      <c r="C61" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/dony_eat_act_01</v>
       </c>
-      <c r="D60" s="61" t="str">
+      <c r="D61" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/dony_eat_act_01</v>
       </c>
-      <c r="E60" s="63" t="str">
+      <c r="E61" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/dony_eat_act_01</v>
       </c>
-      <c r="G60" s="59" t="str">
+      <c r="G61" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="H60" s="59" t="str">
+      <c r="H61" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="CHS/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="I60" s="59" t="str">
+      <c r="I61" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="EN/dony_eat_act_01" /&gt;</v>
       </c>
-      <c r="J60" s="59" t="str">
+      <c r="J61" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="dony_eat_act_01" Value="JP/dony_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="61" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="B61" s="61" t="str">
+      <c r="B62" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/dony_eat_act_02</v>
       </c>
-      <c r="C61" s="61" t="str">
+      <c r="C62" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/dony_eat_act_02</v>
       </c>
-      <c r="D61" s="61" t="str">
+      <c r="D62" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/dony_eat_act_02</v>
       </c>
-      <c r="E61" s="63" t="str">
+      <c r="E62" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/dony_eat_act_02</v>
       </c>
-      <c r="G61" s="59" t="str">
+      <c r="G62" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="H61" s="59" t="str">
+      <c r="H62" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="CHS/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="I61" s="59" t="str">
+      <c r="I62" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="EN/dony_eat_act_02" /&gt;</v>
       </c>
-      <c r="J61" s="59" t="str">
+      <c r="J62" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="dony_eat_act_02" Value="JP/dony_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="61" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="61" t="str">
+      <c r="B63" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/dony_eat_act_03</v>
       </c>
-      <c r="C62" s="61" t="str">
+      <c r="C63" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/dony_eat_act_03</v>
       </c>
-      <c r="D62" s="61" t="str">
+      <c r="D63" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/dony_eat_act_03</v>
       </c>
-      <c r="E62" s="63" t="str">
+      <c r="E63" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/dony_eat_act_03</v>
       </c>
-      <c r="G62" s="59" t="str">
+      <c r="G63" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="H62" s="59" t="str">
+      <c r="H63" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="CHS/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="I62" s="59" t="str">
+      <c r="I63" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="EN/dony_eat_act_03" /&gt;</v>
       </c>
-      <c r="J62" s="59" t="str">
+      <c r="J63" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="dony_eat_act_03" Value="JP/dony_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="61" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B63" s="61" t="str">
+      <c r="B64" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/sansa_eat_act_01</v>
       </c>
-      <c r="C63" s="61" t="str">
+      <c r="C64" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/sansa_eat_act_01</v>
       </c>
-      <c r="D63" s="61" t="str">
+      <c r="D64" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/sansa_eat_act_01</v>
       </c>
-      <c r="E63" s="63" t="str">
+      <c r="E64" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/sansa_eat_act_01</v>
       </c>
-      <c r="G63" s="59" t="str">
+      <c r="G64" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="H63" s="59" t="str">
+      <c r="H64" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="CHS/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="I63" s="59" t="str">
+      <c r="I64" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="EN/sansa_eat_act_01" /&gt;</v>
       </c>
-      <c r="J63" s="59" t="str">
+      <c r="J64" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="sansa_eat_act_01" Value="JP/sansa_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="61" t="s">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B64" s="61" t="str">
+      <c r="B65" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/sansa_eat_act_02</v>
       </c>
-      <c r="C64" s="61" t="str">
+      <c r="C65" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/sansa_eat_act_02</v>
       </c>
-      <c r="D64" s="61" t="str">
+      <c r="D65" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/sansa_eat_act_02</v>
       </c>
-      <c r="E64" s="63" t="str">
+      <c r="E65" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/sansa_eat_act_02</v>
       </c>
-      <c r="G64" s="59" t="str">
+      <c r="G65" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="H64" s="59" t="str">
+      <c r="H65" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="CHS/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="I64" s="59" t="str">
+      <c r="I65" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="EN/sansa_eat_act_02" /&gt;</v>
       </c>
-      <c r="J64" s="59" t="str">
+      <c r="J65" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="sansa_eat_act_02" Value="JP/sansa_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A65" s="61" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="61" t="str">
+      <c r="B66" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/sansa_eat_act_03</v>
       </c>
-      <c r="C65" s="61" t="str">
+      <c r="C66" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/sansa_eat_act_03</v>
       </c>
-      <c r="D65" s="61" t="str">
+      <c r="D66" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/sansa_eat_act_03</v>
       </c>
-      <c r="E65" s="63" t="str">
+      <c r="E66" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/sansa_eat_act_03</v>
       </c>
-      <c r="G65" s="59" t="str">
+      <c r="G66" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="H65" s="59" t="str">
+      <c r="H66" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="CHS/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="I65" s="59" t="str">
+      <c r="I66" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="EN/sansa_eat_act_03" /&gt;</v>
       </c>
-      <c r="J65" s="59" t="str">
+      <c r="J66" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="sansa_eat_act_03" Value="JP/sansa_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A66" s="61" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="61" t="str">
+      <c r="B67" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/yoyo_eat_act_01</v>
       </c>
-      <c r="C66" s="61" t="str">
+      <c r="C67" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/yoyo_eat_act_01</v>
       </c>
-      <c r="D66" s="61" t="str">
+      <c r="D67" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/yoyo_eat_act_01</v>
       </c>
-      <c r="E66" s="63" t="str">
+      <c r="E67" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/yoyo_eat_act_01</v>
       </c>
-      <c r="G66" s="59" t="str">
+      <c r="G67" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="H66" s="59" t="str">
+      <c r="H67" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="CHS/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="I66" s="59" t="str">
+      <c r="I67" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="EN/yoyo_eat_act_01" /&gt;</v>
       </c>
-      <c r="J66" s="59" t="str">
+      <c r="J67" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="yoyo_eat_act_01" Value="JP/yoyo_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A67" s="61" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="61" t="str">
+      <c r="B68" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/yoyo_eat_act_02</v>
       </c>
-      <c r="C67" s="61" t="str">
+      <c r="C68" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/yoyo_eat_act_02</v>
       </c>
-      <c r="D67" s="61" t="str">
+      <c r="D68" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/yoyo_eat_act_02</v>
       </c>
-      <c r="E67" s="63" t="str">
+      <c r="E68" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/yoyo_eat_act_02</v>
       </c>
-      <c r="G67" s="59" t="str">
+      <c r="G68" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="H67" s="59" t="str">
+      <c r="H68" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="CHS/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="I67" s="59" t="str">
+      <c r="I68" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="EN/yoyo_eat_act_02" /&gt;</v>
       </c>
-      <c r="J67" s="59" t="str">
+      <c r="J68" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="yoyo_eat_act_02" Value="JP/yoyo_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="61" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="B68" s="61" t="str">
+      <c r="B69" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/yoyo_eat_act_03</v>
       </c>
-      <c r="C68" s="61" t="str">
+      <c r="C69" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/yoyo_eat_act_03</v>
       </c>
-      <c r="D68" s="61" t="str">
+      <c r="D69" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/yoyo_eat_act_03</v>
       </c>
-      <c r="E68" s="63" t="str">
+      <c r="E69" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/yoyo_eat_act_03</v>
       </c>
-      <c r="G68" s="59" t="str">
+      <c r="G69" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="H68" s="59" t="str">
+      <c r="H69" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="CHS/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="I68" s="59" t="str">
+      <c r="I69" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="EN/yoyo_eat_act_03" /&gt;</v>
       </c>
-      <c r="J68" s="59" t="str">
+      <c r="J69" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="yoyo_eat_act_03" Value="JP/yoyo_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A69" s="61" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="61" t="str">
+      <c r="B70" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/purpie_eat_act_01</v>
       </c>
-      <c r="C69" s="61" t="str">
+      <c r="C70" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/purpie_eat_act_01</v>
       </c>
-      <c r="D69" s="61" t="str">
+      <c r="D70" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/purpie_eat_act_01</v>
       </c>
-      <c r="E69" s="63" t="str">
+      <c r="E70" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/purpie_eat_act_01</v>
       </c>
-      <c r="G69" s="59" t="str">
+      <c r="G70" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="H69" s="59" t="str">
+      <c r="H70" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="CHS/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="I69" s="59" t="str">
+      <c r="I70" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="EN/purpie_eat_act_01" /&gt;</v>
       </c>
-      <c r="J69" s="59" t="str">
+      <c r="J70" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="purpie_eat_act_01" Value="JP/purpie_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A70" s="61" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B70" s="61" t="str">
+      <c r="B71" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/purpie_eat_act_02</v>
       </c>
-      <c r="C70" s="61" t="str">
+      <c r="C71" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/purpie_eat_act_02</v>
       </c>
-      <c r="D70" s="61" t="str">
+      <c r="D71" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/purpie_eat_act_02</v>
       </c>
-      <c r="E70" s="63" t="str">
+      <c r="E71" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/purpie_eat_act_02</v>
       </c>
-      <c r="G70" s="59" t="str">
+      <c r="G71" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="H70" s="59" t="str">
+      <c r="H71" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="CHS/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="I70" s="59" t="str">
+      <c r="I71" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="EN/purpie_eat_act_02" /&gt;</v>
       </c>
-      <c r="J70" s="59" t="str">
+      <c r="J71" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="purpie_eat_act_02" Value="JP/purpie_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="61" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B71" s="61" t="str">
+      <c r="B72" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/purpie_eat_act_03</v>
       </c>
-      <c r="C71" s="61" t="str">
+      <c r="C72" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/purpie_eat_act_03</v>
       </c>
-      <c r="D71" s="61" t="str">
+      <c r="D72" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/purpie_eat_act_03</v>
       </c>
-      <c r="E71" s="63" t="str">
+      <c r="E72" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/purpie_eat_act_03</v>
       </c>
-      <c r="G71" s="59" t="str">
+      <c r="G72" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="H71" s="59" t="str">
+      <c r="H72" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="CHS/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="I71" s="59" t="str">
+      <c r="I72" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="EN/purpie_eat_act_03" /&gt;</v>
       </c>
-      <c r="J71" s="59" t="str">
+      <c r="J72" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="purpie_eat_act_03" Value="JP/purpie_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="61" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B72" s="61" t="str">
+      <c r="B73" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/ninji_eat_act_01</v>
       </c>
-      <c r="C72" s="61" t="str">
+      <c r="C73" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/ninji_eat_act_01</v>
       </c>
-      <c r="D72" s="61" t="str">
+      <c r="D73" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/ninji_eat_act_01</v>
       </c>
-      <c r="E72" s="63" t="str">
+      <c r="E73" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/ninji_eat_act_01</v>
       </c>
-      <c r="G72" s="59" t="str">
+      <c r="G73" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="H72" s="59" t="str">
+      <c r="H73" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="CHS/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="I72" s="59" t="str">
+      <c r="I73" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="EN/ninji_eat_act_01" /&gt;</v>
       </c>
-      <c r="J72" s="59" t="str">
+      <c r="J73" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="ninji_eat_act_01" Value="JP/ninji_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="61" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B73" s="61" t="str">
+      <c r="B74" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/ninji_eat_act_02</v>
       </c>
-      <c r="C73" s="61" t="str">
+      <c r="C74" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/ninji_eat_act_02</v>
       </c>
-      <c r="D73" s="61" t="str">
+      <c r="D74" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/ninji_eat_act_02</v>
       </c>
-      <c r="E73" s="63" t="str">
+      <c r="E74" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/ninji_eat_act_02</v>
       </c>
-      <c r="G73" s="59" t="str">
+      <c r="G74" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="H73" s="59" t="str">
+      <c r="H74" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="CHS/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="I73" s="59" t="str">
+      <c r="I74" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="EN/ninji_eat_act_02" /&gt;</v>
       </c>
-      <c r="J73" s="59" t="str">
+      <c r="J74" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="ninji_eat_act_02" Value="JP/ninji_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="61" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B74" s="61" t="str">
+      <c r="B75" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/ninji_eat_act_03</v>
       </c>
-      <c r="C74" s="61" t="str">
+      <c r="C75" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/ninji_eat_act_03</v>
       </c>
-      <c r="D74" s="61" t="str">
+      <c r="D75" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/ninji_eat_act_03</v>
       </c>
-      <c r="E74" s="63" t="str">
+      <c r="E75" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/ninji_eat_act_03</v>
       </c>
-      <c r="G74" s="59" t="str">
+      <c r="G75" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="H74" s="59" t="str">
+      <c r="H75" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="CHS/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="I74" s="59" t="str">
+      <c r="I75" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="EN/ninji_eat_act_03" /&gt;</v>
       </c>
-      <c r="J74" s="59" t="str">
+      <c r="J75" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="ninji_eat_act_03" Value="JP/ninji_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="61" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B75" s="61" t="str">
+      <c r="B76" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/nuo_eat_act_01</v>
       </c>
-      <c r="C75" s="61" t="str">
+      <c r="C76" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/nuo_eat_act_01</v>
       </c>
-      <c r="D75" s="61" t="str">
+      <c r="D76" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/nuo_eat_act_01</v>
       </c>
-      <c r="E75" s="63" t="str">
+      <c r="E76" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/nuo_eat_act_01</v>
       </c>
-      <c r="G75" s="59" t="str">
+      <c r="G76" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="H75" s="59" t="str">
+      <c r="H76" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="CHS/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="I75" s="59" t="str">
+      <c r="I76" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="EN/nuo_eat_act_01" /&gt;</v>
       </c>
-      <c r="J75" s="59" t="str">
+      <c r="J76" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="nuo_eat_act_01" Value="JP/nuo_eat_act_01" /&gt;</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A76" s="61" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="B76" s="61" t="str">
+      <c r="B77" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/nuo_eat_act_02</v>
       </c>
-      <c r="C76" s="61" t="str">
+      <c r="C77" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/nuo_eat_act_02</v>
       </c>
-      <c r="D76" s="61" t="str">
+      <c r="D77" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/nuo_eat_act_02</v>
       </c>
-      <c r="E76" s="63" t="str">
+      <c r="E77" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/nuo_eat_act_02</v>
       </c>
-      <c r="G76" s="59" t="str">
+      <c r="G77" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="H76" s="59" t="str">
+      <c r="H77" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="CHS/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="I76" s="59" t="str">
+      <c r="I77" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="EN/nuo_eat_act_02" /&gt;</v>
       </c>
-      <c r="J76" s="59" t="str">
+      <c r="J77" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="nuo_eat_act_02" Value="JP/nuo_eat_act_02" /&gt;</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" s="61" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B77" s="61" t="str">
+      <c r="B78" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/nuo_eat_act_03</v>
       </c>
-      <c r="C77" s="61" t="str">
+      <c r="C78" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/nuo_eat_act_03</v>
       </c>
-      <c r="D77" s="61" t="str">
+      <c r="D78" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/nuo_eat_act_03</v>
       </c>
-      <c r="E77" s="63" t="str">
+      <c r="E78" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/nuo_eat_act_03</v>
       </c>
-      <c r="G77" s="59" t="str">
+      <c r="G78" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="H77" s="59" t="str">
+      <c r="H78" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="CHS/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="I77" s="59" t="str">
+      <c r="I78" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="EN/nuo_eat_act_03" /&gt;</v>
       </c>
-      <c r="J77" s="59" t="str">
+      <c r="J78" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="nuo_eat_act_03" Value="JP/nuo_eat_act_03" /&gt;</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A78" s="61" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B78" s="61" t="str">
+      <c r="B79" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_china_001</v>
       </c>
-      <c r="C78" s="61" t="str">
+      <c r="C79" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_china_001</v>
       </c>
-      <c r="D78" s="61" t="str">
+      <c r="D79" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_china_001</v>
       </c>
-      <c r="E78" s="63" t="str">
+      <c r="E79" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_china_001</v>
       </c>
-      <c r="G78" s="59" t="str">
+      <c r="G79" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="H78" s="59" t="str">
+      <c r="H79" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="CHS/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="I78" s="59" t="str">
+      <c r="I79" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="EN/feed_welcome_china_001" /&gt;</v>
       </c>
-      <c r="J78" s="59" t="str">
+      <c r="J79" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_china_001" Value="JP/feed_welcome_china_001" /&gt;</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A79" s="61" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="61" t="str">
+      <c r="B80" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_china_002</v>
       </c>
-      <c r="C79" s="61" t="str">
+      <c r="C80" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_china_002</v>
       </c>
-      <c r="D79" s="61" t="str">
+      <c r="D80" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_china_002</v>
       </c>
-      <c r="E79" s="63" t="str">
+      <c r="E80" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_china_002</v>
       </c>
-      <c r="G79" s="59" t="str">
+      <c r="G80" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="H79" s="59" t="str">
+      <c r="H80" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="CHS/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="I79" s="59" t="str">
+      <c r="I80" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="EN/feed_welcome_china_002" /&gt;</v>
       </c>
-      <c r="J79" s="59" t="str">
+      <c r="J80" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_china_002" Value="JP/feed_welcome_china_002" /&gt;</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A80" s="61" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B80" s="61" t="str">
+      <c r="B81" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_china_003</v>
       </c>
-      <c r="C80" s="61" t="str">
+      <c r="C81" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_china_003</v>
       </c>
-      <c r="D80" s="61" t="str">
+      <c r="D81" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_china_003</v>
       </c>
-      <c r="E80" s="63" t="str">
+      <c r="E81" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_china_003</v>
       </c>
-      <c r="G80" s="59" t="str">
+      <c r="G81" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="H80" s="59" t="str">
+      <c r="H81" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="CHS/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="I80" s="59" t="str">
+      <c r="I81" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="EN/feed_welcome_china_003" /&gt;</v>
       </c>
-      <c r="J80" s="59" t="str">
+      <c r="J81" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_china_003" Value="JP/feed_welcome_china_003" /&gt;</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81" s="61" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B81" s="61" t="str">
+      <c r="B82" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_china_004</v>
       </c>
-      <c r="C81" s="61" t="str">
+      <c r="C82" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_china_004</v>
       </c>
-      <c r="D81" s="61" t="str">
+      <c r="D82" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_china_004</v>
       </c>
-      <c r="E81" s="63" t="str">
+      <c r="E82" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_china_004</v>
       </c>
-      <c r="G81" s="59" t="str">
+      <c r="G82" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="H81" s="59" t="str">
+      <c r="H82" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="CHS/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="I81" s="59" t="str">
+      <c r="I82" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="EN/feed_welcome_china_004" /&gt;</v>
       </c>
-      <c r="J81" s="59" t="str">
+      <c r="J82" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_china_004" Value="JP/feed_welcome_china_004" /&gt;</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A82" s="61" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B82" s="61" t="str">
+      <c r="B83" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_china_005</v>
       </c>
-      <c r="C82" s="61" t="str">
+      <c r="C83" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_china_005</v>
       </c>
-      <c r="D82" s="61" t="str">
+      <c r="D83" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_china_005</v>
       </c>
-      <c r="E82" s="63" t="str">
+      <c r="E83" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_china_005</v>
       </c>
-      <c r="G82" s="59" t="str">
+      <c r="G83" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="H82" s="59" t="str">
+      <c r="H83" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="CHS/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="I82" s="59" t="str">
+      <c r="I83" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="EN/feed_welcome_china_005" /&gt;</v>
       </c>
-      <c r="J82" s="59" t="str">
+      <c r="J83" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="feed_welcome_china_005" Value="JP/feed_welcome_china_005" /&gt;</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A83" s="61" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B83" s="61" t="str">
+      <c r="B84" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/goods_soldout</v>
       </c>
-      <c r="C83" s="61" t="str">
+      <c r="C84" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/goods_soldout</v>
       </c>
-      <c r="D83" s="61" t="str">
+      <c r="D84" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/goods_soldout</v>
       </c>
-      <c r="E83" s="63" t="str">
+      <c r="E84" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/goods_soldout</v>
       </c>
-      <c r="G83" s="59" t="str">
+      <c r="G84" s="59" t="str">
         <f t="shared" si="20"/>
         <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
-      <c r="H83" s="59" t="str">
+      <c r="H84" s="59" t="str">
         <f t="shared" si="21"/>
         <v>&lt;Audio Key="goods_soldout" Value="CHS/goods_soldout" /&gt;</v>
       </c>
-      <c r="I83" s="59" t="str">
+      <c r="I84" s="59" t="str">
         <f t="shared" si="22"/>
         <v>&lt;Audio Key="goods_soldout" Value="EN/goods_soldout" /&gt;</v>
       </c>
-      <c r="J83" s="59" t="str">
+      <c r="J84" s="59" t="str">
         <f t="shared" si="23"/>
         <v>&lt;Audio Key="goods_soldout" Value="JP/goods_soldout" /&gt;</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A84" s="61" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="61" t="s">
         <v>935</v>
       </c>
-      <c r="B84" s="61" t="str">
+      <c r="B85" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_dk_001</v>
       </c>
-      <c r="C84" s="61" t="str">
+      <c r="C85" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_dk_001</v>
       </c>
-      <c r="D84" s="61" t="str">
+      <c r="D85" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_dk_001</v>
       </c>
-      <c r="E84" s="63" t="str">
+      <c r="E85" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_dk_001</v>
       </c>
-      <c r="G84" s="59" t="str">
-        <f t="shared" ref="G84:G88" si="24">IF(AND(A84&lt;&gt;"",B84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;B84&amp;""" /&gt;","")</f>
+      <c r="G85" s="59" t="str">
+        <f t="shared" ref="G85:G89" si="24">IF(AND(A85&lt;&gt;"",B85&lt;&gt;""),"&lt;Audio Key="""&amp;A85&amp;""" Value="""&amp;B85&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
       </c>
-      <c r="H84" s="59" t="str">
-        <f t="shared" ref="H84:H88" si="25">IF(AND(A84&lt;&gt;"",C84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;C84&amp;""" /&gt;","")</f>
+      <c r="H85" s="59" t="str">
+        <f t="shared" ref="H85:H89" si="25">IF(AND(A85&lt;&gt;"",C85&lt;&gt;""),"&lt;Audio Key="""&amp;A85&amp;""" Value="""&amp;C85&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_dk_001" Value="CHS/feed_welcome_dk_001" /&gt;</v>
       </c>
-      <c r="I84" s="59" t="str">
-        <f t="shared" ref="I84:I88" si="26">IF(AND(A84&lt;&gt;"",D84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;D84&amp;""" /&gt;","")</f>
+      <c r="I85" s="59" t="str">
+        <f t="shared" ref="I85:I89" si="26">IF(AND(A85&lt;&gt;"",D85&lt;&gt;""),"&lt;Audio Key="""&amp;A85&amp;""" Value="""&amp;D85&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_dk_001" Value="EN/feed_welcome_dk_001" /&gt;</v>
       </c>
-      <c r="J84" s="59" t="str">
-        <f t="shared" ref="J84:J88" si="27">IF(AND(A84&lt;&gt;"",E84&lt;&gt;""),"&lt;Audio Key="""&amp;A84&amp;""" Value="""&amp;E84&amp;""" /&gt;","")</f>
+      <c r="J85" s="59" t="str">
+        <f t="shared" ref="J85:J89" si="27">IF(AND(A85&lt;&gt;"",E85&lt;&gt;""),"&lt;Audio Key="""&amp;A85&amp;""" Value="""&amp;E85&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="feed_welcome_dk_001" Value="JP/feed_welcome_dk_001" /&gt;</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A85" s="61" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="61" t="s">
         <v>936</v>
       </c>
-      <c r="B85" s="61" t="str">
+      <c r="B86" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_dk_002</v>
       </c>
-      <c r="C85" s="61" t="str">
+      <c r="C86" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_dk_002</v>
       </c>
-      <c r="D85" s="61" t="str">
+      <c r="D86" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_dk_002</v>
       </c>
-      <c r="E85" s="63" t="str">
+      <c r="E86" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_dk_002</v>
       </c>
-      <c r="G85" s="59" t="str">
+      <c r="G86" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
       </c>
-      <c r="H85" s="59" t="str">
+      <c r="H86" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="feed_welcome_dk_002" Value="CHS/feed_welcome_dk_002" /&gt;</v>
       </c>
-      <c r="I85" s="59" t="str">
+      <c r="I86" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="feed_welcome_dk_002" Value="EN/feed_welcome_dk_002" /&gt;</v>
       </c>
-      <c r="J85" s="59" t="str">
+      <c r="J86" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="feed_welcome_dk_002" Value="JP/feed_welcome_dk_002" /&gt;</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A86" s="61" t="s">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="61" t="s">
         <v>937</v>
       </c>
-      <c r="B86" s="61" t="str">
+      <c r="B87" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_dk_003</v>
       </c>
-      <c r="C86" s="61" t="str">
+      <c r="C87" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_dk_003</v>
       </c>
-      <c r="D86" s="61" t="str">
+      <c r="D87" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_dk_003</v>
       </c>
-      <c r="E86" s="63" t="str">
+      <c r="E87" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_dk_003</v>
       </c>
-      <c r="G86" s="59" t="str">
+      <c r="G87" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
       </c>
-      <c r="H86" s="59" t="str">
+      <c r="H87" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="feed_welcome_dk_003" Value="CHS/feed_welcome_dk_003" /&gt;</v>
       </c>
-      <c r="I86" s="59" t="str">
+      <c r="I87" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="feed_welcome_dk_003" Value="EN/feed_welcome_dk_003" /&gt;</v>
       </c>
-      <c r="J86" s="59" t="str">
+      <c r="J87" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="feed_welcome_dk_003" Value="JP/feed_welcome_dk_003" /&gt;</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A87" s="61" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="61" t="s">
         <v>938</v>
       </c>
-      <c r="B87" s="61" t="str">
+      <c r="B88" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_dk_004</v>
       </c>
-      <c r="C87" s="61" t="str">
+      <c r="C88" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_dk_004</v>
       </c>
-      <c r="D87" s="61" t="str">
+      <c r="D88" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_dk_004</v>
       </c>
-      <c r="E87" s="63" t="str">
+      <c r="E88" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_dk_004</v>
       </c>
-      <c r="G87" s="59" t="str">
+      <c r="G88" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
       </c>
-      <c r="H87" s="59" t="str">
+      <c r="H88" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="feed_welcome_dk_004" Value="CHS/feed_welcome_dk_004" /&gt;</v>
       </c>
-      <c r="I87" s="59" t="str">
+      <c r="I88" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="feed_welcome_dk_004" Value="EN/feed_welcome_dk_004" /&gt;</v>
       </c>
-      <c r="J87" s="59" t="str">
+      <c r="J88" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="feed_welcome_dk_004" Value="JP/feed_welcome_dk_004" /&gt;</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A88" s="61" t="s">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="61" t="s">
         <v>939</v>
       </c>
-      <c r="B88" s="61" t="str">
+      <c r="B89" s="61" t="str">
         <f t="shared" si="16"/>
         <v>CHS/feed_welcome_dk_005</v>
       </c>
-      <c r="C88" s="61" t="str">
+      <c r="C89" s="61" t="str">
         <f t="shared" si="17"/>
         <v>CHS/feed_welcome_dk_005</v>
       </c>
-      <c r="D88" s="61" t="str">
+      <c r="D89" s="61" t="str">
         <f t="shared" si="18"/>
         <v>EN/feed_welcome_dk_005</v>
       </c>
-      <c r="E88" s="63" t="str">
+      <c r="E89" s="63" t="str">
         <f t="shared" si="19"/>
         <v>JP/feed_welcome_dk_005</v>
       </c>
-      <c r="G88" s="59" t="str">
+      <c r="G89" s="59" t="str">
         <f t="shared" si="24"/>
         <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
       </c>
-      <c r="H88" s="59" t="str">
+      <c r="H89" s="59" t="str">
         <f t="shared" si="25"/>
         <v>&lt;Audio Key="feed_welcome_dk_005" Value="CHS/feed_welcome_dk_005" /&gt;</v>
       </c>
-      <c r="I88" s="59" t="str">
+      <c r="I89" s="59" t="str">
         <f t="shared" si="26"/>
         <v>&lt;Audio Key="feed_welcome_dk_005" Value="EN/feed_welcome_dk_005" /&gt;</v>
       </c>
-      <c r="J88" s="59" t="str">
+      <c r="J89" s="59" t="str">
         <f t="shared" si="27"/>
         <v>&lt;Audio Key="feed_welcome_dk_005" Value="JP/feed_welcome_dk_005" /&gt;</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A89" s="63" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="E89" s="63"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="B90" s="61" t="str">
-        <f t="shared" ref="B90:B99" si="28">"CHS/"&amp;A90</f>
-        <v>CHS/galaxy_welcome_new</v>
-      </c>
-      <c r="C90" s="61" t="str">
-        <f t="shared" ref="C90:C99" si="29">"CHS/"&amp;A90</f>
-        <v>CHS/galaxy_welcome_new</v>
-      </c>
-      <c r="D90" s="61" t="str">
-        <f t="shared" ref="D90:D99" si="30">"EN/"&amp;A90</f>
-        <v>EN/galaxy_welcome_new</v>
-      </c>
-      <c r="E90" s="63" t="str">
-        <f t="shared" ref="E90:E99" si="31">"JP/"&amp;A90</f>
-        <v>JP/galaxy_welcome_new</v>
-      </c>
-      <c r="G90" s="59" t="str">
-        <f t="shared" ref="G90:G98" si="32">IF(AND(A90&lt;&gt;"",B90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;B90&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="H90" s="59" t="str">
-        <f t="shared" ref="H90:H98" si="33">IF(AND(A90&lt;&gt;"",C90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;C90&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="I90" s="59" t="str">
-        <f t="shared" ref="I90:I98" si="34">IF(AND(A90&lt;&gt;"",D90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;D90&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
-      </c>
-      <c r="J90" s="59" t="str">
-        <f t="shared" ref="J90:J98" si="35">IF(AND(A90&lt;&gt;"",E90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;E90&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
-      </c>
+      <c r="E90" s="63"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="61" t="str">
+        <f t="shared" ref="B91:B100" si="28">"CHS/"&amp;A91</f>
+        <v>CHS/galaxy_welcome_new</v>
+      </c>
+      <c r="C91" s="61" t="str">
+        <f t="shared" ref="C91:C100" si="29">"CHS/"&amp;A91</f>
+        <v>CHS/galaxy_welcome_new</v>
+      </c>
+      <c r="D91" s="61" t="str">
+        <f t="shared" ref="D91:D100" si="30">"EN/"&amp;A91</f>
+        <v>EN/galaxy_welcome_new</v>
+      </c>
+      <c r="E91" s="63" t="str">
+        <f t="shared" ref="E91:E100" si="31">"JP/"&amp;A91</f>
+        <v>JP/galaxy_welcome_new</v>
+      </c>
+      <c r="G91" s="59" t="str">
+        <f t="shared" ref="G91:G99" si="32">IF(AND(A91&lt;&gt;"",B91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;B91&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="H91" s="59" t="str">
+        <f t="shared" ref="H91:H99" si="33">IF(AND(A91&lt;&gt;"",C91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;C91&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="I91" s="59" t="str">
+        <f t="shared" ref="I91:I99" si="34">IF(AND(A91&lt;&gt;"",D91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;D91&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
+      </c>
+      <c r="J91" s="59" t="str">
+        <f t="shared" ref="J91:J99" si="35">IF(AND(A91&lt;&gt;"",E91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;E91&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B91" s="61" t="str">
+      <c r="B92" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="C91" s="61" t="str">
+      <c r="C92" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="D91" s="61" t="str">
+      <c r="D92" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="E91" s="63" t="str">
+      <c r="E92" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_new_world_welcome_001</v>
       </c>
-      <c r="G91" s="59" t="str">
+      <c r="G92" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="H91" s="59" t="str">
+      <c r="H92" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="I91" s="59" t="str">
+      <c r="I92" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
-      <c r="J91" s="59" t="str">
+      <c r="J92" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A92" s="61" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="B92" s="61" t="str">
+      <c r="B93" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="C92" s="61" t="str">
+      <c r="C93" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="D92" s="61" t="str">
+      <c r="D93" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="E92" s="63" t="str">
+      <c r="E93" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_new_world_welcome_002</v>
       </c>
-      <c r="G92" s="59" t="str">
+      <c r="G93" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="H92" s="59" t="str">
+      <c r="H93" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="I92" s="59" t="str">
+      <c r="I93" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
-      <c r="J92" s="59" t="str">
+      <c r="J93" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A93" s="61" t="s">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B93" s="61" t="str">
+      <c r="B94" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_001</v>
       </c>
-      <c r="C93" s="61" t="str">
+      <c r="C94" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_001</v>
       </c>
-      <c r="D93" s="61" t="str">
+      <c r="D94" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_001</v>
       </c>
-      <c r="E93" s="63" t="str">
+      <c r="E94" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_001</v>
       </c>
-      <c r="G93" s="59" t="str">
+      <c r="G94" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="H93" s="59" t="str">
+      <c r="H94" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="I93" s="59" t="str">
+      <c r="I94" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
       </c>
-      <c r="J93" s="59" t="str">
+      <c r="J94" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A94" s="61" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B94" s="61" t="str">
+      <c r="B95" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_002</v>
       </c>
-      <c r="C94" s="61" t="str">
+      <c r="C95" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_002</v>
       </c>
-      <c r="D94" s="61" t="str">
+      <c r="D95" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_002</v>
       </c>
-      <c r="E94" s="63" t="str">
+      <c r="E95" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_002</v>
       </c>
-      <c r="G94" s="59" t="str">
+      <c r="G95" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="H94" s="59" t="str">
+      <c r="H95" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="I94" s="59" t="str">
+      <c r="I95" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
       </c>
-      <c r="J94" s="59" t="str">
+      <c r="J95" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="61" t="s">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="B95" s="61" t="str">
+      <c r="B96" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="C95" s="61" t="str">
+      <c r="C96" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_003</v>
       </c>
-      <c r="D95" s="61" t="str">
+      <c r="D96" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_003</v>
       </c>
-      <c r="E95" s="63" t="str">
+      <c r="E96" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_003</v>
       </c>
-      <c r="G95" s="59" t="str">
+      <c r="G96" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="H95" s="59" t="str">
+      <c r="H96" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="I95" s="59" t="str">
+      <c r="I96" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
       </c>
-      <c r="J95" s="59" t="str">
+      <c r="J96" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A96" s="61" t="s">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="B96" s="61" t="str">
+      <c r="B97" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="C96" s="61" t="str">
+      <c r="C97" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_004</v>
       </c>
-      <c r="D96" s="61" t="str">
+      <c r="D97" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_004</v>
       </c>
-      <c r="E96" s="63" t="str">
+      <c r="E97" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_004</v>
       </c>
-      <c r="G96" s="59" t="str">
+      <c r="G97" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="H96" s="59" t="str">
+      <c r="H97" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="I96" s="59" t="str">
+      <c r="I97" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
       </c>
-      <c r="J96" s="59" t="str">
+      <c r="J97" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A97" s="61" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B97" s="61" t="str">
+      <c r="B98" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="C97" s="61" t="str">
+      <c r="C98" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_005</v>
       </c>
-      <c r="D97" s="61" t="str">
+      <c r="D98" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_005</v>
       </c>
-      <c r="E97" s="63" t="str">
+      <c r="E98" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_005</v>
       </c>
-      <c r="G97" s="59" t="str">
+      <c r="G98" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="H97" s="59" t="str">
+      <c r="H98" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="I97" s="59" t="str">
+      <c r="I98" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
       </c>
-      <c r="J97" s="59" t="str">
+      <c r="J98" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A98" s="61" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B98" s="61" t="str">
+      <c r="B99" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/galaxy_welcome_006</v>
       </c>
-      <c r="C98" s="61" t="str">
+      <c r="C99" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/galaxy_welcome_006</v>
       </c>
-      <c r="D98" s="61" t="str">
+      <c r="D99" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/galaxy_welcome_006</v>
       </c>
-      <c r="E98" s="63" t="str">
+      <c r="E99" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/galaxy_welcome_006</v>
       </c>
-      <c r="G98" s="59" t="str">
+      <c r="G99" s="59" t="str">
         <f t="shared" si="32"/>
         <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
       </c>
-      <c r="H98" s="59" t="str">
+      <c r="H99" s="59" t="str">
         <f t="shared" si="33"/>
         <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
       </c>
-      <c r="I98" s="59" t="str">
+      <c r="I99" s="59" t="str">
         <f t="shared" si="34"/>
         <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
       </c>
-      <c r="J98" s="59" t="str">
+      <c r="J99" s="59" t="str">
         <f t="shared" si="35"/>
         <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A99" s="61" t="s">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="B99" s="61" t="str">
+      <c r="B100" s="61" t="str">
         <f t="shared" si="28"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="C99" s="61" t="str">
+      <c r="C100" s="61" t="str">
         <f t="shared" si="29"/>
         <v>CHS/mission_complete_retry</v>
       </c>
-      <c r="D99" s="61" t="str">
+      <c r="D100" s="61" t="str">
         <f t="shared" si="30"/>
         <v>EN/mission_complete_retry</v>
       </c>
-      <c r="E99" s="63" t="str">
+      <c r="E100" s="63" t="str">
         <f t="shared" si="31"/>
         <v>JP/mission_complete_retry</v>
       </c>
-      <c r="G99" s="59" t="str">
-        <f>IF(AND(A99&lt;&gt;"",B99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;B99&amp;""" /&gt;","")</f>
+      <c r="G100" s="59" t="str">
+        <f>IF(AND(A100&lt;&gt;"",B100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;B100&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="H99" s="59" t="str">
-        <f>IF(AND(A99&lt;&gt;"",C99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;C99&amp;""" /&gt;","")</f>
+      <c r="H100" s="59" t="str">
+        <f>IF(AND(A100&lt;&gt;"",C100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;C100&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="I99" s="59" t="str">
-        <f>IF(AND(A99&lt;&gt;"",D99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;D99&amp;""" /&gt;","")</f>
+      <c r="I100" s="59" t="str">
+        <f>IF(AND(A100&lt;&gt;"",D100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;D100&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
       </c>
-      <c r="J99" s="59" t="str">
-        <f>IF(AND(A99&lt;&gt;"",E99&lt;&gt;""),"&lt;Audio Key="""&amp;A99&amp;""" Value="""&amp;E99&amp;""" /&gt;","")</f>
+      <c r="J100" s="59" t="str">
+        <f>IF(AND(A100&lt;&gt;"",E100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;E100&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A100" s="63" t="s">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="63" t="s">
         <v>947</v>
       </c>
-      <c r="E100" s="63"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="61" t="s">
-        <v>953</v>
-      </c>
-      <c r="B101" s="61" t="str">
-        <f t="shared" ref="B101" si="36">"CHS/"&amp;A101</f>
-        <v>CHS/mall_welcome_001</v>
-      </c>
-      <c r="C101" s="61" t="str">
-        <f t="shared" ref="C101" si="37">"CHS/"&amp;A101</f>
-        <v>CHS/mall_welcome_001</v>
-      </c>
-      <c r="D101" s="61" t="str">
-        <f t="shared" ref="D101" si="38">"EN/"&amp;A101</f>
-        <v>EN/mall_welcome_001</v>
-      </c>
-      <c r="E101" s="63" t="str">
-        <f t="shared" ref="E101" si="39">"JP/"&amp;A101</f>
-        <v>JP/mall_welcome_001</v>
-      </c>
-      <c r="G101" s="59" t="str">
-        <f t="shared" ref="G101" si="40">IF(AND(A101&lt;&gt;"",B101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;B101&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
-      </c>
-      <c r="H101" s="59" t="str">
-        <f t="shared" ref="H101" si="41">IF(AND(A101&lt;&gt;"",C101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;C101&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
-      </c>
-      <c r="I101" s="59" t="str">
-        <f t="shared" ref="I101" si="42">IF(AND(A101&lt;&gt;"",D101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;D101&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
-      </c>
-      <c r="J101" s="59" t="str">
-        <f t="shared" ref="J101" si="43">IF(AND(A101&lt;&gt;"",E101&lt;&gt;""),"&lt;Audio Key="""&amp;A101&amp;""" Value="""&amp;E101&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
-      </c>
+      <c r="E101" s="63"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B102" s="61" t="str">
-        <f t="shared" ref="B102:B110" si="44">"CHS/"&amp;A102</f>
-        <v>CHS/mall_welcome_002</v>
+        <f t="shared" ref="B102" si="36">"CHS/"&amp;A102</f>
+        <v>CHS/mall_welcome_001</v>
       </c>
       <c r="C102" s="61" t="str">
-        <f t="shared" ref="C102:C110" si="45">"CHS/"&amp;A102</f>
-        <v>CHS/mall_welcome_002</v>
+        <f t="shared" ref="C102" si="37">"CHS/"&amp;A102</f>
+        <v>CHS/mall_welcome_001</v>
       </c>
       <c r="D102" s="61" t="str">
-        <f t="shared" ref="D102:D110" si="46">"EN/"&amp;A102</f>
-        <v>EN/mall_welcome_002</v>
+        <f t="shared" ref="D102" si="38">"EN/"&amp;A102</f>
+        <v>EN/mall_welcome_001</v>
       </c>
       <c r="E102" s="63" t="str">
-        <f t="shared" ref="E102:E110" si="47">"JP/"&amp;A102</f>
-        <v>JP/mall_welcome_002</v>
+        <f t="shared" ref="E102" si="39">"JP/"&amp;A102</f>
+        <v>JP/mall_welcome_001</v>
       </c>
       <c r="G102" s="59" t="str">
-        <f t="shared" ref="G102:G110" si="48">IF(AND(A102&lt;&gt;"",B102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;B102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+        <f t="shared" ref="G102" si="40">IF(AND(A102&lt;&gt;"",B102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;B102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="H102" s="59" t="str">
-        <f t="shared" ref="H102:H110" si="49">IF(AND(A102&lt;&gt;"",C102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;C102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+        <f t="shared" ref="H102" si="41">IF(AND(A102&lt;&gt;"",C102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;C102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="I102" s="59" t="str">
-        <f t="shared" ref="I102:I110" si="50">IF(AND(A102&lt;&gt;"",D102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;D102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
+        <f t="shared" ref="I102" si="42">IF(AND(A102&lt;&gt;"",D102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;D102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
       </c>
       <c r="J102" s="59" t="str">
-        <f t="shared" ref="J102:J110" si="51">IF(AND(A102&lt;&gt;"",E102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;E102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
+        <f t="shared" ref="J102" si="43">IF(AND(A102&lt;&gt;"",E102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;E102&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
+        <v>954</v>
+      </c>
+      <c r="B103" s="61" t="str">
+        <f t="shared" ref="B103:B111" si="44">"CHS/"&amp;A103</f>
+        <v>CHS/mall_welcome_002</v>
+      </c>
+      <c r="C103" s="61" t="str">
+        <f t="shared" ref="C103:C111" si="45">"CHS/"&amp;A103</f>
+        <v>CHS/mall_welcome_002</v>
+      </c>
+      <c r="D103" s="61" t="str">
+        <f t="shared" ref="D103:D111" si="46">"EN/"&amp;A103</f>
+        <v>EN/mall_welcome_002</v>
+      </c>
+      <c r="E103" s="63" t="str">
+        <f t="shared" ref="E103:E111" si="47">"JP/"&amp;A103</f>
+        <v>JP/mall_welcome_002</v>
+      </c>
+      <c r="G103" s="59" t="str">
+        <f t="shared" ref="G103:G111" si="48">IF(AND(A103&lt;&gt;"",B103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;B103&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="H103" s="59" t="str">
+        <f t="shared" ref="H103:H111" si="49">IF(AND(A103&lt;&gt;"",C103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;C103&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="I103" s="59" t="str">
+        <f t="shared" ref="I103:I111" si="50">IF(AND(A103&lt;&gt;"",D103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;D103&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
+      </c>
+      <c r="J103" s="59" t="str">
+        <f t="shared" ref="J103:J111" si="51">IF(AND(A103&lt;&gt;"",E103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;E103&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="61" t="s">
         <v>955</v>
       </c>
-      <c r="B103" s="61" t="str">
+      <c r="B104" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_welcome_003</v>
       </c>
-      <c r="C103" s="61" t="str">
+      <c r="C104" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_welcome_003</v>
       </c>
-      <c r="D103" s="61" t="str">
+      <c r="D104" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_welcome_003</v>
       </c>
-      <c r="E103" s="63" t="str">
+      <c r="E104" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_welcome_003</v>
       </c>
-      <c r="G103" s="59" t="str">
+      <c r="G104" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
       </c>
-      <c r="H103" s="59" t="str">
+      <c r="H104" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
       </c>
-      <c r="I103" s="59" t="str">
+      <c r="I104" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_welcome_003" Value="EN/mall_welcome_003" /&gt;</v>
       </c>
-      <c r="J103" s="59" t="str">
+      <c r="J104" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_welcome_003" Value="JP/mall_welcome_003" /&gt;</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A104" s="61" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="61" t="s">
         <v>956</v>
       </c>
-      <c r="B104" s="61" t="str">
+      <c r="B105" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_welcome_004</v>
       </c>
-      <c r="C104" s="61" t="str">
+      <c r="C105" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_welcome_004</v>
       </c>
-      <c r="D104" s="61" t="str">
+      <c r="D105" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_welcome_004</v>
       </c>
-      <c r="E104" s="63" t="str">
+      <c r="E105" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_welcome_004</v>
       </c>
-      <c r="G104" s="59" t="str">
+      <c r="G105" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
       </c>
-      <c r="H104" s="59" t="str">
+      <c r="H105" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
       </c>
-      <c r="I104" s="59" t="str">
+      <c r="I105" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_welcome_004" Value="EN/mall_welcome_004" /&gt;</v>
       </c>
-      <c r="J104" s="59" t="str">
+      <c r="J105" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_welcome_004" Value="JP/mall_welcome_004" /&gt;</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A105" s="61" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="61" t="s">
         <v>957</v>
       </c>
-      <c r="B105" s="61" t="str">
+      <c r="B106" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_welcome_005</v>
       </c>
-      <c r="C105" s="61" t="str">
+      <c r="C106" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_welcome_005</v>
       </c>
-      <c r="D105" s="61" t="str">
+      <c r="D106" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_welcome_005</v>
       </c>
-      <c r="E105" s="63" t="str">
+      <c r="E106" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_welcome_005</v>
       </c>
-      <c r="G105" s="59" t="str">
+      <c r="G106" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
       </c>
-      <c r="H105" s="59" t="str">
+      <c r="H106" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
       </c>
-      <c r="I105" s="59" t="str">
+      <c r="I106" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_welcome_005" Value="EN/mall_welcome_005" /&gt;</v>
       </c>
-      <c r="J105" s="59" t="str">
+      <c r="J106" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_welcome_005" Value="JP/mall_welcome_005" /&gt;</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="61" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="61" t="s">
         <v>948</v>
       </c>
-      <c r="B106" s="61" t="str">
+      <c r="B107" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_purchase_lock</v>
       </c>
-      <c r="C106" s="61" t="str">
+      <c r="C107" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_purchase_lock</v>
       </c>
-      <c r="D106" s="61" t="str">
+      <c r="D107" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_purchase_lock</v>
       </c>
-      <c r="E106" s="63" t="str">
+      <c r="E107" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_purchase_lock</v>
       </c>
-      <c r="G106" s="59" t="str">
+      <c r="G107" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
       </c>
-      <c r="H106" s="59" t="str">
+      <c r="H107" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
       </c>
-      <c r="I106" s="59" t="str">
+      <c r="I107" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_purchase_lock" Value="EN/mall_purchase_lock" /&gt;</v>
       </c>
-      <c r="J106" s="59" t="str">
+      <c r="J107" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_purchase_lock" Value="JP/mall_purchase_lock" /&gt;</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A107" s="61" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="61" t="s">
         <v>949</v>
       </c>
-      <c r="B107" s="61" t="str">
+      <c r="B108" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_suit_not_match</v>
       </c>
-      <c r="C107" s="61" t="str">
+      <c r="C108" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_suit_not_match</v>
       </c>
-      <c r="D107" s="61" t="str">
+      <c r="D108" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_suit_not_match</v>
       </c>
-      <c r="E107" s="63" t="str">
+      <c r="E108" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_suit_not_match</v>
       </c>
-      <c r="G107" s="59" t="str">
+      <c r="G108" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
       </c>
-      <c r="H107" s="59" t="str">
+      <c r="H108" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
       </c>
-      <c r="I107" s="59" t="str">
+      <c r="I108" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_suit_not_match" Value="EN/mall_suit_not_match" /&gt;</v>
       </c>
-      <c r="J107" s="59" t="str">
+      <c r="J108" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_suit_not_match" Value="JP/mall_suit_not_match" /&gt;</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A108" s="61" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="61" t="s">
         <v>950</v>
       </c>
-      <c r="B108" s="61" t="str">
+      <c r="B109" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/popup_goods_level_lock</v>
       </c>
-      <c r="C108" s="61" t="str">
+      <c r="C109" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/popup_goods_level_lock</v>
       </c>
-      <c r="D108" s="61" t="str">
+      <c r="D109" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/popup_goods_level_lock</v>
       </c>
-      <c r="E108" s="63" t="str">
+      <c r="E109" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/popup_goods_level_lock</v>
       </c>
-      <c r="G108" s="59" t="str">
+      <c r="G109" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
       </c>
-      <c r="H108" s="59" t="str">
+      <c r="H109" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
       </c>
-      <c r="I108" s="59" t="str">
+      <c r="I109" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="popup_goods_level_lock" Value="EN/popup_goods_level_lock" /&gt;</v>
       </c>
-      <c r="J108" s="59" t="str">
+      <c r="J109" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="popup_goods_level_lock" Value="JP/popup_goods_level_lock" /&gt;</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A109" s="61" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="61" t="s">
         <v>951</v>
       </c>
-      <c r="B109" s="61" t="str">
+      <c r="B110" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_purchase_qr</v>
       </c>
-      <c r="C109" s="61" t="str">
+      <c r="C110" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_purchase_qr</v>
       </c>
-      <c r="D109" s="61" t="str">
+      <c r="D110" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_purchase_qr</v>
       </c>
-      <c r="E109" s="63" t="str">
+      <c r="E110" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_purchase_qr</v>
       </c>
-      <c r="G109" s="59" t="str">
+      <c r="G110" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="H109" s="59" t="str">
+      <c r="H110" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="I109" s="59" t="str">
+      <c r="I110" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="EN/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="J109" s="59" t="str">
+      <c r="J110" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="JP/mall_purchase_qr" /&gt;</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A110" s="61" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="61" t="s">
         <v>952</v>
       </c>
-      <c r="B110" s="61" t="str">
+      <c r="B111" s="61" t="str">
         <f t="shared" si="44"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="C110" s="61" t="str">
+      <c r="C111" s="61" t="str">
         <f t="shared" si="45"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="D110" s="61" t="str">
+      <c r="D111" s="61" t="str">
         <f t="shared" si="46"/>
         <v>EN/mall_purchase_qr_complete</v>
       </c>
-      <c r="E110" s="63" t="str">
+      <c r="E111" s="63" t="str">
         <f t="shared" si="47"/>
         <v>JP/mall_purchase_qr_complete</v>
       </c>
-      <c r="G110" s="59" t="str">
+      <c r="G111" s="59" t="str">
         <f t="shared" si="48"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="H110" s="59" t="str">
+      <c r="H111" s="59" t="str">
         <f t="shared" si="49"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="I110" s="59" t="str">
+      <c r="I111" s="59" t="str">
         <f t="shared" si="50"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="EN/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="J110" s="59" t="str">
+      <c r="J111" s="59" t="str">
         <f t="shared" si="51"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="JP/mall_purchase_qr_complete" /&gt;</v>
       </c>
@@ -19283,7 +19324,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A29:A41 A1:E28 A42:E99 A111:E1048576 A107:A110">
+  <conditionalFormatting sqref="A29:A42 A1:E28 A43:E100 A112:E1048576 A108:A111">
     <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -19291,7 +19332,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E41">
+  <conditionalFormatting sqref="B29:E42">
     <cfRule type="expression" dxfId="15" priority="18">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -19299,7 +19340,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:E100 B101:E110">
+  <conditionalFormatting sqref="A101:E101 B102:E111">
     <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -19307,7 +19348,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106">
+  <conditionalFormatting sqref="A107">
     <cfRule type="expression" dxfId="11" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -19315,7 +19356,7 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:A105">
+  <conditionalFormatting sqref="A102:A106">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DDBD1-9D43-4757-BA5F-FBFD78D05A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F38375-61E0-4BCA-93DA-5379E8182A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">日文差异比较!$J$1:$J$321</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">页面统计!$A$1:$H$30</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="969">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4142,6 +4142,21 @@
   <si>
     <t>ai_popup_no_network</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_001</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_002</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_003</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_004</t>
+  </si>
+  <si>
+    <t>feed_welcome_xmas_005</t>
   </si>
 </sst>
 </file>
@@ -4698,7 +4713,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -4709,7 +4724,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4724,6 +4739,41 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5448,66 +5498,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A2:E1048575" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13119,7 +13169,7 @@
   <autoFilter ref="J1:J321" xr:uid="{80525AF8-ED01-4BDB-BE14-6F8958DAAA74}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15343,10 +15393,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15357,13 +15407,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18568,754 +18618,939 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A90" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="E90" s="63"/>
+      <c r="A90" s="61" t="s">
+        <v>964</v>
+      </c>
+      <c r="B90" s="61" t="str">
+        <f t="shared" ref="B90:B94" si="28">"CHS/"&amp;A90</f>
+        <v>CHS/feed_welcome_xmas_001</v>
+      </c>
+      <c r="C90" s="61" t="str">
+        <f t="shared" ref="C90:C94" si="29">"CHS/"&amp;A90</f>
+        <v>CHS/feed_welcome_xmas_001</v>
+      </c>
+      <c r="D90" s="61" t="str">
+        <f t="shared" ref="D90:D94" si="30">"EN/"&amp;A90</f>
+        <v>EN/feed_welcome_xmas_001</v>
+      </c>
+      <c r="E90" s="63" t="str">
+        <f t="shared" ref="E90:E94" si="31">"JP/"&amp;A90</f>
+        <v>JP/feed_welcome_xmas_001</v>
+      </c>
+      <c r="G90" s="59" t="str">
+        <f t="shared" ref="G90:G94" si="32">IF(AND(A90&lt;&gt;"",B90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;B90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_xmas_001" Value="CHS/feed_welcome_xmas_001" /&gt;</v>
+      </c>
+      <c r="H90" s="59" t="str">
+        <f t="shared" ref="H90:H94" si="33">IF(AND(A90&lt;&gt;"",C90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;C90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_xmas_001" Value="CHS/feed_welcome_xmas_001" /&gt;</v>
+      </c>
+      <c r="I90" s="59" t="str">
+        <f t="shared" ref="I90:I94" si="34">IF(AND(A90&lt;&gt;"",D90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;D90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_xmas_001" Value="EN/feed_welcome_xmas_001" /&gt;</v>
+      </c>
+      <c r="J90" s="59" t="str">
+        <f t="shared" ref="J90:J94" si="35">IF(AND(A90&lt;&gt;"",E90&lt;&gt;""),"&lt;Audio Key="""&amp;A90&amp;""" Value="""&amp;E90&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="feed_welcome_xmas_001" Value="JP/feed_welcome_xmas_001" /&gt;</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
-        <v>234</v>
+        <v>965</v>
       </c>
       <c r="B91" s="61" t="str">
-        <f t="shared" ref="B91:B100" si="28">"CHS/"&amp;A91</f>
-        <v>CHS/galaxy_welcome_new</v>
+        <f t="shared" si="28"/>
+        <v>CHS/feed_welcome_xmas_002</v>
       </c>
       <c r="C91" s="61" t="str">
-        <f t="shared" ref="C91:C100" si="29">"CHS/"&amp;A91</f>
-        <v>CHS/galaxy_welcome_new</v>
+        <f t="shared" si="29"/>
+        <v>CHS/feed_welcome_xmas_002</v>
       </c>
       <c r="D91" s="61" t="str">
-        <f t="shared" ref="D91:D100" si="30">"EN/"&amp;A91</f>
-        <v>EN/galaxy_welcome_new</v>
+        <f t="shared" si="30"/>
+        <v>EN/feed_welcome_xmas_002</v>
       </c>
       <c r="E91" s="63" t="str">
-        <f t="shared" ref="E91:E100" si="31">"JP/"&amp;A91</f>
-        <v>JP/galaxy_welcome_new</v>
+        <f t="shared" si="31"/>
+        <v>JP/feed_welcome_xmas_002</v>
       </c>
       <c r="G91" s="59" t="str">
-        <f t="shared" ref="G91:G99" si="32">IF(AND(A91&lt;&gt;"",B91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;B91&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="32"/>
+        <v>&lt;Audio Key="feed_welcome_xmas_002" Value="CHS/feed_welcome_xmas_002" /&gt;</v>
       </c>
       <c r="H91" s="59" t="str">
-        <f t="shared" ref="H91:H99" si="33">IF(AND(A91&lt;&gt;"",C91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;C91&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="33"/>
+        <v>&lt;Audio Key="feed_welcome_xmas_002" Value="CHS/feed_welcome_xmas_002" /&gt;</v>
       </c>
       <c r="I91" s="59" t="str">
-        <f t="shared" ref="I91:I99" si="34">IF(AND(A91&lt;&gt;"",D91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;D91&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;Audio Key="feed_welcome_xmas_002" Value="EN/feed_welcome_xmas_002" /&gt;</v>
       </c>
       <c r="J91" s="59" t="str">
-        <f t="shared" ref="J91:J99" si="35">IF(AND(A91&lt;&gt;"",E91&lt;&gt;""),"&lt;Audio Key="""&amp;A91&amp;""" Value="""&amp;E91&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
+        <f t="shared" si="35"/>
+        <v>&lt;Audio Key="feed_welcome_xmas_002" Value="JP/feed_welcome_xmas_002" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>235</v>
+        <v>966</v>
       </c>
       <c r="B92" s="61" t="str">
         <f t="shared" si="28"/>
-        <v>CHS/galaxy_new_world_welcome_001</v>
+        <v>CHS/feed_welcome_xmas_003</v>
       </c>
       <c r="C92" s="61" t="str">
         <f t="shared" si="29"/>
-        <v>CHS/galaxy_new_world_welcome_001</v>
+        <v>CHS/feed_welcome_xmas_003</v>
       </c>
       <c r="D92" s="61" t="str">
         <f t="shared" si="30"/>
-        <v>EN/galaxy_new_world_welcome_001</v>
+        <v>EN/feed_welcome_xmas_003</v>
       </c>
       <c r="E92" s="63" t="str">
         <f t="shared" si="31"/>
-        <v>JP/galaxy_new_world_welcome_001</v>
+        <v>JP/feed_welcome_xmas_003</v>
       </c>
       <c r="G92" s="59" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_003" Value="CHS/feed_welcome_xmas_003" /&gt;</v>
       </c>
       <c r="H92" s="59" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_003" Value="CHS/feed_welcome_xmas_003" /&gt;</v>
       </c>
       <c r="I92" s="59" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_003" Value="EN/feed_welcome_xmas_003" /&gt;</v>
       </c>
       <c r="J92" s="59" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_003" Value="JP/feed_welcome_xmas_003" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
-        <v>236</v>
+        <v>967</v>
       </c>
       <c r="B93" s="61" t="str">
         <f t="shared" si="28"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
+        <v>CHS/feed_welcome_xmas_004</v>
       </c>
       <c r="C93" s="61" t="str">
         <f t="shared" si="29"/>
-        <v>CHS/galaxy_new_world_welcome_002</v>
+        <v>CHS/feed_welcome_xmas_004</v>
       </c>
       <c r="D93" s="61" t="str">
         <f t="shared" si="30"/>
-        <v>EN/galaxy_new_world_welcome_002</v>
+        <v>EN/feed_welcome_xmas_004</v>
       </c>
       <c r="E93" s="63" t="str">
         <f t="shared" si="31"/>
-        <v>JP/galaxy_new_world_welcome_002</v>
+        <v>JP/feed_welcome_xmas_004</v>
       </c>
       <c r="G93" s="59" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_004" Value="CHS/feed_welcome_xmas_004" /&gt;</v>
       </c>
       <c r="H93" s="59" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_004" Value="CHS/feed_welcome_xmas_004" /&gt;</v>
       </c>
       <c r="I93" s="59" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_004" Value="EN/feed_welcome_xmas_004" /&gt;</v>
       </c>
       <c r="J93" s="59" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_004" Value="JP/feed_welcome_xmas_004" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
-        <v>241</v>
+        <v>968</v>
       </c>
       <c r="B94" s="61" t="str">
         <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_001</v>
+        <v>CHS/feed_welcome_xmas_005</v>
       </c>
       <c r="C94" s="61" t="str">
         <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_001</v>
+        <v>CHS/feed_welcome_xmas_005</v>
       </c>
       <c r="D94" s="61" t="str">
         <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_001</v>
+        <v>EN/feed_welcome_xmas_005</v>
       </c>
       <c r="E94" s="63" t="str">
         <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_001</v>
+        <v>JP/feed_welcome_xmas_005</v>
       </c>
       <c r="G94" s="59" t="str">
         <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_005" Value="CHS/feed_welcome_xmas_005" /&gt;</v>
       </c>
       <c r="H94" s="59" t="str">
         <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_005" Value="CHS/feed_welcome_xmas_005" /&gt;</v>
       </c>
       <c r="I94" s="59" t="str">
         <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_005" Value="EN/feed_welcome_xmas_005" /&gt;</v>
       </c>
       <c r="J94" s="59" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
+        <v>&lt;Audio Key="feed_welcome_xmas_005" Value="JP/feed_welcome_xmas_005" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A95" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="B95" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_002</v>
-      </c>
-      <c r="C95" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_002</v>
-      </c>
-      <c r="D95" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_002</v>
-      </c>
-      <c r="E95" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_002</v>
-      </c>
-      <c r="G95" s="59" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="H95" s="59" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="I95" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
-      </c>
-      <c r="J95" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
-      </c>
+      <c r="A95" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" s="63"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="61" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B96" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_003</v>
+        <f t="shared" ref="B96:B105" si="36">"CHS/"&amp;A96</f>
+        <v>CHS/galaxy_welcome_new</v>
       </c>
       <c r="C96" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_003</v>
+        <f t="shared" ref="C96:C105" si="37">"CHS/"&amp;A96</f>
+        <v>CHS/galaxy_welcome_new</v>
       </c>
       <c r="D96" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_003</v>
+        <f t="shared" ref="D96:D105" si="38">"EN/"&amp;A96</f>
+        <v>EN/galaxy_welcome_new</v>
       </c>
       <c r="E96" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_003</v>
+        <f t="shared" ref="E96:E105" si="39">"JP/"&amp;A96</f>
+        <v>JP/galaxy_welcome_new</v>
       </c>
       <c r="G96" s="59" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" ref="G96:G104" si="40">IF(AND(A96&lt;&gt;"",B96&lt;&gt;""),"&lt;Audio Key="""&amp;A96&amp;""" Value="""&amp;B96&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="H96" s="59" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" ref="H96:H104" si="41">IF(AND(A96&lt;&gt;"",C96&lt;&gt;""),"&lt;Audio Key="""&amp;A96&amp;""" Value="""&amp;C96&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="CHS/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="I96" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" ref="I96:I104" si="42">IF(AND(A96&lt;&gt;"",D96&lt;&gt;""),"&lt;Audio Key="""&amp;A96&amp;""" Value="""&amp;D96&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="EN/galaxy_welcome_new" /&gt;</v>
       </c>
       <c r="J96" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
+        <f t="shared" ref="J96:J104" si="43">IF(AND(A96&lt;&gt;"",E96&lt;&gt;""),"&lt;Audio Key="""&amp;A96&amp;""" Value="""&amp;E96&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="galaxy_welcome_new" Value="JP/galaxy_welcome_new" /&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="61" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B97" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_004</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
       <c r="C97" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_004</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_new_world_welcome_001</v>
       </c>
       <c r="D97" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_004</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_new_world_welcome_001</v>
       </c>
       <c r="E97" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_004</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_new_world_welcome_001</v>
       </c>
       <c r="G97" s="59" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="H97" s="59" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="CHS/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="I97" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="EN/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
       <c r="J97" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_001" Value="JP/galaxy_new_world_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="61" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B98" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_005</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
       <c r="C98" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_005</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_new_world_welcome_002</v>
       </c>
       <c r="D98" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_005</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_new_world_welcome_002</v>
       </c>
       <c r="E98" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_005</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_new_world_welcome_002</v>
       </c>
       <c r="G98" s="59" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="H98" s="59" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="CHS/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="I98" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="EN/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
       <c r="J98" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_new_world_welcome_002" Value="JP/galaxy_new_world_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="61" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="B99" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/galaxy_welcome_006</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_001</v>
       </c>
       <c r="C99" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/galaxy_welcome_006</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_001</v>
       </c>
       <c r="D99" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/galaxy_welcome_006</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_001</v>
       </c>
       <c r="E99" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/galaxy_welcome_006</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_001</v>
       </c>
       <c r="G99" s="59" t="str">
-        <f t="shared" si="32"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="H99" s="59" t="str">
-        <f t="shared" si="33"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="CHS/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="I99" s="59" t="str">
-        <f t="shared" si="34"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="EN/galaxy_welcome_001" /&gt;</v>
       </c>
       <c r="J99" s="59" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_001" Value="JP/galaxy_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="61" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B100" s="61" t="str">
-        <f t="shared" si="28"/>
-        <v>CHS/mission_complete_retry</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_002</v>
       </c>
       <c r="C100" s="61" t="str">
-        <f t="shared" si="29"/>
-        <v>CHS/mission_complete_retry</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_002</v>
       </c>
       <c r="D100" s="61" t="str">
-        <f t="shared" si="30"/>
-        <v>EN/mission_complete_retry</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_002</v>
       </c>
       <c r="E100" s="63" t="str">
-        <f t="shared" si="31"/>
-        <v>JP/mission_complete_retry</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_002</v>
       </c>
       <c r="G100" s="59" t="str">
-        <f>IF(AND(A100&lt;&gt;"",B100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;B100&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="H100" s="59" t="str">
-        <f>IF(AND(A100&lt;&gt;"",C100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;C100&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="CHS/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="I100" s="59" t="str">
-        <f>IF(AND(A100&lt;&gt;"",D100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;D100&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="EN/galaxy_welcome_002" /&gt;</v>
       </c>
       <c r="J100" s="59" t="str">
-        <f>IF(AND(A100&lt;&gt;"",E100&lt;&gt;""),"&lt;Audio Key="""&amp;A100&amp;""" Value="""&amp;E100&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_002" Value="JP/galaxy_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A101" s="63" t="s">
-        <v>947</v>
-      </c>
-      <c r="E101" s="63"/>
+      <c r="A101" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="61" t="str">
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_003</v>
+      </c>
+      <c r="C101" s="61" t="str">
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_003</v>
+      </c>
+      <c r="D101" s="61" t="str">
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_003</v>
+      </c>
+      <c r="E101" s="63" t="str">
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_003</v>
+      </c>
+      <c r="G101" s="59" t="str">
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+      </c>
+      <c r="H101" s="59" t="str">
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="CHS/galaxy_welcome_003" /&gt;</v>
+      </c>
+      <c r="I101" s="59" t="str">
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="EN/galaxy_welcome_003" /&gt;</v>
+      </c>
+      <c r="J101" s="59" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_003" Value="JP/galaxy_welcome_003" /&gt;</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="61" t="s">
-        <v>953</v>
+        <v>244</v>
       </c>
       <c r="B102" s="61" t="str">
-        <f t="shared" ref="B102" si="36">"CHS/"&amp;A102</f>
-        <v>CHS/mall_welcome_001</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_004</v>
       </c>
       <c r="C102" s="61" t="str">
-        <f t="shared" ref="C102" si="37">"CHS/"&amp;A102</f>
-        <v>CHS/mall_welcome_001</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_004</v>
       </c>
       <c r="D102" s="61" t="str">
-        <f t="shared" ref="D102" si="38">"EN/"&amp;A102</f>
-        <v>EN/mall_welcome_001</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_004</v>
       </c>
       <c r="E102" s="63" t="str">
-        <f t="shared" ref="E102" si="39">"JP/"&amp;A102</f>
-        <v>JP/mall_welcome_001</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_004</v>
       </c>
       <c r="G102" s="59" t="str">
-        <f t="shared" ref="G102" si="40">IF(AND(A102&lt;&gt;"",B102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;B102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="H102" s="59" t="str">
-        <f t="shared" ref="H102" si="41">IF(AND(A102&lt;&gt;"",C102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;C102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="CHS/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="I102" s="59" t="str">
-        <f t="shared" ref="I102" si="42">IF(AND(A102&lt;&gt;"",D102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;D102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="EN/galaxy_welcome_004" /&gt;</v>
       </c>
       <c r="J102" s="59" t="str">
-        <f t="shared" ref="J102" si="43">IF(AND(A102&lt;&gt;"",E102&lt;&gt;""),"&lt;Audio Key="""&amp;A102&amp;""" Value="""&amp;E102&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_004" Value="JP/galaxy_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="61" t="s">
-        <v>954</v>
+        <v>245</v>
       </c>
       <c r="B103" s="61" t="str">
-        <f t="shared" ref="B103:B111" si="44">"CHS/"&amp;A103</f>
-        <v>CHS/mall_welcome_002</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_005</v>
       </c>
       <c r="C103" s="61" t="str">
-        <f t="shared" ref="C103:C111" si="45">"CHS/"&amp;A103</f>
-        <v>CHS/mall_welcome_002</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_005</v>
       </c>
       <c r="D103" s="61" t="str">
-        <f t="shared" ref="D103:D111" si="46">"EN/"&amp;A103</f>
-        <v>EN/mall_welcome_002</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_005</v>
       </c>
       <c r="E103" s="63" t="str">
-        <f t="shared" ref="E103:E111" si="47">"JP/"&amp;A103</f>
-        <v>JP/mall_welcome_002</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_005</v>
       </c>
       <c r="G103" s="59" t="str">
-        <f t="shared" ref="G103:G111" si="48">IF(AND(A103&lt;&gt;"",B103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;B103&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
       <c r="H103" s="59" t="str">
-        <f t="shared" ref="H103:H111" si="49">IF(AND(A103&lt;&gt;"",C103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;C103&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="CHS/galaxy_welcome_005" /&gt;</v>
       </c>
       <c r="I103" s="59" t="str">
-        <f t="shared" ref="I103:I111" si="50">IF(AND(A103&lt;&gt;"",D103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;D103&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="EN/galaxy_welcome_005" /&gt;</v>
       </c>
       <c r="J103" s="59" t="str">
-        <f t="shared" ref="J103:J111" si="51">IF(AND(A103&lt;&gt;"",E103&lt;&gt;""),"&lt;Audio Key="""&amp;A103&amp;""" Value="""&amp;E103&amp;""" /&gt;","")</f>
-        <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_005" Value="JP/galaxy_welcome_005" /&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="61" t="s">
-        <v>955</v>
+        <v>289</v>
       </c>
       <c r="B104" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_welcome_003</v>
+        <f t="shared" si="36"/>
+        <v>CHS/galaxy_welcome_006</v>
       </c>
       <c r="C104" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_welcome_003</v>
+        <f t="shared" si="37"/>
+        <v>CHS/galaxy_welcome_006</v>
       </c>
       <c r="D104" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_welcome_003</v>
+        <f t="shared" si="38"/>
+        <v>EN/galaxy_welcome_006</v>
       </c>
       <c r="E104" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_welcome_003</v>
+        <f t="shared" si="39"/>
+        <v>JP/galaxy_welcome_006</v>
       </c>
       <c r="G104" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
+        <f t="shared" si="40"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
       </c>
       <c r="H104" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
+        <f t="shared" si="41"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="CHS/galaxy_welcome_006" /&gt;</v>
       </c>
       <c r="I104" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_welcome_003" Value="EN/mall_welcome_003" /&gt;</v>
+        <f t="shared" si="42"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="EN/galaxy_welcome_006" /&gt;</v>
       </c>
       <c r="J104" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_welcome_003" Value="JP/mall_welcome_003" /&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;Audio Key="galaxy_welcome_006" Value="JP/galaxy_welcome_006" /&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="61" t="s">
-        <v>956</v>
+        <v>246</v>
       </c>
       <c r="B105" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_welcome_004</v>
+        <f t="shared" si="36"/>
+        <v>CHS/mission_complete_retry</v>
       </c>
       <c r="C105" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_welcome_004</v>
+        <f t="shared" si="37"/>
+        <v>CHS/mission_complete_retry</v>
       </c>
       <c r="D105" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_welcome_004</v>
+        <f t="shared" si="38"/>
+        <v>EN/mission_complete_retry</v>
       </c>
       <c r="E105" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_welcome_004</v>
+        <f t="shared" si="39"/>
+        <v>JP/mission_complete_retry</v>
       </c>
       <c r="G105" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
+        <f>IF(AND(A105&lt;&gt;"",B105&lt;&gt;""),"&lt;Audio Key="""&amp;A105&amp;""" Value="""&amp;B105&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
       <c r="H105" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
+        <f>IF(AND(A105&lt;&gt;"",C105&lt;&gt;""),"&lt;Audio Key="""&amp;A105&amp;""" Value="""&amp;C105&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mission_complete_retry" Value="CHS/mission_complete_retry" /&gt;</v>
       </c>
       <c r="I105" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_welcome_004" Value="EN/mall_welcome_004" /&gt;</v>
+        <f>IF(AND(A105&lt;&gt;"",D105&lt;&gt;""),"&lt;Audio Key="""&amp;A105&amp;""" Value="""&amp;D105&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mission_complete_retry" Value="EN/mission_complete_retry" /&gt;</v>
       </c>
       <c r="J105" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_welcome_004" Value="JP/mall_welcome_004" /&gt;</v>
+        <f>IF(AND(A105&lt;&gt;"",E105&lt;&gt;""),"&lt;Audio Key="""&amp;A105&amp;""" Value="""&amp;E105&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mission_complete_retry" Value="JP/mission_complete_retry" /&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A106" s="61" t="s">
-        <v>957</v>
-      </c>
-      <c r="B106" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_welcome_005</v>
-      </c>
-      <c r="C106" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_welcome_005</v>
-      </c>
-      <c r="D106" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_welcome_005</v>
-      </c>
-      <c r="E106" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_welcome_005</v>
-      </c>
-      <c r="G106" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
-      </c>
-      <c r="H106" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
-      </c>
-      <c r="I106" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_welcome_005" Value="EN/mall_welcome_005" /&gt;</v>
-      </c>
-      <c r="J106" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_welcome_005" Value="JP/mall_welcome_005" /&gt;</v>
-      </c>
+      <c r="A106" s="63" t="s">
+        <v>947</v>
+      </c>
+      <c r="E106" s="63"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="61" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="B107" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_purchase_lock</v>
+        <f t="shared" ref="B107" si="44">"CHS/"&amp;A107</f>
+        <v>CHS/mall_welcome_001</v>
       </c>
       <c r="C107" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_purchase_lock</v>
+        <f t="shared" ref="C107" si="45">"CHS/"&amp;A107</f>
+        <v>CHS/mall_welcome_001</v>
       </c>
       <c r="D107" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_purchase_lock</v>
+        <f t="shared" ref="D107" si="46">"EN/"&amp;A107</f>
+        <v>EN/mall_welcome_001</v>
       </c>
       <c r="E107" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_purchase_lock</v>
+        <f t="shared" ref="E107" si="47">"JP/"&amp;A107</f>
+        <v>JP/mall_welcome_001</v>
       </c>
       <c r="G107" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+        <f t="shared" ref="G107" si="48">IF(AND(A107&lt;&gt;"",B107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;B107&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="H107" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+        <f t="shared" ref="H107" si="49">IF(AND(A107&lt;&gt;"",C107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;C107&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="CHS/mall_welcome_001" /&gt;</v>
       </c>
       <c r="I107" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_purchase_lock" Value="EN/mall_purchase_lock" /&gt;</v>
+        <f t="shared" ref="I107" si="50">IF(AND(A107&lt;&gt;"",D107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;D107&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="EN/mall_welcome_001" /&gt;</v>
       </c>
       <c r="J107" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_purchase_lock" Value="JP/mall_purchase_lock" /&gt;</v>
+        <f t="shared" ref="J107" si="51">IF(AND(A107&lt;&gt;"",E107&lt;&gt;""),"&lt;Audio Key="""&amp;A107&amp;""" Value="""&amp;E107&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_001" Value="JP/mall_welcome_001" /&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="61" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="B108" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_suit_not_match</v>
+        <f t="shared" ref="B108:B116" si="52">"CHS/"&amp;A108</f>
+        <v>CHS/mall_welcome_002</v>
       </c>
       <c r="C108" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_suit_not_match</v>
+        <f t="shared" ref="C108:C116" si="53">"CHS/"&amp;A108</f>
+        <v>CHS/mall_welcome_002</v>
       </c>
       <c r="D108" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_suit_not_match</v>
+        <f t="shared" ref="D108:D116" si="54">"EN/"&amp;A108</f>
+        <v>EN/mall_welcome_002</v>
       </c>
       <c r="E108" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_suit_not_match</v>
+        <f t="shared" ref="E108:E116" si="55">"JP/"&amp;A108</f>
+        <v>JP/mall_welcome_002</v>
       </c>
       <c r="G108" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+        <f t="shared" ref="G108:G116" si="56">IF(AND(A108&lt;&gt;"",B108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;B108&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
       </c>
       <c r="H108" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+        <f t="shared" ref="H108:H116" si="57">IF(AND(A108&lt;&gt;"",C108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;C108&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
       </c>
       <c r="I108" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_suit_not_match" Value="EN/mall_suit_not_match" /&gt;</v>
+        <f t="shared" ref="I108:I116" si="58">IF(AND(A108&lt;&gt;"",D108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;D108&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
       </c>
       <c r="J108" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_suit_not_match" Value="JP/mall_suit_not_match" /&gt;</v>
+        <f t="shared" ref="J108:J116" si="59">IF(AND(A108&lt;&gt;"",E108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;E108&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="61" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B109" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/popup_goods_level_lock</v>
+        <f t="shared" si="52"/>
+        <v>CHS/mall_welcome_003</v>
       </c>
       <c r="C109" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/popup_goods_level_lock</v>
+        <f t="shared" si="53"/>
+        <v>CHS/mall_welcome_003</v>
       </c>
       <c r="D109" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/popup_goods_level_lock</v>
+        <f t="shared" si="54"/>
+        <v>EN/mall_welcome_003</v>
       </c>
       <c r="E109" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/popup_goods_level_lock</v>
+        <f t="shared" si="55"/>
+        <v>JP/mall_welcome_003</v>
       </c>
       <c r="G109" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
       </c>
       <c r="H109" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="CHS/mall_welcome_003" /&gt;</v>
       </c>
       <c r="I109" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="popup_goods_level_lock" Value="EN/popup_goods_level_lock" /&gt;</v>
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="EN/mall_welcome_003" /&gt;</v>
       </c>
       <c r="J109" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="popup_goods_level_lock" Value="JP/popup_goods_level_lock" /&gt;</v>
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_welcome_003" Value="JP/mall_welcome_003" /&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="61" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="B110" s="61" t="str">
-        <f t="shared" si="44"/>
-        <v>CHS/mall_purchase_qr</v>
+        <f t="shared" si="52"/>
+        <v>CHS/mall_welcome_004</v>
       </c>
       <c r="C110" s="61" t="str">
-        <f t="shared" si="45"/>
-        <v>CHS/mall_purchase_qr</v>
+        <f t="shared" si="53"/>
+        <v>CHS/mall_welcome_004</v>
       </c>
       <c r="D110" s="61" t="str">
-        <f t="shared" si="46"/>
-        <v>EN/mall_purchase_qr</v>
+        <f t="shared" si="54"/>
+        <v>EN/mall_welcome_004</v>
       </c>
       <c r="E110" s="63" t="str">
-        <f t="shared" si="47"/>
-        <v>JP/mall_purchase_qr</v>
+        <f t="shared" si="55"/>
+        <v>JP/mall_welcome_004</v>
       </c>
       <c r="G110" s="59" t="str">
-        <f t="shared" si="48"/>
-        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
       </c>
       <c r="H110" s="59" t="str">
-        <f t="shared" si="49"/>
-        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="CHS/mall_welcome_004" /&gt;</v>
       </c>
       <c r="I110" s="59" t="str">
-        <f t="shared" si="50"/>
-        <v>&lt;Audio Key="mall_purchase_qr" Value="EN/mall_purchase_qr" /&gt;</v>
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="EN/mall_welcome_004" /&gt;</v>
       </c>
       <c r="J110" s="59" t="str">
-        <f t="shared" si="51"/>
-        <v>&lt;Audio Key="mall_purchase_qr" Value="JP/mall_purchase_qr" /&gt;</v>
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_welcome_004" Value="JP/mall_welcome_004" /&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="61" t="s">
+        <v>957</v>
+      </c>
+      <c r="B111" s="61" t="str">
+        <f t="shared" si="52"/>
+        <v>CHS/mall_welcome_005</v>
+      </c>
+      <c r="C111" s="61" t="str">
+        <f t="shared" si="53"/>
+        <v>CHS/mall_welcome_005</v>
+      </c>
+      <c r="D111" s="61" t="str">
+        <f t="shared" si="54"/>
+        <v>EN/mall_welcome_005</v>
+      </c>
+      <c r="E111" s="63" t="str">
+        <f t="shared" si="55"/>
+        <v>JP/mall_welcome_005</v>
+      </c>
+      <c r="G111" s="59" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="H111" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="CHS/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="I111" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="EN/mall_welcome_005" /&gt;</v>
+      </c>
+      <c r="J111" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_welcome_005" Value="JP/mall_welcome_005" /&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="61" t="s">
+        <v>948</v>
+      </c>
+      <c r="B112" s="61" t="str">
+        <f t="shared" si="52"/>
+        <v>CHS/mall_purchase_lock</v>
+      </c>
+      <c r="C112" s="61" t="str">
+        <f t="shared" si="53"/>
+        <v>CHS/mall_purchase_lock</v>
+      </c>
+      <c r="D112" s="61" t="str">
+        <f t="shared" si="54"/>
+        <v>EN/mall_purchase_lock</v>
+      </c>
+      <c r="E112" s="63" t="str">
+        <f t="shared" si="55"/>
+        <v>JP/mall_purchase_lock</v>
+      </c>
+      <c r="G112" s="59" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="H112" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="CHS/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="I112" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="EN/mall_purchase_lock" /&gt;</v>
+      </c>
+      <c r="J112" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_purchase_lock" Value="JP/mall_purchase_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A113" s="61" t="s">
+        <v>949</v>
+      </c>
+      <c r="B113" s="61" t="str">
+        <f t="shared" si="52"/>
+        <v>CHS/mall_suit_not_match</v>
+      </c>
+      <c r="C113" s="61" t="str">
+        <f t="shared" si="53"/>
+        <v>CHS/mall_suit_not_match</v>
+      </c>
+      <c r="D113" s="61" t="str">
+        <f t="shared" si="54"/>
+        <v>EN/mall_suit_not_match</v>
+      </c>
+      <c r="E113" s="63" t="str">
+        <f t="shared" si="55"/>
+        <v>JP/mall_suit_not_match</v>
+      </c>
+      <c r="G113" s="59" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="H113" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="CHS/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="I113" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="EN/mall_suit_not_match" /&gt;</v>
+      </c>
+      <c r="J113" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_suit_not_match" Value="JP/mall_suit_not_match" /&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A114" s="61" t="s">
+        <v>950</v>
+      </c>
+      <c r="B114" s="61" t="str">
+        <f t="shared" si="52"/>
+        <v>CHS/popup_goods_level_lock</v>
+      </c>
+      <c r="C114" s="61" t="str">
+        <f t="shared" si="53"/>
+        <v>CHS/popup_goods_level_lock</v>
+      </c>
+      <c r="D114" s="61" t="str">
+        <f t="shared" si="54"/>
+        <v>EN/popup_goods_level_lock</v>
+      </c>
+      <c r="E114" s="63" t="str">
+        <f t="shared" si="55"/>
+        <v>JP/popup_goods_level_lock</v>
+      </c>
+      <c r="G114" s="59" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="H114" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="CHS/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="I114" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="EN/popup_goods_level_lock" /&gt;</v>
+      </c>
+      <c r="J114" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="popup_goods_level_lock" Value="JP/popup_goods_level_lock" /&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A115" s="61" t="s">
+        <v>951</v>
+      </c>
+      <c r="B115" s="61" t="str">
+        <f t="shared" si="52"/>
+        <v>CHS/mall_purchase_qr</v>
+      </c>
+      <c r="C115" s="61" t="str">
+        <f t="shared" si="53"/>
+        <v>CHS/mall_purchase_qr</v>
+      </c>
+      <c r="D115" s="61" t="str">
+        <f t="shared" si="54"/>
+        <v>EN/mall_purchase_qr</v>
+      </c>
+      <c r="E115" s="63" t="str">
+        <f t="shared" si="55"/>
+        <v>JP/mall_purchase_qr</v>
+      </c>
+      <c r="G115" s="59" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="H115" s="59" t="str">
+        <f t="shared" si="57"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="I115" s="59" t="str">
+        <f t="shared" si="58"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="EN/mall_purchase_qr" /&gt;</v>
+      </c>
+      <c r="J115" s="59" t="str">
+        <f t="shared" si="59"/>
+        <v>&lt;Audio Key="mall_purchase_qr" Value="JP/mall_purchase_qr" /&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="61" t="s">
         <v>952</v>
       </c>
-      <c r="B111" s="61" t="str">
-        <f t="shared" si="44"/>
+      <c r="B116" s="61" t="str">
+        <f t="shared" si="52"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="C111" s="61" t="str">
-        <f t="shared" si="45"/>
+      <c r="C116" s="61" t="str">
+        <f t="shared" si="53"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="D111" s="61" t="str">
-        <f t="shared" si="46"/>
+      <c r="D116" s="61" t="str">
+        <f t="shared" si="54"/>
         <v>EN/mall_purchase_qr_complete</v>
       </c>
-      <c r="E111" s="63" t="str">
-        <f t="shared" si="47"/>
+      <c r="E116" s="63" t="str">
+        <f t="shared" si="55"/>
         <v>JP/mall_purchase_qr_complete</v>
       </c>
-      <c r="G111" s="59" t="str">
-        <f t="shared" si="48"/>
+      <c r="G116" s="59" t="str">
+        <f t="shared" si="56"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="H111" s="59" t="str">
-        <f t="shared" si="49"/>
+      <c r="H116" s="59" t="str">
+        <f t="shared" si="57"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="I111" s="59" t="str">
-        <f t="shared" si="50"/>
+      <c r="I116" s="59" t="str">
+        <f t="shared" si="58"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="EN/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="J111" s="59" t="str">
-        <f t="shared" si="51"/>
+      <c r="J116" s="59" t="str">
+        <f t="shared" si="59"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="JP/mall_purchase_qr_complete" /&gt;</v>
       </c>
     </row>
@@ -19324,43 +19559,51 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A29:A42 A1:E28 A43:E100 A112:E1048576 A108:A111">
-    <cfRule type="expression" dxfId="17" priority="20">
+  <conditionalFormatting sqref="A29:A42 A1:E28 A43:E89 A117:E1048576 A113:A116 A95:E105 B90:E94">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="0" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E42">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="21" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A101:E101 B102:E111">
-    <cfRule type="expression" dxfId="13" priority="16">
+  <conditionalFormatting sqref="A106:E106 B107:E116">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107">
-    <cfRule type="expression" dxfId="11" priority="8">
+  <conditionalFormatting sqref="A112">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:A106">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="A107:A111">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:A94">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28316,31 +28559,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A318:E1048576 A1:E3 B4:E317">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="13" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:A317">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="12" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A245">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HankConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F38375-61E0-4BCA-93DA-5379E8182A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B457129E-F11A-4145-A058-D38F51654B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>EDZ</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48F66A54-CD21-4F10-9725-4EF3248DCFB3}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{432F60B4-24CE-4A8B-B2D2-AAB5FEAAA6EF}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="975">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4128,18 +4128,6 @@
     <t>已拥有</t>
   </si>
   <si>
-    <t>已拥有|HKHB</t>
-  </si>
-  <si>
-    <t>已擁有|DFPT</t>
-  </si>
-  <si>
-    <t>owned|DFPT</t>
-  </si>
-  <si>
-    <t>持っている|Pomeranian</t>
-  </si>
-  <si>
     <t>ai_popup_no_network</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4157,6 +4145,45 @@
   </si>
   <si>
     <t>feed_welcome_xmas_005</t>
+  </si>
+  <si>
+    <t>mall_lock_time</t>
+  </si>
+  <si>
+    <t>加载中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拥有|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载中|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已擁有|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加載中|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owned|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持っている|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダウンロード中|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4713,7 +4740,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4739,41 +4780,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5498,66 +5504,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_5" displayName="表2_5" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="语言" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="单词" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="简写" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2_579" displayName="表2_579" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="字体" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="简称" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="描述" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A2:E1048575" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Key" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Chinese Simplified" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Chinese Traditonal" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="English" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Japanese" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表1" displayName="表1" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Key" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Chinese Simplified" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Chinese Traditonal" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="English" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Japanese" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表1_4" displayName="表1_4" ref="A2:E1048576" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A2:E1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Key" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Chinese Simplified" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Chinese Traditonal" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="English" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Japanese" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6338,7 +6344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E82420-C90B-43CE-B56B-16360549E7A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13166,10 +13172,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J321" xr:uid="{80525AF8-ED01-4BDB-BE14-6F8958DAAA74}"/>
+  <autoFilter ref="J1:J321" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13374,13 +13380,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13843,19 +13849,19 @@
         <v>316</v>
       </c>
       <c r="G15" s="44" t="str">
-        <f t="shared" ref="G15:G16" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
+        <f t="shared" ref="G15:G18" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="关卡进度|HKHB" /&gt;</v>
       </c>
       <c r="H15" s="44" t="str">
-        <f t="shared" ref="H15:H16" si="17">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;C15&amp;""" /&gt;"</f>
+        <f t="shared" ref="H15:H18" si="17">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;C15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="關卡進度|DFPT" /&gt;</v>
       </c>
       <c r="I15" s="44" t="str">
-        <f t="shared" ref="I15:I16" si="18">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;D15&amp;""" /&gt;"</f>
+        <f t="shared" ref="I15:I18" si="18">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;D15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="Progress|DFPT" /&gt;</v>
       </c>
       <c r="J15" s="44" t="str">
-        <f t="shared" ref="J15:J16" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
+        <f t="shared" ref="J15:J18" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
         <v>&lt;Text Key="关卡进度" Value="進行状況|Pomeranian" /&gt;</v>
       </c>
     </row>
@@ -13897,16 +13903,16 @@
         <v>958</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="E17" s="73" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="G17" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
@@ -13923,6 +13929,39 @@
       <c r="J17" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;E17&amp;""" /&gt;"</f>
         <v>&lt;Text Key="已拥有" Value="持っている|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>966</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>968</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>970</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>972</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>974</v>
+      </c>
+      <c r="G18" s="44" t="str">
+        <f t="shared" si="16"/>
+        <v>&lt;Text Key="加载中" Value="加载中|HKHB" /&gt;</v>
+      </c>
+      <c r="H18" s="44" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;Text Key="加载中" Value="加載中|DFPT" /&gt;</v>
+      </c>
+      <c r="I18" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;Text Key="加载中" Value="Loading|DFPT" /&gt;</v>
+      </c>
+      <c r="J18" s="44" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;Text Key="加载中" Value="ダウンロード中|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -14346,7 +14385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF947AC-89FA-4CC2-B72C-B72AB83DE7D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15393,10 +15432,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15406,14 +15445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA0F124-37B9-4400-8112-FB79A8848076}">
-  <dimension ref="A1:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90:G94"/>
+      <selection pane="bottomRight" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16874,7 +16913,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="61" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B42" s="61" t="str">
         <f t="shared" si="8"/>
@@ -18619,7 +18658,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="61" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="B90" s="61" t="str">
         <f t="shared" ref="B90:B94" si="28">"CHS/"&amp;A90</f>
@@ -18656,7 +18695,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="61" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B91" s="61" t="str">
         <f t="shared" si="28"/>
@@ -18693,7 +18732,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="61" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B92" s="61" t="str">
         <f t="shared" si="28"/>
@@ -18730,7 +18769,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="61" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B93" s="61" t="str">
         <f t="shared" si="28"/>
@@ -18767,7 +18806,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="61" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B94" s="61" t="str">
         <f t="shared" si="28"/>
@@ -19226,35 +19265,35 @@
         <v>954</v>
       </c>
       <c r="B108" s="61" t="str">
-        <f t="shared" ref="B108:B116" si="52">"CHS/"&amp;A108</f>
+        <f t="shared" ref="B108:B117" si="52">"CHS/"&amp;A108</f>
         <v>CHS/mall_welcome_002</v>
       </c>
       <c r="C108" s="61" t="str">
-        <f t="shared" ref="C108:C116" si="53">"CHS/"&amp;A108</f>
+        <f t="shared" ref="C108:C117" si="53">"CHS/"&amp;A108</f>
         <v>CHS/mall_welcome_002</v>
       </c>
       <c r="D108" s="61" t="str">
-        <f t="shared" ref="D108:D116" si="54">"EN/"&amp;A108</f>
+        <f t="shared" ref="D108:D117" si="54">"EN/"&amp;A108</f>
         <v>EN/mall_welcome_002</v>
       </c>
       <c r="E108" s="63" t="str">
-        <f t="shared" ref="E108:E116" si="55">"JP/"&amp;A108</f>
+        <f t="shared" ref="E108:E117" si="55">"JP/"&amp;A108</f>
         <v>JP/mall_welcome_002</v>
       </c>
       <c r="G108" s="59" t="str">
-        <f t="shared" ref="G108:G116" si="56">IF(AND(A108&lt;&gt;"",B108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;B108&amp;""" /&gt;","")</f>
+        <f t="shared" ref="G108:G117" si="56">IF(AND(A108&lt;&gt;"",B108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;B108&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
       </c>
       <c r="H108" s="59" t="str">
-        <f t="shared" ref="H108:H116" si="57">IF(AND(A108&lt;&gt;"",C108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;C108&amp;""" /&gt;","")</f>
+        <f t="shared" ref="H108:H117" si="57">IF(AND(A108&lt;&gt;"",C108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;C108&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_002" Value="CHS/mall_welcome_002" /&gt;</v>
       </c>
       <c r="I108" s="59" t="str">
-        <f t="shared" ref="I108:I116" si="58">IF(AND(A108&lt;&gt;"",D108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;D108&amp;""" /&gt;","")</f>
+        <f t="shared" ref="I108:I117" si="58">IF(AND(A108&lt;&gt;"",D108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;D108&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_002" Value="EN/mall_welcome_002" /&gt;</v>
       </c>
       <c r="J108" s="59" t="str">
-        <f t="shared" ref="J108:J116" si="59">IF(AND(A108&lt;&gt;"",E108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;E108&amp;""" /&gt;","")</f>
+        <f t="shared" ref="J108:J117" si="59">IF(AND(A108&lt;&gt;"",E108&lt;&gt;""),"&lt;Audio Key="""&amp;A108&amp;""" Value="""&amp;E108&amp;""" /&gt;","")</f>
         <v>&lt;Audio Key="mall_welcome_002" Value="JP/mall_welcome_002" /&gt;</v>
       </c>
     </row>
@@ -19482,74 +19521,111 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="61" t="s">
+        <v>965</v>
+      </c>
+      <c r="B115" s="61" t="str">
+        <f t="shared" ref="B115" si="60">"CHS/"&amp;A115</f>
+        <v>CHS/mall_lock_time</v>
+      </c>
+      <c r="C115" s="61" t="str">
+        <f t="shared" ref="C115" si="61">"CHS/"&amp;A115</f>
+        <v>CHS/mall_lock_time</v>
+      </c>
+      <c r="D115" s="61" t="str">
+        <f t="shared" ref="D115" si="62">"EN/"&amp;A115</f>
+        <v>EN/mall_lock_time</v>
+      </c>
+      <c r="E115" s="63" t="str">
+        <f t="shared" ref="E115" si="63">"JP/"&amp;A115</f>
+        <v>JP/mall_lock_time</v>
+      </c>
+      <c r="G115" s="59" t="str">
+        <f t="shared" ref="G115" si="64">IF(AND(A115&lt;&gt;"",B115&lt;&gt;""),"&lt;Audio Key="""&amp;A115&amp;""" Value="""&amp;B115&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_lock_time" Value="CHS/mall_lock_time" /&gt;</v>
+      </c>
+      <c r="H115" s="59" t="str">
+        <f t="shared" ref="H115" si="65">IF(AND(A115&lt;&gt;"",C115&lt;&gt;""),"&lt;Audio Key="""&amp;A115&amp;""" Value="""&amp;C115&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_lock_time" Value="CHS/mall_lock_time" /&gt;</v>
+      </c>
+      <c r="I115" s="59" t="str">
+        <f t="shared" ref="I115" si="66">IF(AND(A115&lt;&gt;"",D115&lt;&gt;""),"&lt;Audio Key="""&amp;A115&amp;""" Value="""&amp;D115&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_lock_time" Value="EN/mall_lock_time" /&gt;</v>
+      </c>
+      <c r="J115" s="59" t="str">
+        <f t="shared" ref="J115" si="67">IF(AND(A115&lt;&gt;"",E115&lt;&gt;""),"&lt;Audio Key="""&amp;A115&amp;""" Value="""&amp;E115&amp;""" /&gt;","")</f>
+        <v>&lt;Audio Key="mall_lock_time" Value="JP/mall_lock_time" /&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A116" s="61" t="s">
         <v>951</v>
       </c>
-      <c r="B115" s="61" t="str">
+      <c r="B116" s="61" t="str">
         <f t="shared" si="52"/>
         <v>CHS/mall_purchase_qr</v>
       </c>
-      <c r="C115" s="61" t="str">
+      <c r="C116" s="61" t="str">
         <f t="shared" si="53"/>
         <v>CHS/mall_purchase_qr</v>
       </c>
-      <c r="D115" s="61" t="str">
+      <c r="D116" s="61" t="str">
         <f t="shared" si="54"/>
         <v>EN/mall_purchase_qr</v>
       </c>
-      <c r="E115" s="63" t="str">
+      <c r="E116" s="63" t="str">
         <f t="shared" si="55"/>
         <v>JP/mall_purchase_qr</v>
       </c>
-      <c r="G115" s="59" t="str">
+      <c r="G116" s="59" t="str">
         <f t="shared" si="56"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="H115" s="59" t="str">
+      <c r="H116" s="59" t="str">
         <f t="shared" si="57"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="CHS/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="I115" s="59" t="str">
+      <c r="I116" s="59" t="str">
         <f t="shared" si="58"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="EN/mall_purchase_qr" /&gt;</v>
       </c>
-      <c r="J115" s="59" t="str">
+      <c r="J116" s="59" t="str">
         <f t="shared" si="59"/>
         <v>&lt;Audio Key="mall_purchase_qr" Value="JP/mall_purchase_qr" /&gt;</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A116" s="61" t="s">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A117" s="61" t="s">
         <v>952</v>
       </c>
-      <c r="B116" s="61" t="str">
+      <c r="B117" s="61" t="str">
         <f t="shared" si="52"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="C116" s="61" t="str">
+      <c r="C117" s="61" t="str">
         <f t="shared" si="53"/>
         <v>CHS/mall_purchase_qr_complete</v>
       </c>
-      <c r="D116" s="61" t="str">
+      <c r="D117" s="61" t="str">
         <f t="shared" si="54"/>
         <v>EN/mall_purchase_qr_complete</v>
       </c>
-      <c r="E116" s="63" t="str">
+      <c r="E117" s="63" t="str">
         <f t="shared" si="55"/>
         <v>JP/mall_purchase_qr_complete</v>
       </c>
-      <c r="G116" s="59" t="str">
+      <c r="G117" s="59" t="str">
         <f t="shared" si="56"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="H116" s="59" t="str">
+      <c r="H117" s="59" t="str">
         <f t="shared" si="57"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="CHS/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="I116" s="59" t="str">
+      <c r="I117" s="59" t="str">
         <f t="shared" si="58"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="EN/mall_purchase_qr_complete" /&gt;</v>
       </c>
-      <c r="J116" s="59" t="str">
+      <c r="J117" s="59" t="str">
         <f t="shared" si="59"/>
         <v>&lt;Audio Key="mall_purchase_qr_complete" Value="JP/mall_purchase_qr_complete" /&gt;</v>
       </c>
@@ -19559,51 +19635,51 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A29:A42 A1:E28 A43:E89 A117:E1048576 A113:A116 A95:E105 B90:E94">
-    <cfRule type="expression" dxfId="1" priority="25">
+  <conditionalFormatting sqref="A29:A42 A1:E28 A43:E89 A95:E105 B90:E94 A113 A114:E1048576 B107:E113">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:E42">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A106:E106 B107:E116">
-    <cfRule type="expression" dxfId="20" priority="21">
+  <conditionalFormatting sqref="A106:E106">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112">
-    <cfRule type="expression" dxfId="18" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:A111">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:A94">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19613,7 +19689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D543F88-0E96-47F6-A187-772AE850150C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28559,31 +28635,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A318:E1048576 A1:E3 B4:E317">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246:A317">
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A245">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576 J1:J1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$J$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">页面统计!$A$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="980">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4138,6 +4137,26 @@
   </si>
   <si>
     <t>Texture/PetFeed/View/limited_JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/Expression/View/txt_friends_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/Expression/View/txt_friends_tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/Expression/View/txt_friends_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/Expression/View/txt_friends_jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5771,7 +5790,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13928,10 +13947,10 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14079,7 +14098,37 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48"/>
+      <c r="A6" s="48" t="s">
+        <v>975</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>976</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>977</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>978</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="G6" s="44" t="str">
+        <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;B6&amp;""" /&gt;"</f>
+        <v>&lt;Image Key="MyFriend" Value="Texture/Expression/View/txt_friends_cn" /&gt;</v>
+      </c>
+      <c r="H6" s="44" t="str">
+        <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;C6&amp;""" /&gt;"</f>
+        <v>&lt;Image Key="MyFriend" Value="Texture/Expression/View/txt_friends_tw" /&gt;</v>
+      </c>
+      <c r="I6" s="44" t="str">
+        <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;D6&amp;""" /&gt;"</f>
+        <v>&lt;Image Key="MyFriend" Value="Texture/Expression/View/txt_friends_en" /&gt;</v>
+      </c>
+      <c r="J6" s="44" t="str">
+        <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;E6&amp;""" /&gt;"</f>
+        <v>&lt;Image Key="MyFriend" Value="Texture/Expression/View/txt_friends_jp" /&gt;</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="48"/>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="985">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4157,6 +4157,26 @@
   </si>
   <si>
     <t>Texture/Expression/View/txt_friends_jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水继续表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drink to continue～ ;)|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>続行するには水を飲む～ ;)|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水才能继续哟～ ;P|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水才能繼續呦～ ;P|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5798,6 +5818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6311,6 +6332,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,7 +6342,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13152,6 +13174,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13241,6 +13264,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13345,13 +13369,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13929,6 +13954,39 @@
         <v>&lt;Text Key="加载中" Value="ダウンロード中|Pomeranian" /&gt;</v>
       </c>
     </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>983</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>984</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>981</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>982</v>
+      </c>
+      <c r="G19" s="44" t="str">
+        <f t="shared" ref="G19" si="20">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;B19&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水继续表情" Value="喝水才能继续哟～ ;P|HKHB" /&gt;</v>
+      </c>
+      <c r="H19" s="44" t="str">
+        <f t="shared" ref="H19" si="21">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;C19&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水继续表情" Value="喝水才能繼續呦～ ;P|DFPT" /&gt;</v>
+      </c>
+      <c r="I19" s="44" t="str">
+        <f t="shared" ref="I19" si="22">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;D19&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水继续表情" Value="Drink to continue～ ;)|DFPT" /&gt;</v>
+      </c>
+      <c r="J19" s="44" t="str">
+        <f t="shared" ref="J19" si="23">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;E19&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水继续表情" Value="続行するには水を飲む～ ;)|Pomeranian" /&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
@@ -13944,9 +14002,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -14148,6 +14207,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14381,6 +14441,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15441,6 +15502,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19685,6 +19747,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="990">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4177,6 +4177,26 @@
   </si>
   <si>
     <t>喝水才能繼續呦～ ;P|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水获得表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水达标就能获得表情道具哦！|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get emoji items when you hit the daily goal!|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水を飲んで顔を表す道具を獲得します。|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喝水達標就能獲得表情道具哦！|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5810,7 +5830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6342,7 +6362,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13370,13 +13390,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13985,6 +14005,39 @@
       <c r="J19" s="44" t="str">
         <f t="shared" ref="J19" si="23">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;E19&amp;""" /&gt;"</f>
         <v>&lt;Text Key="喝水继续表情" Value="続行するには水を飲む～ ;)|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="45" t="s">
+        <v>985</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>986</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>989</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>987</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>988</v>
+      </c>
+      <c r="G20" s="44" t="str">
+        <f t="shared" ref="G20" si="24">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;B20&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水获得表情" Value="喝水达标就能获得表情道具哦！|HKHB" /&gt;</v>
+      </c>
+      <c r="H20" s="44" t="str">
+        <f t="shared" ref="H20" si="25">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;C20&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水获得表情" Value="喝水達標就能獲得表情道具哦！|DFPT" /&gt;</v>
+      </c>
+      <c r="I20" s="44" t="str">
+        <f t="shared" ref="I20" si="26">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;D20&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水获得表情" Value="Get emoji items when you hit the daily goal!|DFPT" /&gt;</v>
+      </c>
+      <c r="J20" s="44" t="str">
+        <f t="shared" ref="J20" si="27">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;E20&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="喝水获得表情" Value="水を飲んで顔を表す道具を獲得します。|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="995">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4197,6 +4197,26 @@
   </si>
   <si>
     <t>喝水達標就能獲得表情道具哦！|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件箱|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件箱|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbox|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳尼|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5830,7 +5850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13390,13 +13410,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14038,6 +14058,39 @@
       <c r="J20" s="44" t="str">
         <f t="shared" ref="J20" si="27">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;E20&amp;""" /&gt;"</f>
         <v>&lt;Text Key="喝水获得表情" Value="水を飲んで顔を表す道具を獲得します。|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="45" t="s">
+        <v>990</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>991</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>992</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>993</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>994</v>
+      </c>
+      <c r="G21" s="44" t="str">
+        <f t="shared" ref="G21" si="28">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;B21&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="收件箱" Value="收件箱|HKHB" /&gt;</v>
+      </c>
+      <c r="H21" s="44" t="str">
+        <f t="shared" ref="H21" si="29">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;C21&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="收件箱" Value="收件箱|DFPT" /&gt;</v>
+      </c>
+      <c r="I21" s="44" t="str">
+        <f t="shared" ref="I21" si="30">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;D21&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="收件箱" Value="Inbox|DFPT" /&gt;</v>
+      </c>
+      <c r="J21" s="44" t="str">
+        <f t="shared" ref="J21" si="31">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;E21&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="收件箱" Value="纳尼|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1009">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4216,7 +4216,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纳尼|Pomeranian</t>
+    <t>给你发来一个好友申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你发来一个好友申请|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>給你發來一個好友申請|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達申請を送信する|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受信トレイ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend request|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友達リクエスト|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申請|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統消息|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统消息|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>システム|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5850,7 +5906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13410,13 +13466,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14074,7 +14130,7 @@
         <v>993</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="G21" s="44" t="str">
         <f t="shared" ref="G21" si="28">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;B21&amp;""" /&gt;"</f>
@@ -14090,7 +14146,106 @@
       </c>
       <c r="J21" s="44" t="str">
         <f t="shared" ref="J21" si="31">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;E21&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="收件箱" Value="纳尼|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="收件箱" Value="受信トレイ|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>995</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>996</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>999</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>997</v>
+      </c>
+      <c r="G22" s="44" t="str">
+        <f t="shared" ref="G22" si="32">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;B22&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="给你发来一个好友申请" Value="给你发来一个好友申请|HKHB" /&gt;</v>
+      </c>
+      <c r="H22" s="44" t="str">
+        <f t="shared" ref="H22" si="33">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;C22&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="给你发来一个好友申请" Value="給你發來一個好友申請|DFPT" /&gt;</v>
+      </c>
+      <c r="I22" s="44" t="str">
+        <f t="shared" ref="I22" si="34">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;D22&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="给你发来一个好友申请" Value="Friend request|DFPT" /&gt;</v>
+      </c>
+      <c r="J22" s="44" t="str">
+        <f t="shared" ref="J22" si="35">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;E22&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="给你发来一个好友申请" Value="友達申請を送信する|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>999</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="44" t="str">
+        <f t="shared" ref="G23" si="36">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;B23&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="好友申请" Value="好友申请|HKHB" /&gt;</v>
+      </c>
+      <c r="H23" s="44" t="str">
+        <f t="shared" ref="H23" si="37">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;C23&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="好友申请" Value="好友申請|DFPT" /&gt;</v>
+      </c>
+      <c r="I23" s="44" t="str">
+        <f t="shared" ref="I23" si="38">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;D23&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="好友申请" Value="Friend request|DFPT" /&gt;</v>
+      </c>
+      <c r="J23" s="44" t="str">
+        <f t="shared" ref="J23" si="39">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;E23&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="好友申请" Value="友達リクエスト|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="45" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G24" s="44" t="str">
+        <f t="shared" ref="G24" si="40">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;B24&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="系统消息" Value="系统消息|HKHB" /&gt;</v>
+      </c>
+      <c r="H24" s="44" t="str">
+        <f t="shared" ref="H24" si="41">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;C24&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="系统消息" Value="系統消息|DFPT" /&gt;</v>
+      </c>
+      <c r="I24" s="44" t="str">
+        <f t="shared" ref="I24" si="42">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;D24&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="系统消息" Value="System|DFPT" /&gt;</v>
+      </c>
+      <c r="J24" s="44" t="str">
+        <f t="shared" ref="J24" si="43">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;E24&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="系统消息" Value="システム|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -2096,27 +2096,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>レベル{0}でロック解除可能|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>限定|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>売り切れ|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>コインが足りない|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DL中止|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>進行状況|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3988,10 +3968,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ふ化{0}|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>feed_welcome_dk_001</t>
   </si>
   <si>
@@ -4116,14 +4092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持っている|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ダウンロード中|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Texture/PetFeed/View/limited_CHS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4168,10 +4136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>続行するには水を飲む～ ;)|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>喝水才能继续哟～ ;P|HKHB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4273,6 +4237,42 @@
   </si>
   <si>
     <t>システム|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>レベル{0}でロック解除|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロック解除{0}|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完売|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コインが不足しています|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ダウンロードを中止する|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進捗状況|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有済|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ローディング|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲んで続ける～ ;)|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4606,7 +4606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4817,6 +4817,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5569,6 +5575,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD10D"/>
       <color rgb="FF71D597"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFFFFFF"/>
@@ -5906,7 +5913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6438,7 +6445,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -6455,38 +6462,38 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="67" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C1" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F1" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="H1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E2" t="str">
         <f>MID(C2, FIND(" ",C2,33)+1, LEN(C2)-FIND(" ",C2,33) - 4)</f>
         <v>ai_popup_not_activated</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H2" s="65">
         <f t="shared" ref="H2:H65" si="0">COUNTIF(A:A,E2)</f>
@@ -6499,11 +6506,11 @@
     </row>
     <row r="3" spans="1:10" ht="15">
       <c r="A3" s="66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="2">MID(C3, FIND(" ",C3,33)+1, LEN(C3)-FIND(" ",C3,33) - 4)</f>
@@ -6527,7 +6534,7 @@
       </c>
       <c r="B4" s="70"/>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="2"/>
@@ -6551,14 +6558,14 @@
       </c>
       <c r="B5" s="70"/>
       <c r="C5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_01</v>
       </c>
       <c r="F5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H5" s="65">
         <f t="shared" si="0"/>
@@ -6575,14 +6582,14 @@
       </c>
       <c r="B6" s="70"/>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_02</v>
       </c>
       <c r="F6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H6" s="65">
         <f t="shared" si="0"/>
@@ -6595,18 +6602,18 @@
     </row>
     <row r="7" spans="1:10" ht="15">
       <c r="A7" s="66" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="2"/>
         <v>dony_eat_act_03</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H7" s="65">
         <f t="shared" si="0"/>
@@ -6619,18 +6626,18 @@
     </row>
     <row r="8" spans="1:10" ht="15">
       <c r="A8" s="66" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_fail_01</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H8" s="65">
         <f t="shared" si="0"/>
@@ -6643,18 +6650,18 @@
     </row>
     <row r="9" spans="1:10" ht="15">
       <c r="A9" s="66" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_01</v>
       </c>
       <c r="F9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H9" s="65">
         <f t="shared" si="0"/>
@@ -6671,14 +6678,14 @@
       </c>
       <c r="B10" s="70"/>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_back_01</v>
       </c>
       <c r="F10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H10" s="65">
         <f t="shared" si="0"/>
@@ -6695,14 +6702,14 @@
       </c>
       <c r="B11" s="70"/>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_guest_out_01</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H11" s="65">
         <f t="shared" si="0"/>
@@ -6715,18 +6722,18 @@
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="66" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_host_01</v>
       </c>
       <c r="F12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H12" s="65">
         <f t="shared" si="0"/>
@@ -6743,14 +6750,14 @@
       </c>
       <c r="B13" s="70"/>
       <c r="C13" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H13" s="65">
         <f t="shared" si="0"/>
@@ -6767,14 +6774,14 @@
       </c>
       <c r="B14" s="70"/>
       <c r="C14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01_01</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H14" s="65">
         <f t="shared" si="0"/>
@@ -6791,14 +6798,14 @@
       </c>
       <c r="B15" s="70"/>
       <c r="C15" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
         <v>dony_friend_search_01_02</v>
       </c>
       <c r="F15" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H15" s="65">
         <f t="shared" si="0"/>
@@ -6811,18 +6818,18 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="66" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B16" s="70"/>
       <c r="C16" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
         <v>dony_hello_01</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H16" s="65">
         <f t="shared" si="0"/>
@@ -6839,14 +6846,14 @@
       </c>
       <c r="B17" s="70"/>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
         <v>dony_level_end_01</v>
       </c>
       <c r="F17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H17" s="65">
         <f t="shared" si="0"/>
@@ -6863,14 +6870,14 @@
       </c>
       <c r="B18" s="70"/>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_01</v>
       </c>
       <c r="F18" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H18" s="65">
         <f t="shared" si="0"/>
@@ -6887,14 +6894,14 @@
       </c>
       <c r="B19" s="70"/>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_02</v>
       </c>
       <c r="F19" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H19" s="65">
         <f t="shared" si="0"/>
@@ -6911,14 +6918,14 @@
       </c>
       <c r="B20" s="70"/>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_03</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H20" s="65">
         <f t="shared" si="0"/>
@@ -6935,14 +6942,14 @@
       </c>
       <c r="B21" s="70"/>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_04</v>
       </c>
       <c r="F21" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H21" s="65">
         <f t="shared" si="0"/>
@@ -6959,14 +6966,14 @@
       </c>
       <c r="B22" s="70"/>
       <c r="C22" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_05</v>
       </c>
       <c r="F22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H22" s="65">
         <f t="shared" si="0"/>
@@ -6983,14 +6990,14 @@
       </c>
       <c r="B23" s="70"/>
       <c r="C23" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_06</v>
       </c>
       <c r="F23" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H23" s="65">
         <f t="shared" si="0"/>
@@ -7003,18 +7010,18 @@
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="66" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_07</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H24" s="65">
         <f t="shared" si="0"/>
@@ -7031,14 +7038,14 @@
       </c>
       <c r="B25" s="70"/>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="2"/>
         <v>dony_morning_01_08</v>
       </c>
       <c r="F25" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H25" s="65">
         <f t="shared" si="0"/>
@@ -7055,14 +7062,14 @@
       </c>
       <c r="B26" s="70"/>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H26" s="65">
         <f t="shared" si="0"/>
@@ -7075,18 +7082,18 @@
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="66" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_01</v>
       </c>
       <c r="F27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H27" s="65">
         <f t="shared" si="0"/>
@@ -7103,14 +7110,14 @@
       </c>
       <c r="B28" s="71"/>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_02</v>
       </c>
       <c r="F28" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H28" s="65">
         <f t="shared" si="0"/>
@@ -7127,14 +7134,14 @@
       </c>
       <c r="B29" s="70"/>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="2"/>
         <v>dony_nod_01_03</v>
       </c>
       <c r="F29" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H29" s="65">
         <f t="shared" si="0"/>
@@ -7151,14 +7158,14 @@
       </c>
       <c r="B30" s="70"/>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01</v>
       </c>
       <c r="F30" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H30" s="65">
         <f t="shared" si="0"/>
@@ -7175,14 +7182,14 @@
       </c>
       <c r="B31" s="70"/>
       <c r="C31" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01_01</v>
       </c>
       <c r="F31" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H31" s="65">
         <f t="shared" si="0"/>
@@ -7199,14 +7206,14 @@
       </c>
       <c r="B32" s="70"/>
       <c r="C32" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_down_01_02</v>
       </c>
       <c r="F32" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H32" s="65">
         <f t="shared" si="0"/>
@@ -7223,14 +7230,14 @@
       </c>
       <c r="B33" s="70"/>
       <c r="C33" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01</v>
       </c>
       <c r="F33" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H33" s="65">
         <f t="shared" si="0"/>
@@ -7247,14 +7254,14 @@
       </c>
       <c r="B34" s="70"/>
       <c r="C34" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_01</v>
       </c>
       <c r="F34" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H34" s="65">
         <f t="shared" si="0"/>
@@ -7271,14 +7278,14 @@
       </c>
       <c r="B35" s="70"/>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_02</v>
       </c>
       <c r="F35" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H35" s="65">
         <f t="shared" si="0"/>
@@ -7295,14 +7302,14 @@
       </c>
       <c r="B36" s="70"/>
       <c r="C36" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_01_03</v>
       </c>
       <c r="F36" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H36" s="65">
         <f t="shared" si="0"/>
@@ -7319,14 +7326,14 @@
       </c>
       <c r="B37" s="70"/>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_01</v>
       </c>
       <c r="F37" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H37" s="65">
         <f t="shared" si="0"/>
@@ -7339,18 +7346,18 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="66" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B38" s="70"/>
       <c r="C38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_02</v>
       </c>
       <c r="F38" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H38" s="65">
         <f t="shared" si="0"/>
@@ -7363,18 +7370,18 @@
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="66" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="2"/>
         <v>dony_play_up_down_01_03</v>
       </c>
       <c r="F39" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H39" s="65">
         <f t="shared" si="0"/>
@@ -7387,18 +7394,18 @@
     </row>
     <row r="40" spans="1:10" ht="15">
       <c r="A40" s="66" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B40" s="70"/>
       <c r="C40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
         <v>evel_up_nuo_01</v>
       </c>
       <c r="F40" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H40" s="65">
         <f t="shared" si="0"/>
@@ -7411,18 +7418,18 @@
     </row>
     <row r="41" spans="1:10" ht="15">
       <c r="A41" s="66" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B41" s="70"/>
       <c r="C41" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="2"/>
         <v>evel_up_nuo_02</v>
       </c>
       <c r="F41" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H41" s="65">
         <f t="shared" si="0"/>
@@ -7435,18 +7442,18 @@
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="66" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_001</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H42" s="65">
         <f t="shared" si="0"/>
@@ -7459,18 +7466,18 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="66" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B43" s="70"/>
       <c r="C43" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_002</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H43" s="65">
         <f t="shared" si="0"/>
@@ -7483,18 +7490,18 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="66" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B44" s="70"/>
       <c r="C44" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
         <v>feed_hungry_alert_003</v>
       </c>
       <c r="F44" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H44" s="65">
         <f t="shared" si="0"/>
@@ -7507,18 +7514,18 @@
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="66" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B45" s="70"/>
       <c r="C45" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_001</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H45" s="65">
         <f t="shared" si="0"/>
@@ -7531,18 +7538,18 @@
     </row>
     <row r="46" spans="1:10" ht="15">
       <c r="A46" s="66" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B46" s="70"/>
       <c r="C46" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_002</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H46" s="65">
         <f t="shared" si="0"/>
@@ -7555,18 +7562,18 @@
     </row>
     <row r="47" spans="1:10" ht="15">
       <c r="A47" s="66" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B47" s="70"/>
       <c r="C47" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_003</v>
       </c>
       <c r="F47" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H47" s="65">
         <f t="shared" si="0"/>
@@ -7579,18 +7586,18 @@
     </row>
     <row r="48" spans="1:10" ht="15">
       <c r="A48" s="66" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B48" s="70"/>
       <c r="C48" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_004</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H48" s="65">
         <f t="shared" si="0"/>
@@ -7603,18 +7610,18 @@
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="66" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B49" s="70"/>
       <c r="C49" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_005</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H49" s="65">
         <f t="shared" si="0"/>
@@ -7627,18 +7634,18 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B50" s="70"/>
       <c r="C50" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_001</v>
       </c>
       <c r="F50" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H50" s="65">
         <f t="shared" si="0"/>
@@ -7655,14 +7662,14 @@
       </c>
       <c r="B51" s="70"/>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_002</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H51" s="65">
         <f t="shared" si="0"/>
@@ -7675,18 +7682,18 @@
     </row>
     <row r="52" spans="1:10" ht="15">
       <c r="A52" s="66" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B52" s="70"/>
       <c r="C52" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_003</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H52" s="65">
         <f t="shared" si="0"/>
@@ -7699,18 +7706,18 @@
     </row>
     <row r="53" spans="1:10" ht="15">
       <c r="A53" s="66" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B53" s="70"/>
       <c r="C53" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_004</v>
       </c>
       <c r="F53" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H53" s="65">
         <f t="shared" si="0"/>
@@ -7723,18 +7730,18 @@
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="66" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B54" s="70"/>
       <c r="C54" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_china_005</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H54" s="65">
         <f t="shared" si="0"/>
@@ -7747,18 +7754,18 @@
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="66" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B55" s="70"/>
       <c r="C55" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_001</v>
       </c>
       <c r="F55" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H55" s="65">
         <f t="shared" si="0"/>
@@ -7771,18 +7778,18 @@
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="66" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B56" s="70"/>
       <c r="C56" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_002</v>
       </c>
       <c r="F56" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H56" s="65">
         <f t="shared" si="0"/>
@@ -7795,18 +7802,18 @@
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="66" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B57" s="70"/>
       <c r="C57" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_003</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H57" s="65">
         <f t="shared" si="0"/>
@@ -7823,14 +7830,14 @@
       </c>
       <c r="B58" s="70"/>
       <c r="C58" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_004</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H58" s="65">
         <f t="shared" si="0"/>
@@ -7843,18 +7850,18 @@
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="66" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B59" s="70"/>
       <c r="C59" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_halloween_005</v>
       </c>
       <c r="F59" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H59" s="65">
         <f t="shared" si="0"/>
@@ -7867,18 +7874,18 @@
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="66" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B60" s="70"/>
       <c r="C60" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_001</v>
       </c>
       <c r="F60" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="H60" s="65">
         <f t="shared" si="0"/>
@@ -7891,18 +7898,18 @@
     </row>
     <row r="61" spans="1:10" ht="15">
       <c r="A61" s="66" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B61" s="70"/>
       <c r="C61" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_002</v>
       </c>
       <c r="F61" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="H61" s="65">
         <f t="shared" si="0"/>
@@ -7915,18 +7922,18 @@
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="66" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B62" s="70"/>
       <c r="C62" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_003</v>
       </c>
       <c r="F62" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="H62" s="65">
         <f t="shared" si="0"/>
@@ -7939,18 +7946,18 @@
     </row>
     <row r="63" spans="1:10" ht="15">
       <c r="A63" s="66" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B63" s="70"/>
       <c r="C63" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_004</v>
       </c>
       <c r="F63" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="H63" s="65">
         <f t="shared" si="0"/>
@@ -7963,18 +7970,18 @@
     </row>
     <row r="64" spans="1:10" ht="15">
       <c r="A64" s="66" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B64" s="70"/>
       <c r="C64" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
         <v>feed_welcome_moonfestival_005</v>
       </c>
       <c r="F64" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="H64" s="65">
         <f t="shared" si="0"/>
@@ -7987,18 +7994,18 @@
     </row>
     <row r="65" spans="1:10" ht="15">
       <c r="A65" s="66" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B65" s="70"/>
       <c r="C65" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
         <v>fresh_news_01</v>
       </c>
       <c r="F65" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H65" s="65">
         <f t="shared" si="0"/>
@@ -8011,18 +8018,18 @@
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="66" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B66" s="70"/>
       <c r="C66" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="2"/>
         <v>fresh_news_02</v>
       </c>
       <c r="F66" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H66" s="65">
         <f t="shared" ref="H66:H129" si="3">COUNTIF(A:A,E66)</f>
@@ -8035,18 +8042,18 @@
     </row>
     <row r="67" spans="1:10" ht="15">
       <c r="A67" s="66" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B67" s="70"/>
       <c r="C67" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="5">MID(C67, FIND(" ",C67,33)+1, LEN(C67)-FIND(" ",C67,33) - 4)</f>
         <v>fresh_news_03</v>
       </c>
       <c r="F67" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H67" s="65">
         <f t="shared" si="3"/>
@@ -8059,18 +8066,18 @@
     </row>
     <row r="68" spans="1:10" ht="15">
       <c r="A68" s="66" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B68" s="70"/>
       <c r="C68" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="5"/>
         <v>fresh_news_04</v>
       </c>
       <c r="F68" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H68" s="65">
         <f t="shared" si="3"/>
@@ -8083,11 +8090,11 @@
     </row>
     <row r="69" spans="1:10" ht="15">
       <c r="A69" s="66" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B69" s="70"/>
       <c r="C69" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="5"/>
@@ -8107,11 +8114,11 @@
     </row>
     <row r="70" spans="1:10" ht="15">
       <c r="A70" s="66" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B70" s="70"/>
       <c r="C70" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
@@ -8131,11 +8138,11 @@
     </row>
     <row r="71" spans="1:10" ht="15">
       <c r="A71" s="66" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B71" s="70"/>
       <c r="C71" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
@@ -8155,11 +8162,11 @@
     </row>
     <row r="72" spans="1:10" ht="15">
       <c r="A72" s="66" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B72" s="70"/>
       <c r="C72" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
@@ -8179,11 +8186,11 @@
     </row>
     <row r="73" spans="1:10" ht="15">
       <c r="A73" s="66" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B73" s="70"/>
       <c r="C73" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
@@ -8203,11 +8210,11 @@
     </row>
     <row r="74" spans="1:10" ht="15">
       <c r="A74" s="66" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B74" s="70"/>
       <c r="C74" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="5"/>
@@ -8227,11 +8234,11 @@
     </row>
     <row r="75" spans="1:10" ht="15">
       <c r="A75" s="66" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B75" s="70"/>
       <c r="C75" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="5"/>
@@ -8251,11 +8258,11 @@
     </row>
     <row r="76" spans="1:10" ht="15">
       <c r="A76" s="66" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B76" s="70"/>
       <c r="C76" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="5"/>
@@ -8275,11 +8282,11 @@
     </row>
     <row r="77" spans="1:10" ht="15">
       <c r="A77" s="66" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B77" s="70"/>
       <c r="C77" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="5"/>
@@ -8299,18 +8306,18 @@
     </row>
     <row r="78" spans="1:10" ht="15">
       <c r="A78" s="66" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B78" s="70"/>
       <c r="C78" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="5"/>
         <v>galaxy_world_welcome_new</v>
       </c>
       <c r="F78" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H78" s="65">
         <f t="shared" si="3"/>
@@ -8327,14 +8334,14 @@
       </c>
       <c r="B79" s="70"/>
       <c r="C79" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="5"/>
         <v>goods_soldout</v>
       </c>
       <c r="F79" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H79" s="65">
         <f t="shared" si="3"/>
@@ -8351,7 +8358,7 @@
       </c>
       <c r="B80" s="70"/>
       <c r="C80" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="5"/>
@@ -8375,7 +8382,7 @@
       </c>
       <c r="B81" s="70"/>
       <c r="C81" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
@@ -8399,7 +8406,7 @@
       </c>
       <c r="B82" s="70"/>
       <c r="C82" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="5"/>
@@ -8423,7 +8430,7 @@
       </c>
       <c r="B83" s="70"/>
       <c r="C83" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="5"/>
@@ -8447,7 +8454,7 @@
       </c>
       <c r="B84" s="70"/>
       <c r="C84" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
@@ -8471,7 +8478,7 @@
       </c>
       <c r="B85" s="70"/>
       <c r="C85" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
@@ -8495,7 +8502,7 @@
       </c>
       <c r="B86" s="70"/>
       <c r="C86" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
@@ -8519,7 +8526,7 @@
       </c>
       <c r="B87" s="70"/>
       <c r="C87" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
@@ -8543,7 +8550,7 @@
       </c>
       <c r="B88" s="70"/>
       <c r="C88" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
@@ -8565,7 +8572,7 @@
       <c r="A89" s="66"/>
       <c r="B89" s="70"/>
       <c r="C89" s="69" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E89" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8587,7 +8594,7 @@
       <c r="A90" s="66"/>
       <c r="B90" s="70"/>
       <c r="C90" s="69" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E90" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8609,7 +8616,7 @@
       <c r="A91" s="68"/>
       <c r="B91" s="70"/>
       <c r="C91" s="69" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E91" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8631,7 +8638,7 @@
       <c r="A92" s="68"/>
       <c r="B92" s="70"/>
       <c r="C92" s="69" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E92" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8653,7 +8660,7 @@
       <c r="A93" s="68"/>
       <c r="B93" s="70"/>
       <c r="C93" s="69" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E93" s="69" t="str">
         <f t="shared" si="5"/>
@@ -8674,14 +8681,14 @@
     <row r="94" spans="1:10" ht="15">
       <c r="B94" s="70"/>
       <c r="C94" s="69" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E94" s="69" t="str">
         <f t="shared" si="5"/>
         <v>hint_app_download_crcode_cn</v>
       </c>
       <c r="F94" s="69" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H94" s="65">
         <f t="shared" si="3"/>
@@ -8695,14 +8702,14 @@
     <row r="95" spans="1:10" ht="15">
       <c r="B95" s="70"/>
       <c r="C95" s="69" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E95" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_01</v>
       </c>
       <c r="F95" s="69" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H95" s="65">
         <f t="shared" si="3"/>
@@ -8716,14 +8723,14 @@
     <row r="96" spans="1:10" ht="15">
       <c r="B96" s="70"/>
       <c r="C96" s="69" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E96" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_dony_01</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H96" s="65">
         <f t="shared" si="3"/>
@@ -8737,14 +8744,14 @@
     <row r="97" spans="2:10" ht="15">
       <c r="B97" s="70"/>
       <c r="C97" s="69" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E97" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_dony_02</v>
       </c>
       <c r="F97" s="69" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H97" s="65">
         <f t="shared" si="3"/>
@@ -8758,14 +8765,14 @@
     <row r="98" spans="2:10" ht="15">
       <c r="B98" s="70"/>
       <c r="C98" s="69" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E98" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_01</v>
       </c>
       <c r="F98" s="69" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H98" s="65">
         <f t="shared" si="3"/>
@@ -8779,14 +8786,14 @@
     <row r="99" spans="2:10" ht="15">
       <c r="B99" s="70"/>
       <c r="C99" s="69" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E99" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_02</v>
       </c>
       <c r="F99" s="69" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H99" s="65">
         <f t="shared" si="3"/>
@@ -8800,14 +8807,14 @@
     <row r="100" spans="2:10" ht="15">
       <c r="B100" s="70"/>
       <c r="C100" s="69" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E100" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nin_03</v>
       </c>
       <c r="F100" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H100" s="65">
         <f t="shared" si="3"/>
@@ -8821,14 +8828,14 @@
     <row r="101" spans="2:10" ht="15">
       <c r="B101" s="70"/>
       <c r="C101" s="69" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E101" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nuo_01</v>
       </c>
       <c r="F101" s="69" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H101" s="65">
         <f t="shared" si="3"/>
@@ -8842,14 +8849,14 @@
     <row r="102" spans="2:10" ht="15">
       <c r="B102" s="70"/>
       <c r="C102" s="69" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E102" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_nuo_02</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H102" s="65">
         <f t="shared" si="3"/>
@@ -8863,14 +8870,14 @@
     <row r="103" spans="2:10" ht="15">
       <c r="B103" s="70"/>
       <c r="C103" s="69" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E103" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_01</v>
       </c>
       <c r="F103" s="69" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H103" s="65">
         <f t="shared" si="3"/>
@@ -8884,14 +8891,14 @@
     <row r="104" spans="2:10" ht="15">
       <c r="B104" s="70"/>
       <c r="C104" s="69" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E104" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_02</v>
       </c>
       <c r="F104" s="69" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H104" s="65">
         <f t="shared" si="3"/>
@@ -8905,14 +8912,14 @@
     <row r="105" spans="2:10" ht="15">
       <c r="B105" s="70"/>
       <c r="C105" s="69" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E105" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_pur_03</v>
       </c>
       <c r="F105" s="69" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H105" s="65">
         <f t="shared" si="3"/>
@@ -8926,14 +8933,14 @@
     <row r="106" spans="2:10" ht="15">
       <c r="B106" s="70"/>
       <c r="C106" s="69" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E106" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_01</v>
       </c>
       <c r="F106" s="69" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H106" s="65">
         <f t="shared" si="3"/>
@@ -8947,14 +8954,14 @@
     <row r="107" spans="2:10" ht="15">
       <c r="B107" s="70"/>
       <c r="C107" s="69" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E107" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_02</v>
       </c>
       <c r="F107" s="69" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H107" s="65">
         <f t="shared" si="3"/>
@@ -8968,14 +8975,14 @@
     <row r="108" spans="2:10" ht="15">
       <c r="B108" s="70"/>
       <c r="C108" s="69" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E108" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_san_03</v>
       </c>
       <c r="F108" s="69" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H108" s="65">
         <f t="shared" si="3"/>
@@ -8989,14 +8996,14 @@
     <row r="109" spans="2:10" ht="15">
       <c r="B109" s="70"/>
       <c r="C109" s="69" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E109" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_yoyo_01</v>
       </c>
       <c r="F109" s="69" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H109" s="65">
         <f t="shared" si="3"/>
@@ -9010,14 +9017,14 @@
     <row r="110" spans="2:10" ht="15">
       <c r="B110" s="70"/>
       <c r="C110" s="69" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E110" s="69" t="str">
         <f t="shared" si="5"/>
         <v>level_up_yoyo_02</v>
       </c>
       <c r="F110" s="69" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H110" s="65">
         <f t="shared" si="3"/>
@@ -9031,7 +9038,7 @@
     <row r="111" spans="2:10" ht="15">
       <c r="B111" s="70"/>
       <c r="C111" s="69" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E111" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9052,7 +9059,7 @@
     <row r="112" spans="2:10" ht="15">
       <c r="B112" s="70"/>
       <c r="C112" s="69" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E112" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9073,7 +9080,7 @@
     <row r="113" spans="2:10" ht="15">
       <c r="B113" s="70"/>
       <c r="C113" s="69" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E113" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9094,7 +9101,7 @@
     <row r="114" spans="2:10" ht="15">
       <c r="B114" s="70"/>
       <c r="C114" s="69" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E114" s="69" t="str">
         <f t="shared" si="5"/>
@@ -9115,14 +9122,14 @@
     <row r="115" spans="2:10" ht="15">
       <c r="B115" s="70"/>
       <c r="C115" s="69" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E115" s="69" t="str">
         <f t="shared" si="5"/>
         <v>navmenu_comingsoon_4</v>
       </c>
       <c r="F115" s="69" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H115" s="65">
         <f t="shared" si="3"/>
@@ -9136,14 +9143,14 @@
     <row r="116" spans="2:10" ht="15">
       <c r="B116" s="70"/>
       <c r="C116" s="69" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E116" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_01</v>
       </c>
       <c r="F116" s="69" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H116" s="65">
         <f t="shared" si="3"/>
@@ -9157,14 +9164,14 @@
     <row r="117" spans="2:10" ht="15">
       <c r="B117" s="70"/>
       <c r="C117" s="69" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E117" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_01</v>
       </c>
       <c r="F117" s="69" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H117" s="65">
         <f t="shared" si="3"/>
@@ -9177,14 +9184,14 @@
     </row>
     <row r="118" spans="2:10" ht="15">
       <c r="C118" s="69" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E118" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_02</v>
       </c>
       <c r="F118" s="69" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H118" s="65">
         <f t="shared" si="3"/>
@@ -9197,14 +9204,14 @@
     </row>
     <row r="119" spans="2:10" ht="15">
       <c r="C119" s="69" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E119" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_03</v>
       </c>
       <c r="F119" s="69" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H119" s="65">
         <f t="shared" si="3"/>
@@ -9217,14 +9224,14 @@
     </row>
     <row r="120" spans="2:10" ht="15">
       <c r="C120" s="69" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E120" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_04</v>
       </c>
       <c r="F120" s="69" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H120" s="65">
         <f t="shared" si="3"/>
@@ -9237,14 +9244,14 @@
     </row>
     <row r="121" spans="2:10" ht="15">
       <c r="C121" s="69" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E121" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_dony_05</v>
       </c>
       <c r="F121" s="69" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H121" s="65">
         <f t="shared" si="3"/>
@@ -9257,14 +9264,14 @@
     </row>
     <row r="122" spans="2:10" ht="15">
       <c r="C122" s="69" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E122" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_01</v>
       </c>
       <c r="F122" s="69" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H122" s="65">
         <f t="shared" si="3"/>
@@ -9277,14 +9284,14 @@
     </row>
     <row r="123" spans="2:10" ht="15">
       <c r="C123" s="69" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E123" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_02</v>
       </c>
       <c r="F123" s="69" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H123" s="65">
         <f t="shared" si="3"/>
@@ -9297,14 +9304,14 @@
     </row>
     <row r="124" spans="2:10" ht="15">
       <c r="C124" s="69" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="E124" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_03</v>
       </c>
       <c r="F124" s="69" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H124" s="65">
         <f t="shared" si="3"/>
@@ -9317,14 +9324,14 @@
     </row>
     <row r="125" spans="2:10" ht="15">
       <c r="C125" s="69" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E125" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_04</v>
       </c>
       <c r="F125" s="69" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H125" s="65">
         <f t="shared" si="3"/>
@@ -9337,14 +9344,14 @@
     </row>
     <row r="126" spans="2:10" ht="15">
       <c r="C126" s="69" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E126" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_05</v>
       </c>
       <c r="F126" s="69" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H126" s="65">
         <f t="shared" si="3"/>
@@ -9357,14 +9364,14 @@
     </row>
     <row r="127" spans="2:10" ht="15">
       <c r="C127" s="69" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E127" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nin_06</v>
       </c>
       <c r="F127" s="69" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H127" s="65">
         <f t="shared" si="3"/>
@@ -9377,14 +9384,14 @@
     </row>
     <row r="128" spans="2:10" ht="15">
       <c r="C128" s="69" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E128" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_01</v>
       </c>
       <c r="F128" s="69" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H128" s="65">
         <f t="shared" si="3"/>
@@ -9397,14 +9404,14 @@
     </row>
     <row r="129" spans="3:10" ht="15">
       <c r="C129" s="69" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E129" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_02</v>
       </c>
       <c r="F129" s="69" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H129" s="65">
         <f t="shared" si="3"/>
@@ -9417,14 +9424,14 @@
     </row>
     <row r="130" spans="3:10" ht="15">
       <c r="C130" s="69" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E130" s="69" t="str">
         <f t="shared" si="5"/>
         <v>nim_chest_open_nuo_03</v>
       </c>
       <c r="F130" s="69" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H130" s="65">
         <f t="shared" ref="H130:H193" si="6">COUNTIF(A:A,E130)</f>
@@ -9437,14 +9444,14 @@
     </row>
     <row r="131" spans="3:10" ht="15">
       <c r="C131" s="69" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E131" s="69" t="str">
         <f t="shared" ref="E131:E194" si="8">MID(C131, FIND(" ",C131,33)+1, LEN(C131)-FIND(" ",C131,33) - 4)</f>
         <v>nim_chest_open_pur_01</v>
       </c>
       <c r="F131" s="69" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H131" s="65">
         <f t="shared" si="6"/>
@@ -9457,14 +9464,14 @@
     </row>
     <row r="132" spans="3:10" ht="15">
       <c r="C132" s="69" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E132" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_02</v>
       </c>
       <c r="F132" s="69" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H132" s="65">
         <f t="shared" si="6"/>
@@ -9477,14 +9484,14 @@
     </row>
     <row r="133" spans="3:10" ht="15">
       <c r="C133" s="69" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="E133" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_03</v>
       </c>
       <c r="F133" s="69" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="H133" s="65">
         <f t="shared" si="6"/>
@@ -9497,14 +9504,14 @@
     </row>
     <row r="134" spans="3:10" ht="15">
       <c r="C134" s="69" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E134" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_04</v>
       </c>
       <c r="F134" s="69" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H134" s="65">
         <f t="shared" si="6"/>
@@ -9517,14 +9524,14 @@
     </row>
     <row r="135" spans="3:10" ht="15">
       <c r="C135" s="69" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E135" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_05</v>
       </c>
       <c r="F135" s="69" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H135" s="65">
         <f t="shared" si="6"/>
@@ -9537,14 +9544,14 @@
     </row>
     <row r="136" spans="3:10" ht="15">
       <c r="C136" s="69" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E136" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_pur_06</v>
       </c>
       <c r="F136" s="69" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H136" s="65">
         <f t="shared" si="6"/>
@@ -9557,14 +9564,14 @@
     </row>
     <row r="137" spans="3:10" ht="15">
       <c r="C137" s="69" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E137" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_01</v>
       </c>
       <c r="F137" s="69" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H137" s="65">
         <f t="shared" si="6"/>
@@ -9577,14 +9584,14 @@
     </row>
     <row r="138" spans="3:10" ht="15">
       <c r="C138" s="69" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E138" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_02</v>
       </c>
       <c r="F138" s="69" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H138" s="65">
         <f t="shared" si="6"/>
@@ -9597,14 +9604,14 @@
     </row>
     <row r="139" spans="3:10" ht="15">
       <c r="C139" s="69" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E139" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_03</v>
       </c>
       <c r="F139" s="69" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H139" s="65">
         <f t="shared" si="6"/>
@@ -9617,14 +9624,14 @@
     </row>
     <row r="140" spans="3:10" ht="15">
       <c r="C140" s="69" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E140" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_04</v>
       </c>
       <c r="F140" s="69" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H140" s="65">
         <f t="shared" si="6"/>
@@ -9637,14 +9644,14 @@
     </row>
     <row r="141" spans="3:10" ht="15">
       <c r="C141" s="69" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E141" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_san_05</v>
       </c>
       <c r="F141" s="69" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H141" s="65">
         <f t="shared" si="6"/>
@@ -9657,14 +9664,14 @@
     </row>
     <row r="142" spans="3:10" ht="15">
       <c r="C142" s="69" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E142" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_01</v>
       </c>
       <c r="F142" s="69" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H142" s="65">
         <f t="shared" si="6"/>
@@ -9677,14 +9684,14 @@
     </row>
     <row r="143" spans="3:10" ht="15">
       <c r="C143" s="69" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E143" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_02</v>
       </c>
       <c r="F143" s="69" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H143" s="65">
         <f t="shared" si="6"/>
@@ -9697,14 +9704,14 @@
     </row>
     <row r="144" spans="3:10" ht="15">
       <c r="C144" s="69" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E144" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_03</v>
       </c>
       <c r="F144" s="69" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H144" s="65">
         <f t="shared" si="6"/>
@@ -9717,14 +9724,14 @@
     </row>
     <row r="145" spans="3:10" ht="15">
       <c r="C145" s="69" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E145" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nim_chest_open_yoyo_04</v>
       </c>
       <c r="F145" s="69" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H145" s="65">
         <f t="shared" si="6"/>
@@ -9737,14 +9744,14 @@
     </row>
     <row r="146" spans="3:10" ht="15">
       <c r="C146" s="69" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E146" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_01</v>
       </c>
       <c r="F146" s="69" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H146" s="65">
         <f t="shared" si="6"/>
@@ -9757,14 +9764,14 @@
     </row>
     <row r="147" spans="3:10" ht="15">
       <c r="C147" s="69" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E147" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_02</v>
       </c>
       <c r="F147" s="69" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H147" s="65">
         <f t="shared" si="6"/>
@@ -9777,14 +9784,14 @@
     </row>
     <row r="148" spans="3:10" ht="15">
       <c r="C148" s="69" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="E148" s="69" t="str">
         <f t="shared" si="8"/>
         <v>ninji_eat_act_03</v>
       </c>
       <c r="F148" s="69" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H148" s="65">
         <f t="shared" si="6"/>
@@ -9797,14 +9804,14 @@
     </row>
     <row r="149" spans="3:10" ht="15">
       <c r="C149" s="69" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E149" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_fail_01</v>
       </c>
       <c r="F149" s="69" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H149" s="65">
         <f t="shared" si="6"/>
@@ -9817,14 +9824,14 @@
     </row>
     <row r="150" spans="3:10" ht="15">
       <c r="C150" s="69" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E150" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_01</v>
       </c>
       <c r="F150" s="69" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H150" s="65">
         <f t="shared" si="6"/>
@@ -9837,14 +9844,14 @@
     </row>
     <row r="151" spans="3:10" ht="15">
       <c r="C151" s="69" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="E151" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_back_01</v>
       </c>
       <c r="F151" s="69" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H151" s="65">
         <f t="shared" si="6"/>
@@ -9857,14 +9864,14 @@
     </row>
     <row r="152" spans="3:10" ht="15">
       <c r="C152" s="69" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E152" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_guest_out_01</v>
       </c>
       <c r="F152" s="69" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H152" s="65">
         <f t="shared" si="6"/>
@@ -9877,14 +9884,14 @@
     </row>
     <row r="153" spans="3:10" ht="15">
       <c r="C153" s="69" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E153" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_host_01</v>
       </c>
       <c r="F153" s="69" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H153" s="65">
         <f t="shared" si="6"/>
@@ -9897,14 +9904,14 @@
     </row>
     <row r="154" spans="3:10" ht="15">
       <c r="C154" s="69" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E154" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_friend_search_01</v>
       </c>
       <c r="F154" s="69" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H154" s="65">
         <f t="shared" si="6"/>
@@ -9917,14 +9924,14 @@
     </row>
     <row r="155" spans="3:10" ht="15">
       <c r="C155" s="69" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E155" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_hello_01</v>
       </c>
       <c r="F155" s="69" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H155" s="65">
         <f t="shared" si="6"/>
@@ -9937,14 +9944,14 @@
     </row>
     <row r="156" spans="3:10" ht="15">
       <c r="C156" s="69" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E156" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_level_end_01</v>
       </c>
       <c r="F156" s="69" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H156" s="65">
         <f t="shared" si="6"/>
@@ -9957,14 +9964,14 @@
     </row>
     <row r="157" spans="3:10" ht="15">
       <c r="C157" s="69" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E157" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01</v>
       </c>
       <c r="F157" s="69" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H157" s="65">
         <f t="shared" si="6"/>
@@ -9977,14 +9984,14 @@
     </row>
     <row r="158" spans="3:10" ht="15">
       <c r="C158" s="69" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E158" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_01</v>
       </c>
       <c r="F158" s="69" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H158" s="65">
         <f t="shared" si="6"/>
@@ -9997,14 +10004,14 @@
     </row>
     <row r="159" spans="3:10" ht="15">
       <c r="C159" s="69" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E159" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_02</v>
       </c>
       <c r="F159" s="69" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H159" s="65">
         <f t="shared" si="6"/>
@@ -10017,14 +10024,14 @@
     </row>
     <row r="160" spans="3:10" ht="15">
       <c r="C160" s="69" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E160" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_03</v>
       </c>
       <c r="F160" s="69" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H160" s="65">
         <f t="shared" si="6"/>
@@ -10037,14 +10044,14 @@
     </row>
     <row r="161" spans="3:10" ht="15">
       <c r="C161" s="69" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E161" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_04</v>
       </c>
       <c r="F161" s="69" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H161" s="65">
         <f t="shared" si="6"/>
@@ -10057,14 +10064,14 @@
     </row>
     <row r="162" spans="3:10" ht="15">
       <c r="C162" s="69" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E162" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_05</v>
       </c>
       <c r="F162" s="69" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H162" s="65">
         <f t="shared" si="6"/>
@@ -10077,14 +10084,14 @@
     </row>
     <row r="163" spans="3:10" ht="15">
       <c r="C163" s="69" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E163" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_06</v>
       </c>
       <c r="F163" s="69" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H163" s="65">
         <f t="shared" si="6"/>
@@ -10097,14 +10104,14 @@
     </row>
     <row r="164" spans="3:10" ht="15">
       <c r="C164" s="69" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E164" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_07</v>
       </c>
       <c r="F164" s="69" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H164" s="65">
         <f t="shared" si="6"/>
@@ -10117,14 +10124,14 @@
     </row>
     <row r="165" spans="3:10" ht="15">
       <c r="C165" s="69" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="E165" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_morning_01_08</v>
       </c>
       <c r="F165" s="69" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H165" s="65">
         <f t="shared" si="6"/>
@@ -10137,14 +10144,14 @@
     </row>
     <row r="166" spans="3:10" ht="15">
       <c r="C166" s="69" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E166" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01</v>
       </c>
       <c r="F166" s="69" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H166" s="65">
         <f t="shared" si="6"/>
@@ -10157,14 +10164,14 @@
     </row>
     <row r="167" spans="3:10" ht="15">
       <c r="C167" s="69" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E167" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_01</v>
       </c>
       <c r="F167" s="69" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H167" s="65">
         <f t="shared" si="6"/>
@@ -10177,14 +10184,14 @@
     </row>
     <row r="168" spans="3:10" ht="15">
       <c r="C168" s="69" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E168" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_02</v>
       </c>
       <c r="F168" s="69" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H168" s="65">
         <f t="shared" si="6"/>
@@ -10197,14 +10204,14 @@
     </row>
     <row r="169" spans="3:10" ht="15">
       <c r="C169" s="69" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E169" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_nod_01_03</v>
       </c>
       <c r="F169" s="69" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H169" s="65">
         <f t="shared" si="6"/>
@@ -10217,14 +10224,14 @@
     </row>
     <row r="170" spans="3:10" ht="15">
       <c r="C170" s="69" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E170" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_01</v>
       </c>
       <c r="F170" s="69" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H170" s="65">
         <f t="shared" si="6"/>
@@ -10237,14 +10244,14 @@
     </row>
     <row r="171" spans="3:10" ht="15">
       <c r="C171" s="69" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="E171" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_02</v>
       </c>
       <c r="F171" s="69" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H171" s="65">
         <f t="shared" si="6"/>
@@ -10257,14 +10264,14 @@
     </row>
     <row r="172" spans="3:10" ht="15">
       <c r="C172" s="69" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E172" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_03</v>
       </c>
       <c r="F172" s="69" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H172" s="65">
         <f t="shared" si="6"/>
@@ -10277,14 +10284,14 @@
     </row>
     <row r="173" spans="3:10" ht="15">
       <c r="C173" s="69" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E173" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_down_04</v>
       </c>
       <c r="F173" s="69" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H173" s="65">
         <f t="shared" si="6"/>
@@ -10297,14 +10304,14 @@
     </row>
     <row r="174" spans="3:10" ht="15">
       <c r="C174" s="69" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E174" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_01</v>
       </c>
       <c r="F174" s="69" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H174" s="65">
         <f t="shared" si="6"/>
@@ -10317,14 +10324,14 @@
     </row>
     <row r="175" spans="3:10" ht="15">
       <c r="C175" s="69" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E175" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_02</v>
       </c>
       <c r="F175" s="69" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H175" s="65">
         <f t="shared" si="6"/>
@@ -10337,14 +10344,14 @@
     </row>
     <row r="176" spans="3:10" ht="15">
       <c r="C176" s="69" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E176" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_03</v>
       </c>
       <c r="F176" s="69" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H176" s="65">
         <f t="shared" si="6"/>
@@ -10357,14 +10364,14 @@
     </row>
     <row r="177" spans="3:10" ht="15">
       <c r="C177" s="69" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E177" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_04</v>
       </c>
       <c r="F177" s="69" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H177" s="65">
         <f t="shared" si="6"/>
@@ -10377,14 +10384,14 @@
     </row>
     <row r="178" spans="3:10" ht="15">
       <c r="C178" s="69" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E178" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_01</v>
       </c>
       <c r="F178" s="69" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H178" s="65">
         <f t="shared" si="6"/>
@@ -10397,14 +10404,14 @@
     </row>
     <row r="179" spans="3:10" ht="15">
       <c r="C179" s="69" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E179" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_02</v>
       </c>
       <c r="F179" s="69" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H179" s="65">
         <f t="shared" si="6"/>
@@ -10417,14 +10424,14 @@
     </row>
     <row r="180" spans="3:10" ht="15">
       <c r="C180" s="69" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E180" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_03</v>
       </c>
       <c r="F180" s="69" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H180" s="65">
         <f t="shared" si="6"/>
@@ -10437,14 +10444,14 @@
     </row>
     <row r="181" spans="3:10" ht="15">
       <c r="C181" s="69" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E181" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_04</v>
       </c>
       <c r="F181" s="69" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H181" s="65">
         <f t="shared" si="6"/>
@@ -10457,14 +10464,14 @@
     </row>
     <row r="182" spans="3:10" ht="15">
       <c r="C182" s="69" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E182" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nin_play_up_down_05</v>
       </c>
       <c r="F182" s="69" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H182" s="65">
         <f t="shared" si="6"/>
@@ -10477,14 +10484,14 @@
     </row>
     <row r="183" spans="3:10" ht="15">
       <c r="C183" s="69" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E183" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_01</v>
       </c>
       <c r="F183" s="69" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H183" s="65">
         <f t="shared" si="6"/>
@@ -10497,14 +10504,14 @@
     </row>
     <row r="184" spans="3:10" ht="15">
       <c r="C184" s="69" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E184" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_02</v>
       </c>
       <c r="F184" s="69" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H184" s="65">
         <f t="shared" si="6"/>
@@ -10517,14 +10524,14 @@
     </row>
     <row r="185" spans="3:10" ht="15">
       <c r="C185" s="69" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E185" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_chest_open_03</v>
       </c>
       <c r="F185" s="69" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H185" s="65">
         <f t="shared" si="6"/>
@@ -10537,14 +10544,14 @@
     </row>
     <row r="186" spans="3:10" ht="15">
       <c r="C186" s="69" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E186" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_01</v>
       </c>
       <c r="F186" s="69" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H186" s="65">
         <f t="shared" si="6"/>
@@ -10557,14 +10564,14 @@
     </row>
     <row r="187" spans="3:10" ht="15">
       <c r="C187" s="69" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E187" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_02</v>
       </c>
       <c r="F187" s="69" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H187" s="65">
         <f t="shared" si="6"/>
@@ -10577,14 +10584,14 @@
     </row>
     <row r="188" spans="3:10" ht="15">
       <c r="C188" s="69" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E188" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_eat_act_03</v>
       </c>
       <c r="F188" s="69" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H188" s="65">
         <f t="shared" si="6"/>
@@ -10597,14 +10604,14 @@
     </row>
     <row r="189" spans="3:10" ht="15">
       <c r="C189" s="69" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E189" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_fail_01</v>
       </c>
       <c r="F189" s="69" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H189" s="65">
         <f t="shared" si="6"/>
@@ -10617,14 +10624,14 @@
     </row>
     <row r="190" spans="3:10" ht="15">
       <c r="C190" s="69" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E190" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_01</v>
       </c>
       <c r="F190" s="69" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H190" s="65">
         <f t="shared" si="6"/>
@@ -10637,14 +10644,14 @@
     </row>
     <row r="191" spans="3:10" ht="15">
       <c r="C191" s="69" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E191" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_back_01</v>
       </c>
       <c r="F191" s="69" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H191" s="65">
         <f t="shared" si="6"/>
@@ -10657,14 +10664,14 @@
     </row>
     <row r="192" spans="3:10" ht="15">
       <c r="C192" s="69" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E192" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_guest_out_01</v>
       </c>
       <c r="F192" s="69" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H192" s="65">
         <f t="shared" si="6"/>
@@ -10677,14 +10684,14 @@
     </row>
     <row r="193" spans="3:10" ht="15">
       <c r="C193" s="69" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E193" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_host_01</v>
       </c>
       <c r="F193" s="69" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H193" s="65">
         <f t="shared" si="6"/>
@@ -10697,14 +10704,14 @@
     </row>
     <row r="194" spans="3:10" ht="15">
       <c r="C194" s="69" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E194" s="69" t="str">
         <f t="shared" si="8"/>
         <v>nuo_friend_search_01</v>
       </c>
       <c r="F194" s="69" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H194" s="65">
         <f t="shared" ref="H194:H257" si="9">COUNTIF(A:A,E194)</f>
@@ -10717,14 +10724,14 @@
     </row>
     <row r="195" spans="3:10" ht="15">
       <c r="C195" s="69" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E195" s="69" t="str">
         <f t="shared" ref="E195:E258" si="11">MID(C195, FIND(" ",C195,33)+1, LEN(C195)-FIND(" ",C195,33) - 4)</f>
         <v>nuo_hello_01</v>
       </c>
       <c r="F195" s="69" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H195" s="65">
         <f t="shared" si="9"/>
@@ -10737,14 +10744,14 @@
     </row>
     <row r="196" spans="3:10" ht="15">
       <c r="C196" s="69" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E196" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_level_end_01</v>
       </c>
       <c r="F196" s="69" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H196" s="65">
         <f t="shared" si="9"/>
@@ -10757,14 +10764,14 @@
     </row>
     <row r="197" spans="3:10" ht="15">
       <c r="C197" s="69" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E197" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_morning_01</v>
       </c>
       <c r="F197" s="69" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H197" s="65">
         <f t="shared" si="9"/>
@@ -10777,14 +10784,14 @@
     </row>
     <row r="198" spans="3:10" ht="15">
       <c r="C198" s="69" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E198" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_down_01</v>
       </c>
       <c r="F198" s="69" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H198" s="65">
         <f t="shared" si="9"/>
@@ -10797,14 +10804,14 @@
     </row>
     <row r="199" spans="3:10" ht="15">
       <c r="C199" s="69" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E199" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_down_02</v>
       </c>
       <c r="F199" s="69" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H199" s="65">
         <f t="shared" si="9"/>
@@ -10817,14 +10824,14 @@
     </row>
     <row r="200" spans="3:10" ht="15">
       <c r="C200" s="69" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E200" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_01</v>
       </c>
       <c r="F200" s="69" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H200" s="65">
         <f t="shared" si="9"/>
@@ -10837,14 +10844,14 @@
     </row>
     <row r="201" spans="3:10" ht="15">
       <c r="C201" s="69" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E201" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_02</v>
       </c>
       <c r="F201" s="69" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H201" s="65">
         <f t="shared" si="9"/>
@@ -10857,14 +10864,14 @@
     </row>
     <row r="202" spans="3:10" ht="15">
       <c r="C202" s="69" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E202" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_down_01</v>
       </c>
       <c r="F202" s="69" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H202" s="65">
         <f t="shared" si="9"/>
@@ -10877,14 +10884,14 @@
     </row>
     <row r="203" spans="3:10" ht="15">
       <c r="C203" s="69" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E203" s="69" t="str">
         <f t="shared" si="11"/>
         <v>nuo_play_up_down_02</v>
       </c>
       <c r="F203" s="69" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H203" s="65">
         <f t="shared" si="9"/>
@@ -10897,14 +10904,14 @@
     </row>
     <row r="204" spans="3:10" ht="15">
       <c r="C204" s="69" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E204" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_active_success_cn</v>
       </c>
       <c r="F204" s="69" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H204" s="65">
         <f t="shared" si="9"/>
@@ -10917,14 +10924,14 @@
     </row>
     <row r="205" spans="3:10" ht="15">
       <c r="C205" s="69" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E205" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_connect_to_cloud_fail_cn</v>
       </c>
       <c r="F205" s="69" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H205" s="65">
         <f t="shared" si="9"/>
@@ -10937,7 +10944,7 @@
     </row>
     <row r="206" spans="3:10" ht="15">
       <c r="C206" s="69" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E206" s="69" t="str">
         <f t="shared" si="11"/>
@@ -10957,7 +10964,7 @@
     </row>
     <row r="207" spans="3:10" ht="15">
       <c r="C207" s="69" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E207" s="69" t="str">
         <f t="shared" si="11"/>
@@ -10977,14 +10984,14 @@
     </row>
     <row r="208" spans="3:10" ht="15">
       <c r="C208" s="69" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E208" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pair_connect_to_router_fail_password</v>
       </c>
       <c r="F208" s="69" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="H208" s="65">
         <f t="shared" si="9"/>
@@ -10997,7 +11004,7 @@
     </row>
     <row r="209" spans="3:10" ht="15">
       <c r="C209" s="69" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E209" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11017,7 +11024,7 @@
     </row>
     <row r="210" spans="3:10" ht="15">
       <c r="C210" s="69" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E210" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11037,7 +11044,7 @@
     </row>
     <row r="211" spans="3:10" ht="15">
       <c r="C211" s="69" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E211" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11057,7 +11064,7 @@
     </row>
     <row r="212" spans="3:10" ht="15">
       <c r="C212" s="69" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E212" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11077,7 +11084,7 @@
     </row>
     <row r="213" spans="3:10" ht="15">
       <c r="C213" s="69" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E213" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11097,14 +11104,14 @@
     </row>
     <row r="214" spans="3:10" ht="15">
       <c r="C214" s="69" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E214" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_download</v>
       </c>
       <c r="F214" s="69" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H214" s="65">
         <f t="shared" si="9"/>
@@ -11117,7 +11124,7 @@
     </row>
     <row r="215" spans="3:10" ht="15">
       <c r="C215" s="69" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E215" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11137,14 +11144,14 @@
     </row>
     <row r="216" spans="3:10" ht="15">
       <c r="C216" s="69" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E216" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_feed_welcome</v>
       </c>
       <c r="F216" s="69" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H216" s="65">
         <f t="shared" si="9"/>
@@ -11157,14 +11164,14 @@
     </row>
     <row r="217" spans="3:10" ht="15">
       <c r="C217" s="69" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E217" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_001</v>
       </c>
       <c r="F217" s="69" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H217" s="65">
         <f t="shared" si="9"/>
@@ -11177,14 +11184,14 @@
     </row>
     <row r="218" spans="3:10" ht="15">
       <c r="C218" s="69" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E218" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_002</v>
       </c>
       <c r="F218" s="69" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H218" s="65">
         <f t="shared" si="9"/>
@@ -11197,14 +11204,14 @@
     </row>
     <row r="219" spans="3:10" ht="15">
       <c r="C219" s="69" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E219" s="69" t="str">
         <f t="shared" si="11"/>
         <v>popup_no_coin_003</v>
       </c>
       <c r="F219" s="69" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H219" s="65">
         <f t="shared" si="9"/>
@@ -11217,7 +11224,7 @@
     </row>
     <row r="220" spans="3:10" ht="15">
       <c r="C220" s="69" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E220" s="69" t="str">
         <f t="shared" si="11"/>
@@ -11237,14 +11244,14 @@
     </row>
     <row r="221" spans="3:10" ht="15">
       <c r="C221" s="69" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E221" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_01</v>
       </c>
       <c r="F221" s="69" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H221" s="65">
         <f t="shared" si="9"/>
@@ -11257,14 +11264,14 @@
     </row>
     <row r="222" spans="3:10" ht="15">
       <c r="C222" s="69" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E222" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_02</v>
       </c>
       <c r="F222" s="69" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H222" s="65">
         <f t="shared" si="9"/>
@@ -11277,14 +11284,14 @@
     </row>
     <row r="223" spans="3:10" ht="15">
       <c r="C223" s="69" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E223" s="69" t="str">
         <f t="shared" si="11"/>
         <v>purpie_eat_act_03</v>
       </c>
       <c r="F223" s="69" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H223" s="65">
         <f t="shared" si="9"/>
@@ -11297,14 +11304,14 @@
     </row>
     <row r="224" spans="3:10" ht="15">
       <c r="C224" s="69" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E224" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_fail_01</v>
       </c>
       <c r="F224" s="69" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H224" s="65">
         <f t="shared" si="9"/>
@@ -11317,14 +11324,14 @@
     </row>
     <row r="225" spans="3:10" ht="15">
       <c r="C225" s="69" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E225" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_01</v>
       </c>
       <c r="F225" s="69" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H225" s="65">
         <f t="shared" si="9"/>
@@ -11337,14 +11344,14 @@
     </row>
     <row r="226" spans="3:10" ht="15">
       <c r="C226" s="69" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E226" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_back_01</v>
       </c>
       <c r="F226" s="69" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H226" s="65">
         <f t="shared" si="9"/>
@@ -11357,14 +11364,14 @@
     </row>
     <row r="227" spans="3:10" ht="15">
       <c r="C227" s="69" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E227" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_guest_out_01</v>
       </c>
       <c r="F227" s="69" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H227" s="65">
         <f t="shared" si="9"/>
@@ -11377,14 +11384,14 @@
     </row>
     <row r="228" spans="3:10" ht="15">
       <c r="C228" s="69" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E228" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_host_01</v>
       </c>
       <c r="F228" s="69" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H228" s="65">
         <f t="shared" si="9"/>
@@ -11397,14 +11404,14 @@
     </row>
     <row r="229" spans="3:10" ht="15">
       <c r="C229" s="69" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E229" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_friend_search_01</v>
       </c>
       <c r="F229" s="69" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H229" s="65">
         <f t="shared" si="9"/>
@@ -11417,14 +11424,14 @@
     </row>
     <row r="230" spans="3:10" ht="15">
       <c r="C230" s="69" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E230" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_hello_01</v>
       </c>
       <c r="F230" s="69" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H230" s="65">
         <f t="shared" si="9"/>
@@ -11437,14 +11444,14 @@
     </row>
     <row r="231" spans="3:10" ht="15">
       <c r="C231" s="69" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E231" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_level_end_01</v>
       </c>
       <c r="F231" s="69" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H231" s="65">
         <f t="shared" si="9"/>
@@ -11457,14 +11464,14 @@
     </row>
     <row r="232" spans="3:10" ht="15">
       <c r="C232" s="69" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E232" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01</v>
       </c>
       <c r="F232" s="69" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="H232" s="65">
         <f t="shared" si="9"/>
@@ -11477,14 +11484,14 @@
     </row>
     <row r="233" spans="3:10" ht="15">
       <c r="C233" s="69" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E233" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_01</v>
       </c>
       <c r="F233" s="69" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H233" s="65">
         <f t="shared" si="9"/>
@@ -11497,14 +11504,14 @@
     </row>
     <row r="234" spans="3:10" ht="15">
       <c r="C234" s="69" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E234" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_02</v>
       </c>
       <c r="F234" s="69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H234" s="65">
         <f t="shared" si="9"/>
@@ -11517,14 +11524,14 @@
     </row>
     <row r="235" spans="3:10" ht="15">
       <c r="C235" s="69" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E235" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_03</v>
       </c>
       <c r="F235" s="69" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H235" s="65">
         <f t="shared" si="9"/>
@@ -11537,14 +11544,14 @@
     </row>
     <row r="236" spans="3:10" ht="15">
       <c r="C236" s="69" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E236" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_04</v>
       </c>
       <c r="F236" s="69" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H236" s="65">
         <f t="shared" si="9"/>
@@ -11557,14 +11564,14 @@
     </row>
     <row r="237" spans="3:10" ht="15">
       <c r="C237" s="69" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E237" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_05</v>
       </c>
       <c r="F237" s="69" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H237" s="65">
         <f t="shared" si="9"/>
@@ -11577,14 +11584,14 @@
     </row>
     <row r="238" spans="3:10" ht="15">
       <c r="C238" s="69" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E238" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_06</v>
       </c>
       <c r="F238" s="69" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H238" s="65">
         <f t="shared" si="9"/>
@@ -11597,14 +11604,14 @@
     </row>
     <row r="239" spans="3:10" ht="15">
       <c r="C239" s="69" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E239" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_07</v>
       </c>
       <c r="F239" s="69" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H239" s="65">
         <f t="shared" si="9"/>
@@ -11617,14 +11624,14 @@
     </row>
     <row r="240" spans="3:10" ht="15">
       <c r="C240" s="69" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E240" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_morning_01_08</v>
       </c>
       <c r="F240" s="69" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H240" s="65">
         <f t="shared" si="9"/>
@@ -11637,14 +11644,14 @@
     </row>
     <row r="241" spans="3:10" ht="15">
       <c r="C241" s="69" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E241" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01</v>
       </c>
       <c r="F241" s="69" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="H241" s="65">
         <f t="shared" si="9"/>
@@ -11657,14 +11664,14 @@
     </row>
     <row r="242" spans="3:10" ht="15">
       <c r="C242" s="69" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E242" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_01</v>
       </c>
       <c r="F242" s="69" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H242" s="65">
         <f t="shared" si="9"/>
@@ -11677,14 +11684,14 @@
     </row>
     <row r="243" spans="3:10" ht="15">
       <c r="C243" s="69" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E243" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_02</v>
       </c>
       <c r="F243" s="69" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H243" s="65">
         <f t="shared" si="9"/>
@@ -11697,14 +11704,14 @@
     </row>
     <row r="244" spans="3:10" ht="15">
       <c r="C244" s="69" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E244" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_nod_01_03</v>
       </c>
       <c r="F244" s="69" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="H244" s="65">
         <f t="shared" si="9"/>
@@ -11717,14 +11724,14 @@
     </row>
     <row r="245" spans="3:10" ht="15">
       <c r="C245" s="69" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E245" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_01</v>
       </c>
       <c r="F245" s="69" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H245" s="65">
         <f t="shared" si="9"/>
@@ -11737,14 +11744,14 @@
     </row>
     <row r="246" spans="3:10" ht="15">
       <c r="C246" s="69" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E246" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_02</v>
       </c>
       <c r="F246" s="69" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H246" s="65">
         <f t="shared" si="9"/>
@@ -11757,14 +11764,14 @@
     </row>
     <row r="247" spans="3:10" ht="15">
       <c r="C247" s="69" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E247" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_03</v>
       </c>
       <c r="F247" s="69" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H247" s="65">
         <f t="shared" si="9"/>
@@ -11777,14 +11784,14 @@
     </row>
     <row r="248" spans="3:10" ht="15">
       <c r="C248" s="69" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E248" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_down_04</v>
       </c>
       <c r="F248" s="69" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H248" s="65">
         <f t="shared" si="9"/>
@@ -11797,14 +11804,14 @@
     </row>
     <row r="249" spans="3:10" ht="15">
       <c r="C249" s="69" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E249" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_01</v>
       </c>
       <c r="F249" s="69" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H249" s="65">
         <f t="shared" si="9"/>
@@ -11817,14 +11824,14 @@
     </row>
     <row r="250" spans="3:10" ht="15">
       <c r="C250" s="69" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E250" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_02</v>
       </c>
       <c r="F250" s="69" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H250" s="65">
         <f t="shared" si="9"/>
@@ -11837,14 +11844,14 @@
     </row>
     <row r="251" spans="3:10" ht="15">
       <c r="C251" s="69" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E251" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_03</v>
       </c>
       <c r="F251" s="69" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H251" s="65">
         <f t="shared" si="9"/>
@@ -11857,14 +11864,14 @@
     </row>
     <row r="252" spans="3:10" ht="15">
       <c r="C252" s="69" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E252" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_04</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H252" s="65">
         <f t="shared" si="9"/>
@@ -11877,14 +11884,14 @@
     </row>
     <row r="253" spans="3:10" ht="15">
       <c r="C253" s="69" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E253" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H253" s="65">
         <f t="shared" si="9"/>
@@ -11897,14 +11904,14 @@
     </row>
     <row r="254" spans="3:10" ht="15">
       <c r="C254" s="69" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E254" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_01</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H254" s="65">
         <f t="shared" si="9"/>
@@ -11917,14 +11924,14 @@
     </row>
     <row r="255" spans="3:10" ht="15">
       <c r="C255" s="69" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E255" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_02</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H255" s="65">
         <f t="shared" si="9"/>
@@ -11937,14 +11944,14 @@
     </row>
     <row r="256" spans="3:10" ht="15">
       <c r="C256" s="69" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E256" s="69" t="str">
         <f t="shared" si="11"/>
         <v>pur_play_up_down_01_03</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H256" s="65">
         <f t="shared" si="9"/>
@@ -11957,14 +11964,14 @@
     </row>
     <row r="257" spans="3:10" ht="15">
       <c r="C257" s="69" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="E257" s="69" t="str">
         <f t="shared" si="11"/>
         <v>sansa_eat_act_01</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H257" s="65">
         <f t="shared" si="9"/>
@@ -11977,14 +11984,14 @@
     </row>
     <row r="258" spans="3:10" ht="15">
       <c r="C258" s="69" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E258" s="69" t="str">
         <f t="shared" si="11"/>
         <v>sansa_eat_act_02</v>
       </c>
       <c r="F258" s="69" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H258" s="65">
         <f t="shared" ref="H258:H321" si="12">COUNTIF(A:A,E258)</f>
@@ -11997,14 +12004,14 @@
     </row>
     <row r="259" spans="3:10" ht="15">
       <c r="C259" s="69" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="E259" s="69" t="str">
         <f t="shared" ref="E259:E321" si="14">MID(C259, FIND(" ",C259,33)+1, LEN(C259)-FIND(" ",C259,33) - 4)</f>
         <v>sansa_eat_act_03</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H259" s="65">
         <f t="shared" si="12"/>
@@ -12017,14 +12024,14 @@
     </row>
     <row r="260" spans="3:10" ht="15">
       <c r="C260" s="69" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E260" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_fail_01</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="H260" s="65">
         <f t="shared" si="12"/>
@@ -12037,14 +12044,14 @@
     </row>
     <row r="261" spans="3:10" ht="15">
       <c r="C261" s="69" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E261" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_01</v>
       </c>
       <c r="F261" s="69" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H261" s="65">
         <f t="shared" si="12"/>
@@ -12057,14 +12064,14 @@
     </row>
     <row r="262" spans="3:10" ht="15">
       <c r="C262" s="69" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E262" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_back_01</v>
       </c>
       <c r="F262" s="69" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H262" s="65">
         <f t="shared" si="12"/>
@@ -12077,14 +12084,14 @@
     </row>
     <row r="263" spans="3:10" ht="15">
       <c r="C263" s="69" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E263" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_guest_out_01</v>
       </c>
       <c r="F263" s="69" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H263" s="65">
         <f t="shared" si="12"/>
@@ -12097,14 +12104,14 @@
     </row>
     <row r="264" spans="3:10" ht="15">
       <c r="C264" s="69" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E264" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_host_01</v>
       </c>
       <c r="F264" s="69" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H264" s="65">
         <f t="shared" si="12"/>
@@ -12117,14 +12124,14 @@
     </row>
     <row r="265" spans="3:10" ht="15">
       <c r="C265" s="69" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E265" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_friend_search_01</v>
       </c>
       <c r="F265" s="69" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H265" s="65">
         <f t="shared" si="12"/>
@@ -12137,14 +12144,14 @@
     </row>
     <row r="266" spans="3:10" ht="15">
       <c r="C266" s="69" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E266" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_hello_01</v>
       </c>
       <c r="F266" s="69" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H266" s="65">
         <f t="shared" si="12"/>
@@ -12157,14 +12164,14 @@
     </row>
     <row r="267" spans="3:10" ht="15">
       <c r="C267" s="69" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E267" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_level_end_01</v>
       </c>
       <c r="F267" s="69" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H267" s="65">
         <f t="shared" si="12"/>
@@ -12177,14 +12184,14 @@
     </row>
     <row r="268" spans="3:10" ht="15">
       <c r="C268" s="69" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E268" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01</v>
       </c>
       <c r="F268" s="69" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H268" s="65">
         <f t="shared" si="12"/>
@@ -12197,14 +12204,14 @@
     </row>
     <row r="269" spans="3:10" ht="15">
       <c r="C269" s="69" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E269" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_01</v>
       </c>
       <c r="F269" s="69" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H269" s="65">
         <f t="shared" si="12"/>
@@ -12217,14 +12224,14 @@
     </row>
     <row r="270" spans="3:10" ht="15">
       <c r="C270" s="69" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E270" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_02</v>
       </c>
       <c r="F270" s="69" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H270" s="65">
         <f t="shared" si="12"/>
@@ -12237,14 +12244,14 @@
     </row>
     <row r="271" spans="3:10" ht="15">
       <c r="C271" s="69" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E271" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_03</v>
       </c>
       <c r="F271" s="69" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H271" s="65">
         <f t="shared" si="12"/>
@@ -12257,14 +12264,14 @@
     </row>
     <row r="272" spans="3:10" ht="15">
       <c r="C272" s="69" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E272" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_04</v>
       </c>
       <c r="F272" s="69" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H272" s="65">
         <f t="shared" si="12"/>
@@ -12277,14 +12284,14 @@
     </row>
     <row r="273" spans="3:10" ht="15">
       <c r="C273" s="69" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E273" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_05</v>
       </c>
       <c r="F273" s="69" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H273" s="65">
         <f t="shared" si="12"/>
@@ -12297,14 +12304,14 @@
     </row>
     <row r="274" spans="3:10" ht="15">
       <c r="C274" s="69" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E274" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_06</v>
       </c>
       <c r="F274" s="69" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H274" s="65">
         <f t="shared" si="12"/>
@@ -12317,14 +12324,14 @@
     </row>
     <row r="275" spans="3:10" ht="15">
       <c r="C275" s="69" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E275" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_07</v>
       </c>
       <c r="F275" s="69" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H275" s="65">
         <f t="shared" si="12"/>
@@ -12337,14 +12344,14 @@
     </row>
     <row r="276" spans="3:10" ht="15">
       <c r="C276" s="69" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E276" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_morning_01_08</v>
       </c>
       <c r="F276" s="69" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H276" s="65">
         <f t="shared" si="12"/>
@@ -12357,14 +12364,14 @@
     </row>
     <row r="277" spans="3:10" ht="15">
       <c r="C277" s="69" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="E277" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01</v>
       </c>
       <c r="F277" s="69" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H277" s="65">
         <f t="shared" si="12"/>
@@ -12377,14 +12384,14 @@
     </row>
     <row r="278" spans="3:10" ht="15">
       <c r="C278" s="69" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E278" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_01</v>
       </c>
       <c r="F278" s="69" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H278" s="65">
         <f t="shared" si="12"/>
@@ -12397,14 +12404,14 @@
     </row>
     <row r="279" spans="3:10" ht="15">
       <c r="C279" s="69" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="E279" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_02</v>
       </c>
       <c r="F279" s="69" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H279" s="65">
         <f t="shared" si="12"/>
@@ -12417,14 +12424,14 @@
     </row>
     <row r="280" spans="3:10" ht="15">
       <c r="C280" s="69" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="E280" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_nod_01_03</v>
       </c>
       <c r="F280" s="69" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H280" s="65">
         <f t="shared" si="12"/>
@@ -12437,14 +12444,14 @@
     </row>
     <row r="281" spans="3:10" ht="15">
       <c r="C281" s="69" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E281" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_01</v>
       </c>
       <c r="F281" s="69" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H281" s="65">
         <f t="shared" si="12"/>
@@ -12457,14 +12464,14 @@
     </row>
     <row r="282" spans="3:10" ht="15">
       <c r="C282" s="69" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E282" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_02</v>
       </c>
       <c r="F282" s="69" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H282" s="65">
         <f t="shared" si="12"/>
@@ -12477,14 +12484,14 @@
     </row>
     <row r="283" spans="3:10" ht="15">
       <c r="C283" s="69" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E283" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_03</v>
       </c>
       <c r="F283" s="69" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H283" s="65">
         <f t="shared" si="12"/>
@@ -12497,14 +12504,14 @@
     </row>
     <row r="284" spans="3:10" ht="15">
       <c r="C284" s="69" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E284" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_04</v>
       </c>
       <c r="F284" s="69" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H284" s="65">
         <f t="shared" si="12"/>
@@ -12517,14 +12524,14 @@
     </row>
     <row r="285" spans="3:10" ht="15">
       <c r="C285" s="69" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E285" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_down_05</v>
       </c>
       <c r="F285" s="69" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H285" s="65">
         <f t="shared" si="12"/>
@@ -12537,14 +12544,14 @@
     </row>
     <row r="286" spans="3:10" ht="15">
       <c r="C286" s="69" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E286" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_01</v>
       </c>
       <c r="F286" s="69" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H286" s="65">
         <f t="shared" si="12"/>
@@ -12557,14 +12564,14 @@
     </row>
     <row r="287" spans="3:10" ht="15">
       <c r="C287" s="69" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E287" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_02</v>
       </c>
       <c r="F287" s="69" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H287" s="65">
         <f t="shared" si="12"/>
@@ -12577,14 +12584,14 @@
     </row>
     <row r="288" spans="3:10" ht="15">
       <c r="C288" s="69" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E288" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_03</v>
       </c>
       <c r="F288" s="69" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H288" s="65">
         <f t="shared" si="12"/>
@@ -12597,14 +12604,14 @@
     </row>
     <row r="289" spans="3:10" ht="15">
       <c r="C289" s="69" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E289" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_04</v>
       </c>
       <c r="F289" s="69" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H289" s="65">
         <f t="shared" si="12"/>
@@ -12617,14 +12624,14 @@
     </row>
     <row r="290" spans="3:10" ht="15">
       <c r="C290" s="69" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E290" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_05</v>
       </c>
       <c r="F290" s="69" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H290" s="65">
         <f t="shared" si="12"/>
@@ -12637,14 +12644,14 @@
     </row>
     <row r="291" spans="3:10" ht="15">
       <c r="C291" s="69" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E291" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01</v>
       </c>
       <c r="F291" s="69" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H291" s="65">
         <f t="shared" si="12"/>
@@ -12657,14 +12664,14 @@
     </row>
     <row r="292" spans="3:10" ht="15">
       <c r="C292" s="69" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E292" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_01</v>
       </c>
       <c r="F292" s="69" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H292" s="65">
         <f t="shared" si="12"/>
@@ -12677,14 +12684,14 @@
     </row>
     <row r="293" spans="3:10" ht="15">
       <c r="C293" s="69" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E293" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_02</v>
       </c>
       <c r="F293" s="69" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H293" s="65">
         <f t="shared" si="12"/>
@@ -12697,14 +12704,14 @@
     </row>
     <row r="294" spans="3:10" ht="15">
       <c r="C294" s="69" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E294" s="69" t="str">
         <f t="shared" si="14"/>
         <v>san_play_up_down_01_03</v>
       </c>
       <c r="F294" s="69" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H294" s="65">
         <f t="shared" si="12"/>
@@ -12717,7 +12724,7 @@
     </row>
     <row r="295" spans="3:10" ht="15">
       <c r="C295" s="69" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E295" s="69" t="str">
         <f t="shared" si="14"/>
@@ -12737,14 +12744,14 @@
     </row>
     <row r="296" spans="3:10" ht="15">
       <c r="C296" s="69" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E296" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_01</v>
       </c>
       <c r="F296" s="69" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H296" s="65">
         <f t="shared" si="12"/>
@@ -12757,14 +12764,14 @@
     </row>
     <row r="297" spans="3:10" ht="15">
       <c r="C297" s="69" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E297" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_02</v>
       </c>
       <c r="F297" s="69" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H297" s="65">
         <f t="shared" si="12"/>
@@ -12777,14 +12784,14 @@
     </row>
     <row r="298" spans="3:10" ht="15">
       <c r="C298" s="69" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E298" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_eat_act_03</v>
       </c>
       <c r="F298" s="69" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H298" s="65">
         <f t="shared" si="12"/>
@@ -12797,14 +12804,14 @@
     </row>
     <row r="299" spans="3:10" ht="15">
       <c r="C299" s="69" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E299" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_fail_01</v>
       </c>
       <c r="F299" s="69" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H299" s="65">
         <f t="shared" si="12"/>
@@ -12817,14 +12824,14 @@
     </row>
     <row r="300" spans="3:10" ht="15">
       <c r="C300" s="69" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E300" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_01</v>
       </c>
       <c r="F300" s="69" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H300" s="65">
         <f t="shared" si="12"/>
@@ -12837,14 +12844,14 @@
     </row>
     <row r="301" spans="3:10" ht="15">
       <c r="C301" s="69" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E301" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_back_01</v>
       </c>
       <c r="F301" s="69" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H301" s="65">
         <f t="shared" si="12"/>
@@ -12857,14 +12864,14 @@
     </row>
     <row r="302" spans="3:10" ht="15">
       <c r="C302" s="69" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E302" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_out_01</v>
       </c>
       <c r="F302" s="69" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H302" s="65">
         <f t="shared" si="12"/>
@@ -12877,14 +12884,14 @@
     </row>
     <row r="303" spans="3:10" ht="15">
       <c r="C303" s="69" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E303" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_guest_out_02</v>
       </c>
       <c r="F303" s="69" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H303" s="65">
         <f t="shared" si="12"/>
@@ -12897,14 +12904,14 @@
     </row>
     <row r="304" spans="3:10" ht="15">
       <c r="C304" s="69" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E304" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_host_01</v>
       </c>
       <c r="F304" s="69" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H304" s="65">
         <f t="shared" si="12"/>
@@ -12917,14 +12924,14 @@
     </row>
     <row r="305" spans="3:10" ht="15">
       <c r="C305" s="69" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="E305" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_01</v>
       </c>
       <c r="F305" s="69" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H305" s="65">
         <f t="shared" si="12"/>
@@ -12937,14 +12944,14 @@
     </row>
     <row r="306" spans="3:10" ht="15">
       <c r="C306" s="69" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E306" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_02</v>
       </c>
       <c r="F306" s="69" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H306" s="65">
         <f t="shared" si="12"/>
@@ -12957,14 +12964,14 @@
     </row>
     <row r="307" spans="3:10" ht="15">
       <c r="C307" s="69" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E307" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_friend_search_01_03</v>
       </c>
       <c r="F307" s="69" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H307" s="65">
         <f t="shared" si="12"/>
@@ -12977,14 +12984,14 @@
     </row>
     <row r="308" spans="3:10" ht="15">
       <c r="C308" s="69" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E308" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_hello_01</v>
       </c>
       <c r="F308" s="69" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H308" s="65">
         <f t="shared" si="12"/>
@@ -12997,14 +13004,14 @@
     </row>
     <row r="309" spans="3:10" ht="15">
       <c r="C309" s="69" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="E309" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_level_end_01</v>
       </c>
       <c r="F309" s="69" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H309" s="65">
         <f t="shared" si="12"/>
@@ -13017,14 +13024,14 @@
     </row>
     <row r="310" spans="3:10" ht="15">
       <c r="C310" s="69" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="E310" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_01</v>
       </c>
       <c r="F310" s="69" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H310" s="65">
         <f t="shared" si="12"/>
@@ -13037,14 +13044,14 @@
     </row>
     <row r="311" spans="3:10" ht="15">
       <c r="C311" s="69" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="E311" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_02</v>
       </c>
       <c r="F311" s="69" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H311" s="65">
         <f t="shared" si="12"/>
@@ -13057,14 +13064,14 @@
     </row>
     <row r="312" spans="3:10" ht="15">
       <c r="C312" s="69" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E312" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_morning_01_03</v>
       </c>
       <c r="F312" s="69" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H312" s="65">
         <f t="shared" si="12"/>
@@ -13077,14 +13084,14 @@
     </row>
     <row r="313" spans="3:10" ht="15">
       <c r="C313" s="69" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E313" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_01</v>
       </c>
       <c r="F313" s="69" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H313" s="65">
         <f t="shared" si="12"/>
@@ -13097,14 +13104,14 @@
     </row>
     <row r="314" spans="3:10" ht="15">
       <c r="C314" s="69" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E314" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_02</v>
       </c>
       <c r="F314" s="69" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H314" s="65">
         <f t="shared" si="12"/>
@@ -13117,14 +13124,14 @@
     </row>
     <row r="315" spans="3:10" ht="15">
       <c r="C315" s="69" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="E315" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_nod_01_03</v>
       </c>
       <c r="F315" s="69" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H315" s="65">
         <f t="shared" si="12"/>
@@ -13137,14 +13144,14 @@
     </row>
     <row r="316" spans="3:10" ht="15">
       <c r="C316" s="69" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="E316" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_down_01_01</v>
       </c>
       <c r="F316" s="69" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H316" s="65">
         <f t="shared" si="12"/>
@@ -13157,14 +13164,14 @@
     </row>
     <row r="317" spans="3:10" ht="15">
       <c r="C317" s="69" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E317" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_down_01_02</v>
       </c>
       <c r="F317" s="69" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H317" s="65">
         <f t="shared" si="12"/>
@@ -13177,14 +13184,14 @@
     </row>
     <row r="318" spans="3:10" ht="15">
       <c r="C318" s="69" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="E318" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_01_01</v>
       </c>
       <c r="F318" s="69" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H318" s="65">
         <f t="shared" si="12"/>
@@ -13197,14 +13204,14 @@
     </row>
     <row r="319" spans="3:10" ht="15">
       <c r="C319" s="69" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="E319" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_01_02</v>
       </c>
       <c r="F319" s="69" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H319" s="65">
         <f t="shared" si="12"/>
@@ -13217,14 +13224,14 @@
     </row>
     <row r="320" spans="3:10" ht="15">
       <c r="C320" s="69" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="E320" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_down_01_01</v>
       </c>
       <c r="F320" s="69" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H320" s="65">
         <f t="shared" si="12"/>
@@ -13237,14 +13244,14 @@
     </row>
     <row r="321" spans="3:10" ht="15">
       <c r="C321" s="69" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E321" s="69" t="str">
         <f t="shared" si="14"/>
         <v>yoyo_play_up_down_01_02</v>
       </c>
       <c r="F321" s="69" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H321" s="65">
         <f t="shared" si="12"/>
@@ -13469,10 +13476,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23:J24"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13535,7 +13542,7 @@
       <c r="D3" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="44" t="s">
         <v>301</v>
       </c>
       <c r="G3" s="44" t="str">
@@ -13568,7 +13575,7 @@
       <c r="D4" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="44" t="s">
         <v>302</v>
       </c>
       <c r="G4" s="44" t="str">
@@ -13601,7 +13608,7 @@
       <c r="D5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="44" t="s">
         <v>303</v>
       </c>
       <c r="G5" s="44" t="str">
@@ -13634,7 +13641,7 @@
       <c r="D6" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="44" t="s">
         <v>304</v>
       </c>
       <c r="G6" s="44" t="str">
@@ -13667,7 +13674,7 @@
       <c r="D7" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="44" t="s">
         <v>305</v>
       </c>
       <c r="G7" s="44" t="str">
@@ -13700,7 +13707,7 @@
       <c r="D8" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G8" s="44" t="str">
@@ -13733,8 +13740,8 @@
       <c r="D9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>307</v>
+      <c r="E9" s="79" t="s">
+        <v>1000</v>
       </c>
       <c r="G9" s="44" t="str">
         <f t="shared" ref="G9" si="4">"&lt;Text Key="""&amp;A9&amp;""" Value="""&amp;B9&amp;""" /&gt;"</f>
@@ -13750,7 +13757,7 @@
       </c>
       <c r="J9" s="44" t="str">
         <f t="shared" ref="J9" si="7">"&lt;Text Key="""&amp;A9&amp;""" Value="""&amp;E9&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="达到等级可解锁" Value="レベル{0}でロック解除可能|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="达到等级可解锁" Value="レベル{0}でロック解除|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13766,8 +13773,8 @@
       <c r="D10" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>930</v>
+      <c r="E10" s="79" t="s">
+        <v>1001</v>
       </c>
       <c r="G10" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;B10&amp;""" /&gt;"</f>
@@ -13783,7 +13790,7 @@
       </c>
       <c r="J10" s="44" t="str">
         <f t="shared" ref="J10:J13" si="10">"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;E10&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="解锁宠物" Value="ふ化{0}|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="解锁宠物" Value="ロック解除{0}|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13799,8 +13806,8 @@
       <c r="D11" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>308</v>
+      <c r="E11" s="80" t="s">
+        <v>307</v>
       </c>
       <c r="G11" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A11&amp;""" Value="""&amp;B11&amp;""" /&gt;"</f>
@@ -13832,8 +13839,8 @@
       <c r="D12" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="73" t="s">
-        <v>309</v>
+      <c r="E12" s="79" t="s">
+        <v>1002</v>
       </c>
       <c r="G12" s="44" t="str">
         <f t="shared" ref="G12:G13" si="11">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;B12&amp;""" /&gt;"</f>
@@ -13849,7 +13856,7 @@
       </c>
       <c r="J12" s="44" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;Text Key="Feed_Sold_Out" Value="売り切れ|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="Feed_Sold_Out" Value="完売|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13865,8 +13872,8 @@
       <c r="D13" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="73" t="s">
-        <v>310</v>
+      <c r="E13" s="79" t="s">
+        <v>1003</v>
       </c>
       <c r="G13" s="44" t="str">
         <f t="shared" si="11"/>
@@ -13882,7 +13889,7 @@
       </c>
       <c r="J13" s="44" t="str">
         <f t="shared" si="10"/>
-        <v>&lt;Text Key="Feed_No_Coin" Value="コインが足りない|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="Feed_No_Coin" Value="コインが不足しています|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13898,8 +13905,8 @@
       <c r="D14" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="73" t="s">
-        <v>311</v>
+      <c r="E14" s="79" t="s">
+        <v>1004</v>
       </c>
       <c r="G14" s="44" t="str">
         <f t="shared" ref="G14" si="12">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;B14&amp;""" /&gt;"</f>
@@ -13915,7 +13922,7 @@
       </c>
       <c r="J14" s="44" t="str">
         <f t="shared" ref="J14" si="15">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;E14&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="退出下载" Value="DL中止|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="退出下载" Value="ダウンロードを中止する|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13931,8 +13938,8 @@
       <c r="D15" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="E15" s="73" t="s">
-        <v>312</v>
+      <c r="E15" s="79" t="s">
+        <v>1005</v>
       </c>
       <c r="G15" s="44" t="str">
         <f t="shared" ref="G15:G18" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
@@ -13948,24 +13955,24 @@
       </c>
       <c r="J15" s="44" t="str">
         <f t="shared" ref="J15:J18" si="19">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;E15&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="关卡进度" Value="進行状況|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="关卡进度" Value="進捗状況|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="45" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>939</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>940</v>
+        <v>933</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>934</v>
       </c>
       <c r="G16" s="44" t="str">
         <f t="shared" si="16"/>
@@ -13986,19 +13993,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="45" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>967</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>969</v>
+        <v>961</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>1006</v>
       </c>
       <c r="G17" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
@@ -14014,24 +14021,24 @@
       </c>
       <c r="J17" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;E17&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="已拥有" Value="持っている|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="已拥有" Value="所有済|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="45" t="s">
+        <v>956</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>960</v>
+      </c>
+      <c r="D18" s="44" t="s">
         <v>962</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>964</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>966</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>968</v>
-      </c>
-      <c r="E18" s="73" t="s">
-        <v>970</v>
+      <c r="E18" s="79" t="s">
+        <v>1007</v>
       </c>
       <c r="G18" s="44" t="str">
         <f t="shared" si="16"/>
@@ -14047,24 +14054,24 @@
       </c>
       <c r="J18" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>&lt;Text Key="加载中" Value="ダウンロード中|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="加载中" Value="ローディング|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="45" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>981</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>982</v>
+        <v>973</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>1008</v>
       </c>
       <c r="G19" s="44" t="str">
         <f t="shared" ref="G19" si="20">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;B19&amp;""" /&gt;"</f>
@@ -14080,24 +14087,24 @@
       </c>
       <c r="J19" s="44" t="str">
         <f t="shared" ref="J19" si="23">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;E19&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="喝水继续表情" Value="続行するには水を飲む～ ;)|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="喝水继续表情" Value="飲んで続ける～ ;)|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="45" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>987</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>988</v>
+        <v>978</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>979</v>
       </c>
       <c r="G20" s="44" t="str">
         <f t="shared" ref="G20" si="24">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;B20&amp;""" /&gt;"</f>
@@ -14118,19 +14125,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="45" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>993</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>998</v>
+        <v>984</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>989</v>
       </c>
       <c r="G21" s="44" t="str">
         <f t="shared" ref="G21" si="28">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;B21&amp;""" /&gt;"</f>
@@ -14151,19 +14158,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="45" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>999</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>997</v>
+        <v>990</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>988</v>
       </c>
       <c r="G22" s="44" t="str">
         <f t="shared" ref="G22" si="32">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;B22&amp;""" /&gt;"</f>
@@ -14184,19 +14191,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="45" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>999</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>1000</v>
+        <v>990</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>991</v>
       </c>
       <c r="G23" s="44" t="str">
         <f t="shared" ref="G23" si="36">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;B23&amp;""" /&gt;"</f>
@@ -14217,19 +14224,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="45" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>1008</v>
+        <v>998</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>999</v>
       </c>
       <c r="G24" s="44" t="str">
         <f t="shared" ref="G24" si="40">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;B24&amp;""" /&gt;"</f>
@@ -14356,16 +14363,16 @@
         <v>198</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
@@ -14419,19 +14426,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="48" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="G6" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;B6&amp;""" /&gt;"</f>
@@ -14759,7 +14766,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="63" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -17157,7 +17164,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="61" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B40" s="61" t="str">
         <f t="shared" ref="B40:B42" si="8">"CHS/"&amp;A40</f>
@@ -17194,7 +17201,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="61" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B41" s="61" t="str">
         <f t="shared" si="8"/>
@@ -17231,7 +17238,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="61" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B42" s="61" t="str">
         <f t="shared" si="8"/>
@@ -18791,7 +18798,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="61" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B85" s="61" t="str">
         <f t="shared" si="16"/>
@@ -18828,7 +18835,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="61" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B86" s="61" t="str">
         <f t="shared" si="16"/>
@@ -18865,7 +18872,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="61" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B87" s="61" t="str">
         <f t="shared" si="16"/>
@@ -18902,7 +18909,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="61" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B88" s="61" t="str">
         <f t="shared" si="16"/>
@@ -18939,7 +18946,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="61" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B89" s="61" t="str">
         <f t="shared" si="16"/>
@@ -18976,7 +18983,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="61" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B90" s="61" t="str">
         <f t="shared" ref="B90:B94" si="28">"CHS/"&amp;A90</f>
@@ -19013,7 +19020,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="61" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B91" s="61" t="str">
         <f t="shared" si="28"/>
@@ -19050,7 +19057,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="61" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B92" s="61" t="str">
         <f t="shared" si="28"/>
@@ -19087,7 +19094,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="61" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B93" s="61" t="str">
         <f t="shared" si="28"/>
@@ -19124,7 +19131,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="61" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B94" s="61" t="str">
         <f t="shared" si="28"/>
@@ -19537,13 +19544,13 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="63" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E106" s="63"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="61" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B107" s="61" t="str">
         <f t="shared" ref="B107" si="44">"CHS/"&amp;A107</f>
@@ -19580,7 +19587,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="61" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B108" s="61" t="str">
         <f t="shared" ref="B108:B117" si="52">"CHS/"&amp;A108</f>
@@ -19617,7 +19624,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="61" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B109" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19654,7 +19661,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="61" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B110" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19691,7 +19698,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="61" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B111" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19728,7 +19735,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="61" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B112" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19765,7 +19772,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="61" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B113" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19802,7 +19809,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="61" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B114" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19839,7 +19846,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="61" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B115" s="61" t="str">
         <f t="shared" ref="B115" si="60">"CHS/"&amp;A115</f>
@@ -19876,7 +19883,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="61" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B116" s="61" t="str">
         <f t="shared" si="52"/>
@@ -19913,7 +19920,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="61" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B117" s="61" t="str">
         <f t="shared" si="52"/>
@@ -20027,7 +20034,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="54.75" customHeight="1">
       <c r="B1" s="78" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -20070,7 +20077,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="61" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B4" s="61" t="str">
         <f>"CHS/"&amp;A4</f>
@@ -20107,7 +20114,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="61" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B5" s="61" t="str">
         <f t="shared" ref="B5:B68" si="4">"CHS/"&amp;A5</f>
@@ -20144,7 +20151,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="61" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B6" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20181,7 +20188,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="61" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B7" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20218,7 +20225,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="61" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B8" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20255,7 +20262,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="61" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B9" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20292,7 +20299,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="61" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B10" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20329,7 +20336,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="61" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B11" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20366,7 +20373,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="61" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B12" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20403,7 +20410,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="61" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B13" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20440,7 +20447,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="61" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B14" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20477,7 +20484,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="61" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B15" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20514,7 +20521,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="61" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B16" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20551,7 +20558,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="61" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B17" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20588,7 +20595,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="61" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B18" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20625,7 +20632,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="61" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B19" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20662,7 +20669,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="61" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B20" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20699,7 +20706,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="61" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B21" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20736,7 +20743,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="61" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B22" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20773,7 +20780,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="61" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B23" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20810,7 +20817,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="61" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B24" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20847,7 +20854,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="61" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B25" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20884,7 +20891,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="61" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B26" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20921,7 +20928,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="61" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B27" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20958,7 +20965,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="61" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B28" s="61" t="str">
         <f t="shared" si="4"/>
@@ -20995,7 +21002,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="61" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B29" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21032,7 +21039,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="61" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B30" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21069,7 +21076,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="61" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B31" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21106,7 +21113,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B32" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21143,7 +21150,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="61" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B33" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21180,7 +21187,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="61" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B34" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21217,7 +21224,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="61" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B35" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21254,7 +21261,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="61" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B36" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21291,7 +21298,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="61" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B37" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21328,7 +21335,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="61" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B38" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21365,7 +21372,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="61" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B39" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21402,7 +21409,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="61" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B40" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21439,7 +21446,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="61" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B41" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21476,7 +21483,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="61" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B42" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21513,7 +21520,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="61" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B43" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21550,7 +21557,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="61" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B44" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21587,7 +21594,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="61" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B45" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21624,7 +21631,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="61" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="B46" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21661,7 +21668,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="61" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="B47" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21698,7 +21705,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="61" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B48" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21735,7 +21742,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="61" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B49" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21772,7 +21779,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="61" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B50" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21809,7 +21816,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="61" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B51" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21846,7 +21853,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="61" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B52" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21883,7 +21890,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="61" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B53" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21920,7 +21927,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="61" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B54" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21957,7 +21964,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="61" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B55" s="61" t="str">
         <f t="shared" si="4"/>
@@ -21994,7 +22001,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="61" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B56" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22031,7 +22038,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="61" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B57" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22068,7 +22075,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="61" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B58" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22105,7 +22112,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="61" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B59" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22142,7 +22149,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="61" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B60" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22179,7 +22186,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="61" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B61" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22216,7 +22223,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="61" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B62" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22253,7 +22260,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="61" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B63" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22290,7 +22297,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="61" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B64" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22327,7 +22334,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="61" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B65" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22364,7 +22371,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="61" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B66" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22401,7 +22408,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="61" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B67" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22438,7 +22445,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="61" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B68" s="61" t="str">
         <f t="shared" si="4"/>
@@ -22475,7 +22482,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="61" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B69" s="61" t="str">
         <f t="shared" ref="B69:B132" si="12">"CHS/"&amp;A69</f>
@@ -22512,7 +22519,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="61" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B70" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22549,7 +22556,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="61" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B71" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22586,7 +22593,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="61" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B72" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22623,7 +22630,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="61" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B73" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22660,7 +22667,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="61" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B74" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22697,7 +22704,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="61" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B75" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22734,7 +22741,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="61" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B76" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22771,7 +22778,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="61" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B77" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22808,7 +22815,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="61" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B78" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22845,7 +22852,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="61" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B79" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22882,7 +22889,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="61" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B80" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22919,7 +22926,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="61" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B81" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22956,7 +22963,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="61" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B82" s="61" t="str">
         <f t="shared" si="12"/>
@@ -22993,7 +23000,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="61" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B83" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23030,7 +23037,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="61" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B84" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23067,7 +23074,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="61" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B85" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23104,7 +23111,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="61" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B86" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23141,7 +23148,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="61" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B87" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23178,7 +23185,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="61" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B88" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23215,7 +23222,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="61" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B89" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23252,7 +23259,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="61" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B90" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23289,7 +23296,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="61" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B91" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23326,7 +23333,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="61" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B92" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23363,7 +23370,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="61" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B93" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23400,7 +23407,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="61" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B94" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23437,7 +23444,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="61" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B95" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23474,7 +23481,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="61" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B96" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23511,7 +23518,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="61" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B97" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23548,7 +23555,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B98" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23585,7 +23592,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="61" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B99" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23622,7 +23629,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="61" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B100" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23659,7 +23666,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="61" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B101" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23696,7 +23703,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="61" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B102" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23733,7 +23740,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="61" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B103" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23770,7 +23777,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="61" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B104" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23807,7 +23814,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="61" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B105" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23844,7 +23851,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="61" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B106" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23881,7 +23888,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="61" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B107" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23918,7 +23925,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="61" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B108" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23955,7 +23962,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="61" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B109" s="61" t="str">
         <f t="shared" si="12"/>
@@ -23992,7 +23999,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="61" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B110" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24029,7 +24036,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="61" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B111" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24066,7 +24073,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="61" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B112" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24103,7 +24110,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="61" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B113" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24140,7 +24147,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="61" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B114" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24177,7 +24184,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="61" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B115" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24214,7 +24221,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="61" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B116" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24251,7 +24258,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="61" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B117" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24288,7 +24295,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="61" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B118" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24325,7 +24332,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="61" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B119" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24362,7 +24369,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="61" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B120" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24399,7 +24406,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="61" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B121" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24436,7 +24443,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="61" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B122" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24473,7 +24480,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="61" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B123" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24510,7 +24517,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="61" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B124" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24547,7 +24554,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="61" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B125" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24584,7 +24591,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="61" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B126" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24621,7 +24628,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="61" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B127" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24658,7 +24665,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="61" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B128" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24695,7 +24702,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="61" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B129" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24732,7 +24739,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B130" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24769,7 +24776,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="61" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B131" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24806,7 +24813,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="61" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B132" s="61" t="str">
         <f t="shared" si="12"/>
@@ -24843,7 +24850,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="61" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B133" s="61" t="str">
         <f t="shared" ref="B133:B196" si="20">"CHS/"&amp;A133</f>
@@ -24880,7 +24887,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="61" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B134" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24917,7 +24924,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="61" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B135" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24954,7 +24961,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="61" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B136" s="61" t="str">
         <f t="shared" si="20"/>
@@ -24991,7 +24998,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="61" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B137" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25028,7 +25035,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="61" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B138" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25065,7 +25072,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="61" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B139" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25102,7 +25109,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="61" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B140" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25139,7 +25146,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="61" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B141" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25176,7 +25183,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="61" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B142" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25213,7 +25220,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="61" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B143" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25250,7 +25257,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="61" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B144" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25287,7 +25294,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="61" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B145" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25324,7 +25331,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="61" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B146" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25361,7 +25368,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="61" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B147" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25398,7 +25405,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="61" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B148" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25435,7 +25442,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="61" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B149" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25472,7 +25479,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="61" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B150" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25509,7 +25516,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="61" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B151" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25546,7 +25553,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="61" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B152" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25583,7 +25590,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="61" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B153" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25620,7 +25627,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="61" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B154" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25657,7 +25664,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="61" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B155" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25694,7 +25701,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="61" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B156" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25731,7 +25738,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="61" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B157" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25768,7 +25775,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="61" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B158" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25805,7 +25812,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="61" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B159" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25842,7 +25849,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="61" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B160" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25879,7 +25886,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="61" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B161" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25916,7 +25923,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="61" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B162" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25953,7 +25960,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="61" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B163" s="61" t="str">
         <f t="shared" si="20"/>
@@ -25990,7 +25997,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="61" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B164" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26027,7 +26034,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="61" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B165" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26064,7 +26071,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="61" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B166" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26101,7 +26108,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="61" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B167" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26138,7 +26145,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="61" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B168" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26175,7 +26182,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="61" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B169" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26212,7 +26219,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="61" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B170" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26249,7 +26256,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="61" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B171" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26286,7 +26293,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="61" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B172" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26323,7 +26330,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="61" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B173" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26360,7 +26367,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="61" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B174" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26397,7 +26404,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="61" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B175" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26434,7 +26441,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="61" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B176" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26471,7 +26478,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="61" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B177" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26508,7 +26515,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="61" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B178" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26545,7 +26552,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="61" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B179" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26582,7 +26589,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="61" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B180" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26619,7 +26626,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="61" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B181" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26656,7 +26663,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="61" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B182" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26693,7 +26700,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="61" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B183" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26730,7 +26737,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="61" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B184" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26767,7 +26774,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="61" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B185" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26804,7 +26811,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="61" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B186" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26841,7 +26848,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="61" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B187" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26878,7 +26885,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="61" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B188" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26915,7 +26922,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="61" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B189" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26952,7 +26959,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="61" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B190" s="61" t="str">
         <f t="shared" si="20"/>
@@ -26989,7 +26996,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="61" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B191" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27026,7 +27033,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="61" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B192" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27063,7 +27070,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="61" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B193" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27100,7 +27107,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="61" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B194" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27137,7 +27144,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="61" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B195" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27174,7 +27181,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="61" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B196" s="61" t="str">
         <f t="shared" si="20"/>
@@ -27211,7 +27218,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="61" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B197" s="61" t="str">
         <f t="shared" ref="B197:B243" si="28">"CHS/"&amp;A197</f>
@@ -27248,7 +27255,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="61" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B198" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27285,7 +27292,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="61" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B199" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27322,7 +27329,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="61" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B200" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27359,7 +27366,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="61" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B201" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27396,7 +27403,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="61" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B202" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27433,7 +27440,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="61" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B203" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27470,7 +27477,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="61" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B204" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27507,7 +27514,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="61" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B205" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27544,7 +27551,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="61" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B206" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27581,7 +27588,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="61" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B207" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27618,7 +27625,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="61" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B208" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27655,7 +27662,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="61" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B209" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27692,7 +27699,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="61" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B210" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27729,7 +27736,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="61" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B211" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27766,7 +27773,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="61" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B212" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27803,7 +27810,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="61" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B213" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27840,7 +27847,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="61" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B214" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27877,7 +27884,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="61" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B215" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27914,7 +27921,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="61" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B216" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27951,7 +27958,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="61" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B217" s="61" t="str">
         <f t="shared" si="28"/>
@@ -27988,7 +27995,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="61" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B218" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28025,7 +28032,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="61" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B219" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28062,7 +28069,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="61" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B220" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28099,7 +28106,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="61" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B221" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28136,7 +28143,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="61" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B222" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28173,7 +28180,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="61" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B223" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28210,7 +28217,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="61" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B224" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28247,7 +28254,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="61" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B225" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28284,7 +28291,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="61" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B226" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28321,7 +28328,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="61" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B227" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28358,7 +28365,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="61" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B228" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28395,7 +28402,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="61" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B229" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28432,7 +28439,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="61" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B230" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28469,7 +28476,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="61" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B231" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28506,7 +28513,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="61" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B232" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28543,7 +28550,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="61" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B233" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28580,7 +28587,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="61" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B234" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28617,7 +28624,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="61" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B235" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28654,7 +28661,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="61" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B236" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28691,7 +28698,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="61" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B237" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28728,7 +28735,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="61" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B238" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28765,7 +28772,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="61" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B239" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28802,7 +28809,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="61" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B240" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28839,7 +28846,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="61" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B241" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28876,7 +28883,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="61" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B242" s="61" t="str">
         <f t="shared" si="28"/>
@@ -28913,7 +28920,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="61" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B243" s="61" t="str">
         <f t="shared" si="28"/>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -4104,10 +4104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Texture/PetFeed/View/limited_JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MyFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4273,6 +4269,10 @@
   </si>
   <si>
     <t>飲んで続ける～ ;)|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture/PetFeed/View/limited_jp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4806,6 +4806,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4817,12 +4823,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5913,7 +5913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -5987,7 +5987,7 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="75"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -6001,7 +6001,7 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="75"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="75"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -6029,7 +6029,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="75"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -6043,7 +6043,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="75"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="75"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -6071,7 +6071,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="75"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="75"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="75"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="75"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="75"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="75"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="75"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="78" t="s">
         <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -6341,7 +6341,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="76"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="16" t="s">
         <v>45</v>
       </c>
@@ -6357,7 +6357,7 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="30">
-      <c r="A27" s="76"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
@@ -6445,7 +6445,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13475,11 +13475,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13493,12 +13493,12 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="44"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="51" t="s">
@@ -13740,8 +13740,8 @@
       <c r="D9" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="79" t="s">
-        <v>1000</v>
+      <c r="E9" s="75" t="s">
+        <v>999</v>
       </c>
       <c r="G9" s="44" t="str">
         <f t="shared" ref="G9" si="4">"&lt;Text Key="""&amp;A9&amp;""" Value="""&amp;B9&amp;""" /&gt;"</f>
@@ -13773,8 +13773,8 @@
       <c r="D10" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="79" t="s">
-        <v>1001</v>
+      <c r="E10" s="75" t="s">
+        <v>1000</v>
       </c>
       <c r="G10" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A10&amp;""" Value="""&amp;B10&amp;""" /&gt;"</f>
@@ -13806,7 +13806,7 @@
       <c r="D11" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="76" t="s">
         <v>307</v>
       </c>
       <c r="G11" s="44" t="str">
@@ -13839,8 +13839,8 @@
       <c r="D12" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="79" t="s">
-        <v>1002</v>
+      <c r="E12" s="75" t="s">
+        <v>1001</v>
       </c>
       <c r="G12" s="44" t="str">
         <f t="shared" ref="G12:G13" si="11">"&lt;Text Key="""&amp;A12&amp;""" Value="""&amp;B12&amp;""" /&gt;"</f>
@@ -13872,8 +13872,8 @@
       <c r="D13" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="79" t="s">
-        <v>1003</v>
+      <c r="E13" s="75" t="s">
+        <v>1002</v>
       </c>
       <c r="G13" s="44" t="str">
         <f t="shared" si="11"/>
@@ -13905,8 +13905,8 @@
       <c r="D14" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="79" t="s">
-        <v>1004</v>
+      <c r="E14" s="75" t="s">
+        <v>1003</v>
       </c>
       <c r="G14" s="44" t="str">
         <f t="shared" ref="G14" si="12">"&lt;Text Key="""&amp;A14&amp;""" Value="""&amp;B14&amp;""" /&gt;"</f>
@@ -13938,8 +13938,8 @@
       <c r="D15" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="E15" s="79" t="s">
-        <v>1005</v>
+      <c r="E15" s="75" t="s">
+        <v>1004</v>
       </c>
       <c r="G15" s="44" t="str">
         <f t="shared" ref="G15:G18" si="16">"&lt;Text Key="""&amp;A15&amp;""" Value="""&amp;B15&amp;""" /&gt;"</f>
@@ -14004,8 +14004,8 @@
       <c r="D17" s="44" t="s">
         <v>961</v>
       </c>
-      <c r="E17" s="79" t="s">
-        <v>1006</v>
+      <c r="E17" s="75" t="s">
+        <v>1005</v>
       </c>
       <c r="G17" s="44" t="str">
         <f>"&lt;Text Key="""&amp;A17&amp;""" Value="""&amp;B17&amp;""" /&gt;"</f>
@@ -14037,8 +14037,8 @@
       <c r="D18" s="44" t="s">
         <v>962</v>
       </c>
-      <c r="E18" s="79" t="s">
-        <v>1007</v>
+      <c r="E18" s="75" t="s">
+        <v>1006</v>
       </c>
       <c r="G18" s="44" t="str">
         <f t="shared" si="16"/>
@@ -14059,19 +14059,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="45" t="s">
+        <v>971</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>973</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>972</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>974</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>975</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>973</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>1008</v>
+      <c r="E19" s="75" t="s">
+        <v>1007</v>
       </c>
       <c r="G19" s="44" t="str">
         <f t="shared" ref="G19" si="20">"&lt;Text Key="""&amp;A19&amp;""" Value="""&amp;B19&amp;""" /&gt;"</f>
@@ -14092,19 +14092,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="45" t="s">
+        <v>975</v>
+      </c>
+      <c r="B20" s="44" t="s">
         <v>976</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="C20" s="44" t="s">
+        <v>979</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>980</v>
-      </c>
-      <c r="D20" s="44" t="s">
+      <c r="E20" s="44" t="s">
         <v>978</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>979</v>
       </c>
       <c r="G20" s="44" t="str">
         <f t="shared" ref="G20" si="24">"&lt;Text Key="""&amp;A20&amp;""" Value="""&amp;B20&amp;""" /&gt;"</f>
@@ -14125,19 +14125,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>981</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="C21" s="44" t="s">
         <v>982</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="D21" s="44" t="s">
         <v>983</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>984</v>
-      </c>
       <c r="E21" s="44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G21" s="44" t="str">
         <f t="shared" ref="G21" si="28">"&lt;Text Key="""&amp;A21&amp;""" Value="""&amp;B21&amp;""" /&gt;"</f>
@@ -14158,19 +14158,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>985</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="C22" s="44" t="s">
         <v>986</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="D22" s="44" t="s">
+        <v>989</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>987</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>990</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>988</v>
       </c>
       <c r="G22" s="44" t="str">
         <f t="shared" ref="G22" si="32">"&lt;Text Key="""&amp;A22&amp;""" Value="""&amp;B22&amp;""" /&gt;"</f>
@@ -14191,19 +14191,19 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="45" t="s">
+        <v>991</v>
+      </c>
+      <c r="B23" s="44" t="s">
         <v>992</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="C23" s="44" t="s">
         <v>993</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>994</v>
-      </c>
       <c r="D23" s="44" t="s">
+        <v>989</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>990</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>991</v>
       </c>
       <c r="G23" s="44" t="str">
         <f t="shared" ref="G23" si="36">"&lt;Text Key="""&amp;A23&amp;""" Value="""&amp;B23&amp;""" /&gt;"</f>
@@ -14224,19 +14224,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="45" t="s">
+        <v>995</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>996</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="C24" s="44" t="s">
+        <v>994</v>
+      </c>
+      <c r="D24" s="44" t="s">
         <v>997</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="D24" s="44" t="s">
+      <c r="E24" s="44" t="s">
         <v>998</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>999</v>
       </c>
       <c r="G24" s="44" t="str">
         <f t="shared" ref="G24" si="40">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;B24&amp;""" /&gt;"</f>
@@ -14273,11 +14273,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14289,12 +14289,12 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="44"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="51" t="s">
@@ -14372,7 +14372,7 @@
         <v>965</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
       <c r="G4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;B4&amp;""" /&gt;"</f>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="J4" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A4&amp;""" Value="""&amp;E4&amp;""" /&gt;"</f>
-        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/View/limited_JP" /&gt;</v>
+        <v>&lt;Image Key="Feed_Prescribe" Value="Texture/PetFeed/View/limited_jp" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14426,19 +14426,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="48" t="s">
+        <v>966</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>967</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="C6" s="44" t="s">
         <v>968</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="44" t="s">
         <v>969</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="E6" s="44" t="s">
         <v>970</v>
-      </c>
-      <c r="E6" s="44" t="s">
-        <v>971</v>
       </c>
       <c r="G6" s="44" t="str">
         <f>"&lt;Image Key="""&amp;A6&amp;""" Value="""&amp;B6&amp;""" /&gt;"</f>
@@ -14493,12 +14493,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:10" s="43" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="51" t="s">
@@ -14727,12 +14727,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="62" t="s">
@@ -15788,12 +15788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="62" t="s">
@@ -20033,12 +20033,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54.75" customHeight="1">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>924</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="62" t="s">

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="页面统计" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1019">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4273,6 +4273,46 @@
   </si>
   <si>
     <t>Texture/PetFeed/View/limited_jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧水杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方系统过旧，不支持该表情。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對方系統過舊，不支持該表情。|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system of your friend's bottle is too old to support the emoji.|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相手のシステムが古いので、この表情はサポートされていません。|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出身地|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6445,7 +6485,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13473,13 +13513,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14253,6 +14293,72 @@
       <c r="J24" s="44" t="str">
         <f t="shared" ref="J24" si="43">"&lt;Text Key="""&amp;A24&amp;""" Value="""&amp;E24&amp;""" /&gt;"</f>
         <v>&lt;Text Key="系统消息" Value="システム|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="45" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G25" s="44" t="str">
+        <f t="shared" ref="G25" si="44">"&lt;Text Key="""&amp;A25&amp;""" Value="""&amp;B25&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="旧水杯" Value="对方系统过旧，不支持该表情。|HKHB" /&gt;</v>
+      </c>
+      <c r="H25" s="44" t="str">
+        <f t="shared" ref="H25" si="45">"&lt;Text Key="""&amp;A25&amp;""" Value="""&amp;C25&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="旧水杯" Value="對方系統過舊，不支持該表情。|DFPT" /&gt;</v>
+      </c>
+      <c r="I25" s="44" t="str">
+        <f t="shared" ref="I25" si="46">"&lt;Text Key="""&amp;A25&amp;""" Value="""&amp;D25&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="旧水杯" Value="The system of your friend's bottle is too old to support the emoji.|DFPT" /&gt;</v>
+      </c>
+      <c r="J25" s="44" t="str">
+        <f t="shared" ref="J25" si="47">"&lt;Text Key="""&amp;A25&amp;""" Value="""&amp;E25&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="旧水杯" Value="相手のシステムが古いので、この表情はサポートされていません。|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G26" s="44" t="str">
+        <f t="shared" ref="G26" si="48">"&lt;Text Key="""&amp;A26&amp;""" Value="""&amp;B26&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="来自" Value="来自|HKHB" /&gt;</v>
+      </c>
+      <c r="H26" s="44" t="str">
+        <f t="shared" ref="H26" si="49">"&lt;Text Key="""&amp;A26&amp;""" Value="""&amp;C26&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="来自" Value="來自|DFPT" /&gt;</v>
+      </c>
+      <c r="I26" s="44" t="str">
+        <f t="shared" ref="I26" si="50">"&lt;Text Key="""&amp;A26&amp;""" Value="""&amp;D26&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="来自" Value="From|DFPT" /&gt;</v>
+      </c>
+      <c r="J26" s="44" t="str">
+        <f t="shared" ref="J26" si="51">"&lt;Text Key="""&amp;A26&amp;""" Value="""&amp;E26&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="来自" Value="出身地|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -14273,7 +14379,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1024">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4313,6 +4313,26 @@
   </si>
   <si>
     <t>出身地|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定播种吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to plant the seed|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定种下这颗种子吗|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確定種下這棵種子嗎|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この種を植えることを確定しますか|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6485,7 +6505,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13513,13 +13533,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14359,6 +14379,39 @@
       <c r="J26" s="44" t="str">
         <f t="shared" ref="J26" si="51">"&lt;Text Key="""&amp;A26&amp;""" Value="""&amp;E26&amp;""" /&gt;"</f>
         <v>&lt;Text Key="来自" Value="出身地|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G27" s="44" t="str">
+        <f t="shared" ref="G27" si="52">"&lt;Text Key="""&amp;A27&amp;""" Value="""&amp;B27&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="确定播种吗" Value="确定种下这颗种子吗|HKHB" /&gt;</v>
+      </c>
+      <c r="H27" s="44" t="str">
+        <f t="shared" ref="H27" si="53">"&lt;Text Key="""&amp;A27&amp;""" Value="""&amp;C27&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="确定播种吗" Value="確定種下這棵種子嗎|DFPT" /&gt;</v>
+      </c>
+      <c r="I27" s="44" t="str">
+        <f t="shared" ref="I27" si="54">"&lt;Text Key="""&amp;A27&amp;""" Value="""&amp;D27&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="确定播种吗" Value="Are you sure to plant the seed|DFPT" /&gt;</v>
+      </c>
+      <c r="J27" s="44" t="str">
+        <f t="shared" ref="J27" si="55">"&lt;Text Key="""&amp;A27&amp;""" Value="""&amp;E27&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="确定播种吗" Value="この種を植えることを確定しますか|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1029">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4333,6 +4333,25 @@
   </si>
   <si>
     <t>この種を植えることを確定しますか|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟时间</t>
+  </si>
+  <si>
+    <t>成熟时间: {0}h|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟時間: {0}h|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maturation time: {0}h|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成熟した時間: {0}h|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13533,13 +13552,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14412,6 +14431,39 @@
       <c r="J27" s="44" t="str">
         <f t="shared" ref="J27" si="55">"&lt;Text Key="""&amp;A27&amp;""" Value="""&amp;E27&amp;""" /&gt;"</f>
         <v>&lt;Text Key="确定播种吗" Value="この種を植えることを確定しますか|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="45" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G28" s="44" t="str">
+        <f t="shared" ref="G28" si="56">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;B28&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="成熟时间" Value="成熟时间: {0}h|HKHB" /&gt;</v>
+      </c>
+      <c r="H28" s="44" t="str">
+        <f t="shared" ref="H28" si="57">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;C28&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="成熟时间" Value="成熟時間: {0}h|DFPT" /&gt;</v>
+      </c>
+      <c r="I28" s="44" t="str">
+        <f t="shared" ref="I28" si="58">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;D28&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="成熟时间" Value="Maturation time: {0}h|DFPT" /&gt;</v>
+      </c>
+      <c r="J28" s="44" t="str">
+        <f t="shared" ref="J28" si="59">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;E28&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="成熟时间" Value="成熟した時間: {0}h|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4347,11 +4347,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maturation time: {0}h|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成熟した時間: {0}h|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth time: {0}h|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13558,7 +13558,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14444,10 +14444,10 @@
         <v>1026</v>
       </c>
       <c r="D28" s="44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>1027</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>1028</v>
       </c>
       <c r="G28" s="44" t="str">
         <f t="shared" ref="G28" si="56">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;B28&amp;""" /&gt;"</f>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I28" s="44" t="str">
         <f t="shared" ref="I28" si="58">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;D28&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="成熟时间" Value="Maturation time: {0}h|DFPT" /&gt;</v>
+        <v>&lt;Text Key="成熟时间" Value="Growth time: {0}h|DFPT" /&gt;</v>
       </c>
       <c r="J28" s="44" t="str">
         <f t="shared" ref="J28" si="59">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;E28&amp;""" /&gt;"</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4351,7 +4351,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Growth time: {0}h|DFPT</t>
+    <t>Growth Time: {0}h|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5992,7 +5992,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13558,7 +13558,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14459,7 +14459,7 @@
       </c>
       <c r="I28" s="44" t="str">
         <f t="shared" ref="I28" si="58">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;D28&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="成熟时间" Value="Growth time: {0}h|DFPT" /&gt;</v>
+        <v>&lt;Text Key="成熟时间" Value="Growth Time: {0}h|DFPT" /&gt;</v>
       </c>
       <c r="J28" s="44" t="str">
         <f t="shared" ref="J28" si="59">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;E28&amp;""" /&gt;"</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1054">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4352,6 +4352,106 @@
   </si>
   <si>
     <t>Growth Time: {0}h|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水可再偷一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的时候|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的時候|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幫助你|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷了你的|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為你|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助你|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷了你的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷了你的|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为你|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watered|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stolen|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liked|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不在的时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>While you were away|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなたがいない時|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水を|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗んで|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポイント|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬上喝水就能再偷一次呦|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马上喝水就能再偷一次呦|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drink water right away and you'll steal it again|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぐに水を飲めば、もう一度盗めるよ|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13552,13 +13652,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14464,6 +14564,171 @@
       <c r="J28" s="44" t="str">
         <f t="shared" ref="J28" si="59">"&lt;Text Key="""&amp;A28&amp;""" Value="""&amp;E28&amp;""" /&gt;"</f>
         <v>&lt;Text Key="成熟时间" Value="成熟した時間: {0}h|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="45" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G29" s="44" t="str">
+        <f t="shared" ref="G29" si="60">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;B29&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水可再偷一次" Value="马上喝水就能再偷一次呦|HKHB" /&gt;</v>
+      </c>
+      <c r="H29" s="44" t="str">
+        <f t="shared" ref="H29" si="61">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;C29&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水可再偷一次" Value="馬上喝水就能再偷一次呦|DFPT" /&gt;</v>
+      </c>
+      <c r="I29" s="44" t="str">
+        <f t="shared" ref="I29" si="62">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;D29&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水可再偷一次" Value="Drink water right away and you'll steal it again|DFPT" /&gt;</v>
+      </c>
+      <c r="J29" s="44" t="str">
+        <f t="shared" ref="J29" si="63">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;E29&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水可再偷一次" Value="すぐに水を飲めば、もう一度盗めるよ|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="45" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G30" s="44" t="str">
+        <f t="shared" ref="G30:G33" si="64">"&lt;Text Key="""&amp;A30&amp;""" Value="""&amp;B30&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="你不在的时候" Value="你不在的时候|HKHB" /&gt;</v>
+      </c>
+      <c r="H30" s="44" t="str">
+        <f t="shared" ref="H30:H33" si="65">"&lt;Text Key="""&amp;A30&amp;""" Value="""&amp;C30&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="你不在的时候" Value="你不在的時候|DFPT" /&gt;</v>
+      </c>
+      <c r="I30" s="44" t="str">
+        <f t="shared" ref="I30:I33" si="66">"&lt;Text Key="""&amp;A30&amp;""" Value="""&amp;D30&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="你不在的时候" Value="While you were away|DFPT" /&gt;</v>
+      </c>
+      <c r="J30" s="44" t="str">
+        <f t="shared" ref="J30:J33" si="67">"&lt;Text Key="""&amp;A30&amp;""" Value="""&amp;E30&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="你不在的时候" Value="あなたがいない時|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="45" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G31" s="44" t="str">
+        <f t="shared" si="64"/>
+        <v>&lt;Text Key="帮助你" Value="帮助你|HKHB" /&gt;</v>
+      </c>
+      <c r="H31" s="44" t="str">
+        <f t="shared" si="65"/>
+        <v>&lt;Text Key="帮助你" Value="幫助你|DFPT" /&gt;</v>
+      </c>
+      <c r="I31" s="44" t="str">
+        <f t="shared" si="66"/>
+        <v>&lt;Text Key="帮助你" Value="watered|DFPT" /&gt;</v>
+      </c>
+      <c r="J31" s="44" t="str">
+        <f t="shared" si="67"/>
+        <v>&lt;Text Key="帮助你" Value="水を|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="45" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G32" s="44" t="str">
+        <f t="shared" si="64"/>
+        <v>&lt;Text Key="偷了你的" Value="偷了你的|HKHB" /&gt;</v>
+      </c>
+      <c r="H32" s="44" t="str">
+        <f t="shared" si="65"/>
+        <v>&lt;Text Key="偷了你的" Value="偷了你的|DFPT" /&gt;</v>
+      </c>
+      <c r="I32" s="44" t="str">
+        <f t="shared" si="66"/>
+        <v>&lt;Text Key="偷了你的" Value="stolen|DFPT" /&gt;</v>
+      </c>
+      <c r="J32" s="44" t="str">
+        <f t="shared" si="67"/>
+        <v>&lt;Text Key="偷了你的" Value="盗んで|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="45" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G33" s="44" t="str">
+        <f t="shared" si="64"/>
+        <v>&lt;Text Key="为你" Value="为你|HKHB" /&gt;</v>
+      </c>
+      <c r="H33" s="44" t="str">
+        <f t="shared" si="65"/>
+        <v>&lt;Text Key="为你" Value="為你|DFPT" /&gt;</v>
+      </c>
+      <c r="I33" s="44" t="str">
+        <f t="shared" si="66"/>
+        <v>&lt;Text Key="为你" Value="liked|DFPT" /&gt;</v>
+      </c>
+      <c r="J33" s="44" t="str">
+        <f t="shared" si="67"/>
+        <v>&lt;Text Key="为你" Value="ポイント|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1059">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4452,6 +4452,26 @@
   </si>
   <si>
     <t>すぐに水を飲めば、もう一度盗めるよ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计收益|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計收益|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earnings|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期待収益|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6092,7 +6112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13652,13 +13672,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14729,6 +14749,39 @@
       <c r="J33" s="44" t="str">
         <f t="shared" si="67"/>
         <v>&lt;Text Key="为你" Value="ポイント|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G34" s="44" t="str">
+        <f t="shared" ref="G34" si="68">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;B34&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="预计收益" Value="预计收益|HKHB" /&gt;</v>
+      </c>
+      <c r="H34" s="44" t="str">
+        <f t="shared" ref="H34" si="69">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;C34&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="预计收益" Value="預計收益|DFPT" /&gt;</v>
+      </c>
+      <c r="I34" s="44" t="str">
+        <f t="shared" ref="I34" si="70">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;D34&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="预计收益" Value="Earnings|DFPT" /&gt;</v>
+      </c>
+      <c r="J34" s="44" t="str">
+        <f t="shared" ref="J34" si="71">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;E34&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="预计收益" Value="期待収益|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4467,11 +4467,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Earnings|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期待収益|Pomeranian</t>
+    <t>Reward|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推定報酬|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6112,7 +6112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14777,11 +14777,11 @@
       </c>
       <c r="I34" s="44" t="str">
         <f t="shared" ref="I34" si="70">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;D34&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="预计收益" Value="Earnings|DFPT" /&gt;</v>
+        <v>&lt;Text Key="预计收益" Value="Reward|DFPT" /&gt;</v>
       </c>
       <c r="J34" s="44" t="str">
         <f t="shared" ref="J34" si="71">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;E34&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="预计收益" Value="期待収益|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="预计收益" Value="推定報酬|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1064">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4472,6 +4472,26 @@
   </si>
   <si>
     <t>推定報酬|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间未到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间还不到哦，晚点再来吧！|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間還不到哦，晚點再來吧！|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間がなくなってきました、後で戻\nってきてください！|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not now, please come \nback later!|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13672,13 +13692,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14782,6 +14802,39 @@
       <c r="J34" s="44" t="str">
         <f t="shared" ref="J34" si="71">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;E34&amp;""" /&gt;"</f>
         <v>&lt;Text Key="预计收益" Value="推定報酬|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G35" s="44" t="str">
+        <f t="shared" ref="G35" si="72">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;B35&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="时间未到" Value="时间还不到哦，晚点再来吧！|HKHB" /&gt;</v>
+      </c>
+      <c r="H35" s="44" t="str">
+        <f t="shared" ref="H35" si="73">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;C35&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="时间未到" Value="時間還不到哦，晚點再來吧！|DFPT" /&gt;</v>
+      </c>
+      <c r="I35" s="44" t="str">
+        <f t="shared" ref="I35" si="74">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;D35&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="时间未到" Value="Not now, please come \nback later!|DFPT" /&gt;</v>
+      </c>
+      <c r="J35" s="44" t="str">
+        <f t="shared" ref="J35" si="75">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;E35&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="时间未到" Value="時間がなくなってきました、後で戻\nってきてください！|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4447,14 +4447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drink water right away and you'll steal it again|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>すぐに水を飲めば、もう一度盗めるよ|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预计收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4492,6 +4484,14 @@
   </si>
   <si>
     <t>Not now, please come \nback later!|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drink water right away \nand you'll steal it again|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぐに水を飲めば、もう一度\n盗めるよ|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13698,7 +13698,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14617,10 +14617,10 @@
         <v>1050</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="G29" s="44" t="str">
         <f t="shared" ref="G29" si="60">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;B29&amp;""" /&gt;"</f>
@@ -14632,11 +14632,11 @@
       </c>
       <c r="I29" s="44" t="str">
         <f t="shared" ref="I29" si="62">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;D29&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="饮水可再偷一次" Value="Drink water right away and you'll steal it again|DFPT" /&gt;</v>
+        <v>&lt;Text Key="饮水可再偷一次" Value="Drink water right away \nand you'll steal it again|DFPT" /&gt;</v>
       </c>
       <c r="J29" s="44" t="str">
         <f t="shared" ref="J29" si="63">"&lt;Text Key="""&amp;A29&amp;""" Value="""&amp;E29&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="饮水可再偷一次" Value="すぐに水を飲めば、もう一度盗めるよ|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="饮水可再偷一次" Value="すぐに水を飲めば、もう一度\n盗めるよ|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -14773,19 +14773,19 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="45" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>1054</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="D34" s="44" t="s">
         <v>1055</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="E34" s="44" t="s">
         <v>1056</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>1058</v>
       </c>
       <c r="G34" s="44" t="str">
         <f t="shared" ref="G34" si="68">"&lt;Text Key="""&amp;A34&amp;""" Value="""&amp;B34&amp;""" /&gt;"</f>
@@ -14806,19 +14806,19 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>1059</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="D35" s="44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>1060</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>1062</v>
       </c>
       <c r="G35" s="44" t="str">
         <f t="shared" ref="G35" si="72">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;B35&amp;""" /&gt;"</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1069">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4492,6 +4492,26 @@
   </si>
   <si>
     <t>すぐに水を飲めば、もう一度\n盗めるよ|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田地扩大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的田地扩大啦！|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的田地擴大啦！|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your land has expanded!|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あなたの畑は広がっています！|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6132,7 +6152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13692,13 +13712,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14835,6 +14855,39 @@
       <c r="J35" s="44" t="str">
         <f t="shared" ref="J35" si="75">"&lt;Text Key="""&amp;A35&amp;""" Value="""&amp;E35&amp;""" /&gt;"</f>
         <v>&lt;Text Key="时间未到" Value="時間がなくなってきました、後で戻\nってきてください！|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G36" s="44" t="str">
+        <f t="shared" ref="G36" si="76">"&lt;Text Key="""&amp;A36&amp;""" Value="""&amp;B36&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="田地扩大" Value="你的田地扩大啦！|HKHB" /&gt;</v>
+      </c>
+      <c r="H36" s="44" t="str">
+        <f t="shared" ref="H36" si="77">"&lt;Text Key="""&amp;A36&amp;""" Value="""&amp;C36&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="田地扩大" Value="你的田地擴大啦！|DFPT" /&gt;</v>
+      </c>
+      <c r="I36" s="44" t="str">
+        <f t="shared" ref="I36" si="78">"&lt;Text Key="""&amp;A36&amp;""" Value="""&amp;D36&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="田地扩大" Value="Your land has expanded!|DFPT" /&gt;</v>
+      </c>
+      <c r="J36" s="44" t="str">
+        <f t="shared" ref="J36" si="79">"&lt;Text Key="""&amp;A36&amp;""" Value="""&amp;E36&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="田地扩大" Value="あなたの畑は広がっています！|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1074">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4512,6 +4512,26 @@
   </si>
   <si>
     <t>あなたの畑は広がっています！|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载App解锁庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载App，配对水杯才即可解锁庄园功能！|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載App，配對水杯即可解鎖莊園功能！|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download the app to unlock the Garden!|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アプリをダウンロードして、庭のロックを解除してください！|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6152,7 +6172,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6684,7 +6704,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13712,13 +13732,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14888,6 +14908,39 @@
       <c r="J36" s="44" t="str">
         <f t="shared" ref="J36" si="79">"&lt;Text Key="""&amp;A36&amp;""" Value="""&amp;E36&amp;""" /&gt;"</f>
         <v>&lt;Text Key="田地扩大" Value="あなたの畑は広がっています！|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G37" s="44" t="str">
+        <f t="shared" ref="G37" si="80">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;B37&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下载App解锁庄园" Value="下载App，配对水杯才即可解锁庄园功能！|HKHB" /&gt;</v>
+      </c>
+      <c r="H37" s="44" t="str">
+        <f t="shared" ref="H37" si="81">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;C37&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下载App解锁庄园" Value="下載App，配對水杯即可解鎖莊園功能！|DFPT" /&gt;</v>
+      </c>
+      <c r="I37" s="44" t="str">
+        <f t="shared" ref="I37" si="82">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;D37&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下载App解锁庄园" Value="Download the app to unlock the Garden!|DFPT" /&gt;</v>
+      </c>
+      <c r="J37" s="44" t="str">
+        <f t="shared" ref="J37" si="83">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;E37&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下载App解锁庄园" Value="アプリをダウンロードして、庭のロックを解除してください！|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1109">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4532,6 +4532,146 @@
   </si>
   <si>
     <t>アプリをダウンロードして、庭のロックを解除してください！|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲水提醒|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water drink reminder|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水を飲むリマインダー|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒已关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改提醒语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒已关闭|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reminder OFF|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アラームが閉じられました|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该设置从{0}生效，每隔{1}分钟提醒一次|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この設定は{0}から有効で、{1}分ごとに一回です。|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The setting will take effect from {0}, and works every {1} mins|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制语音标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制语音说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制语音提醒|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reminder Recorder|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ウォーターマークの録音|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没有语音呢，录制一段15S的语音提醒么？|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだ音声がありません。15 Sの音声リマインダを録音しますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No audio has been found, want to record a new reminder(15s)?|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖录音说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要覆盖当前录音么？|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to replace the current reminder?|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の録音を上書きしますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿扰说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reminder doesn't work within the below intervals, you can modify the setting on App.|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下の時間帯において、水を飲むときは作業しないように注意してください。|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以下时间内，饮水提醒不工作，请在App上的勿扰模式内更改设定。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲水提醒已關閉|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該設定從{0}生效，每隔{1}分鐘提醒一次 |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錄製語音提醒|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還沒有語音呢，錄製一段15S的語音提醒麼？ |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要覆蓋當前錄音麼？|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以下時間內，飲水提醒不工作，請在App上的勿擾模式內更改設定。 |DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5876,8 +6016,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E1048575" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A2:E1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E1048574" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A2:E1048574"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Key" dataDxfId="40"/>
     <tableColumn id="2" name="Chinese Simplified" dataDxfId="39"/>
@@ -6704,7 +6844,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13732,13 +13872,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36:J37"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14941,6 +15081,237 @@
       <c r="J37" s="44" t="str">
         <f t="shared" ref="J37" si="83">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;E37&amp;""" /&gt;"</f>
         <v>&lt;Text Key="下载App解锁庄园" Value="アプリをダウンロードして、庭のロックを解除してください！|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G38" s="44" t="str">
+        <f t="shared" ref="G38" si="84">"&lt;Text Key="""&amp;A38&amp;""" Value="""&amp;B38&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒" Value="饮水提醒|HKHB" /&gt;</v>
+      </c>
+      <c r="H38" s="44" t="str">
+        <f t="shared" ref="H38" si="85">"&lt;Text Key="""&amp;A38&amp;""" Value="""&amp;C38&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒" Value="飲水提醒|DFPT" /&gt;</v>
+      </c>
+      <c r="I38" s="44" t="str">
+        <f t="shared" ref="I38" si="86">"&lt;Text Key="""&amp;A38&amp;""" Value="""&amp;D38&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒" Value="Water drink reminder|DFPT" /&gt;</v>
+      </c>
+      <c r="J38" s="44" t="str">
+        <f t="shared" ref="J38" si="87">"&lt;Text Key="""&amp;A38&amp;""" Value="""&amp;E38&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒" Value="水を飲むリマインダー|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G39" s="44" t="str">
+        <f t="shared" ref="G39:G44" si="88">"&lt;Text Key="""&amp;A39&amp;""" Value="""&amp;B39&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒已关闭" Value="饮水提醒已关闭|HKHB" /&gt;</v>
+      </c>
+      <c r="H39" s="44" t="str">
+        <f t="shared" ref="H39:H44" si="89">"&lt;Text Key="""&amp;A39&amp;""" Value="""&amp;C39&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒已关闭" Value="飲水提醒已關閉|DFPT" /&gt;</v>
+      </c>
+      <c r="I39" s="44" t="str">
+        <f t="shared" ref="I39:I44" si="90">"&lt;Text Key="""&amp;A39&amp;""" Value="""&amp;D39&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒已关闭" Value="Reminder OFF|DFPT" /&gt;</v>
+      </c>
+      <c r="J39" s="44" t="str">
+        <f t="shared" ref="J39:J44" si="91">"&lt;Text Key="""&amp;A39&amp;""" Value="""&amp;E39&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒已关闭" Value="アラームが閉じられました|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G40" s="44" t="str">
+        <f t="shared" si="88"/>
+        <v>&lt;Text Key="修改提醒语音" Value="该设置从{0}生效，每隔{1}分钟提醒一次|HKHB" /&gt;</v>
+      </c>
+      <c r="H40" s="44" t="str">
+        <f t="shared" si="89"/>
+        <v>&lt;Text Key="修改提醒语音" Value="該設定從{0}生效，每隔{1}分鐘提醒一次 |DFPT" /&gt;</v>
+      </c>
+      <c r="I40" s="44" t="str">
+        <f t="shared" si="90"/>
+        <v>&lt;Text Key="修改提醒语音" Value="The setting will take effect from {0}, and works every {1} mins|DFPT" /&gt;</v>
+      </c>
+      <c r="J40" s="44" t="str">
+        <f t="shared" si="91"/>
+        <v>&lt;Text Key="修改提醒语音" Value="この設定は{0}から有効で、{1}分ごとに一回です。|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="45" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G41" s="44" t="str">
+        <f t="shared" si="88"/>
+        <v>&lt;Text Key="录制语音标题" Value="录制语音提醒|HKHB" /&gt;</v>
+      </c>
+      <c r="H41" s="44" t="str">
+        <f t="shared" si="89"/>
+        <v>&lt;Text Key="录制语音标题" Value="錄製語音提醒|DFPT" /&gt;</v>
+      </c>
+      <c r="I41" s="44" t="str">
+        <f t="shared" si="90"/>
+        <v>&lt;Text Key="录制语音标题" Value="Reminder Recorder|DFPT" /&gt;</v>
+      </c>
+      <c r="J41" s="44" t="str">
+        <f t="shared" si="91"/>
+        <v>&lt;Text Key="录制语音标题" Value="ウォーターマークの録音|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="45" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G42" s="44" t="str">
+        <f t="shared" si="88"/>
+        <v>&lt;Text Key="录制语音说明" Value="还没有语音呢，录制一段15S的语音提醒么？|HKHB" /&gt;</v>
+      </c>
+      <c r="H42" s="44" t="str">
+        <f t="shared" si="89"/>
+        <v>&lt;Text Key="录制语音说明" Value="還沒有語音呢，錄製一段15S的語音提醒麼？ |DFPT" /&gt;</v>
+      </c>
+      <c r="I42" s="44" t="str">
+        <f t="shared" si="90"/>
+        <v>&lt;Text Key="录制语音说明" Value="No audio has been found, want to record a new reminder(15s)?|DFPT" /&gt;</v>
+      </c>
+      <c r="J42" s="44" t="str">
+        <f t="shared" si="91"/>
+        <v>&lt;Text Key="录制语音说明" Value="まだ音声がありません。15 Sの音声リマインダを録音しますか？|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G43" s="44" t="str">
+        <f t="shared" si="88"/>
+        <v>&lt;Text Key="覆盖录音说明" Value="要覆盖当前录音么？|HKHB" /&gt;</v>
+      </c>
+      <c r="H43" s="44" t="str">
+        <f t="shared" si="89"/>
+        <v>&lt;Text Key="覆盖录音说明" Value="要覆蓋當前錄音麼？|DFPT" /&gt;</v>
+      </c>
+      <c r="I43" s="44" t="str">
+        <f t="shared" si="90"/>
+        <v>&lt;Text Key="覆盖录音说明" Value="Are you sure to replace the current reminder?|DFPT" /&gt;</v>
+      </c>
+      <c r="J43" s="44" t="str">
+        <f t="shared" si="91"/>
+        <v>&lt;Text Key="覆盖录音说明" Value="現在の録音を上書きしますか？|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G44" s="44" t="str">
+        <f t="shared" si="88"/>
+        <v>&lt;Text Key="勿扰说明" Value="在以下时间内，饮水提醒不工作，请在App上的勿扰模式内更改设定。|HKHB" /&gt;</v>
+      </c>
+      <c r="H44" s="44" t="str">
+        <f t="shared" si="89"/>
+        <v>&lt;Text Key="勿扰说明" Value="在以下時間內，飲水提醒不工作，請在App上的勿擾模式內更改設定。 |DFPT" /&gt;</v>
+      </c>
+      <c r="I44" s="44" t="str">
+        <f t="shared" si="90"/>
+        <v>&lt;Text Key="勿扰说明" Value="The reminder doesn't work within the below intervals, you can modify the setting on App.|DFPT" /&gt;</v>
+      </c>
+      <c r="J44" s="44" t="str">
+        <f t="shared" si="91"/>
+        <v>&lt;Text Key="勿扰说明" Value="以下の時間帯において、水を飲むときは作業しないように注意してください。|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1114">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4672,6 +4672,26 @@
   </si>
   <si>
     <t>在以下時間內，飲水提醒不工作，請在App上的勿擾模式內更改設定。 |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声已启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声已启用|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈴聲已啟用|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringtone enabled|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着信音が|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6312,7 +6332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6844,7 +6864,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13872,13 +13892,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15312,6 +15332,39 @@
       <c r="J44" s="44" t="str">
         <f t="shared" si="91"/>
         <v>&lt;Text Key="勿扰说明" Value="以下の時間帯において、水を飲むときは作業しないように注意してください。|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G45" s="44" t="str">
+        <f t="shared" ref="G45" si="92">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;B45&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="铃声已启用" Value="铃声已启用|HKHB" /&gt;</v>
+      </c>
+      <c r="H45" s="44" t="str">
+        <f t="shared" ref="H45" si="93">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;C45&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="铃声已启用" Value="鈴聲已啟用|DFPT" /&gt;</v>
+      </c>
+      <c r="I45" s="44" t="str">
+        <f t="shared" ref="I45" si="94">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;D45&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="铃声已启用" Value="Ringtone enabled|DFPT" /&gt;</v>
+      </c>
+      <c r="J45" s="44" t="str">
+        <f t="shared" ref="J45" si="95">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;E45&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="铃声已启用" Value="着信音が|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1119">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4627,14 +4627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Are you sure to replace the current reminder?|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在の録音を上書きしますか？|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>勿扰说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4692,6 +4684,34 @@
   </si>
   <si>
     <t>着信音が|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在录音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在录音|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在錄音|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recording|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>録音中|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to replace the \ncurrent reminder?|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の録音を上書き\nしますか？|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6864,7 +6884,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13892,13 +13912,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15144,7 +15164,7 @@
         <v>1081</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>1082</v>
@@ -15177,7 +15197,7 @@
         <v>1084</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D40" s="44" t="s">
         <v>1086</v>
@@ -15210,7 +15230,7 @@
         <v>1089</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D41" s="44" t="s">
         <v>1090</v>
@@ -15243,7 +15263,7 @@
         <v>1092</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D42" s="44" t="s">
         <v>1094</v>
@@ -15276,13 +15296,13 @@
         <v>1096</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>1098</v>
+        <v>1118</v>
       </c>
       <c r="G43" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15294,28 +15314,28 @@
       </c>
       <c r="I43" s="44" t="str">
         <f t="shared" si="90"/>
-        <v>&lt;Text Key="覆盖录音说明" Value="Are you sure to replace the current reminder?|DFPT" /&gt;</v>
+        <v>&lt;Text Key="覆盖录音说明" Value="Are you sure to replace the \ncurrent reminder?|DFPT" /&gt;</v>
       </c>
       <c r="J43" s="44" t="str">
         <f t="shared" si="91"/>
-        <v>&lt;Text Key="覆盖录音说明" Value="現在の録音を上書きしますか？|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="覆盖录音说明" Value="現在の録音を上書き\nしますか？|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="45" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E44" s="44" t="s">
         <v>1099</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>1101</v>
       </c>
       <c r="G44" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15336,19 +15356,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>1109</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="D45" s="44" t="s">
         <v>1110</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="E45" s="44" t="s">
         <v>1111</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>1113</v>
       </c>
       <c r="G45" s="44" t="str">
         <f t="shared" ref="G45" si="92">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;B45&amp;""" /&gt;"</f>
@@ -15365,6 +15385,39 @@
       <c r="J45" s="44" t="str">
         <f t="shared" ref="J45" si="95">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;E45&amp;""" /&gt;"</f>
         <v>&lt;Text Key="铃声已启用" Value="着信音が|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D46" s="44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G46" s="44" t="str">
+        <f t="shared" ref="G46" si="96">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="正在录音" Value="正在录音|HKHB" /&gt;</v>
+      </c>
+      <c r="H46" s="44" t="str">
+        <f t="shared" ref="H46" si="97">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;C46&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="正在录音" Value="正在錄音|DFPT" /&gt;</v>
+      </c>
+      <c r="I46" s="44" t="str">
+        <f t="shared" ref="I46" si="98">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;D46&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="正在录音" Value="Recording|DFPT" /&gt;</v>
+      </c>
+      <c r="J46" s="44" t="str">
+        <f t="shared" ref="J46" si="99">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;E46&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="正在录音" Value="録音中|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4575,10 +4575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该设置从{0}生效，每隔{1}分钟提醒一次|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>この設定は{0}から有効で、{1}分ごとに一回です。|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4647,10 +4643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>該設定從{0}生效，每隔{1}分鐘提醒一次 |DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>錄製語音提醒|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4712,6 +4704,14 @@
   </si>
   <si>
     <t>現在の録音を上書き\nしますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该设置从{0}生效，每隔\n{1}分钟提醒一次|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該設定從{0}生效，每隔\n{1}分鐘提醒一次 |DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6352,7 +6352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6884,7 +6884,7 @@
       <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="41.375" customWidth="1"/>
     <col min="2" max="2" width="1.625" style="69" customWidth="1"/>
@@ -13918,7 +13918,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15164,7 +15164,7 @@
         <v>1081</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>1082</v>
@@ -15194,24 +15194,24 @@
         <v>1080</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E40" s="44" t="s">
         <v>1084</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>1085</v>
       </c>
       <c r="G40" s="44" t="str">
         <f t="shared" si="88"/>
-        <v>&lt;Text Key="修改提醒语音" Value="该设置从{0}生效，每隔{1}分钟提醒一次|HKHB" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="该设置从{0}生效，每隔\n{1}分钟提醒一次|HKHB" /&gt;</v>
       </c>
       <c r="H40" s="44" t="str">
         <f t="shared" si="89"/>
-        <v>&lt;Text Key="修改提醒语音" Value="該設定從{0}生效，每隔{1}分鐘提醒一次 |DFPT" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="該設定從{0}生效，每隔\n{1}分鐘提醒一次 |DFPT" /&gt;</v>
       </c>
       <c r="I40" s="44" t="str">
         <f t="shared" si="90"/>
@@ -15224,19 +15224,19 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="45" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D41" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D41" s="44" t="s">
+      <c r="E41" s="44" t="s">
         <v>1090</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>1091</v>
       </c>
       <c r="G41" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15257,19 +15257,19 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="45" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E42" s="44" t="s">
         <v>1092</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>1093</v>
       </c>
       <c r="G42" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15290,19 +15290,19 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="45" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B43" s="44" t="s">
         <v>1095</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>1096</v>
-      </c>
       <c r="C43" s="44" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G43" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15323,19 +15323,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="45" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D44" s="44" t="s">
         <v>1097</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D44" s="44" t="s">
+      <c r="E44" s="44" t="s">
         <v>1098</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>1099</v>
       </c>
       <c r="G44" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15356,19 +15356,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="45" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>1107</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="D45" s="44" t="s">
         <v>1108</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="E45" s="44" t="s">
         <v>1109</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>1111</v>
       </c>
       <c r="G45" s="44" t="str">
         <f t="shared" ref="G45" si="92">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;B45&amp;""" /&gt;"</f>
@@ -15389,19 +15389,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="45" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>1112</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="D46" s="44" t="s">
         <v>1113</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="E46" s="44" t="s">
         <v>1114</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>1116</v>
       </c>
       <c r="G46" s="44" t="str">
         <f t="shared" ref="G46" si="96">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;"</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1124">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4712,6 +4712,26 @@
   </si>
   <si>
     <t>現在の録音を上書き\nしますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔{0}分钟提醒一次|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔{0}分鐘提醒一次|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}分おきに注意する|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind every {0} minutes|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6352,7 +6372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13912,13 +13932,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15418,6 +15438,39 @@
       <c r="J46" s="44" t="str">
         <f t="shared" ref="J46" si="99">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;E46&amp;""" /&gt;"</f>
         <v>&lt;Text Key="正在录音" Value="録音中|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="45" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G47" s="44" t="str">
+        <f t="shared" ref="G47" si="100">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;B47&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒间隔" Value="每隔{0}分钟提醒一次|HKHB" /&gt;</v>
+      </c>
+      <c r="H47" s="44" t="str">
+        <f t="shared" ref="H47" si="101">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;C47&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒间隔" Value="每隔{0}分鐘提醒一次|DFPT" /&gt;</v>
+      </c>
+      <c r="I47" s="44" t="str">
+        <f t="shared" ref="I47" si="102">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;D47&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒间隔" Value="Remind every {0} minutes|DFPT" /&gt;</v>
+      </c>
+      <c r="J47" s="44" t="str">
+        <f t="shared" ref="J47" si="103">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;E47&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="饮水提醒间隔" Value="{0}分おきに注意する|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1129">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4732,6 +4732,26 @@
   </si>
   <si>
     <t>該設定從{0}生效，每隔\n{1}分鐘提醒一次 |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该喝水啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该喝水啦|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該喝水啦|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水を飲もう|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to drink|DFPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6372,7 +6392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13932,7 +13952,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
@@ -15471,6 +15491,39 @@
       <c r="J47" s="44" t="str">
         <f t="shared" ref="J47" si="103">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;E47&amp;""" /&gt;"</f>
         <v>&lt;Text Key="饮水提醒间隔" Value="{0}分おきに注意する|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G48" s="44" t="str">
+        <f t="shared" ref="G48" si="104">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;B48&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="该喝水啦" Value="该喝水啦|HKHB" /&gt;</v>
+      </c>
+      <c r="H48" s="44" t="str">
+        <f t="shared" ref="H48" si="105">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;C48&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="该喝水啦" Value="該喝水啦|DFPT" /&gt;</v>
+      </c>
+      <c r="I48" s="44" t="str">
+        <f t="shared" ref="I48" si="106">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;D48&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="该喝水啦" Value="Time to drink|DFPT" /&gt;</v>
+      </c>
+      <c r="J48" s="44" t="str">
+        <f t="shared" ref="J48" si="107">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;E48&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="该喝水啦" Value="水を飲もう|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4575,14 +4575,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>この設定は{0}から有効で、{1}分ごとに一回です。|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The setting will take effect from {0}, and works every {1} mins|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>录制语音标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4599,159 +4591,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>还没有语音呢，录制一段15S的语音提醒么？|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まだ音声がありません。15 Sの音声リマインダを録音しますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No audio has been found, want to record a new reminder(15s)?|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖录音说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要覆盖当前录音么？|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿扰说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The reminder doesn't work within the below intervals, you can modify the setting on App.|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下の時間帯において、水を飲むときは作業しないように注意してください。|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以下时间内，饮水提醒不工作，请在App上的勿扰模式内更改设定。|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲水提醒已關閉|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錄製語音提醒|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還沒有語音呢，錄製一段15S的語音提醒麼？ |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要覆蓋當前錄音麼？|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在以下時間內，飲水提醒不工作，請在App上的勿擾模式內更改設定。 |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声已启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声已启用|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈴聲已啟用|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ringtone enabled|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着信音が|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在录音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在录音|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在錄音|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recording|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>録音中|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure to replace the \ncurrent reminder?|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の録音を上書き\nしますか？|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水提醒间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔{0}分钟提醒一次|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每隔{0}分鐘提醒一次|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}分おきに注意する|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remind every {0} minutes|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该喝水啦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该喝水啦|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該喝水啦|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水を飲もう|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time to drink|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool, we will remind you at [{0}] and every [{1}] mins after|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次提醒在[{0}]，每隔\n[{1}]分钟提醒一次|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次提醒在[{0}]，每隔\n[{1}]分鐘提醒一次 |DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ウォーターマークの録音|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>还没有语音呢，录制一段15S的语音提醒么？|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>まだ音声がありません。15 Sの音声リマインダを録音しますか？|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No audio has been found, want to record a new reminder(15s)?|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖录音说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要覆盖当前录音么？|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勿扰说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The reminder doesn't work within the below intervals, you can modify the setting on App.|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下の時間帯において、水を飲むときは作業しないように注意してください。|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在以下时间内，饮水提醒不工作，请在App上的勿扰模式内更改设定。|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飲水提醒已關閉|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>錄製語音提醒|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>還沒有語音呢，錄製一段15S的語音提醒麼？ |DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要覆蓋當前錄音麼？|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在以下時間內，飲水提醒不工作，請在App上的勿擾模式內更改設定。 |DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃声已启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃声已启用|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鈴聲已啟用|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ringtone enabled|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>着信音が|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在录音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在录音|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在錄音|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recording|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>録音中|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Are you sure to replace the \ncurrent reminder?|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現在の録音を上書き\nしますか？|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饮水提醒间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔{0}分钟提醒一次|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每隔{0}分鐘提醒一次|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}分おきに注意する|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remind every {0} minutes|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该设置从{0}生效，每隔\n{1}分钟提醒一次|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>該設定從{0}生效，每隔\n{1}分鐘提醒一次 |DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该喝水啦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该喝水啦|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>該喝水啦|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水を飲もう|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time to drink|DFPT</t>
+    <t>[{0}]と[{1}]分ごとにお知らせします|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6392,7 +6392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13958,7 +13958,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15204,7 +15204,7 @@
         <v>1081</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>1082</v>
@@ -15234,49 +15234,49 @@
         <v>1080</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>1085</v>
+        <v>1124</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>1084</v>
+        <v>1128</v>
       </c>
       <c r="G40" s="44" t="str">
         <f t="shared" si="88"/>
-        <v>&lt;Text Key="修改提醒语音" Value="该设置从{0}生效，每隔\n{1}分钟提醒一次|HKHB" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="下次提醒在[{0}]，每隔\n[{1}]分钟提醒一次|HKHB" /&gt;</v>
       </c>
       <c r="H40" s="44" t="str">
         <f t="shared" si="89"/>
-        <v>&lt;Text Key="修改提醒语音" Value="該設定從{0}生效，每隔\n{1}分鐘提醒一次 |DFPT" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="下次提醒在[{0}]，每隔\n[{1}]分鐘提醒一次 |DFPT" /&gt;</v>
       </c>
       <c r="I40" s="44" t="str">
         <f t="shared" si="90"/>
-        <v>&lt;Text Key="修改提醒语音" Value="The setting will take effect from {0}, and works every {1} mins|DFPT" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="Cool, we will remind you at [{0}] and every [{1}] mins after|DFPT" /&gt;</v>
       </c>
       <c r="J40" s="44" t="str">
         <f t="shared" si="91"/>
-        <v>&lt;Text Key="修改提醒语音" Value="この設定は{0}から有効で、{1}分ごとに一回です。|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="修改提醒语音" Value="[{0}]と[{1}]分ごとにお知らせします|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B41" s="44" t="s">
         <v>1086</v>
       </c>
-      <c r="B41" s="44" t="s">
-        <v>1088</v>
-      </c>
       <c r="C41" s="44" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>1090</v>
+        <v>1127</v>
       </c>
       <c r="G41" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15297,19 +15297,19 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="45" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G42" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15330,19 +15330,19 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="45" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G43" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15363,19 +15363,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="45" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>1099</v>
-      </c>
       <c r="C44" s="44" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G44" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15396,19 +15396,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="45" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D45" s="44" t="s">
         <v>1105</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="E45" s="44" t="s">
         <v>1106</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>1109</v>
       </c>
       <c r="G45" s="44" t="str">
         <f t="shared" ref="G45" si="92">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;B45&amp;""" /&gt;"</f>
@@ -15429,19 +15429,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D46" s="44" t="s">
         <v>1110</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="E46" s="44" t="s">
         <v>1111</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>1114</v>
       </c>
       <c r="G46" s="44" t="str">
         <f t="shared" ref="G46" si="96">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;"</f>
@@ -15462,19 +15462,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E47" s="44" t="s">
         <v>1117</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>1120</v>
       </c>
       <c r="G47" s="44" t="str">
         <f t="shared" ref="G47" si="100">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;B47&amp;""" /&gt;"</f>
@@ -15495,19 +15495,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="45" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G48" s="44" t="str">
         <f t="shared" ref="G48" si="104">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;B48&amp;""" /&gt;"</f>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1134">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4752,6 +4752,25 @@
   </si>
   <si>
     <t>[{0}]と[{1}]分ごとにお知らせします|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次饮水提醒时间</t>
+  </si>
+  <si>
+    <t>下次提醒{0:d2}:{1:d2}|HKHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次提醒{0:d2}:{1:d2}|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next time {0:d2}:{1:d2}|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次回注意する{0:d2}:{1:d2}|Pomeranian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6392,7 +6411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13952,13 +13971,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15524,6 +15543,39 @@
       <c r="J48" s="44" t="str">
         <f t="shared" ref="J48" si="107">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;E48&amp;""" /&gt;"</f>
         <v>&lt;Text Key="该喝水啦" Value="水を飲もう|Pomeranian" /&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="45" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G49" s="44" t="str">
+        <f t="shared" ref="G49" si="108">"&lt;Text Key="""&amp;A49&amp;""" Value="""&amp;B49&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下次饮水提醒时间" Value="下次提醒{0:d2}:{1:d2}|HKHB" /&gt;</v>
+      </c>
+      <c r="H49" s="44" t="str">
+        <f t="shared" ref="H49" si="109">"&lt;Text Key="""&amp;A49&amp;""" Value="""&amp;C49&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下次饮水提醒时间" Value="下次提醒{0:d2}:{1:d2}|DFPT" /&gt;</v>
+      </c>
+      <c r="I49" s="44" t="str">
+        <f t="shared" ref="I49" si="110">"&lt;Text Key="""&amp;A49&amp;""" Value="""&amp;D49&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下次饮水提醒时间" Value="Next time {0:d2}:{1:d2}|DFPT" /&gt;</v>
+      </c>
+      <c r="J49" s="44" t="str">
+        <f t="shared" ref="J49" si="111">"&lt;Text Key="""&amp;A49&amp;""" Value="""&amp;E49&amp;""" /&gt;"</f>
+        <v>&lt;Text Key="下次饮水提醒时间" Value="次回注意する{0:d2}:{1:d2}|Pomeranian" /&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/国际化数据配置.xlsx
+++ b/国际化数据配置.xlsx
@@ -4515,26 +4515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下载App解锁庄园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载App，配对水杯才即可解锁庄园功能！|HKHB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下載App，配對水杯即可解鎖莊園功能！|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download the app to unlock the Garden!|DFPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アプリをダウンロードして、庭のロックを解除してください！|Pomeranian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饮水提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4771,6 +4751,26 @@
   </si>
   <si>
     <t>次回注意する{0:d2}:{1:d2}|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载App解锁游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載App，配對水杯即可解鎖更多遊戲！|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download the app to unlock more games!|DFPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アプリをダウンロードして、より多くのゲームをアンロックしてください!|Pomeranian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载App，配对水杯即可解锁更多游戏！|HKHB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6411,7 +6411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13974,10 +13974,10 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15151,52 +15151,52 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="45" t="s">
-        <v>1069</v>
+        <v>1129</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>1070</v>
+        <v>1133</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>1071</v>
+        <v>1130</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>1072</v>
+        <v>1131</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>1073</v>
+        <v>1132</v>
       </c>
       <c r="G37" s="44" t="str">
         <f t="shared" ref="G37" si="80">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;B37&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="下载App解锁庄园" Value="下载App，配对水杯才即可解锁庄园功能！|HKHB" /&gt;</v>
+        <v>&lt;Text Key="下载App解锁游戏" Value="下载App，配对水杯即可解锁更多游戏！|HKHB" /&gt;</v>
       </c>
       <c r="H37" s="44" t="str">
         <f t="shared" ref="H37" si="81">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;C37&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="下载App解锁庄园" Value="下載App，配對水杯即可解鎖莊園功能！|DFPT" /&gt;</v>
+        <v>&lt;Text Key="下载App解锁游戏" Value="下載App，配對水杯即可解鎖更多遊戲！|DFPT" /&gt;</v>
       </c>
       <c r="I37" s="44" t="str">
         <f t="shared" ref="I37" si="82">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;D37&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="下载App解锁庄园" Value="Download the app to unlock the Garden!|DFPT" /&gt;</v>
+        <v>&lt;Text Key="下载App解锁游戏" Value="Download the app to unlock more games!|DFPT" /&gt;</v>
       </c>
       <c r="J37" s="44" t="str">
         <f t="shared" ref="J37" si="83">"&lt;Text Key="""&amp;A37&amp;""" Value="""&amp;E37&amp;""" /&gt;"</f>
-        <v>&lt;Text Key="下载App解锁庄园" Value="アプリをダウンロードして、庭のロックを解除してください！|Pomeranian" /&gt;</v>
+        <v>&lt;Text Key="下载App解锁游戏" Value="アプリをダウンロードして、より多くのゲームをアンロックしてください!|Pomeranian" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="45" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G38" s="44" t="str">
         <f t="shared" ref="G38" si="84">"&lt;Text Key="""&amp;A38&amp;""" Value="""&amp;B38&amp;""" /&gt;"</f>
@@ -15217,19 +15217,19 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="45" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="G39" s="44" t="str">
         <f t="shared" ref="G39:G44" si="88">"&lt;Text Key="""&amp;A39&amp;""" Value="""&amp;B39&amp;""" /&gt;"</f>
@@ -15250,19 +15250,19 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="45" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="G40" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15283,19 +15283,19 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="45" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="G41" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15316,19 +15316,19 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D42" s="44" t="s">
         <v>1085</v>
       </c>
-      <c r="B42" s="44" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>1090</v>
-      </c>
       <c r="E42" s="44" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="G42" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15349,19 +15349,19 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="45" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="G43" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15382,19 +15382,19 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="45" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B44" s="44" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>1101</v>
-      </c>
       <c r="D44" s="44" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G44" s="44" t="str">
         <f t="shared" si="88"/>
@@ -15415,19 +15415,19 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="45" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="G45" s="44" t="str">
         <f t="shared" ref="G45" si="92">"&lt;Text Key="""&amp;A45&amp;""" Value="""&amp;B45&amp;""" /&gt;"</f>
@@ -15448,19 +15448,19 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="45" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="G46" s="44" t="str">
         <f t="shared" ref="G46" si="96">"&lt;Text Key="""&amp;A46&amp;""" Value="""&amp;B46&amp;""" /&gt;"</f>
@@ -15481,19 +15481,19 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="45" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="G47" s="44" t="str">
         <f t="shared" ref="G47" si="100">"&lt;Text Key="""&amp;A47&amp;""" Value="""&amp;B47&amp;""" /&gt;"</f>
@@ -15514,19 +15514,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="45" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="G48" s="44" t="str">
         <f t="shared" ref="G48" si="104">"&lt;Text Key="""&amp;A48&amp;""" Value="""&amp;B48&amp;""" /&gt;"</f>
@@ -15547,19 +15547,19 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="45" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="G49" s="44" t="str">
         <f t="shared" ref="G49" si="108">"&lt;Text Key="""&amp;A49&amp;""" Value="""&amp;B49&amp;""" /&gt;"</f>
